--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fwxWork\MetPro\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\メトロス開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCA0DA-E738-4CDD-A39B-47A4DB366FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C5F70-1641-4059-98AE-37D32BD26381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取引成立台帳_テンプレート" sheetId="8" r:id="rId1"/>
@@ -19,17 +19,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">取引成立台帳_テンプレート!$AN$16:$AW$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">取引成立台帳_テンプレート!$A$1:$AY$81</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,37 +31,21 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>PC101</author>
-    <author>81902</author>
+    <author>ayane</author>
   </authors>
   <commentList>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{8C75BEDE-A8F5-409B-8EB0-B64A131AD35D}">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{C5A843E3-8642-4901-B2EC-3299CFF6F65E}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
+            <rFont val="MS P ゴシック"/>
             <family val="3"/>
             <charset val="128"/>
           </rPr>
           <t>物件区分を選択して下さい</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T40" authorId="1" shapeId="0" xr:uid="{5CA72638-71BD-498F-9F63-5DCA3B63198A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">通常は償却後の金額で地権者から保証金を承継する。償却せずに承継した場合は売上計上、賃借人へ敷金をそのまま返す場合は損益計上。
-</t>
         </r>
       </text>
     </comment>
@@ -79,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="145">
   <si>
     <t>年</t>
   </si>
@@ -557,13 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銀行</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支払い日</t>
     <rPh sb="0" eb="2">
       <t>シハラ</t>
@@ -683,19 +651,6 @@
   </si>
   <si>
     <t>$loanPeriodEndDate_DD$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$usance$分を毎月$paymentDay$までに支払う</t>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>マイツキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シハラ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -934,6 +889,22 @@
     <t>$otherExpenses$</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>$usance$分を毎月$paymentDay$日までに支払う</t>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マイツキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +913,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,14 +1076,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="HGP明朝B"/>
@@ -1143,13 +1106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐ明朝"/>
@@ -1169,6 +1125,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3177,11 +3141,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3189,7 +3153,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3841,11 +3805,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3921,11 +3885,11 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -4329,38 +4293,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5089,19 +5053,19 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.453125" style="7"/>
-    <col min="3" max="3" width="2.453125" style="7" customWidth="1"/>
-    <col min="4" max="49" width="2.453125" style="7"/>
-    <col min="50" max="50" width="2.453125" style="7" customWidth="1"/>
-    <col min="51" max="51" width="2.453125" style="5" customWidth="1"/>
-    <col min="52" max="53" width="2.453125" style="7"/>
-    <col min="54" max="55" width="13.36328125" style="7" customWidth="1"/>
-    <col min="56" max="56" width="2.453125" style="7" customWidth="1"/>
-    <col min="57" max="57" width="9.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.36328125" style="7" customWidth="1"/>
-    <col min="59" max="16384" width="2.453125" style="7"/>
+    <col min="1" max="2" width="2.5" style="7"/>
+    <col min="3" max="3" width="2.5" style="7" customWidth="1"/>
+    <col min="4" max="49" width="2.5" style="7"/>
+    <col min="50" max="50" width="2.5" style="7" customWidth="1"/>
+    <col min="51" max="51" width="2.5" style="5" customWidth="1"/>
+    <col min="52" max="53" width="2.5" style="7"/>
+    <col min="54" max="55" width="13.375" style="7" customWidth="1"/>
+    <col min="56" max="56" width="2.5" style="7" customWidth="1"/>
+    <col min="57" max="57" width="9.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.375" style="7" customWidth="1"/>
+    <col min="59" max="16384" width="2.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="12" customHeight="1">
@@ -5182,7 +5146,7 @@
       <c r="AI2" s="338"/>
       <c r="AJ2" s="338"/>
       <c r="AK2" s="339" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AL2" s="339"/>
       <c r="AM2" s="339"/>
@@ -5191,7 +5155,7 @@
       </c>
       <c r="AO2" s="320"/>
       <c r="AP2" s="340" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ2" s="340"/>
       <c r="AR2" s="320" t="s">
@@ -5199,7 +5163,7 @@
       </c>
       <c r="AS2" s="320"/>
       <c r="AT2" s="340" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AU2" s="340"/>
       <c r="AV2" s="320" t="s">
@@ -5570,7 +5534,7 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AL10" s="322" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM10" s="323"/>
       <c r="AN10" s="323"/>
@@ -5578,7 +5542,7 @@
       <c r="AP10" s="323"/>
       <c r="AQ10" s="323"/>
       <c r="AR10" s="326" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS10" s="327"/>
       <c r="AT10" s="327"/>
@@ -5682,7 +5646,7 @@
       <c r="F14" s="124"/>
       <c r="G14" s="125"/>
       <c r="H14" s="332" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I14" s="333"/>
       <c r="J14" s="333"/>
@@ -5774,7 +5738,7 @@
       <c r="F16" s="124"/>
       <c r="G16" s="125"/>
       <c r="H16" s="304" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I16" s="305"/>
       <c r="J16" s="305"/>
@@ -5797,7 +5761,7 @@
       <c r="Y16" s="124"/>
       <c r="Z16" s="125"/>
       <c r="AA16" s="310" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB16" s="311"/>
       <c r="AC16" s="311"/>
@@ -6112,7 +6076,7 @@
       <c r="F22" s="132"/>
       <c r="G22" s="132"/>
       <c r="H22" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="134"/>
       <c r="J22" s="134"/>
@@ -6147,7 +6111,7 @@
       <c r="AK22" s="140"/>
       <c r="AL22" s="289"/>
       <c r="AM22" s="290" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AN22" s="134"/>
       <c r="AO22" s="134"/>
@@ -6284,7 +6248,7 @@
       <c r="F24" s="132"/>
       <c r="G24" s="132"/>
       <c r="H24" s="133" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I24" s="134"/>
       <c r="J24" s="134"/>
@@ -6454,7 +6418,7 @@
       <c r="F26" s="253"/>
       <c r="G26" s="254"/>
       <c r="H26" s="151" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I26" s="152"/>
       <c r="J26" s="152"/>
@@ -6489,7 +6453,7 @@
       <c r="AK26" s="257"/>
       <c r="AL26" s="258"/>
       <c r="AM26" s="151" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN26" s="152"/>
       <c r="AO26" s="152"/>
@@ -6724,7 +6688,7 @@
       <c r="F29" s="168"/>
       <c r="G29" s="168"/>
       <c r="H29" s="133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="134"/>
       <c r="J29" s="134"/>
@@ -6892,7 +6856,7 @@
       <c r="F31" s="168"/>
       <c r="G31" s="168"/>
       <c r="H31" s="262" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I31" s="263"/>
       <c r="J31" s="263"/>
@@ -6925,7 +6889,7 @@
       </c>
       <c r="AJ31" s="270"/>
       <c r="AK31" s="267" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL31" s="267"/>
       <c r="AM31" s="267"/>
@@ -6935,7 +6899,7 @@
       </c>
       <c r="AP31" s="270"/>
       <c r="AQ31" s="267" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR31" s="267"/>
       <c r="AS31" s="267"/>
@@ -7068,7 +7032,7 @@
       <c r="F33" s="168"/>
       <c r="G33" s="168"/>
       <c r="H33" s="145" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I33" s="146"/>
       <c r="J33" s="146"/>
@@ -7093,13 +7057,13 @@
       <c r="AC33" s="146"/>
       <c r="AD33" s="146"/>
       <c r="AE33" s="240" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF33" s="241"/>
       <c r="AG33" s="241"/>
       <c r="AH33" s="242"/>
       <c r="AI33" s="274" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ33" s="275"/>
       <c r="AK33" s="275"/>
@@ -7240,7 +7204,7 @@
       <c r="F35" s="168"/>
       <c r="G35" s="168"/>
       <c r="H35" s="236" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I35" s="237"/>
       <c r="J35" s="237"/>
@@ -7255,7 +7219,7 @@
       <c r="Q35" s="241"/>
       <c r="R35" s="242"/>
       <c r="S35" s="237" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T35" s="237"/>
       <c r="U35" s="237"/>
@@ -7451,7 +7415,7 @@
       <c r="F38" s="168"/>
       <c r="G38" s="168"/>
       <c r="H38" s="230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="231"/>
       <c r="J38" s="232"/>
@@ -7470,7 +7434,7 @@
       </c>
       <c r="S38" s="184"/>
       <c r="T38" s="229" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U38" s="229"/>
       <c r="V38" s="229"/>
@@ -7498,7 +7462,7 @@
       <c r="AK38" s="85"/>
       <c r="AL38" s="86"/>
       <c r="AM38" s="213" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AN38" s="214"/>
       <c r="AO38" s="214"/>
@@ -7514,17 +7478,17 @@
       <c r="AW38" s="184"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BD38" s="5"/>
       <c r="BE38" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BF38" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
@@ -7597,7 +7561,7 @@
       <c r="F40" s="229"/>
       <c r="G40" s="229"/>
       <c r="H40" s="230" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="231"/>
       <c r="J40" s="232"/>
@@ -7622,7 +7586,7 @@
       <c r="V40" s="168"/>
       <c r="W40" s="168"/>
       <c r="X40" s="213" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y40" s="214"/>
       <c r="Z40" s="214"/>
@@ -7643,7 +7607,7 @@
       <c r="AK40" s="168"/>
       <c r="AL40" s="168"/>
       <c r="AM40" s="224" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN40" s="189"/>
       <c r="AO40" s="189"/>
@@ -7659,10 +7623,10 @@
       <c r="AW40" s="184"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BD40" s="5"/>
       <c r="BE40" s="5"/>
@@ -7721,10 +7685,10 @@
       <c r="AW41" s="163"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
@@ -7742,7 +7706,7 @@
       <c r="F42" s="168"/>
       <c r="G42" s="168"/>
       <c r="H42" s="213" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="214"/>
       <c r="J42" s="214"/>
@@ -7762,7 +7726,7 @@
       <c r="V42" s="168"/>
       <c r="W42" s="168"/>
       <c r="X42" s="213" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y42" s="214"/>
       <c r="Z42" s="214"/>
@@ -7855,7 +7819,7 @@
       <c r="B44" s="179"/>
       <c r="C44" s="180"/>
       <c r="D44" s="187" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="187"/>
       <c r="F44" s="187"/>
@@ -7866,7 +7830,7 @@
       <c r="I44" s="41"/>
       <c r="J44" s="90"/>
       <c r="K44" s="188" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L44" s="189"/>
       <c r="M44" s="189"/>
@@ -7879,13 +7843,13 @@
       </c>
       <c r="S44" s="193"/>
       <c r="T44" s="196" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U44" s="187"/>
       <c r="V44" s="187"/>
       <c r="W44" s="187"/>
       <c r="X44" s="213" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Y44" s="214"/>
       <c r="Z44" s="214"/>
@@ -8030,7 +7994,7 @@
       <c r="F46" s="168"/>
       <c r="G46" s="168"/>
       <c r="H46" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="59"/>
       <c r="J46" s="59"/>
@@ -8040,7 +8004,7 @@
       </c>
       <c r="M46" s="38"/>
       <c r="N46" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O46" s="62"/>
       <c r="P46" s="38" t="s">
@@ -8048,7 +8012,7 @@
       </c>
       <c r="Q46" s="38"/>
       <c r="R46" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S46" s="62"/>
       <c r="T46" s="38" t="s">
@@ -8060,7 +8024,7 @@
       </c>
       <c r="W46" s="205"/>
       <c r="X46" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y46" s="59"/>
       <c r="Z46" s="59"/>
@@ -8070,7 +8034,7 @@
       </c>
       <c r="AC46" s="38"/>
       <c r="AD46" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE46" s="62"/>
       <c r="AF46" s="38" t="s">
@@ -8078,7 +8042,7 @@
       </c>
       <c r="AG46" s="38"/>
       <c r="AH46" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="38" t="s">
@@ -8090,7 +8054,7 @@
         <v>39</v>
       </c>
       <c r="AN46" s="209" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AO46" s="209"/>
       <c r="AP46" s="209"/>
@@ -8276,7 +8240,7 @@
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
       <c r="M48" s="199" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N48" s="199"/>
       <c r="O48" s="199"/>
@@ -8297,7 +8261,7 @@
       <c r="Z48" s="44"/>
       <c r="AA48" s="45"/>
       <c r="AB48" s="156" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC48" s="157"/>
       <c r="AD48" s="157"/>
@@ -8493,7 +8457,7 @@
       <c r="J50" s="41"/>
       <c r="K50" s="41"/>
       <c r="L50" s="169" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M50" s="169"/>
       <c r="N50" s="169"/>
@@ -8501,9 +8465,7 @@
       <c r="P50" s="169"/>
       <c r="Q50" s="169"/>
       <c r="R50" s="169"/>
-      <c r="S50" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="S50" s="41"/>
       <c r="T50" s="41"/>
       <c r="U50" s="42"/>
       <c r="V50" s="43" t="s">
@@ -8515,7 +8477,7 @@
       <c r="Z50" s="44"/>
       <c r="AA50" s="45"/>
       <c r="AB50" s="171" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="AC50" s="172"/>
       <c r="AD50" s="172"/>
@@ -8912,7 +8874,7 @@
       <c r="J54" s="132"/>
       <c r="K54" s="132"/>
       <c r="L54" s="133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M54" s="134"/>
       <c r="N54" s="134"/>
@@ -8943,7 +8905,7 @@
       <c r="AK54" s="140"/>
       <c r="AL54" s="141"/>
       <c r="AM54" s="145" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AN54" s="146"/>
       <c r="AO54" s="146"/>
@@ -9022,7 +8984,7 @@
       <c r="J56" s="132"/>
       <c r="K56" s="132"/>
       <c r="L56" s="151" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M56" s="152"/>
       <c r="N56" s="152"/>
@@ -9278,7 +9240,7 @@
       <c r="F60" s="118"/>
       <c r="G60" s="119"/>
       <c r="H60" s="58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I60" s="59"/>
       <c r="J60" s="59"/>
@@ -9288,7 +9250,7 @@
       </c>
       <c r="M60" s="38"/>
       <c r="N60" s="62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O60" s="62"/>
       <c r="P60" s="38" t="s">
@@ -9296,7 +9258,7 @@
       </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S60" s="62"/>
       <c r="T60" s="38" t="s">
@@ -9312,7 +9274,7 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="42"/>
       <c r="AB60" s="58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC60" s="59"/>
       <c r="AD60" s="59"/>
@@ -9322,7 +9284,7 @@
       </c>
       <c r="AG60" s="38"/>
       <c r="AH60" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AI60" s="62"/>
       <c r="AJ60" s="38" t="s">
@@ -9330,7 +9292,7 @@
       </c>
       <c r="AK60" s="38"/>
       <c r="AL60" s="62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AM60" s="62"/>
       <c r="AN60" s="38" t="s">
@@ -9482,7 +9444,7 @@
     <row r="62" spans="1:100" ht="12" customHeight="1">
       <c r="A62" s="10"/>
       <c r="B62" s="117" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="118"/>
       <c r="D62" s="118"/>
@@ -9490,7 +9452,7 @@
       <c r="F62" s="118"/>
       <c r="G62" s="119"/>
       <c r="H62" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I62" s="59"/>
       <c r="J62" s="59"/>
@@ -9500,7 +9462,7 @@
       </c>
       <c r="M62" s="38"/>
       <c r="N62" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O62" s="62"/>
       <c r="P62" s="38" t="s">
@@ -9508,7 +9470,7 @@
       </c>
       <c r="Q62" s="38"/>
       <c r="R62" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S62" s="62"/>
       <c r="T62" s="38" t="s">
@@ -9516,7 +9478,7 @@
       </c>
       <c r="U62" s="38"/>
       <c r="V62" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W62" s="38"/>
       <c r="X62" s="38"/>
@@ -9524,7 +9486,7 @@
       <c r="Z62" s="38"/>
       <c r="AA62" s="38"/>
       <c r="AB62" s="59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC62" s="59"/>
       <c r="AD62" s="59"/>
@@ -9534,7 +9496,7 @@
       </c>
       <c r="AG62" s="38"/>
       <c r="AH62" s="62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AI62" s="62"/>
       <c r="AJ62" s="38" t="s">
@@ -9542,7 +9504,7 @@
       </c>
       <c r="AK62" s="38"/>
       <c r="AL62" s="62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM62" s="62"/>
       <c r="AN62" s="38" t="s">
@@ -9774,7 +9736,7 @@
       <c r="I65" s="41"/>
       <c r="J65" s="90"/>
       <c r="K65" s="92" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L65" s="93"/>
       <c r="M65" s="93"/>
@@ -9789,7 +9751,7 @@
       </c>
       <c r="U65" s="99"/>
       <c r="V65" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W65" s="41"/>
       <c r="X65" s="41"/>
@@ -9797,7 +9759,7 @@
       <c r="Z65" s="41"/>
       <c r="AA65" s="42"/>
       <c r="AB65" s="58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC65" s="59"/>
       <c r="AD65" s="59"/>
@@ -9807,7 +9769,7 @@
       </c>
       <c r="AG65" s="38"/>
       <c r="AH65" s="62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AI65" s="62"/>
       <c r="AJ65" s="38" t="s">
@@ -9815,7 +9777,7 @@
       </c>
       <c r="AK65" s="38"/>
       <c r="AL65" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AM65" s="62"/>
       <c r="AN65" s="38" t="s">
@@ -9938,7 +9900,7 @@
       <c r="I67" s="44"/>
       <c r="J67" s="108"/>
       <c r="K67" s="109" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L67" s="110"/>
       <c r="M67" s="110"/>
@@ -9953,7 +9915,7 @@
       </c>
       <c r="U67" s="113"/>
       <c r="V67" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W67" s="41"/>
       <c r="X67" s="41"/>
@@ -9961,7 +9923,7 @@
       <c r="Z67" s="41"/>
       <c r="AA67" s="42"/>
       <c r="AB67" s="58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AC67" s="59"/>
       <c r="AD67" s="59"/>
@@ -9971,7 +9933,7 @@
       </c>
       <c r="AG67" s="38"/>
       <c r="AH67" s="62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI67" s="62"/>
       <c r="AJ67" s="38" t="s">
@@ -9979,7 +9941,7 @@
       </c>
       <c r="AK67" s="38"/>
       <c r="AL67" s="62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM67" s="62"/>
       <c r="AN67" s="38" t="s">
@@ -10091,7 +10053,7 @@
     <row r="69" spans="1:98" ht="12" customHeight="1">
       <c r="A69" s="10"/>
       <c r="B69" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="65"/>
       <c r="D69" s="65"/>
@@ -10104,7 +10066,7 @@
       <c r="I69" s="69"/>
       <c r="J69" s="70"/>
       <c r="K69" s="74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L69" s="75"/>
       <c r="M69" s="75"/>
@@ -10272,7 +10234,7 @@
     <row r="72" spans="1:98" ht="12" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="85"/>
       <c r="D72" s="85"/>
@@ -10285,7 +10247,7 @@
       <c r="I72" s="41"/>
       <c r="J72" s="90"/>
       <c r="K72" s="92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L72" s="93"/>
       <c r="M72" s="93"/>
@@ -10300,7 +10262,7 @@
       </c>
       <c r="U72" s="99"/>
       <c r="V72" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W72" s="41"/>
       <c r="X72" s="41"/>
@@ -10308,7 +10270,7 @@
       <c r="Z72" s="41"/>
       <c r="AA72" s="42"/>
       <c r="AB72" s="58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC72" s="59"/>
       <c r="AD72" s="59"/>
@@ -10318,7 +10280,7 @@
       </c>
       <c r="AG72" s="38"/>
       <c r="AH72" s="62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI72" s="62"/>
       <c r="AJ72" s="38" t="s">
@@ -10326,7 +10288,7 @@
       </c>
       <c r="AK72" s="38"/>
       <c r="AL72" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AM72" s="62"/>
       <c r="AN72" s="38" t="s">
@@ -10589,7 +10551,7 @@
       <c r="F75" s="41"/>
       <c r="G75" s="42"/>
       <c r="H75" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I75" s="50"/>
       <c r="J75" s="50"/>
@@ -11563,7 +11525,7 @@
     <mergeCell ref="AL72:AM73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="13">
+  <dataValidations count="12">
     <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H33" xr:uid="{BC987319-AF04-4162-80E0-A75007C1F215}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S35:Y36" xr:uid="{E3A34ADF-C937-4A48-92A3-258BFF75CAAE}">
       <formula1>"住宅,店舗併用住宅,店舗,事務所,倉庫,工場,駐車場,その他,"</formula1>
@@ -11581,7 +11543,7 @@
       <formula1>"土地,戸建,アパート,マンション,テラスハウス,事務所,店舗,倉庫,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:T15" xr:uid="{B93D5AF7-77D7-4750-8794-45565EA1B848}">
-      <formula1>"居住用普通建物賃貸借,居住用定期建物賃貸借,事業用普通建物賃貸借,事業用定期建物賃貸借,駐車場賃貸借"</formula1>
+      <formula1>"居住用普通建物賃貸借,居住用定期建物賃貸借"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T38:W39" xr:uid="{9CBD899C-5E6C-4208-A2F6-2F4BC407D971}">
       <formula1>"敷  金,保証金"</formula1>
@@ -11591,9 +11553,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72" xr:uid="{CDA64CAA-907C-46DD-A09D-85C55882691D}">
       <formula1>"敷金返還金,保証金返還金"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L50:R51" xr:uid="{9E94BEE3-BAC4-43B0-A2C3-092A53769E00}">
-      <formula1>"$bank_displayName$,北陸,,横浜,三菱UFJ,きらぼし"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H38:J41" xr:uid="{43ABBA69-F25D-4DAC-8CE9-ADE6F54E2135}">
       <formula1>"月額,月額（税込）"</formula1>

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\メトロス開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C5F70-1641-4059-98AE-37D32BD26381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513EF87B-55CF-4A1D-9E87-293CEFCD0039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3161,6 +3161,780 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="27" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="33" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="28" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="23" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="44" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="7" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3169,40 +3943,388 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="59" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="56" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="60" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="47" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3239,1128 +4361,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="59" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="56" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="60" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="47" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="27" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="28" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="23" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="44" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="7" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="33" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5140,36 +5140,36 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="338" t="s">
+      <c r="AH2" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="338"/>
-      <c r="AJ2" s="338"/>
-      <c r="AK2" s="339" t="s">
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="339"/>
-      <c r="AM2" s="339"/>
-      <c r="AN2" s="320" t="s">
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="320"/>
-      <c r="AP2" s="340" t="s">
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="340"/>
-      <c r="AR2" s="320" t="s">
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="320"/>
-      <c r="AT2" s="340" t="s">
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="AU2" s="340"/>
-      <c r="AV2" s="320" t="s">
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="320"/>
+      <c r="AW2" s="66"/>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:70" ht="12" customHeight="1">
@@ -5200,22 +5200,22 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="338"/>
-      <c r="AI3" s="338"/>
-      <c r="AJ3" s="338"/>
-      <c r="AK3" s="339"/>
-      <c r="AL3" s="339"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="320"/>
-      <c r="AO3" s="320"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="340"/>
-      <c r="AR3" s="320"/>
-      <c r="AS3" s="320"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="340"/>
-      <c r="AV3" s="320"/>
-      <c r="AW3" s="320"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:70" ht="12" customHeight="1">
@@ -5310,214 +5310,214 @@
       <c r="BR5" s="5"/>
     </row>
     <row r="6" spans="1:70" ht="12" customHeight="1">
-      <c r="A6" s="321" t="s">
+      <c r="A6" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="321"/>
-      <c r="C6" s="321"/>
-      <c r="D6" s="321"/>
-      <c r="E6" s="321"/>
-      <c r="F6" s="321"/>
-      <c r="G6" s="321"/>
-      <c r="H6" s="321"/>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="321"/>
-      <c r="L6" s="321"/>
-      <c r="M6" s="321"/>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="321"/>
-      <c r="S6" s="321"/>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="321"/>
-      <c r="W6" s="321"/>
-      <c r="X6" s="321"/>
-      <c r="Y6" s="321"/>
-      <c r="Z6" s="321"/>
-      <c r="AA6" s="321"/>
-      <c r="AB6" s="321"/>
-      <c r="AC6" s="321"/>
-      <c r="AD6" s="321"/>
-      <c r="AE6" s="321"/>
-      <c r="AF6" s="321"/>
-      <c r="AG6" s="321"/>
-      <c r="AH6" s="321"/>
-      <c r="AI6" s="321"/>
-      <c r="AJ6" s="321"/>
-      <c r="AK6" s="321"/>
-      <c r="AL6" s="321"/>
-      <c r="AM6" s="321"/>
-      <c r="AN6" s="321"/>
-      <c r="AO6" s="321"/>
-      <c r="AP6" s="321"/>
-      <c r="AQ6" s="321"/>
-      <c r="AR6" s="321"/>
-      <c r="AS6" s="321"/>
-      <c r="AT6" s="321"/>
-      <c r="AU6" s="321"/>
-      <c r="AV6" s="321"/>
-      <c r="AW6" s="321"/>
-      <c r="AX6" s="321"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="67"/>
+      <c r="AI6" s="67"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="67"/>
+      <c r="AV6" s="67"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
     </row>
     <row r="7" spans="1:70" ht="12" customHeight="1">
-      <c r="A7" s="321"/>
-      <c r="B7" s="321"/>
-      <c r="C7" s="321"/>
-      <c r="D7" s="321"/>
-      <c r="E7" s="321"/>
-      <c r="F7" s="321"/>
-      <c r="G7" s="321"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="321"/>
-      <c r="J7" s="321"/>
-      <c r="K7" s="321"/>
-      <c r="L7" s="321"/>
-      <c r="M7" s="321"/>
-      <c r="N7" s="321"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="321"/>
-      <c r="Q7" s="321"/>
-      <c r="R7" s="321"/>
-      <c r="S7" s="321"/>
-      <c r="T7" s="321"/>
-      <c r="U7" s="321"/>
-      <c r="V7" s="321"/>
-      <c r="W7" s="321"/>
-      <c r="X7" s="321"/>
-      <c r="Y7" s="321"/>
-      <c r="Z7" s="321"/>
-      <c r="AA7" s="321"/>
-      <c r="AB7" s="321"/>
-      <c r="AC7" s="321"/>
-      <c r="AD7" s="321"/>
-      <c r="AE7" s="321"/>
-      <c r="AF7" s="321"/>
-      <c r="AG7" s="321"/>
-      <c r="AH7" s="321"/>
-      <c r="AI7" s="321"/>
-      <c r="AJ7" s="321"/>
-      <c r="AK7" s="321"/>
-      <c r="AL7" s="321"/>
-      <c r="AM7" s="321"/>
-      <c r="AN7" s="321"/>
-      <c r="AO7" s="321"/>
-      <c r="AP7" s="321"/>
-      <c r="AQ7" s="321"/>
-      <c r="AR7" s="321"/>
-      <c r="AS7" s="321"/>
-      <c r="AT7" s="321"/>
-      <c r="AU7" s="321"/>
-      <c r="AV7" s="321"/>
-      <c r="AW7" s="321"/>
-      <c r="AX7" s="321"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="67"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="67"/>
+      <c r="AQ7" s="67"/>
+      <c r="AR7" s="67"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="67"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="67"/>
+      <c r="AW7" s="67"/>
+      <c r="AX7" s="67"/>
     </row>
     <row r="8" spans="1:70" ht="12" customHeight="1">
-      <c r="A8" s="321"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="321"/>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
-      <c r="G8" s="321"/>
-      <c r="H8" s="321"/>
-      <c r="I8" s="321"/>
-      <c r="J8" s="321"/>
-      <c r="K8" s="321"/>
-      <c r="L8" s="321"/>
-      <c r="M8" s="321"/>
-      <c r="N8" s="321"/>
-      <c r="O8" s="321"/>
-      <c r="P8" s="321"/>
-      <c r="Q8" s="321"/>
-      <c r="R8" s="321"/>
-      <c r="S8" s="321"/>
-      <c r="T8" s="321"/>
-      <c r="U8" s="321"/>
-      <c r="V8" s="321"/>
-      <c r="W8" s="321"/>
-      <c r="X8" s="321"/>
-      <c r="Y8" s="321"/>
-      <c r="Z8" s="321"/>
-      <c r="AA8" s="321"/>
-      <c r="AB8" s="321"/>
-      <c r="AC8" s="321"/>
-      <c r="AD8" s="321"/>
-      <c r="AE8" s="321"/>
-      <c r="AF8" s="321"/>
-      <c r="AG8" s="321"/>
-      <c r="AH8" s="321"/>
-      <c r="AI8" s="321"/>
-      <c r="AJ8" s="321"/>
-      <c r="AK8" s="321"/>
-      <c r="AL8" s="321"/>
-      <c r="AM8" s="321"/>
-      <c r="AN8" s="321"/>
-      <c r="AO8" s="321"/>
-      <c r="AP8" s="321"/>
-      <c r="AQ8" s="321"/>
-      <c r="AR8" s="321"/>
-      <c r="AS8" s="321"/>
-      <c r="AT8" s="321"/>
-      <c r="AU8" s="321"/>
-      <c r="AV8" s="321"/>
-      <c r="AW8" s="321"/>
-      <c r="AX8" s="321"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
     </row>
     <row r="9" spans="1:70" ht="12" customHeight="1">
-      <c r="A9" s="321"/>
-      <c r="B9" s="321"/>
-      <c r="C9" s="321"/>
-      <c r="D9" s="321"/>
-      <c r="E9" s="321"/>
-      <c r="F9" s="321"/>
-      <c r="G9" s="321"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="321"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="321"/>
-      <c r="L9" s="321"/>
-      <c r="M9" s="321"/>
-      <c r="N9" s="321"/>
-      <c r="O9" s="321"/>
-      <c r="P9" s="321"/>
-      <c r="Q9" s="321"/>
-      <c r="R9" s="321"/>
-      <c r="S9" s="321"/>
-      <c r="T9" s="321"/>
-      <c r="U9" s="321"/>
-      <c r="V9" s="321"/>
-      <c r="W9" s="321"/>
-      <c r="X9" s="321"/>
-      <c r="Y9" s="321"/>
-      <c r="Z9" s="321"/>
-      <c r="AA9" s="321"/>
-      <c r="AB9" s="321"/>
-      <c r="AC9" s="321"/>
-      <c r="AD9" s="321"/>
-      <c r="AE9" s="321"/>
-      <c r="AF9" s="321"/>
-      <c r="AG9" s="321"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="321"/>
-      <c r="AJ9" s="321"/>
-      <c r="AK9" s="321"/>
-      <c r="AL9" s="321"/>
-      <c r="AM9" s="321"/>
-      <c r="AN9" s="321"/>
-      <c r="AO9" s="321"/>
-      <c r="AP9" s="321"/>
-      <c r="AQ9" s="321"/>
-      <c r="AR9" s="321"/>
-      <c r="AS9" s="321"/>
-      <c r="AT9" s="321"/>
-      <c r="AU9" s="321"/>
-      <c r="AV9" s="321"/>
-      <c r="AW9" s="321"/>
-      <c r="AX9" s="321"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
     </row>
     <row r="10" spans="1:70" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
@@ -5533,22 +5533,22 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AL10" s="322" t="s">
+      <c r="AL10" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AM10" s="323"/>
-      <c r="AN10" s="323"/>
-      <c r="AO10" s="323"/>
-      <c r="AP10" s="323"/>
-      <c r="AQ10" s="323"/>
-      <c r="AR10" s="326" t="s">
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="AS10" s="327"/>
-      <c r="AT10" s="327"/>
-      <c r="AU10" s="327"/>
-      <c r="AV10" s="327"/>
-      <c r="AW10" s="328"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="74"/>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:70" ht="12.75" customHeight="1">
@@ -5565,18 +5565,18 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
-      <c r="AL11" s="324"/>
-      <c r="AM11" s="325"/>
-      <c r="AN11" s="325"/>
-      <c r="AO11" s="325"/>
-      <c r="AP11" s="325"/>
-      <c r="AQ11" s="325"/>
-      <c r="AR11" s="329"/>
-      <c r="AS11" s="330"/>
-      <c r="AT11" s="330"/>
-      <c r="AU11" s="330"/>
-      <c r="AV11" s="330"/>
-      <c r="AW11" s="331"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="77"/>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:70" ht="12" customHeight="1">
@@ -5637,29 +5637,29 @@
     </row>
     <row r="14" spans="1:70" ht="12" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="332" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="333"/>
-      <c r="J14" s="333"/>
-      <c r="K14" s="333"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="333"/>
-      <c r="R14" s="333"/>
-      <c r="S14" s="333"/>
-      <c r="T14" s="334"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="80"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -5682,25 +5682,25 @@
     </row>
     <row r="15" spans="1:70" ht="12" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="301"/>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="335"/>
-      <c r="I15" s="336"/>
-      <c r="J15" s="336"/>
-      <c r="K15" s="336"/>
-      <c r="L15" s="336"/>
-      <c r="M15" s="336"/>
-      <c r="N15" s="336"/>
-      <c r="O15" s="336"/>
-      <c r="P15" s="336"/>
-      <c r="Q15" s="336"/>
-      <c r="R15" s="336"/>
-      <c r="S15" s="336"/>
-      <c r="T15" s="337"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -5729,400 +5729,400 @@
     </row>
     <row r="16" spans="1:70" ht="12" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="304" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="305"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="305"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="123" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="310" t="s">
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AB16" s="311"/>
-      <c r="AC16" s="311"/>
-      <c r="AD16" s="311"/>
-      <c r="AE16" s="311"/>
-      <c r="AF16" s="311"/>
-      <c r="AG16" s="311"/>
-      <c r="AH16" s="311"/>
-      <c r="AI16" s="311"/>
-      <c r="AJ16" s="311"/>
-      <c r="AK16" s="311"/>
-      <c r="AL16" s="311"/>
-      <c r="AM16" s="312"/>
-      <c r="AN16" s="40" t="s">
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="316" t="s">
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="AU16" s="316"/>
-      <c r="AV16" s="316"/>
-      <c r="AW16" s="317"/>
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="63"/>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:85" ht="12" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="308"/>
-      <c r="J17" s="308"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="308"/>
-      <c r="M17" s="308"/>
-      <c r="N17" s="308"/>
-      <c r="O17" s="308"/>
-      <c r="P17" s="308"/>
-      <c r="Q17" s="308"/>
-      <c r="R17" s="308"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="309"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="302"/>
-      <c r="X17" s="302"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="303"/>
-      <c r="AA17" s="313"/>
-      <c r="AB17" s="314"/>
-      <c r="AC17" s="314"/>
-      <c r="AD17" s="314"/>
-      <c r="AE17" s="314"/>
-      <c r="AF17" s="314"/>
-      <c r="AG17" s="314"/>
-      <c r="AH17" s="314"/>
-      <c r="AI17" s="314"/>
-      <c r="AJ17" s="314"/>
-      <c r="AK17" s="314"/>
-      <c r="AL17" s="314"/>
-      <c r="AM17" s="315"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="318"/>
-      <c r="AU17" s="318"/>
-      <c r="AV17" s="318"/>
-      <c r="AW17" s="319"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="65"/>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:85" ht="12" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="291" t="s">
+      <c r="B18" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="292"/>
-      <c r="D18" s="132" t="s">
+      <c r="C18" s="111"/>
+      <c r="D18" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="145" t="s">
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="295"/>
-      <c r="AJ18" s="296"/>
-      <c r="AK18" s="296"/>
-      <c r="AL18" s="297"/>
-      <c r="AM18" s="290"/>
-      <c r="AN18" s="134"/>
-      <c r="AO18" s="134"/>
-      <c r="AP18" s="134"/>
-      <c r="AQ18" s="134"/>
-      <c r="AR18" s="134"/>
-      <c r="AS18" s="134"/>
-      <c r="AT18" s="134"/>
-      <c r="AU18" s="134"/>
-      <c r="AV18" s="134"/>
-      <c r="AW18" s="261"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="115"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="115"/>
+      <c r="X18" s="115"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="115"/>
+      <c r="AA18" s="115"/>
+      <c r="AB18" s="115"/>
+      <c r="AC18" s="115"/>
+      <c r="AD18" s="115"/>
+      <c r="AE18" s="115"/>
+      <c r="AF18" s="115"/>
+      <c r="AG18" s="115"/>
+      <c r="AH18" s="115"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="107"/>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:85" ht="12" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="293"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="149"/>
-      <c r="Y19" s="149"/>
-      <c r="Z19" s="149"/>
-      <c r="AA19" s="149"/>
-      <c r="AB19" s="149"/>
-      <c r="AC19" s="149"/>
-      <c r="AD19" s="149"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="149"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="149"/>
-      <c r="AI19" s="298"/>
-      <c r="AJ19" s="299"/>
-      <c r="AK19" s="299"/>
-      <c r="AL19" s="300"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="137"/>
-      <c r="AO19" s="137"/>
-      <c r="AP19" s="137"/>
-      <c r="AQ19" s="137"/>
-      <c r="AR19" s="137"/>
-      <c r="AS19" s="137"/>
-      <c r="AT19" s="137"/>
-      <c r="AU19" s="137"/>
-      <c r="AV19" s="137"/>
-      <c r="AW19" s="155"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="122"/>
+      <c r="AK19" s="122"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="98"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="109"/>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:85" ht="12" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="293"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="132" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134"/>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134"/>
-      <c r="X20" s="134"/>
-      <c r="Y20" s="134"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="134"/>
-      <c r="AE20" s="134"/>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="134"/>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="134"/>
-      <c r="AJ20" s="134"/>
-      <c r="AK20" s="134"/>
-      <c r="AL20" s="134"/>
-      <c r="AM20" s="134"/>
-      <c r="AN20" s="134"/>
-      <c r="AO20" s="134"/>
-      <c r="AP20" s="134"/>
-      <c r="AQ20" s="134"/>
-      <c r="AR20" s="134"/>
-      <c r="AS20" s="134"/>
-      <c r="AT20" s="134"/>
-      <c r="AU20" s="134"/>
-      <c r="AV20" s="134"/>
-      <c r="AW20" s="261"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="95"/>
+      <c r="AM20" s="95"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="107"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="293"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137"/>
-      <c r="Y21" s="137"/>
-      <c r="Z21" s="137"/>
-      <c r="AA21" s="137"/>
-      <c r="AB21" s="137"/>
-      <c r="AC21" s="137"/>
-      <c r="AD21" s="137"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="137"/>
-      <c r="AH21" s="137"/>
-      <c r="AI21" s="137"/>
-      <c r="AJ21" s="137"/>
-      <c r="AK21" s="137"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="137"/>
-      <c r="AN21" s="137"/>
-      <c r="AO21" s="137"/>
-      <c r="AP21" s="137"/>
-      <c r="AQ21" s="137"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="137"/>
-      <c r="AT21" s="137"/>
-      <c r="AU21" s="137"/>
-      <c r="AV21" s="137"/>
-      <c r="AW21" s="155"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="109"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="1:85" ht="12" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="282" t="s">
+      <c r="B22" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="283"/>
-      <c r="D22" s="132" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133" t="s">
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="134"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="134"/>
-      <c r="T22" s="134"/>
-      <c r="U22" s="134"/>
-      <c r="V22" s="134"/>
-      <c r="W22" s="134"/>
-      <c r="X22" s="134"/>
-      <c r="Y22" s="134"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
-      <c r="AE22" s="134"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="134"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="288" t="s">
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="AJ22" s="140"/>
-      <c r="AK22" s="140"/>
-      <c r="AL22" s="289"/>
-      <c r="AM22" s="290" t="s">
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="102"/>
+      <c r="AM22" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="AN22" s="134"/>
-      <c r="AO22" s="134"/>
-      <c r="AP22" s="134"/>
-      <c r="AQ22" s="134"/>
-      <c r="AR22" s="134"/>
-      <c r="AS22" s="134"/>
-      <c r="AT22" s="134"/>
-      <c r="AU22" s="134"/>
-      <c r="AV22" s="134"/>
-      <c r="AW22" s="261"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="107"/>
       <c r="AY22" s="7"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -6157,54 +6157,54 @@
     </row>
     <row r="23" spans="1:85" ht="12" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="284"/>
-      <c r="C23" s="285"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="137"/>
-      <c r="S23" s="137"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="137"/>
-      <c r="W23" s="137"/>
-      <c r="X23" s="137"/>
-      <c r="Y23" s="137"/>
-      <c r="Z23" s="137"/>
-      <c r="AA23" s="137"/>
-      <c r="AB23" s="137"/>
-      <c r="AC23" s="137"/>
-      <c r="AD23" s="137"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="137"/>
-      <c r="AG23" s="137"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="259"/>
-      <c r="AJ23" s="143"/>
-      <c r="AK23" s="143"/>
-      <c r="AL23" s="260"/>
-      <c r="AM23" s="154"/>
-      <c r="AN23" s="137"/>
-      <c r="AO23" s="137"/>
-      <c r="AP23" s="137"/>
-      <c r="AQ23" s="137"/>
-      <c r="AR23" s="137"/>
-      <c r="AS23" s="137"/>
-      <c r="AT23" s="137"/>
-      <c r="AU23" s="137"/>
-      <c r="AV23" s="137"/>
-      <c r="AW23" s="155"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="103"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="105"/>
+      <c r="AM23" s="108"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="98"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="98"/>
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="109"/>
       <c r="AY23" s="7"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -6239,58 +6239,58 @@
     </row>
     <row r="24" spans="1:85" ht="12" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="284"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="132" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="133" t="s">
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
-      <c r="Q24" s="134"/>
-      <c r="R24" s="134"/>
-      <c r="S24" s="134"/>
-      <c r="T24" s="134"/>
-      <c r="U24" s="134"/>
-      <c r="V24" s="134"/>
-      <c r="W24" s="134"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="134"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
-      <c r="AE24" s="134"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="134"/>
-      <c r="AH24" s="134"/>
-      <c r="AI24" s="134"/>
-      <c r="AJ24" s="134"/>
-      <c r="AK24" s="134"/>
-      <c r="AL24" s="134"/>
-      <c r="AM24" s="134"/>
-      <c r="AN24" s="134"/>
-      <c r="AO24" s="134"/>
-      <c r="AP24" s="134"/>
-      <c r="AQ24" s="134"/>
-      <c r="AR24" s="134"/>
-      <c r="AS24" s="134"/>
-      <c r="AT24" s="134"/>
-      <c r="AU24" s="134"/>
-      <c r="AV24" s="134"/>
-      <c r="AW24" s="261"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="95"/>
+      <c r="AM24" s="95"/>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="95"/>
+      <c r="AP24" s="95"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="95"/>
+      <c r="AU24" s="95"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="107"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="1"/>
       <c r="BD24" s="10"/>
@@ -6326,54 +6326,54 @@
     </row>
     <row r="25" spans="1:85" ht="12" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="137"/>
-      <c r="AL25" s="137"/>
-      <c r="AM25" s="137"/>
-      <c r="AN25" s="137"/>
-      <c r="AO25" s="137"/>
-      <c r="AP25" s="137"/>
-      <c r="AQ25" s="137"/>
-      <c r="AR25" s="137"/>
-      <c r="AS25" s="137"/>
-      <c r="AT25" s="137"/>
-      <c r="AU25" s="137"/>
-      <c r="AV25" s="137"/>
-      <c r="AW25" s="155"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="98"/>
+      <c r="AU25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="AW25" s="109"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="1"/>
       <c r="BD25" s="10"/>
@@ -6409,62 +6409,62 @@
     </row>
     <row r="26" spans="1:85" ht="12" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="252" t="s">
+      <c r="B26" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="151" t="s">
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="152"/>
-      <c r="S26" s="152"/>
-      <c r="T26" s="152"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="152"/>
-      <c r="Y26" s="152"/>
-      <c r="Z26" s="152"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="152"/>
-      <c r="AC26" s="152"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="152"/>
-      <c r="AF26" s="152"/>
-      <c r="AG26" s="152"/>
-      <c r="AH26" s="255"/>
-      <c r="AI26" s="256" t="s">
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="131"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="AJ26" s="257"/>
-      <c r="AK26" s="257"/>
-      <c r="AL26" s="258"/>
-      <c r="AM26" s="151" t="s">
+      <c r="AJ26" s="134"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="135"/>
+      <c r="AM26" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="AN26" s="152"/>
-      <c r="AO26" s="152"/>
-      <c r="AP26" s="152"/>
-      <c r="AQ26" s="152"/>
-      <c r="AR26" s="152"/>
-      <c r="AS26" s="152"/>
-      <c r="AT26" s="152"/>
-      <c r="AU26" s="152"/>
-      <c r="AV26" s="152"/>
-      <c r="AW26" s="153"/>
+      <c r="AN26" s="131"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="131"/>
+      <c r="AS26" s="131"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="136"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="7"/>
       <c r="BA26" s="10"/>
@@ -6503,54 +6503,54 @@
     </row>
     <row r="27" spans="1:85" ht="12" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="137"/>
-      <c r="AH27" s="138"/>
-      <c r="AI27" s="259"/>
-      <c r="AJ27" s="143"/>
-      <c r="AK27" s="143"/>
-      <c r="AL27" s="260"/>
-      <c r="AM27" s="154"/>
-      <c r="AN27" s="137"/>
-      <c r="AO27" s="137"/>
-      <c r="AP27" s="137"/>
-      <c r="AQ27" s="137"/>
-      <c r="AR27" s="137"/>
-      <c r="AS27" s="137"/>
-      <c r="AT27" s="137"/>
-      <c r="AU27" s="137"/>
-      <c r="AV27" s="137"/>
-      <c r="AW27" s="155"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="98"/>
+      <c r="AS27" s="98"/>
+      <c r="AT27" s="98"/>
+      <c r="AU27" s="98"/>
+      <c r="AV27" s="98"/>
+      <c r="AW27" s="109"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -6677,60 +6677,60 @@
     </row>
     <row r="29" spans="1:85" ht="12" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="168" t="s">
+      <c r="C29" s="138"/>
+      <c r="D29" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="133" t="s">
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="134"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="134"/>
-      <c r="T29" s="134"/>
-      <c r="U29" s="134"/>
-      <c r="V29" s="134"/>
-      <c r="W29" s="134"/>
-      <c r="X29" s="134"/>
-      <c r="Y29" s="134"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
-      <c r="AE29" s="134"/>
-      <c r="AF29" s="134"/>
-      <c r="AG29" s="134"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="134"/>
-      <c r="AJ29" s="134"/>
-      <c r="AK29" s="134"/>
-      <c r="AL29" s="134"/>
-      <c r="AM29" s="134"/>
-      <c r="AN29" s="134"/>
-      <c r="AO29" s="134"/>
-      <c r="AP29" s="134"/>
-      <c r="AQ29" s="134"/>
-      <c r="AR29" s="134"/>
-      <c r="AS29" s="134"/>
-      <c r="AT29" s="134"/>
-      <c r="AU29" s="134"/>
-      <c r="AV29" s="134"/>
-      <c r="AW29" s="261"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="95"/>
+      <c r="AM29" s="95"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="95"/>
+      <c r="AP29" s="95"/>
+      <c r="AQ29" s="95"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="107"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -6766,54 +6766,54 @@
       <c r="CD29" s="10"/>
     </row>
     <row r="30" spans="1:85" ht="12" customHeight="1">
-      <c r="B30" s="179"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
-      <c r="O30" s="137"/>
-      <c r="P30" s="137"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="137"/>
-      <c r="S30" s="137"/>
-      <c r="T30" s="137"/>
-      <c r="U30" s="137"/>
-      <c r="V30" s="137"/>
-      <c r="W30" s="137"/>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="137"/>
-      <c r="AA30" s="137"/>
-      <c r="AB30" s="137"/>
-      <c r="AC30" s="137"/>
-      <c r="AD30" s="137"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="137"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="137"/>
-      <c r="AI30" s="137"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="137"/>
-      <c r="AL30" s="137"/>
-      <c r="AM30" s="137"/>
-      <c r="AN30" s="137"/>
-      <c r="AO30" s="137"/>
-      <c r="AP30" s="137"/>
-      <c r="AQ30" s="137"/>
-      <c r="AR30" s="137"/>
-      <c r="AS30" s="137"/>
-      <c r="AT30" s="137"/>
-      <c r="AU30" s="137"/>
-      <c r="AV30" s="137"/>
-      <c r="AW30" s="155"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="109"/>
       <c r="AY30" s="7"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -6847,68 +6847,68 @@
       <c r="CD30" s="10"/>
     </row>
     <row r="31" spans="1:85" ht="12" customHeight="1">
-      <c r="B31" s="179"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="168" t="s">
+      <c r="B31" s="139"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="262" t="s">
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="263"/>
-      <c r="J31" s="263"/>
-      <c r="K31" s="263"/>
-      <c r="L31" s="263"/>
-      <c r="M31" s="263"/>
-      <c r="N31" s="263"/>
-      <c r="O31" s="263"/>
-      <c r="P31" s="263"/>
-      <c r="Q31" s="263"/>
-      <c r="R31" s="263"/>
-      <c r="S31" s="263"/>
-      <c r="T31" s="263"/>
-      <c r="U31" s="263"/>
-      <c r="V31" s="263"/>
-      <c r="W31" s="263"/>
-      <c r="X31" s="263"/>
-      <c r="Y31" s="263"/>
-      <c r="Z31" s="263"/>
-      <c r="AA31" s="263"/>
-      <c r="AB31" s="263"/>
-      <c r="AC31" s="263"/>
-      <c r="AD31" s="263"/>
-      <c r="AE31" s="266"/>
-      <c r="AF31" s="267"/>
-      <c r="AG31" s="267"/>
-      <c r="AH31" s="267"/>
-      <c r="AI31" s="270" t="s">
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="AJ31" s="270"/>
-      <c r="AK31" s="267" t="s">
+      <c r="AJ31" s="152"/>
+      <c r="AK31" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="AL31" s="267"/>
-      <c r="AM31" s="267"/>
-      <c r="AN31" s="267"/>
-      <c r="AO31" s="270" t="s">
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="149"/>
+      <c r="AN31" s="149"/>
+      <c r="AO31" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="AP31" s="270"/>
-      <c r="AQ31" s="267" t="s">
+      <c r="AP31" s="152"/>
+      <c r="AQ31" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="AR31" s="267"/>
-      <c r="AS31" s="267"/>
-      <c r="AT31" s="267"/>
-      <c r="AU31" s="270" t="s">
+      <c r="AR31" s="149"/>
+      <c r="AS31" s="149"/>
+      <c r="AT31" s="149"/>
+      <c r="AU31" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="AV31" s="270"/>
-      <c r="AW31" s="272"/>
+      <c r="AV31" s="152"/>
+      <c r="AW31" s="154"/>
       <c r="AY31" s="7"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -6942,54 +6942,54 @@
       <c r="CD31" s="10"/>
     </row>
     <row r="32" spans="1:85" ht="12" customHeight="1">
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="264"/>
-      <c r="I32" s="265"/>
-      <c r="J32" s="265"/>
-      <c r="K32" s="265"/>
-      <c r="L32" s="265"/>
-      <c r="M32" s="265"/>
-      <c r="N32" s="265"/>
-      <c r="O32" s="265"/>
-      <c r="P32" s="265"/>
-      <c r="Q32" s="265"/>
-      <c r="R32" s="265"/>
-      <c r="S32" s="265"/>
-      <c r="T32" s="265"/>
-      <c r="U32" s="265"/>
-      <c r="V32" s="265"/>
-      <c r="W32" s="265"/>
-      <c r="X32" s="265"/>
-      <c r="Y32" s="265"/>
-      <c r="Z32" s="265"/>
-      <c r="AA32" s="265"/>
-      <c r="AB32" s="265"/>
-      <c r="AC32" s="265"/>
-      <c r="AD32" s="265"/>
-      <c r="AE32" s="268"/>
-      <c r="AF32" s="269"/>
-      <c r="AG32" s="269"/>
-      <c r="AH32" s="269"/>
-      <c r="AI32" s="271"/>
-      <c r="AJ32" s="271"/>
-      <c r="AK32" s="269"/>
-      <c r="AL32" s="269"/>
-      <c r="AM32" s="269"/>
-      <c r="AN32" s="269"/>
-      <c r="AO32" s="271"/>
-      <c r="AP32" s="271"/>
-      <c r="AQ32" s="269"/>
-      <c r="AR32" s="269"/>
-      <c r="AS32" s="269"/>
-      <c r="AT32" s="269"/>
-      <c r="AU32" s="271"/>
-      <c r="AV32" s="271"/>
-      <c r="AW32" s="273"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="153"/>
+      <c r="AJ32" s="153"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="153"/>
+      <c r="AP32" s="153"/>
+      <c r="AQ32" s="151"/>
+      <c r="AR32" s="151"/>
+      <c r="AS32" s="151"/>
+      <c r="AT32" s="151"/>
+      <c r="AU32" s="153"/>
+      <c r="AV32" s="153"/>
+      <c r="AW32" s="155"/>
       <c r="AY32" s="7"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -7023,64 +7023,64 @@
       <c r="CD32" s="10"/>
     </row>
     <row r="33" spans="1:101" ht="12" customHeight="1">
-      <c r="B33" s="179"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="168" t="s">
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="145" t="s">
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="240" t="s">
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115"/>
+      <c r="AB33" s="115"/>
+      <c r="AC33" s="115"/>
+      <c r="AD33" s="115"/>
+      <c r="AE33" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="AF33" s="241"/>
-      <c r="AG33" s="241"/>
-      <c r="AH33" s="242"/>
-      <c r="AI33" s="274" t="s">
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="157"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="AJ33" s="275"/>
-      <c r="AK33" s="275"/>
-      <c r="AL33" s="275"/>
-      <c r="AM33" s="275"/>
-      <c r="AN33" s="275"/>
-      <c r="AO33" s="275"/>
-      <c r="AP33" s="275"/>
-      <c r="AQ33" s="275"/>
-      <c r="AR33" s="275"/>
-      <c r="AS33" s="275"/>
-      <c r="AT33" s="275"/>
-      <c r="AU33" s="275"/>
-      <c r="AV33" s="278" t="s">
+      <c r="AJ33" s="163"/>
+      <c r="AK33" s="163"/>
+      <c r="AL33" s="163"/>
+      <c r="AM33" s="163"/>
+      <c r="AN33" s="163"/>
+      <c r="AO33" s="163"/>
+      <c r="AP33" s="163"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="163"/>
+      <c r="AS33" s="163"/>
+      <c r="AT33" s="163"/>
+      <c r="AU33" s="163"/>
+      <c r="AV33" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="AW33" s="279"/>
+      <c r="AW33" s="167"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
@@ -7114,54 +7114,54 @@
       <c r="CC33" s="10"/>
     </row>
     <row r="34" spans="1:101" ht="12" customHeight="1">
-      <c r="B34" s="179"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="243"/>
-      <c r="AF34" s="244"/>
-      <c r="AG34" s="244"/>
-      <c r="AH34" s="245"/>
-      <c r="AI34" s="276"/>
-      <c r="AJ34" s="277"/>
-      <c r="AK34" s="277"/>
-      <c r="AL34" s="277"/>
-      <c r="AM34" s="277"/>
-      <c r="AN34" s="277"/>
-      <c r="AO34" s="277"/>
-      <c r="AP34" s="277"/>
-      <c r="AQ34" s="277"/>
-      <c r="AR34" s="277"/>
-      <c r="AS34" s="277"/>
-      <c r="AT34" s="277"/>
-      <c r="AU34" s="277"/>
-      <c r="AV34" s="280"/>
-      <c r="AW34" s="281"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="117"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="117"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="159"/>
+      <c r="AF34" s="160"/>
+      <c r="AG34" s="160"/>
+      <c r="AH34" s="161"/>
+      <c r="AI34" s="164"/>
+      <c r="AJ34" s="165"/>
+      <c r="AK34" s="165"/>
+      <c r="AL34" s="165"/>
+      <c r="AM34" s="165"/>
+      <c r="AN34" s="165"/>
+      <c r="AO34" s="165"/>
+      <c r="AP34" s="165"/>
+      <c r="AQ34" s="165"/>
+      <c r="AR34" s="165"/>
+      <c r="AS34" s="165"/>
+      <c r="AT34" s="165"/>
+      <c r="AU34" s="165"/>
+      <c r="AV34" s="168"/>
+      <c r="AW34" s="169"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
@@ -7195,62 +7195,62 @@
       <c r="CC34" s="10"/>
     </row>
     <row r="35" spans="1:101" ht="12" customHeight="1">
-      <c r="B35" s="179"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="168" t="s">
+      <c r="B35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="236" t="s">
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="237"/>
-      <c r="J35" s="237"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="237"/>
-      <c r="M35" s="237"/>
-      <c r="N35" s="237"/>
-      <c r="O35" s="240" t="s">
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="188"/>
+      <c r="O35" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="241"/>
-      <c r="Q35" s="241"/>
-      <c r="R35" s="242"/>
-      <c r="S35" s="237" t="s">
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="T35" s="237"/>
-      <c r="U35" s="237"/>
-      <c r="V35" s="237"/>
-      <c r="W35" s="237"/>
-      <c r="X35" s="237"/>
-      <c r="Y35" s="237"/>
-      <c r="Z35" s="246"/>
-      <c r="AA35" s="247"/>
-      <c r="AB35" s="247"/>
-      <c r="AC35" s="247"/>
-      <c r="AD35" s="247"/>
-      <c r="AE35" s="247"/>
-      <c r="AF35" s="247"/>
-      <c r="AG35" s="247"/>
-      <c r="AH35" s="247"/>
-      <c r="AI35" s="247"/>
-      <c r="AJ35" s="247"/>
-      <c r="AK35" s="247"/>
-      <c r="AL35" s="247"/>
-      <c r="AM35" s="247"/>
-      <c r="AN35" s="247"/>
-      <c r="AO35" s="247"/>
-      <c r="AP35" s="247"/>
-      <c r="AQ35" s="247"/>
-      <c r="AR35" s="247"/>
-      <c r="AS35" s="247"/>
-      <c r="AT35" s="247"/>
-      <c r="AU35" s="247"/>
-      <c r="AV35" s="247"/>
-      <c r="AW35" s="248"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="191"/>
+      <c r="AA35" s="192"/>
+      <c r="AB35" s="192"/>
+      <c r="AC35" s="192"/>
+      <c r="AD35" s="192"/>
+      <c r="AE35" s="192"/>
+      <c r="AF35" s="192"/>
+      <c r="AG35" s="192"/>
+      <c r="AH35" s="192"/>
+      <c r="AI35" s="192"/>
+      <c r="AJ35" s="192"/>
+      <c r="AK35" s="192"/>
+      <c r="AL35" s="192"/>
+      <c r="AM35" s="192"/>
+      <c r="AN35" s="192"/>
+      <c r="AO35" s="192"/>
+      <c r="AP35" s="192"/>
+      <c r="AQ35" s="192"/>
+      <c r="AR35" s="192"/>
+      <c r="AS35" s="192"/>
+      <c r="AT35" s="192"/>
+      <c r="AU35" s="192"/>
+      <c r="AV35" s="192"/>
+      <c r="AW35" s="193"/>
       <c r="AY35" s="7"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -7278,54 +7278,54 @@
       <c r="CB35" s="10"/>
     </row>
     <row r="36" spans="1:101" ht="12" customHeight="1">
-      <c r="B36" s="181"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="239"/>
-      <c r="J36" s="239"/>
-      <c r="K36" s="239"/>
-      <c r="L36" s="239"/>
-      <c r="M36" s="239"/>
-      <c r="N36" s="239"/>
-      <c r="O36" s="243"/>
-      <c r="P36" s="244"/>
-      <c r="Q36" s="244"/>
-      <c r="R36" s="245"/>
-      <c r="S36" s="239"/>
-      <c r="T36" s="239"/>
-      <c r="U36" s="239"/>
-      <c r="V36" s="239"/>
-      <c r="W36" s="239"/>
-      <c r="X36" s="239"/>
-      <c r="Y36" s="239"/>
-      <c r="Z36" s="249"/>
-      <c r="AA36" s="250"/>
-      <c r="AB36" s="250"/>
-      <c r="AC36" s="250"/>
-      <c r="AD36" s="250"/>
-      <c r="AE36" s="250"/>
-      <c r="AF36" s="250"/>
-      <c r="AG36" s="250"/>
-      <c r="AH36" s="250"/>
-      <c r="AI36" s="250"/>
-      <c r="AJ36" s="250"/>
-      <c r="AK36" s="250"/>
-      <c r="AL36" s="250"/>
-      <c r="AM36" s="250"/>
-      <c r="AN36" s="250"/>
-      <c r="AO36" s="250"/>
-      <c r="AP36" s="250"/>
-      <c r="AQ36" s="250"/>
-      <c r="AR36" s="250"/>
-      <c r="AS36" s="250"/>
-      <c r="AT36" s="250"/>
-      <c r="AU36" s="250"/>
-      <c r="AV36" s="250"/>
-      <c r="AW36" s="251"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="160"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="161"/>
+      <c r="S36" s="190"/>
+      <c r="T36" s="190"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="190"/>
+      <c r="W36" s="190"/>
+      <c r="X36" s="190"/>
+      <c r="Y36" s="190"/>
+      <c r="Z36" s="194"/>
+      <c r="AA36" s="195"/>
+      <c r="AB36" s="195"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="195"/>
+      <c r="AE36" s="195"/>
+      <c r="AF36" s="195"/>
+      <c r="AG36" s="195"/>
+      <c r="AH36" s="195"/>
+      <c r="AI36" s="195"/>
+      <c r="AJ36" s="195"/>
+      <c r="AK36" s="195"/>
+      <c r="AL36" s="195"/>
+      <c r="AM36" s="195"/>
+      <c r="AN36" s="195"/>
+      <c r="AO36" s="195"/>
+      <c r="AP36" s="195"/>
+      <c r="AQ36" s="195"/>
+      <c r="AR36" s="195"/>
+      <c r="AS36" s="195"/>
+      <c r="AT36" s="195"/>
+      <c r="AU36" s="195"/>
+      <c r="AV36" s="195"/>
+      <c r="AW36" s="196"/>
       <c r="AY36" s="7"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
@@ -7404,78 +7404,78 @@
       <c r="AY37" s="7"/>
     </row>
     <row r="38" spans="1:101" ht="12" customHeight="1">
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="178"/>
-      <c r="D38" s="168" t="s">
+      <c r="C38" s="138"/>
+      <c r="D38" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="230" t="s">
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="I38" s="231"/>
-      <c r="J38" s="232"/>
-      <c r="K38" s="188" t="str">
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="203" t="str">
         <f>IF(H38="月額（税込）",BC38,IF(H38="月額",BB38,""))</f>
         <v>$rentPrice$</v>
       </c>
-      <c r="L38" s="189"/>
-      <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="189"/>
-      <c r="P38" s="189"/>
-      <c r="Q38" s="189"/>
-      <c r="R38" s="183" t="s">
+      <c r="L38" s="204"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="204"/>
+      <c r="P38" s="204"/>
+      <c r="Q38" s="204"/>
+      <c r="R38" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="184"/>
-      <c r="T38" s="229" t="s">
+      <c r="S38" s="178"/>
+      <c r="T38" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="U38" s="229"/>
-      <c r="V38" s="229"/>
-      <c r="W38" s="229"/>
-      <c r="X38" s="213" t="str">
+      <c r="U38" s="170"/>
+      <c r="V38" s="170"/>
+      <c r="W38" s="170"/>
+      <c r="X38" s="171" t="str">
         <f>IF(T38="敷  金",BE38,IF(T38="保証金",BF38,""))</f>
         <v>$securityDeposit$</v>
       </c>
-      <c r="Y38" s="214"/>
-      <c r="Z38" s="214"/>
-      <c r="AA38" s="214"/>
-      <c r="AB38" s="214"/>
-      <c r="AC38" s="214"/>
-      <c r="AD38" s="214"/>
-      <c r="AE38" s="214"/>
-      <c r="AF38" s="215"/>
-      <c r="AG38" s="183" t="s">
+      <c r="Y38" s="172"/>
+      <c r="Z38" s="172"/>
+      <c r="AA38" s="172"/>
+      <c r="AB38" s="172"/>
+      <c r="AC38" s="172"/>
+      <c r="AD38" s="172"/>
+      <c r="AE38" s="172"/>
+      <c r="AF38" s="173"/>
+      <c r="AG38" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AH38" s="184"/>
-      <c r="AI38" s="84" t="s">
+      <c r="AH38" s="178"/>
+      <c r="AI38" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="AJ38" s="85"/>
-      <c r="AK38" s="85"/>
-      <c r="AL38" s="86"/>
-      <c r="AM38" s="213" t="s">
+      <c r="AJ38" s="182"/>
+      <c r="AK38" s="182"/>
+      <c r="AL38" s="183"/>
+      <c r="AM38" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="AN38" s="214"/>
-      <c r="AO38" s="214"/>
-      <c r="AP38" s="214"/>
-      <c r="AQ38" s="214"/>
-      <c r="AR38" s="214"/>
-      <c r="AS38" s="214"/>
-      <c r="AT38" s="214"/>
-      <c r="AU38" s="215"/>
-      <c r="AV38" s="183" t="s">
+      <c r="AN38" s="172"/>
+      <c r="AO38" s="172"/>
+      <c r="AP38" s="172"/>
+      <c r="AQ38" s="172"/>
+      <c r="AR38" s="172"/>
+      <c r="AS38" s="172"/>
+      <c r="AT38" s="172"/>
+      <c r="AU38" s="173"/>
+      <c r="AV38" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AW38" s="184"/>
+      <c r="AW38" s="178"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
         <v>135</v>
@@ -7494,54 +7494,54 @@
       <c r="BH38" s="5"/>
     </row>
     <row r="39" spans="1:101" ht="12" customHeight="1">
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="233"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="235"/>
-      <c r="K39" s="190"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="191"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="203"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="229"/>
-      <c r="U39" s="229"/>
-      <c r="V39" s="229"/>
-      <c r="W39" s="229"/>
-      <c r="X39" s="226"/>
-      <c r="Y39" s="227"/>
-      <c r="Z39" s="227"/>
-      <c r="AA39" s="227"/>
-      <c r="AB39" s="227"/>
-      <c r="AC39" s="227"/>
-      <c r="AD39" s="227"/>
-      <c r="AE39" s="227"/>
-      <c r="AF39" s="228"/>
-      <c r="AG39" s="203"/>
-      <c r="AH39" s="163"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="89"/>
-      <c r="AM39" s="226"/>
-      <c r="AN39" s="227"/>
-      <c r="AO39" s="227"/>
-      <c r="AP39" s="227"/>
-      <c r="AQ39" s="227"/>
-      <c r="AR39" s="227"/>
-      <c r="AS39" s="227"/>
-      <c r="AT39" s="227"/>
-      <c r="AU39" s="228"/>
-      <c r="AV39" s="203"/>
-      <c r="AW39" s="163"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="201"/>
+      <c r="J39" s="202"/>
+      <c r="K39" s="205"/>
+      <c r="L39" s="206"/>
+      <c r="M39" s="206"/>
+      <c r="N39" s="206"/>
+      <c r="O39" s="206"/>
+      <c r="P39" s="206"/>
+      <c r="Q39" s="206"/>
+      <c r="R39" s="179"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="170"/>
+      <c r="U39" s="170"/>
+      <c r="V39" s="170"/>
+      <c r="W39" s="170"/>
+      <c r="X39" s="174"/>
+      <c r="Y39" s="175"/>
+      <c r="Z39" s="175"/>
+      <c r="AA39" s="175"/>
+      <c r="AB39" s="175"/>
+      <c r="AC39" s="175"/>
+      <c r="AD39" s="175"/>
+      <c r="AE39" s="175"/>
+      <c r="AF39" s="176"/>
+      <c r="AG39" s="179"/>
+      <c r="AH39" s="180"/>
+      <c r="AI39" s="184"/>
+      <c r="AJ39" s="185"/>
+      <c r="AK39" s="185"/>
+      <c r="AL39" s="186"/>
+      <c r="AM39" s="174"/>
+      <c r="AN39" s="175"/>
+      <c r="AO39" s="175"/>
+      <c r="AP39" s="175"/>
+      <c r="AQ39" s="175"/>
+      <c r="AR39" s="175"/>
+      <c r="AS39" s="175"/>
+      <c r="AT39" s="175"/>
+      <c r="AU39" s="176"/>
+      <c r="AV39" s="179"/>
+      <c r="AW39" s="180"/>
       <c r="AY39" s="7"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
@@ -7552,75 +7552,75 @@
       <c r="BH39" s="5"/>
     </row>
     <row r="40" spans="1:101" ht="12" customHeight="1">
-      <c r="B40" s="179"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="229" t="s">
+      <c r="B40" s="139"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="230" t="s">
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="197" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
-      <c r="K40" s="188" t="str">
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="203" t="str">
         <f>IF(D40="共益費",IF(H40="月額（税込）",BC40,IF(H40="月額",BB40,"")),IF(D40="管理費",IF(H40="月額（税込）",BC41,IF(H40="月額",BB41,"")),""))</f>
         <v>$condoFee$</v>
       </c>
-      <c r="L40" s="189"/>
-      <c r="M40" s="189"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="189"/>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="189"/>
-      <c r="R40" s="183" t="s">
+      <c r="L40" s="204"/>
+      <c r="M40" s="204"/>
+      <c r="N40" s="204"/>
+      <c r="O40" s="204"/>
+      <c r="P40" s="204"/>
+      <c r="Q40" s="204"/>
+      <c r="R40" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="184"/>
-      <c r="T40" s="168" t="s">
+      <c r="S40" s="178"/>
+      <c r="T40" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="U40" s="168"/>
-      <c r="V40" s="168"/>
-      <c r="W40" s="168"/>
-      <c r="X40" s="213" t="s">
+      <c r="U40" s="143"/>
+      <c r="V40" s="143"/>
+      <c r="W40" s="143"/>
+      <c r="X40" s="171" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" s="214"/>
-      <c r="Z40" s="214"/>
-      <c r="AA40" s="214"/>
-      <c r="AB40" s="214"/>
-      <c r="AC40" s="214"/>
-      <c r="AD40" s="214"/>
-      <c r="AE40" s="214"/>
-      <c r="AF40" s="215"/>
-      <c r="AG40" s="183" t="s">
+      <c r="Y40" s="172"/>
+      <c r="Z40" s="172"/>
+      <c r="AA40" s="172"/>
+      <c r="AB40" s="172"/>
+      <c r="AC40" s="172"/>
+      <c r="AD40" s="172"/>
+      <c r="AE40" s="172"/>
+      <c r="AF40" s="173"/>
+      <c r="AG40" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AH40" s="184"/>
-      <c r="AI40" s="168" t="s">
+      <c r="AH40" s="178"/>
+      <c r="AI40" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="AJ40" s="168"/>
-      <c r="AK40" s="168"/>
-      <c r="AL40" s="168"/>
-      <c r="AM40" s="224" t="s">
+      <c r="AJ40" s="143"/>
+      <c r="AK40" s="143"/>
+      <c r="AL40" s="143"/>
+      <c r="AM40" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="AN40" s="189"/>
-      <c r="AO40" s="189"/>
-      <c r="AP40" s="189"/>
-      <c r="AQ40" s="189"/>
-      <c r="AR40" s="189"/>
-      <c r="AS40" s="189"/>
-      <c r="AT40" s="189"/>
-      <c r="AU40" s="189"/>
-      <c r="AV40" s="183" t="s">
+      <c r="AN40" s="204"/>
+      <c r="AO40" s="204"/>
+      <c r="AP40" s="204"/>
+      <c r="AQ40" s="204"/>
+      <c r="AR40" s="204"/>
+      <c r="AS40" s="204"/>
+      <c r="AT40" s="204"/>
+      <c r="AU40" s="204"/>
+      <c r="AV40" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AW40" s="184"/>
+      <c r="AW40" s="178"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
         <v>139</v>
@@ -7635,54 +7635,54 @@
       <c r="BH40" s="5"/>
     </row>
     <row r="41" spans="1:101" ht="12" customHeight="1">
-      <c r="B41" s="179"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="229"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="233"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="235"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="203"/>
-      <c r="S41" s="163"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="168"/>
-      <c r="X41" s="226"/>
-      <c r="Y41" s="227"/>
-      <c r="Z41" s="227"/>
-      <c r="AA41" s="227"/>
-      <c r="AB41" s="227"/>
-      <c r="AC41" s="227"/>
-      <c r="AD41" s="227"/>
-      <c r="AE41" s="227"/>
-      <c r="AF41" s="228"/>
-      <c r="AG41" s="203"/>
-      <c r="AH41" s="163"/>
-      <c r="AI41" s="168"/>
-      <c r="AJ41" s="168"/>
-      <c r="AK41" s="168"/>
-      <c r="AL41" s="168"/>
-      <c r="AM41" s="225"/>
-      <c r="AN41" s="191"/>
-      <c r="AO41" s="191"/>
-      <c r="AP41" s="191"/>
-      <c r="AQ41" s="191"/>
-      <c r="AR41" s="191"/>
-      <c r="AS41" s="191"/>
-      <c r="AT41" s="191"/>
-      <c r="AU41" s="191"/>
-      <c r="AV41" s="203"/>
-      <c r="AW41" s="163"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="200"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="202"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="206"/>
+      <c r="M41" s="206"/>
+      <c r="N41" s="206"/>
+      <c r="O41" s="206"/>
+      <c r="P41" s="206"/>
+      <c r="Q41" s="206"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="180"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="143"/>
+      <c r="V41" s="143"/>
+      <c r="W41" s="143"/>
+      <c r="X41" s="174"/>
+      <c r="Y41" s="175"/>
+      <c r="Z41" s="175"/>
+      <c r="AA41" s="175"/>
+      <c r="AB41" s="175"/>
+      <c r="AC41" s="175"/>
+      <c r="AD41" s="175"/>
+      <c r="AE41" s="175"/>
+      <c r="AF41" s="176"/>
+      <c r="AG41" s="179"/>
+      <c r="AH41" s="180"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="143"/>
+      <c r="AM41" s="218"/>
+      <c r="AN41" s="206"/>
+      <c r="AO41" s="206"/>
+      <c r="AP41" s="206"/>
+      <c r="AQ41" s="206"/>
+      <c r="AR41" s="206"/>
+      <c r="AS41" s="206"/>
+      <c r="AT41" s="206"/>
+      <c r="AU41" s="206"/>
+      <c r="AV41" s="179"/>
+      <c r="AW41" s="180"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
         <v>141</v>
@@ -7697,66 +7697,66 @@
       <c r="BH41" s="5"/>
     </row>
     <row r="42" spans="1:101" ht="12" customHeight="1">
-      <c r="B42" s="179"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="168" t="s">
+      <c r="B42" s="139"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="213" t="s">
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="214"/>
-      <c r="M42" s="214"/>
-      <c r="N42" s="214"/>
-      <c r="O42" s="214"/>
-      <c r="P42" s="214"/>
-      <c r="Q42" s="215"/>
-      <c r="R42" s="183" t="s">
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="172"/>
+      <c r="P42" s="172"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="168"/>
-      <c r="W42" s="168"/>
-      <c r="X42" s="213" t="s">
+      <c r="S42" s="178"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="143"/>
+      <c r="V42" s="143"/>
+      <c r="W42" s="143"/>
+      <c r="X42" s="171" t="s">
         <v>143</v>
       </c>
-      <c r="Y42" s="214"/>
-      <c r="Z42" s="214"/>
-      <c r="AA42" s="214"/>
-      <c r="AB42" s="214"/>
-      <c r="AC42" s="214"/>
-      <c r="AD42" s="214"/>
-      <c r="AE42" s="214"/>
-      <c r="AF42" s="215"/>
-      <c r="AG42" s="183" t="s">
+      <c r="Y42" s="172"/>
+      <c r="Z42" s="172"/>
+      <c r="AA42" s="172"/>
+      <c r="AB42" s="172"/>
+      <c r="AC42" s="172"/>
+      <c r="AD42" s="172"/>
+      <c r="AE42" s="172"/>
+      <c r="AF42" s="173"/>
+      <c r="AG42" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AH42" s="184"/>
-      <c r="AI42" s="168"/>
-      <c r="AJ42" s="168"/>
-      <c r="AK42" s="168"/>
-      <c r="AL42" s="168"/>
-      <c r="AM42" s="221"/>
-      <c r="AN42" s="189"/>
-      <c r="AO42" s="189"/>
-      <c r="AP42" s="189"/>
-      <c r="AQ42" s="189"/>
-      <c r="AR42" s="189"/>
-      <c r="AS42" s="189"/>
-      <c r="AT42" s="189"/>
-      <c r="AU42" s="189"/>
-      <c r="AV42" s="183" t="s">
+      <c r="AH42" s="178"/>
+      <c r="AI42" s="143"/>
+      <c r="AJ42" s="143"/>
+      <c r="AK42" s="143"/>
+      <c r="AL42" s="143"/>
+      <c r="AM42" s="214"/>
+      <c r="AN42" s="204"/>
+      <c r="AO42" s="204"/>
+      <c r="AP42" s="204"/>
+      <c r="AQ42" s="204"/>
+      <c r="AR42" s="204"/>
+      <c r="AS42" s="204"/>
+      <c r="AT42" s="204"/>
+      <c r="AU42" s="204"/>
+      <c r="AV42" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AW42" s="184"/>
+      <c r="AW42" s="178"/>
       <c r="AY42" s="7"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
@@ -7765,172 +7765,172 @@
       <c r="BF42" s="36"/>
     </row>
     <row r="43" spans="1:101" ht="12" customHeight="1">
-      <c r="B43" s="179"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="227"/>
-      <c r="M43" s="227"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="227"/>
-      <c r="P43" s="227"/>
-      <c r="Q43" s="228"/>
-      <c r="R43" s="203"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="168"/>
-      <c r="W43" s="168"/>
-      <c r="X43" s="226"/>
-      <c r="Y43" s="227"/>
-      <c r="Z43" s="227"/>
-      <c r="AA43" s="227"/>
-      <c r="AB43" s="227"/>
-      <c r="AC43" s="227"/>
-      <c r="AD43" s="227"/>
-      <c r="AE43" s="227"/>
-      <c r="AF43" s="228"/>
-      <c r="AG43" s="203"/>
-      <c r="AH43" s="163"/>
-      <c r="AI43" s="168"/>
-      <c r="AJ43" s="168"/>
-      <c r="AK43" s="168"/>
-      <c r="AL43" s="168"/>
-      <c r="AM43" s="225"/>
-      <c r="AN43" s="191"/>
-      <c r="AO43" s="191"/>
-      <c r="AP43" s="191"/>
-      <c r="AQ43" s="191"/>
-      <c r="AR43" s="191"/>
-      <c r="AS43" s="191"/>
-      <c r="AT43" s="191"/>
-      <c r="AU43" s="191"/>
-      <c r="AV43" s="203"/>
-      <c r="AW43" s="163"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="175"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="175"/>
+      <c r="P43" s="175"/>
+      <c r="Q43" s="176"/>
+      <c r="R43" s="179"/>
+      <c r="S43" s="180"/>
+      <c r="T43" s="143"/>
+      <c r="U43" s="143"/>
+      <c r="V43" s="143"/>
+      <c r="W43" s="143"/>
+      <c r="X43" s="174"/>
+      <c r="Y43" s="175"/>
+      <c r="Z43" s="175"/>
+      <c r="AA43" s="175"/>
+      <c r="AB43" s="175"/>
+      <c r="AC43" s="175"/>
+      <c r="AD43" s="175"/>
+      <c r="AE43" s="175"/>
+      <c r="AF43" s="176"/>
+      <c r="AG43" s="179"/>
+      <c r="AH43" s="180"/>
+      <c r="AI43" s="143"/>
+      <c r="AJ43" s="143"/>
+      <c r="AK43" s="143"/>
+      <c r="AL43" s="143"/>
+      <c r="AM43" s="218"/>
+      <c r="AN43" s="206"/>
+      <c r="AO43" s="206"/>
+      <c r="AP43" s="206"/>
+      <c r="AQ43" s="206"/>
+      <c r="AR43" s="206"/>
+      <c r="AS43" s="206"/>
+      <c r="AT43" s="206"/>
+      <c r="AU43" s="206"/>
+      <c r="AV43" s="179"/>
+      <c r="AW43" s="180"/>
       <c r="AY43" s="7"/>
     </row>
     <row r="44" spans="1:101" ht="12" customHeight="1">
-      <c r="B44" s="179"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="187" t="s">
+      <c r="B44" s="139"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="40" t="s">
+      <c r="E44" s="272"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="272"/>
+      <c r="H44" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="188" t="s">
+      <c r="I44" s="57"/>
+      <c r="J44" s="273"/>
+      <c r="K44" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="189"/>
-      <c r="M44" s="189"/>
-      <c r="N44" s="189"/>
-      <c r="O44" s="189"/>
-      <c r="P44" s="189"/>
-      <c r="Q44" s="189"/>
-      <c r="R44" s="192" t="s">
+      <c r="L44" s="204"/>
+      <c r="M44" s="204"/>
+      <c r="N44" s="204"/>
+      <c r="O44" s="204"/>
+      <c r="P44" s="204"/>
+      <c r="Q44" s="204"/>
+      <c r="R44" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="S44" s="193"/>
-      <c r="T44" s="196" t="s">
+      <c r="S44" s="276"/>
+      <c r="T44" s="279" t="s">
         <v>66</v>
       </c>
-      <c r="U44" s="187"/>
-      <c r="V44" s="187"/>
-      <c r="W44" s="187"/>
-      <c r="X44" s="213" t="s">
+      <c r="U44" s="272"/>
+      <c r="V44" s="272"/>
+      <c r="W44" s="272"/>
+      <c r="X44" s="171" t="s">
         <v>114</v>
       </c>
-      <c r="Y44" s="214"/>
-      <c r="Z44" s="214"/>
-      <c r="AA44" s="214"/>
-      <c r="AB44" s="214"/>
-      <c r="AC44" s="214"/>
-      <c r="AD44" s="214"/>
-      <c r="AE44" s="214"/>
-      <c r="AF44" s="215"/>
-      <c r="AG44" s="183" t="s">
+      <c r="Y44" s="172"/>
+      <c r="Z44" s="172"/>
+      <c r="AA44" s="172"/>
+      <c r="AB44" s="172"/>
+      <c r="AC44" s="172"/>
+      <c r="AD44" s="172"/>
+      <c r="AE44" s="172"/>
+      <c r="AF44" s="173"/>
+      <c r="AG44" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AH44" s="184"/>
-      <c r="AI44" s="219"/>
-      <c r="AJ44" s="219"/>
-      <c r="AK44" s="219"/>
-      <c r="AL44" s="219"/>
-      <c r="AM44" s="221"/>
-      <c r="AN44" s="189"/>
-      <c r="AO44" s="189"/>
-      <c r="AP44" s="189"/>
-      <c r="AQ44" s="189"/>
-      <c r="AR44" s="189"/>
-      <c r="AS44" s="189"/>
-      <c r="AT44" s="189"/>
-      <c r="AU44" s="189"/>
-      <c r="AV44" s="183" t="s">
+      <c r="AH44" s="178"/>
+      <c r="AI44" s="212"/>
+      <c r="AJ44" s="212"/>
+      <c r="AK44" s="212"/>
+      <c r="AL44" s="212"/>
+      <c r="AM44" s="214"/>
+      <c r="AN44" s="204"/>
+      <c r="AO44" s="204"/>
+      <c r="AP44" s="204"/>
+      <c r="AQ44" s="204"/>
+      <c r="AR44" s="204"/>
+      <c r="AS44" s="204"/>
+      <c r="AT44" s="204"/>
+      <c r="AU44" s="204"/>
+      <c r="AV44" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="AW44" s="184"/>
+      <c r="AW44" s="178"/>
       <c r="AY44" s="7"/>
     </row>
     <row r="45" spans="1:101" ht="12" customHeight="1">
-      <c r="B45" s="179"/>
-      <c r="C45" s="180"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="190"/>
-      <c r="L45" s="191"/>
-      <c r="M45" s="191"/>
-      <c r="N45" s="191"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="191"/>
-      <c r="Q45" s="191"/>
-      <c r="R45" s="194"/>
-      <c r="S45" s="195"/>
-      <c r="T45" s="197"/>
-      <c r="U45" s="197"/>
-      <c r="V45" s="197"/>
-      <c r="W45" s="197"/>
-      <c r="X45" s="216"/>
-      <c r="Y45" s="217"/>
-      <c r="Z45" s="217"/>
-      <c r="AA45" s="217"/>
-      <c r="AB45" s="217"/>
-      <c r="AC45" s="217"/>
-      <c r="AD45" s="217"/>
-      <c r="AE45" s="217"/>
-      <c r="AF45" s="218"/>
-      <c r="AG45" s="185"/>
-      <c r="AH45" s="186"/>
-      <c r="AI45" s="220"/>
-      <c r="AJ45" s="220"/>
-      <c r="AK45" s="220"/>
-      <c r="AL45" s="220"/>
-      <c r="AM45" s="222"/>
-      <c r="AN45" s="223"/>
-      <c r="AO45" s="223"/>
-      <c r="AP45" s="223"/>
-      <c r="AQ45" s="223"/>
-      <c r="AR45" s="223"/>
-      <c r="AS45" s="223"/>
-      <c r="AT45" s="223"/>
-      <c r="AU45" s="223"/>
-      <c r="AV45" s="185"/>
-      <c r="AW45" s="186"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="272"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="272"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="274"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="206"/>
+      <c r="M45" s="206"/>
+      <c r="N45" s="206"/>
+      <c r="O45" s="206"/>
+      <c r="P45" s="206"/>
+      <c r="Q45" s="206"/>
+      <c r="R45" s="277"/>
+      <c r="S45" s="278"/>
+      <c r="T45" s="280"/>
+      <c r="U45" s="280"/>
+      <c r="V45" s="280"/>
+      <c r="W45" s="280"/>
+      <c r="X45" s="207"/>
+      <c r="Y45" s="208"/>
+      <c r="Z45" s="208"/>
+      <c r="AA45" s="208"/>
+      <c r="AB45" s="208"/>
+      <c r="AC45" s="208"/>
+      <c r="AD45" s="208"/>
+      <c r="AE45" s="208"/>
+      <c r="AF45" s="209"/>
+      <c r="AG45" s="210"/>
+      <c r="AH45" s="211"/>
+      <c r="AI45" s="213"/>
+      <c r="AJ45" s="213"/>
+      <c r="AK45" s="213"/>
+      <c r="AL45" s="213"/>
+      <c r="AM45" s="215"/>
+      <c r="AN45" s="216"/>
+      <c r="AO45" s="216"/>
+      <c r="AP45" s="216"/>
+      <c r="AQ45" s="216"/>
+      <c r="AR45" s="216"/>
+      <c r="AS45" s="216"/>
+      <c r="AT45" s="216"/>
+      <c r="AU45" s="216"/>
+      <c r="AV45" s="210"/>
+      <c r="AW45" s="211"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
@@ -7985,86 +7985,86 @@
       <c r="CW45" s="10"/>
     </row>
     <row r="46" spans="1:101" ht="12" customHeight="1">
-      <c r="B46" s="179"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="168" t="s">
+      <c r="B46" s="139"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="58" t="s">
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="238" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="38" t="s">
+      <c r="I46" s="232"/>
+      <c r="J46" s="232"/>
+      <c r="K46" s="232"/>
+      <c r="L46" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="38"/>
-      <c r="N46" s="62" t="s">
+      <c r="M46" s="234"/>
+      <c r="N46" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="O46" s="62"/>
-      <c r="P46" s="38" t="s">
+      <c r="O46" s="236"/>
+      <c r="P46" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="62" t="s">
+      <c r="Q46" s="234"/>
+      <c r="R46" s="236" t="s">
         <v>82</v>
       </c>
-      <c r="S46" s="62"/>
-      <c r="T46" s="38" t="s">
+      <c r="S46" s="236"/>
+      <c r="T46" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="U46" s="38"/>
-      <c r="V46" s="205" t="s">
+      <c r="U46" s="234"/>
+      <c r="V46" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="W46" s="205"/>
-      <c r="X46" s="59" t="s">
+      <c r="W46" s="230"/>
+      <c r="X46" s="232" t="s">
         <v>83</v>
       </c>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="38" t="s">
+      <c r="Y46" s="232"/>
+      <c r="Z46" s="232"/>
+      <c r="AA46" s="232"/>
+      <c r="AB46" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AC46" s="38"/>
-      <c r="AD46" s="62" t="s">
+      <c r="AC46" s="234"/>
+      <c r="AD46" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="38" t="s">
+      <c r="AE46" s="236"/>
+      <c r="AF46" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="62" t="s">
+      <c r="AG46" s="234"/>
+      <c r="AH46" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="AI46" s="62"/>
-      <c r="AJ46" s="38" t="s">
+      <c r="AI46" s="236"/>
+      <c r="AJ46" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="207" t="s">
+      <c r="AK46" s="234"/>
+      <c r="AL46" s="234"/>
+      <c r="AM46" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="AN46" s="209" t="s">
+      <c r="AN46" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="AO46" s="209"/>
-      <c r="AP46" s="209"/>
-      <c r="AQ46" s="209"/>
-      <c r="AR46" s="209"/>
-      <c r="AS46" s="209"/>
-      <c r="AT46" s="209"/>
-      <c r="AU46" s="209"/>
-      <c r="AV46" s="209"/>
-      <c r="AW46" s="211" t="s">
+      <c r="AO46" s="242"/>
+      <c r="AP46" s="242"/>
+      <c r="AQ46" s="242"/>
+      <c r="AR46" s="242"/>
+      <c r="AS46" s="242"/>
+      <c r="AT46" s="242"/>
+      <c r="AU46" s="242"/>
+      <c r="AV46" s="242"/>
+      <c r="AW46" s="244" t="s">
         <v>41</v>
       </c>
       <c r="AX46" s="10"/>
@@ -8121,54 +8121,54 @@
       <c r="CW46" s="10"/>
     </row>
     <row r="47" spans="1:101" ht="12" customHeight="1">
-      <c r="B47" s="179"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="63"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="206"/>
-      <c r="W47" s="206"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="63"/>
-      <c r="AE47" s="63"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="63"/>
-      <c r="AI47" s="63"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="208"/>
-      <c r="AN47" s="210"/>
-      <c r="AO47" s="210"/>
-      <c r="AP47" s="210"/>
-      <c r="AQ47" s="210"/>
-      <c r="AR47" s="210"/>
-      <c r="AS47" s="210"/>
-      <c r="AT47" s="210"/>
-      <c r="AU47" s="210"/>
-      <c r="AV47" s="210"/>
-      <c r="AW47" s="212"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="233"/>
+      <c r="L47" s="235"/>
+      <c r="M47" s="235"/>
+      <c r="N47" s="237"/>
+      <c r="O47" s="237"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="235"/>
+      <c r="R47" s="237"/>
+      <c r="S47" s="237"/>
+      <c r="T47" s="235"/>
+      <c r="U47" s="235"/>
+      <c r="V47" s="231"/>
+      <c r="W47" s="231"/>
+      <c r="X47" s="233"/>
+      <c r="Y47" s="233"/>
+      <c r="Z47" s="233"/>
+      <c r="AA47" s="233"/>
+      <c r="AB47" s="235"/>
+      <c r="AC47" s="235"/>
+      <c r="AD47" s="237"/>
+      <c r="AE47" s="237"/>
+      <c r="AF47" s="235"/>
+      <c r="AG47" s="235"/>
+      <c r="AH47" s="237"/>
+      <c r="AI47" s="237"/>
+      <c r="AJ47" s="235"/>
+      <c r="AK47" s="235"/>
+      <c r="AL47" s="235"/>
+      <c r="AM47" s="241"/>
+      <c r="AN47" s="243"/>
+      <c r="AO47" s="243"/>
+      <c r="AP47" s="243"/>
+      <c r="AQ47" s="243"/>
+      <c r="AR47" s="243"/>
+      <c r="AS47" s="243"/>
+      <c r="AT47" s="243"/>
+      <c r="AU47" s="243"/>
+      <c r="AV47" s="243"/>
+      <c r="AW47" s="245"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
@@ -8176,8 +8176,8 @@
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
-      <c r="BE47" s="198"/>
-      <c r="BF47" s="198"/>
+      <c r="BE47" s="219"/>
+      <c r="BF47" s="219"/>
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
       <c r="BI47" s="10"/>
@@ -8224,68 +8224,68 @@
     </row>
     <row r="48" spans="1:101" ht="12" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="180"/>
-      <c r="D48" s="168" t="s">
+      <c r="B48" s="139"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="44" t="s">
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="199" t="s">
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="N48" s="199"/>
-      <c r="O48" s="199"/>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="201" t="s">
+      <c r="N48" s="221"/>
+      <c r="O48" s="221"/>
+      <c r="P48" s="221"/>
+      <c r="Q48" s="221"/>
+      <c r="R48" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="160"/>
-      <c r="T48" s="160"/>
-      <c r="U48" s="202"/>
-      <c r="V48" s="43" t="s">
+      <c r="S48" s="224"/>
+      <c r="T48" s="224"/>
+      <c r="U48" s="225"/>
+      <c r="V48" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="156" t="s">
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="255" t="s">
         <v>117</v>
       </c>
-      <c r="AC48" s="157"/>
-      <c r="AD48" s="157"/>
-      <c r="AE48" s="157"/>
-      <c r="AF48" s="157"/>
-      <c r="AG48" s="157"/>
-      <c r="AH48" s="157"/>
-      <c r="AI48" s="160" t="s">
+      <c r="AC48" s="256"/>
+      <c r="AD48" s="256"/>
+      <c r="AE48" s="256"/>
+      <c r="AF48" s="256"/>
+      <c r="AG48" s="256"/>
+      <c r="AH48" s="256"/>
+      <c r="AI48" s="224" t="s">
         <v>23</v>
       </c>
-      <c r="AJ48" s="160"/>
-      <c r="AK48" s="160"/>
-      <c r="AL48" s="161"/>
-      <c r="AM48" s="164"/>
-      <c r="AN48" s="164"/>
-      <c r="AO48" s="164"/>
-      <c r="AP48" s="164"/>
-      <c r="AQ48" s="164"/>
-      <c r="AR48" s="164"/>
-      <c r="AS48" s="164"/>
-      <c r="AT48" s="164"/>
-      <c r="AU48" s="164"/>
-      <c r="AV48" s="164"/>
-      <c r="AW48" s="165"/>
+      <c r="AJ48" s="224"/>
+      <c r="AK48" s="224"/>
+      <c r="AL48" s="259"/>
+      <c r="AM48" s="260"/>
+      <c r="AN48" s="260"/>
+      <c r="AO48" s="260"/>
+      <c r="AP48" s="260"/>
+      <c r="AQ48" s="260"/>
+      <c r="AR48" s="260"/>
+      <c r="AS48" s="260"/>
+      <c r="AT48" s="260"/>
+      <c r="AU48" s="260"/>
+      <c r="AV48" s="260"/>
+      <c r="AW48" s="261"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
@@ -8340,54 +8340,54 @@
     </row>
     <row r="49" spans="1:100" ht="12" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="200"/>
-      <c r="N49" s="200"/>
-      <c r="O49" s="200"/>
-      <c r="P49" s="200"/>
-      <c r="Q49" s="200"/>
-      <c r="R49" s="203"/>
-      <c r="S49" s="162"/>
-      <c r="T49" s="162"/>
-      <c r="U49" s="204"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="48"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="159"/>
-      <c r="AD49" s="159"/>
-      <c r="AE49" s="159"/>
-      <c r="AF49" s="159"/>
-      <c r="AG49" s="159"/>
-      <c r="AH49" s="159"/>
-      <c r="AI49" s="162"/>
-      <c r="AJ49" s="162"/>
-      <c r="AK49" s="162"/>
-      <c r="AL49" s="163"/>
-      <c r="AM49" s="166"/>
-      <c r="AN49" s="166"/>
-      <c r="AO49" s="166"/>
-      <c r="AP49" s="166"/>
-      <c r="AQ49" s="166"/>
-      <c r="AR49" s="166"/>
-      <c r="AS49" s="166"/>
-      <c r="AT49" s="166"/>
-      <c r="AU49" s="166"/>
-      <c r="AV49" s="166"/>
-      <c r="AW49" s="167"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="220"/>
+      <c r="L49" s="220"/>
+      <c r="M49" s="222"/>
+      <c r="N49" s="222"/>
+      <c r="O49" s="222"/>
+      <c r="P49" s="222"/>
+      <c r="Q49" s="222"/>
+      <c r="R49" s="179"/>
+      <c r="S49" s="226"/>
+      <c r="T49" s="226"/>
+      <c r="U49" s="227"/>
+      <c r="V49" s="228"/>
+      <c r="W49" s="220"/>
+      <c r="X49" s="220"/>
+      <c r="Y49" s="220"/>
+      <c r="Z49" s="220"/>
+      <c r="AA49" s="229"/>
+      <c r="AB49" s="257"/>
+      <c r="AC49" s="258"/>
+      <c r="AD49" s="258"/>
+      <c r="AE49" s="258"/>
+      <c r="AF49" s="258"/>
+      <c r="AG49" s="258"/>
+      <c r="AH49" s="258"/>
+      <c r="AI49" s="226"/>
+      <c r="AJ49" s="226"/>
+      <c r="AK49" s="226"/>
+      <c r="AL49" s="180"/>
+      <c r="AM49" s="262"/>
+      <c r="AN49" s="262"/>
+      <c r="AO49" s="262"/>
+      <c r="AP49" s="262"/>
+      <c r="AQ49" s="262"/>
+      <c r="AR49" s="262"/>
+      <c r="AS49" s="262"/>
+      <c r="AT49" s="262"/>
+      <c r="AU49" s="262"/>
+      <c r="AV49" s="262"/>
+      <c r="AW49" s="263"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -8442,64 +8442,64 @@
     </row>
     <row r="50" spans="1:100" ht="12" customHeight="1">
       <c r="A50" s="12"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="168" t="s">
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="40" t="s">
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="169" t="s">
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="264" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="169"/>
-      <c r="Q50" s="169"/>
-      <c r="R50" s="169"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43" t="s">
+      <c r="M50" s="264"/>
+      <c r="N50" s="264"/>
+      <c r="O50" s="264"/>
+      <c r="P50" s="264"/>
+      <c r="Q50" s="264"/>
+      <c r="R50" s="264"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="171" t="s">
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="266" t="s">
         <v>144</v>
       </c>
-      <c r="AC50" s="172"/>
-      <c r="AD50" s="172"/>
-      <c r="AE50" s="172"/>
-      <c r="AF50" s="172"/>
-      <c r="AG50" s="172"/>
-      <c r="AH50" s="172"/>
-      <c r="AI50" s="172"/>
-      <c r="AJ50" s="172"/>
-      <c r="AK50" s="172"/>
-      <c r="AL50" s="172"/>
-      <c r="AM50" s="172"/>
-      <c r="AN50" s="172"/>
-      <c r="AO50" s="172"/>
-      <c r="AP50" s="172"/>
-      <c r="AQ50" s="172"/>
-      <c r="AR50" s="172"/>
-      <c r="AS50" s="172"/>
-      <c r="AT50" s="172"/>
-      <c r="AU50" s="172"/>
-      <c r="AV50" s="172"/>
-      <c r="AW50" s="173"/>
+      <c r="AC50" s="267"/>
+      <c r="AD50" s="267"/>
+      <c r="AE50" s="267"/>
+      <c r="AF50" s="267"/>
+      <c r="AG50" s="267"/>
+      <c r="AH50" s="267"/>
+      <c r="AI50" s="267"/>
+      <c r="AJ50" s="267"/>
+      <c r="AK50" s="267"/>
+      <c r="AL50" s="267"/>
+      <c r="AM50" s="267"/>
+      <c r="AN50" s="267"/>
+      <c r="AO50" s="267"/>
+      <c r="AP50" s="267"/>
+      <c r="AQ50" s="267"/>
+      <c r="AR50" s="267"/>
+      <c r="AS50" s="267"/>
+      <c r="AT50" s="267"/>
+      <c r="AU50" s="267"/>
+      <c r="AV50" s="267"/>
+      <c r="AW50" s="268"/>
       <c r="AX50" s="10"/>
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
@@ -8554,54 +8554,54 @@
     </row>
     <row r="51" spans="1:100" ht="12" customHeight="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="181"/>
-      <c r="C51" s="182"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="170"/>
-      <c r="R51" s="170"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
-      <c r="Z51" s="47"/>
-      <c r="AA51" s="48"/>
-      <c r="AB51" s="174"/>
-      <c r="AC51" s="175"/>
-      <c r="AD51" s="175"/>
-      <c r="AE51" s="175"/>
-      <c r="AF51" s="175"/>
-      <c r="AG51" s="175"/>
-      <c r="AH51" s="175"/>
-      <c r="AI51" s="175"/>
-      <c r="AJ51" s="175"/>
-      <c r="AK51" s="175"/>
-      <c r="AL51" s="175"/>
-      <c r="AM51" s="175"/>
-      <c r="AN51" s="175"/>
-      <c r="AO51" s="175"/>
-      <c r="AP51" s="175"/>
-      <c r="AQ51" s="175"/>
-      <c r="AR51" s="175"/>
-      <c r="AS51" s="175"/>
-      <c r="AT51" s="175"/>
-      <c r="AU51" s="175"/>
-      <c r="AV51" s="175"/>
-      <c r="AW51" s="176"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="228"/>
+      <c r="I51" s="220"/>
+      <c r="J51" s="220"/>
+      <c r="K51" s="220"/>
+      <c r="L51" s="265"/>
+      <c r="M51" s="265"/>
+      <c r="N51" s="265"/>
+      <c r="O51" s="265"/>
+      <c r="P51" s="265"/>
+      <c r="Q51" s="265"/>
+      <c r="R51" s="265"/>
+      <c r="S51" s="220"/>
+      <c r="T51" s="220"/>
+      <c r="U51" s="229"/>
+      <c r="V51" s="228"/>
+      <c r="W51" s="220"/>
+      <c r="X51" s="220"/>
+      <c r="Y51" s="220"/>
+      <c r="Z51" s="220"/>
+      <c r="AA51" s="229"/>
+      <c r="AB51" s="269"/>
+      <c r="AC51" s="270"/>
+      <c r="AD51" s="270"/>
+      <c r="AE51" s="270"/>
+      <c r="AF51" s="270"/>
+      <c r="AG51" s="270"/>
+      <c r="AH51" s="270"/>
+      <c r="AI51" s="270"/>
+      <c r="AJ51" s="270"/>
+      <c r="AK51" s="270"/>
+      <c r="AL51" s="270"/>
+      <c r="AM51" s="270"/>
+      <c r="AN51" s="270"/>
+      <c r="AO51" s="270"/>
+      <c r="AP51" s="270"/>
+      <c r="AQ51" s="270"/>
+      <c r="AR51" s="270"/>
+      <c r="AS51" s="270"/>
+      <c r="AT51" s="270"/>
+      <c r="AU51" s="270"/>
+      <c r="AV51" s="270"/>
+      <c r="AW51" s="271"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="10"/>
       <c r="AZ51" s="10"/>
@@ -8859,221 +8859,221 @@
       <c r="CV53" s="10"/>
     </row>
     <row r="54" spans="1:100" ht="12" customHeight="1">
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="132" t="s">
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="133" t="s">
+      <c r="I54" s="93"/>
+      <c r="J54" s="93"/>
+      <c r="K54" s="93"/>
+      <c r="L54" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="M54" s="134"/>
-      <c r="N54" s="134"/>
-      <c r="O54" s="134"/>
-      <c r="P54" s="134"/>
-      <c r="Q54" s="134"/>
-      <c r="R54" s="134"/>
-      <c r="S54" s="134"/>
-      <c r="T54" s="134"/>
-      <c r="U54" s="134"/>
-      <c r="V54" s="134"/>
-      <c r="W54" s="134"/>
-      <c r="X54" s="134"/>
-      <c r="Y54" s="134"/>
-      <c r="Z54" s="134"/>
-      <c r="AA54" s="134"/>
-      <c r="AB54" s="134"/>
-      <c r="AC54" s="134"/>
-      <c r="AD54" s="134"/>
-      <c r="AE54" s="134"/>
-      <c r="AF54" s="134"/>
-      <c r="AG54" s="134"/>
-      <c r="AH54" s="135"/>
-      <c r="AI54" s="139" t="s">
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
+      <c r="AF54" s="95"/>
+      <c r="AG54" s="95"/>
+      <c r="AH54" s="96"/>
+      <c r="AI54" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AJ54" s="140"/>
-      <c r="AK54" s="140"/>
-      <c r="AL54" s="141"/>
-      <c r="AM54" s="145" t="s">
+      <c r="AJ54" s="101"/>
+      <c r="AK54" s="101"/>
+      <c r="AL54" s="250"/>
+      <c r="AM54" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="AN54" s="146"/>
-      <c r="AO54" s="146"/>
-      <c r="AP54" s="146"/>
-      <c r="AQ54" s="146"/>
-      <c r="AR54" s="146"/>
-      <c r="AS54" s="146"/>
-      <c r="AT54" s="146"/>
-      <c r="AU54" s="146"/>
-      <c r="AV54" s="146"/>
-      <c r="AW54" s="147"/>
+      <c r="AN54" s="115"/>
+      <c r="AO54" s="115"/>
+      <c r="AP54" s="115"/>
+      <c r="AQ54" s="115"/>
+      <c r="AR54" s="115"/>
+      <c r="AS54" s="115"/>
+      <c r="AT54" s="115"/>
+      <c r="AU54" s="115"/>
+      <c r="AV54" s="115"/>
+      <c r="AW54" s="253"/>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:100" ht="12" customHeight="1">
-      <c r="B55" s="126"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="127"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="137"/>
-      <c r="N55" s="137"/>
-      <c r="O55" s="137"/>
-      <c r="P55" s="137"/>
-      <c r="Q55" s="137"/>
-      <c r="R55" s="137"/>
-      <c r="S55" s="137"/>
-      <c r="T55" s="137"/>
-      <c r="U55" s="137"/>
-      <c r="V55" s="137"/>
-      <c r="W55" s="137"/>
-      <c r="X55" s="137"/>
-      <c r="Y55" s="137"/>
-      <c r="Z55" s="137"/>
-      <c r="AA55" s="137"/>
-      <c r="AB55" s="137"/>
-      <c r="AC55" s="137"/>
-      <c r="AD55" s="137"/>
-      <c r="AE55" s="137"/>
-      <c r="AF55" s="137"/>
-      <c r="AG55" s="137"/>
-      <c r="AH55" s="138"/>
-      <c r="AI55" s="142"/>
-      <c r="AJ55" s="143"/>
-      <c r="AK55" s="143"/>
-      <c r="AL55" s="144"/>
-      <c r="AM55" s="148"/>
-      <c r="AN55" s="149"/>
-      <c r="AO55" s="149"/>
-      <c r="AP55" s="149"/>
-      <c r="AQ55" s="149"/>
-      <c r="AR55" s="149"/>
-      <c r="AS55" s="149"/>
-      <c r="AT55" s="149"/>
-      <c r="AU55" s="149"/>
-      <c r="AV55" s="149"/>
-      <c r="AW55" s="150"/>
+      <c r="B55" s="246"/>
+      <c r="C55" s="247"/>
+      <c r="D55" s="247"/>
+      <c r="E55" s="247"/>
+      <c r="F55" s="247"/>
+      <c r="G55" s="248"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="97"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="98"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
+      <c r="AC55" s="98"/>
+      <c r="AD55" s="98"/>
+      <c r="AE55" s="98"/>
+      <c r="AF55" s="98"/>
+      <c r="AG55" s="98"/>
+      <c r="AH55" s="99"/>
+      <c r="AI55" s="251"/>
+      <c r="AJ55" s="104"/>
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="252"/>
+      <c r="AM55" s="116"/>
+      <c r="AN55" s="117"/>
+      <c r="AO55" s="117"/>
+      <c r="AP55" s="117"/>
+      <c r="AQ55" s="117"/>
+      <c r="AR55" s="117"/>
+      <c r="AS55" s="117"/>
+      <c r="AT55" s="117"/>
+      <c r="AU55" s="117"/>
+      <c r="AV55" s="117"/>
+      <c r="AW55" s="254"/>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:100" ht="12" customHeight="1">
-      <c r="B56" s="126"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="132" t="s">
+      <c r="B56" s="246"/>
+      <c r="C56" s="247"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="247"/>
+      <c r="F56" s="247"/>
+      <c r="G56" s="248"/>
+      <c r="H56" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="151" t="s">
+      <c r="I56" s="93"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="M56" s="152"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="152"/>
-      <c r="P56" s="152"/>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152"/>
-      <c r="S56" s="152"/>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="152"/>
-      <c r="W56" s="152"/>
-      <c r="X56" s="152"/>
-      <c r="Y56" s="152"/>
-      <c r="Z56" s="152"/>
-      <c r="AA56" s="152"/>
-      <c r="AB56" s="152"/>
-      <c r="AC56" s="152"/>
-      <c r="AD56" s="152"/>
-      <c r="AE56" s="152"/>
-      <c r="AF56" s="152"/>
-      <c r="AG56" s="152"/>
-      <c r="AH56" s="152"/>
-      <c r="AI56" s="152"/>
-      <c r="AJ56" s="152"/>
-      <c r="AK56" s="152"/>
-      <c r="AL56" s="152"/>
-      <c r="AM56" s="152"/>
-      <c r="AN56" s="152"/>
-      <c r="AO56" s="152"/>
-      <c r="AP56" s="152"/>
-      <c r="AQ56" s="152"/>
-      <c r="AR56" s="152"/>
-      <c r="AS56" s="152"/>
-      <c r="AT56" s="152"/>
-      <c r="AU56" s="152"/>
-      <c r="AV56" s="152"/>
-      <c r="AW56" s="153"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+      <c r="W56" s="131"/>
+      <c r="X56" s="131"/>
+      <c r="Y56" s="131"/>
+      <c r="Z56" s="131"/>
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="131"/>
+      <c r="AC56" s="131"/>
+      <c r="AD56" s="131"/>
+      <c r="AE56" s="131"/>
+      <c r="AF56" s="131"/>
+      <c r="AG56" s="131"/>
+      <c r="AH56" s="131"/>
+      <c r="AI56" s="131"/>
+      <c r="AJ56" s="131"/>
+      <c r="AK56" s="131"/>
+      <c r="AL56" s="131"/>
+      <c r="AM56" s="131"/>
+      <c r="AN56" s="131"/>
+      <c r="AO56" s="131"/>
+      <c r="AP56" s="131"/>
+      <c r="AQ56" s="131"/>
+      <c r="AR56" s="131"/>
+      <c r="AS56" s="131"/>
+      <c r="AT56" s="131"/>
+      <c r="AU56" s="131"/>
+      <c r="AV56" s="131"/>
+      <c r="AW56" s="136"/>
       <c r="AY56" s="7"/>
     </row>
     <row r="57" spans="1:100" ht="12" customHeight="1">
-      <c r="B57" s="129"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="154"/>
-      <c r="M57" s="137"/>
-      <c r="N57" s="137"/>
-      <c r="O57" s="137"/>
-      <c r="P57" s="137"/>
-      <c r="Q57" s="137"/>
-      <c r="R57" s="137"/>
-      <c r="S57" s="137"/>
-      <c r="T57" s="137"/>
-      <c r="U57" s="137"/>
-      <c r="V57" s="137"/>
-      <c r="W57" s="137"/>
-      <c r="X57" s="137"/>
-      <c r="Y57" s="137"/>
-      <c r="Z57" s="137"/>
-      <c r="AA57" s="137"/>
-      <c r="AB57" s="137"/>
-      <c r="AC57" s="137"/>
-      <c r="AD57" s="137"/>
-      <c r="AE57" s="137"/>
-      <c r="AF57" s="137"/>
-      <c r="AG57" s="137"/>
-      <c r="AH57" s="137"/>
-      <c r="AI57" s="137"/>
-      <c r="AJ57" s="137"/>
-      <c r="AK57" s="137"/>
-      <c r="AL57" s="137"/>
-      <c r="AM57" s="137"/>
-      <c r="AN57" s="137"/>
-      <c r="AO57" s="137"/>
-      <c r="AP57" s="137"/>
-      <c r="AQ57" s="137"/>
-      <c r="AR57" s="137"/>
-      <c r="AS57" s="137"/>
-      <c r="AT57" s="137"/>
-      <c r="AU57" s="137"/>
-      <c r="AV57" s="137"/>
-      <c r="AW57" s="155"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="93"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="98"/>
+      <c r="O57" s="98"/>
+      <c r="P57" s="98"/>
+      <c r="Q57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="S57" s="98"/>
+      <c r="T57" s="98"/>
+      <c r="U57" s="98"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
+      <c r="X57" s="98"/>
+      <c r="Y57" s="98"/>
+      <c r="Z57" s="98"/>
+      <c r="AA57" s="98"/>
+      <c r="AB57" s="98"/>
+      <c r="AC57" s="98"/>
+      <c r="AD57" s="98"/>
+      <c r="AE57" s="98"/>
+      <c r="AF57" s="98"/>
+      <c r="AG57" s="98"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="98"/>
+      <c r="AJ57" s="98"/>
+      <c r="AK57" s="98"/>
+      <c r="AL57" s="98"/>
+      <c r="AM57" s="98"/>
+      <c r="AN57" s="98"/>
+      <c r="AO57" s="98"/>
+      <c r="AP57" s="98"/>
+      <c r="AQ57" s="98"/>
+      <c r="AR57" s="98"/>
+      <c r="AS57" s="98"/>
+      <c r="AT57" s="98"/>
+      <c r="AU57" s="98"/>
+      <c r="AV57" s="98"/>
+      <c r="AW57" s="109"/>
       <c r="AY57" s="7"/>
     </row>
     <row r="58" spans="1:100" ht="12" customHeight="1">
@@ -9231,74 +9231,74 @@
     </row>
     <row r="60" spans="1:100" ht="12" customHeight="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="117" t="s">
+      <c r="B60" s="281" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="118"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="118"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="58" t="s">
+      <c r="C60" s="282"/>
+      <c r="D60" s="282"/>
+      <c r="E60" s="282"/>
+      <c r="F60" s="282"/>
+      <c r="G60" s="283"/>
+      <c r="H60" s="238" t="s">
         <v>119</v>
       </c>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="38" t="s">
+      <c r="I60" s="232"/>
+      <c r="J60" s="232"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="62" t="s">
+      <c r="M60" s="234"/>
+      <c r="N60" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="O60" s="62"/>
-      <c r="P60" s="38" t="s">
+      <c r="O60" s="236"/>
+      <c r="P60" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="62" t="s">
+      <c r="Q60" s="234"/>
+      <c r="R60" s="236" t="s">
         <v>121</v>
       </c>
-      <c r="S60" s="62"/>
-      <c r="T60" s="38" t="s">
+      <c r="S60" s="236"/>
+      <c r="T60" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="38"/>
-      <c r="V60" s="40" t="s">
+      <c r="U60" s="234"/>
+      <c r="V60" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="W60" s="41"/>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="41"/>
-      <c r="Z60" s="41"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="58" t="s">
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="58"/>
+      <c r="AB60" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="AC60" s="59"/>
-      <c r="AD60" s="59"/>
-      <c r="AE60" s="59"/>
-      <c r="AF60" s="38" t="s">
+      <c r="AC60" s="232"/>
+      <c r="AD60" s="232"/>
+      <c r="AE60" s="232"/>
+      <c r="AF60" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AG60" s="38"/>
-      <c r="AH60" s="62" t="s">
+      <c r="AG60" s="234"/>
+      <c r="AH60" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="AI60" s="62"/>
-      <c r="AJ60" s="38" t="s">
+      <c r="AI60" s="236"/>
+      <c r="AJ60" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="62" t="s">
+      <c r="AK60" s="234"/>
+      <c r="AL60" s="236" t="s">
         <v>91</v>
       </c>
-      <c r="AM60" s="62"/>
-      <c r="AN60" s="38" t="s">
+      <c r="AM60" s="236"/>
+      <c r="AN60" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AO60" s="38"/>
+      <c r="AO60" s="234"/>
       <c r="AP60" s="32"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -9351,46 +9351,46 @@
     </row>
     <row r="61" spans="1:100" ht="12" customHeight="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="120"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="47"/>
-      <c r="X61" s="47"/>
-      <c r="Y61" s="47"/>
-      <c r="Z61" s="47"/>
-      <c r="AA61" s="48"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="61"/>
-      <c r="AD61" s="61"/>
-      <c r="AE61" s="61"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="63"/>
-      <c r="AI61" s="63"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="63"/>
-      <c r="AM61" s="63"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
+      <c r="B61" s="284"/>
+      <c r="C61" s="285"/>
+      <c r="D61" s="285"/>
+      <c r="E61" s="285"/>
+      <c r="F61" s="285"/>
+      <c r="G61" s="286"/>
+      <c r="H61" s="239"/>
+      <c r="I61" s="233"/>
+      <c r="J61" s="233"/>
+      <c r="K61" s="233"/>
+      <c r="L61" s="235"/>
+      <c r="M61" s="235"/>
+      <c r="N61" s="237"/>
+      <c r="O61" s="237"/>
+      <c r="P61" s="235"/>
+      <c r="Q61" s="235"/>
+      <c r="R61" s="237"/>
+      <c r="S61" s="237"/>
+      <c r="T61" s="235"/>
+      <c r="U61" s="235"/>
+      <c r="V61" s="228"/>
+      <c r="W61" s="220"/>
+      <c r="X61" s="220"/>
+      <c r="Y61" s="220"/>
+      <c r="Z61" s="220"/>
+      <c r="AA61" s="229"/>
+      <c r="AB61" s="239"/>
+      <c r="AC61" s="233"/>
+      <c r="AD61" s="233"/>
+      <c r="AE61" s="233"/>
+      <c r="AF61" s="235"/>
+      <c r="AG61" s="235"/>
+      <c r="AH61" s="237"/>
+      <c r="AI61" s="237"/>
+      <c r="AJ61" s="235"/>
+      <c r="AK61" s="235"/>
+      <c r="AL61" s="237"/>
+      <c r="AM61" s="237"/>
+      <c r="AN61" s="235"/>
+      <c r="AO61" s="235"/>
       <c r="AP61" s="32"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -9443,74 +9443,74 @@
     </row>
     <row r="62" spans="1:100" ht="12" customHeight="1">
       <c r="A62" s="10"/>
-      <c r="B62" s="117" t="s">
+      <c r="B62" s="281" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="118"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="118"/>
-      <c r="F62" s="118"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="58" t="s">
+      <c r="C62" s="282"/>
+      <c r="D62" s="282"/>
+      <c r="E62" s="282"/>
+      <c r="F62" s="282"/>
+      <c r="G62" s="283"/>
+      <c r="H62" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="38" t="s">
+      <c r="I62" s="232"/>
+      <c r="J62" s="232"/>
+      <c r="K62" s="232"/>
+      <c r="L62" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="M62" s="38"/>
-      <c r="N62" s="62" t="s">
+      <c r="M62" s="234"/>
+      <c r="N62" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="O62" s="62"/>
-      <c r="P62" s="38" t="s">
+      <c r="O62" s="236"/>
+      <c r="P62" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="62" t="s">
+      <c r="Q62" s="234"/>
+      <c r="R62" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="S62" s="62"/>
-      <c r="T62" s="38" t="s">
+      <c r="S62" s="236"/>
+      <c r="T62" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38" t="s">
+      <c r="U62" s="234"/>
+      <c r="V62" s="234" t="s">
         <v>63</v>
       </c>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="59" t="s">
+      <c r="W62" s="234"/>
+      <c r="X62" s="234"/>
+      <c r="Y62" s="234"/>
+      <c r="Z62" s="234"/>
+      <c r="AA62" s="234"/>
+      <c r="AB62" s="232" t="s">
         <v>122</v>
       </c>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="59"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="38" t="s">
+      <c r="AC62" s="232"/>
+      <c r="AD62" s="232"/>
+      <c r="AE62" s="232"/>
+      <c r="AF62" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AG62" s="38"/>
-      <c r="AH62" s="62" t="s">
+      <c r="AG62" s="234"/>
+      <c r="AH62" s="236" t="s">
         <v>123</v>
       </c>
-      <c r="AI62" s="62"/>
-      <c r="AJ62" s="38" t="s">
+      <c r="AI62" s="236"/>
+      <c r="AJ62" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AK62" s="38"/>
-      <c r="AL62" s="62" t="s">
+      <c r="AK62" s="234"/>
+      <c r="AL62" s="236" t="s">
         <v>124</v>
       </c>
-      <c r="AM62" s="62"/>
-      <c r="AN62" s="38" t="s">
+      <c r="AM62" s="236"/>
+      <c r="AN62" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AO62" s="38"/>
+      <c r="AO62" s="234"/>
       <c r="AP62" s="32"/>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="10"/>
@@ -9563,46 +9563,46 @@
     </row>
     <row r="63" spans="1:100" ht="12" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="61"/>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="63"/>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="63"/>
-      <c r="AM63" s="63"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
+      <c r="B63" s="284"/>
+      <c r="C63" s="285"/>
+      <c r="D63" s="285"/>
+      <c r="E63" s="285"/>
+      <c r="F63" s="285"/>
+      <c r="G63" s="286"/>
+      <c r="H63" s="239"/>
+      <c r="I63" s="233"/>
+      <c r="J63" s="233"/>
+      <c r="K63" s="233"/>
+      <c r="L63" s="235"/>
+      <c r="M63" s="235"/>
+      <c r="N63" s="237"/>
+      <c r="O63" s="237"/>
+      <c r="P63" s="235"/>
+      <c r="Q63" s="235"/>
+      <c r="R63" s="237"/>
+      <c r="S63" s="237"/>
+      <c r="T63" s="235"/>
+      <c r="U63" s="235"/>
+      <c r="V63" s="235"/>
+      <c r="W63" s="235"/>
+      <c r="X63" s="235"/>
+      <c r="Y63" s="235"/>
+      <c r="Z63" s="235"/>
+      <c r="AA63" s="235"/>
+      <c r="AB63" s="233"/>
+      <c r="AC63" s="233"/>
+      <c r="AD63" s="233"/>
+      <c r="AE63" s="233"/>
+      <c r="AF63" s="235"/>
+      <c r="AG63" s="235"/>
+      <c r="AH63" s="237"/>
+      <c r="AI63" s="237"/>
+      <c r="AJ63" s="235"/>
+      <c r="AK63" s="235"/>
+      <c r="AL63" s="237"/>
+      <c r="AM63" s="237"/>
+      <c r="AN63" s="235"/>
+      <c r="AO63" s="235"/>
       <c r="AP63" s="32"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -9722,68 +9722,68 @@
     </row>
     <row r="65" spans="1:98" ht="12" customHeight="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="114" t="s">
+      <c r="B65" s="287" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="40" t="s">
+      <c r="C65" s="288"/>
+      <c r="D65" s="288"/>
+      <c r="E65" s="288"/>
+      <c r="F65" s="288"/>
+      <c r="G65" s="289"/>
+      <c r="H65" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="92" t="s">
+      <c r="I65" s="57"/>
+      <c r="J65" s="273"/>
+      <c r="K65" s="293" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="93"/>
-      <c r="O65" s="93"/>
-      <c r="P65" s="93"/>
-      <c r="Q65" s="93"/>
-      <c r="R65" s="93"/>
-      <c r="S65" s="94"/>
-      <c r="T65" s="98" t="s">
+      <c r="L65" s="294"/>
+      <c r="M65" s="294"/>
+      <c r="N65" s="294"/>
+      <c r="O65" s="294"/>
+      <c r="P65" s="294"/>
+      <c r="Q65" s="294"/>
+      <c r="R65" s="294"/>
+      <c r="S65" s="295"/>
+      <c r="T65" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="99"/>
-      <c r="V65" s="40" t="s">
+      <c r="U65" s="300"/>
+      <c r="V65" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="42"/>
-      <c r="AB65" s="58" t="s">
+      <c r="W65" s="57"/>
+      <c r="X65" s="57"/>
+      <c r="Y65" s="57"/>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="58"/>
+      <c r="AB65" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="AC65" s="59"/>
-      <c r="AD65" s="59"/>
-      <c r="AE65" s="59"/>
-      <c r="AF65" s="38" t="s">
+      <c r="AC65" s="232"/>
+      <c r="AD65" s="232"/>
+      <c r="AE65" s="232"/>
+      <c r="AF65" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="62" t="s">
+      <c r="AG65" s="234"/>
+      <c r="AH65" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="AI65" s="62"/>
-      <c r="AJ65" s="38" t="s">
+      <c r="AI65" s="236"/>
+      <c r="AJ65" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="62" t="s">
+      <c r="AK65" s="234"/>
+      <c r="AL65" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="AM65" s="62"/>
-      <c r="AN65" s="38" t="s">
+      <c r="AM65" s="236"/>
+      <c r="AN65" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AO65" s="38"/>
+      <c r="AO65" s="234"/>
       <c r="AP65" s="32"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -9816,46 +9816,46 @@
     </row>
     <row r="66" spans="1:98" ht="12" customHeight="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="97"/>
-      <c r="T66" s="100"/>
-      <c r="U66" s="101"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="47"/>
-      <c r="Z66" s="47"/>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="60"/>
-      <c r="AC66" s="61"/>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="61"/>
-      <c r="AF66" s="39"/>
-      <c r="AG66" s="39"/>
-      <c r="AH66" s="63"/>
-      <c r="AI66" s="63"/>
-      <c r="AJ66" s="39"/>
-      <c r="AK66" s="39"/>
-      <c r="AL66" s="63"/>
-      <c r="AM66" s="63"/>
-      <c r="AN66" s="39"/>
-      <c r="AO66" s="39"/>
+      <c r="B66" s="290"/>
+      <c r="C66" s="291"/>
+      <c r="D66" s="291"/>
+      <c r="E66" s="291"/>
+      <c r="F66" s="291"/>
+      <c r="G66" s="292"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="274"/>
+      <c r="K66" s="296"/>
+      <c r="L66" s="297"/>
+      <c r="M66" s="297"/>
+      <c r="N66" s="297"/>
+      <c r="O66" s="297"/>
+      <c r="P66" s="297"/>
+      <c r="Q66" s="297"/>
+      <c r="R66" s="297"/>
+      <c r="S66" s="298"/>
+      <c r="T66" s="301"/>
+      <c r="U66" s="302"/>
+      <c r="V66" s="228"/>
+      <c r="W66" s="220"/>
+      <c r="X66" s="220"/>
+      <c r="Y66" s="220"/>
+      <c r="Z66" s="220"/>
+      <c r="AA66" s="229"/>
+      <c r="AB66" s="239"/>
+      <c r="AC66" s="233"/>
+      <c r="AD66" s="233"/>
+      <c r="AE66" s="233"/>
+      <c r="AF66" s="235"/>
+      <c r="AG66" s="235"/>
+      <c r="AH66" s="237"/>
+      <c r="AI66" s="237"/>
+      <c r="AJ66" s="235"/>
+      <c r="AK66" s="235"/>
+      <c r="AL66" s="237"/>
+      <c r="AM66" s="237"/>
+      <c r="AN66" s="235"/>
+      <c r="AO66" s="235"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -9888,66 +9888,66 @@
     </row>
     <row r="67" spans="1:98" ht="12" customHeight="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="43" t="s">
+      <c r="B67" s="323"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="324"/>
+      <c r="E67" s="324"/>
+      <c r="F67" s="324"/>
+      <c r="G67" s="325"/>
+      <c r="H67" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="44"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="109" t="s">
+      <c r="I67" s="60"/>
+      <c r="J67" s="326"/>
+      <c r="K67" s="327" t="s">
         <v>125</v>
       </c>
-      <c r="L67" s="110"/>
-      <c r="M67" s="110"/>
-      <c r="N67" s="110"/>
-      <c r="O67" s="110"/>
-      <c r="P67" s="110"/>
-      <c r="Q67" s="110"/>
-      <c r="R67" s="110"/>
-      <c r="S67" s="111"/>
-      <c r="T67" s="112" t="s">
+      <c r="L67" s="328"/>
+      <c r="M67" s="328"/>
+      <c r="N67" s="328"/>
+      <c r="O67" s="328"/>
+      <c r="P67" s="328"/>
+      <c r="Q67" s="328"/>
+      <c r="R67" s="328"/>
+      <c r="S67" s="329"/>
+      <c r="T67" s="330" t="s">
         <v>11</v>
       </c>
-      <c r="U67" s="113"/>
-      <c r="V67" s="40" t="s">
+      <c r="U67" s="331"/>
+      <c r="V67" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="58" t="s">
+      <c r="W67" s="57"/>
+      <c r="X67" s="57"/>
+      <c r="Y67" s="57"/>
+      <c r="Z67" s="57"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="238" t="s">
         <v>126</v>
       </c>
-      <c r="AC67" s="59"/>
-      <c r="AD67" s="59"/>
-      <c r="AE67" s="59"/>
-      <c r="AF67" s="38" t="s">
+      <c r="AC67" s="232"/>
+      <c r="AD67" s="232"/>
+      <c r="AE67" s="232"/>
+      <c r="AF67" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AG67" s="38"/>
-      <c r="AH67" s="62" t="s">
+      <c r="AG67" s="234"/>
+      <c r="AH67" s="236" t="s">
         <v>127</v>
       </c>
-      <c r="AI67" s="62"/>
-      <c r="AJ67" s="38" t="s">
+      <c r="AI67" s="236"/>
+      <c r="AJ67" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AK67" s="38"/>
-      <c r="AL67" s="62" t="s">
+      <c r="AK67" s="234"/>
+      <c r="AL67" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="AM67" s="62"/>
-      <c r="AN67" s="38" t="s">
+      <c r="AM67" s="236"/>
+      <c r="AN67" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AO67" s="38"/>
+      <c r="AO67" s="234"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="10"/>
       <c r="AR67" s="10"/>
@@ -9980,46 +9980,46 @@
     </row>
     <row r="68" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="96"/>
-      <c r="P68" s="96"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="97"/>
-      <c r="T68" s="100"/>
-      <c r="U68" s="101"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="47"/>
-      <c r="X68" s="47"/>
-      <c r="Y68" s="47"/>
-      <c r="Z68" s="47"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="60"/>
-      <c r="AC68" s="61"/>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="61"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="63"/>
-      <c r="AI68" s="63"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="63"/>
-      <c r="AM68" s="63"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
+      <c r="B68" s="290"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="291"/>
+      <c r="E68" s="291"/>
+      <c r="F68" s="291"/>
+      <c r="G68" s="292"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="220"/>
+      <c r="J68" s="274"/>
+      <c r="K68" s="296"/>
+      <c r="L68" s="297"/>
+      <c r="M68" s="297"/>
+      <c r="N68" s="297"/>
+      <c r="O68" s="297"/>
+      <c r="P68" s="297"/>
+      <c r="Q68" s="297"/>
+      <c r="R68" s="297"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="301"/>
+      <c r="U68" s="302"/>
+      <c r="V68" s="228"/>
+      <c r="W68" s="220"/>
+      <c r="X68" s="220"/>
+      <c r="Y68" s="220"/>
+      <c r="Z68" s="220"/>
+      <c r="AA68" s="229"/>
+      <c r="AB68" s="239"/>
+      <c r="AC68" s="233"/>
+      <c r="AD68" s="233"/>
+      <c r="AE68" s="233"/>
+      <c r="AF68" s="235"/>
+      <c r="AG68" s="235"/>
+      <c r="AH68" s="237"/>
+      <c r="AI68" s="237"/>
+      <c r="AJ68" s="235"/>
+      <c r="AK68" s="235"/>
+      <c r="AL68" s="237"/>
+      <c r="AM68" s="237"/>
+      <c r="AN68" s="235"/>
+      <c r="AO68" s="235"/>
       <c r="AP68" s="32"/>
       <c r="AQ68" s="10"/>
       <c r="AR68" s="10"/>
@@ -10052,34 +10052,34 @@
     </row>
     <row r="69" spans="1:98" ht="12" customHeight="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="68" t="s">
+      <c r="C69" s="304"/>
+      <c r="D69" s="304"/>
+      <c r="E69" s="304"/>
+      <c r="F69" s="304"/>
+      <c r="G69" s="304"/>
+      <c r="H69" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="69"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="74" t="s">
+      <c r="I69" s="308"/>
+      <c r="J69" s="309"/>
+      <c r="K69" s="313" t="s">
         <v>129</v>
       </c>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="76"/>
-      <c r="T69" s="80" t="s">
+      <c r="L69" s="314"/>
+      <c r="M69" s="314"/>
+      <c r="N69" s="314"/>
+      <c r="O69" s="314"/>
+      <c r="P69" s="314"/>
+      <c r="Q69" s="314"/>
+      <c r="R69" s="314"/>
+      <c r="S69" s="315"/>
+      <c r="T69" s="319" t="s">
         <v>11</v>
       </c>
-      <c r="U69" s="81"/>
+      <c r="U69" s="320"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
@@ -10113,26 +10113,26 @@
     </row>
     <row r="70" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="72"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="79"/>
-      <c r="T70" s="82"/>
-      <c r="U70" s="83"/>
+      <c r="B70" s="305"/>
+      <c r="C70" s="306"/>
+      <c r="D70" s="306"/>
+      <c r="E70" s="306"/>
+      <c r="F70" s="306"/>
+      <c r="G70" s="306"/>
+      <c r="H70" s="310"/>
+      <c r="I70" s="311"/>
+      <c r="J70" s="312"/>
+      <c r="K70" s="316"/>
+      <c r="L70" s="317"/>
+      <c r="M70" s="317"/>
+      <c r="N70" s="317"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="317"/>
+      <c r="Q70" s="317"/>
+      <c r="R70" s="317"/>
+      <c r="S70" s="318"/>
+      <c r="T70" s="321"/>
+      <c r="U70" s="322"/>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
@@ -10233,68 +10233,68 @@
     </row>
     <row r="72" spans="1:98" ht="12" customHeight="1">
       <c r="A72" s="10"/>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="40" t="s">
+      <c r="C72" s="182"/>
+      <c r="D72" s="182"/>
+      <c r="E72" s="182"/>
+      <c r="F72" s="182"/>
+      <c r="G72" s="183"/>
+      <c r="H72" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="92" t="s">
+      <c r="I72" s="57"/>
+      <c r="J72" s="273"/>
+      <c r="K72" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="L72" s="93"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="93"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="98" t="s">
+      <c r="L72" s="294"/>
+      <c r="M72" s="294"/>
+      <c r="N72" s="294"/>
+      <c r="O72" s="294"/>
+      <c r="P72" s="294"/>
+      <c r="Q72" s="294"/>
+      <c r="R72" s="294"/>
+      <c r="S72" s="295"/>
+      <c r="T72" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="U72" s="99"/>
-      <c r="V72" s="40" t="s">
+      <c r="U72" s="300"/>
+      <c r="V72" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="W72" s="41"/>
-      <c r="X72" s="41"/>
-      <c r="Y72" s="41"/>
-      <c r="Z72" s="41"/>
-      <c r="AA72" s="42"/>
-      <c r="AB72" s="58" t="s">
+      <c r="W72" s="57"/>
+      <c r="X72" s="57"/>
+      <c r="Y72" s="57"/>
+      <c r="Z72" s="57"/>
+      <c r="AA72" s="58"/>
+      <c r="AB72" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
-      <c r="AF72" s="38" t="s">
+      <c r="AC72" s="232"/>
+      <c r="AD72" s="232"/>
+      <c r="AE72" s="232"/>
+      <c r="AF72" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="62" t="s">
+      <c r="AG72" s="234"/>
+      <c r="AH72" s="236" t="s">
         <v>99</v>
       </c>
-      <c r="AI72" s="62"/>
-      <c r="AJ72" s="38" t="s">
+      <c r="AI72" s="236"/>
+      <c r="AJ72" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="62" t="s">
+      <c r="AK72" s="234"/>
+      <c r="AL72" s="236" t="s">
         <v>100</v>
       </c>
-      <c r="AM72" s="62"/>
-      <c r="AN72" s="38" t="s">
+      <c r="AM72" s="236"/>
+      <c r="AN72" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AO72" s="38"/>
+      <c r="AO72" s="234"/>
       <c r="AP72" s="35"/>
       <c r="AQ72" s="15"/>
       <c r="AR72" s="10"/>
@@ -10349,46 +10349,46 @@
     </row>
     <row r="73" spans="1:98" ht="12" customHeight="1">
       <c r="A73" s="10"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="91"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="97"/>
-      <c r="T73" s="100"/>
-      <c r="U73" s="101"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="48"/>
-      <c r="AB73" s="60"/>
-      <c r="AC73" s="61"/>
-      <c r="AD73" s="61"/>
-      <c r="AE73" s="61"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="39"/>
-      <c r="AH73" s="63"/>
-      <c r="AI73" s="63"/>
-      <c r="AJ73" s="39"/>
-      <c r="AK73" s="39"/>
-      <c r="AL73" s="63"/>
-      <c r="AM73" s="63"/>
-      <c r="AN73" s="39"/>
-      <c r="AO73" s="39"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="185"/>
+      <c r="D73" s="185"/>
+      <c r="E73" s="185"/>
+      <c r="F73" s="185"/>
+      <c r="G73" s="186"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="274"/>
+      <c r="K73" s="296"/>
+      <c r="L73" s="297"/>
+      <c r="M73" s="297"/>
+      <c r="N73" s="297"/>
+      <c r="O73" s="297"/>
+      <c r="P73" s="297"/>
+      <c r="Q73" s="297"/>
+      <c r="R73" s="297"/>
+      <c r="S73" s="298"/>
+      <c r="T73" s="301"/>
+      <c r="U73" s="302"/>
+      <c r="V73" s="228"/>
+      <c r="W73" s="220"/>
+      <c r="X73" s="220"/>
+      <c r="Y73" s="220"/>
+      <c r="Z73" s="220"/>
+      <c r="AA73" s="229"/>
+      <c r="AB73" s="239"/>
+      <c r="AC73" s="233"/>
+      <c r="AD73" s="233"/>
+      <c r="AE73" s="233"/>
+      <c r="AF73" s="235"/>
+      <c r="AG73" s="235"/>
+      <c r="AH73" s="237"/>
+      <c r="AI73" s="237"/>
+      <c r="AJ73" s="235"/>
+      <c r="AK73" s="235"/>
+      <c r="AL73" s="237"/>
+      <c r="AM73" s="237"/>
+      <c r="AN73" s="235"/>
+      <c r="AO73" s="235"/>
       <c r="AP73" s="35"/>
       <c r="AQ73" s="15"/>
       <c r="AR73" s="10"/>
@@ -10542,375 +10542,375 @@
       <c r="CT74" s="10"/>
     </row>
     <row r="75" spans="1:98" ht="12" customHeight="1">
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="49" t="s">
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="332" t="s">
         <v>101</v>
       </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="50"/>
-      <c r="V75" s="50"/>
-      <c r="W75" s="50"/>
-      <c r="X75" s="50"/>
-      <c r="Y75" s="50"/>
-      <c r="Z75" s="50"/>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="50"/>
-      <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="50"/>
-      <c r="AJ75" s="50"/>
-      <c r="AK75" s="50"/>
-      <c r="AL75" s="50"/>
-      <c r="AM75" s="50"/>
-      <c r="AN75" s="50"/>
-      <c r="AO75" s="50"/>
-      <c r="AP75" s="50"/>
-      <c r="AQ75" s="50"/>
-      <c r="AR75" s="50"/>
-      <c r="AS75" s="50"/>
-      <c r="AT75" s="50"/>
-      <c r="AU75" s="50"/>
-      <c r="AV75" s="50"/>
-      <c r="AW75" s="51"/>
+      <c r="I75" s="333"/>
+      <c r="J75" s="333"/>
+      <c r="K75" s="333"/>
+      <c r="L75" s="333"/>
+      <c r="M75" s="333"/>
+      <c r="N75" s="333"/>
+      <c r="O75" s="333"/>
+      <c r="P75" s="333"/>
+      <c r="Q75" s="333"/>
+      <c r="R75" s="333"/>
+      <c r="S75" s="333"/>
+      <c r="T75" s="333"/>
+      <c r="U75" s="333"/>
+      <c r="V75" s="333"/>
+      <c r="W75" s="333"/>
+      <c r="X75" s="333"/>
+      <c r="Y75" s="333"/>
+      <c r="Z75" s="333"/>
+      <c r="AA75" s="333"/>
+      <c r="AB75" s="333"/>
+      <c r="AC75" s="333"/>
+      <c r="AD75" s="333"/>
+      <c r="AE75" s="333"/>
+      <c r="AF75" s="333"/>
+      <c r="AG75" s="333"/>
+      <c r="AH75" s="333"/>
+      <c r="AI75" s="333"/>
+      <c r="AJ75" s="333"/>
+      <c r="AK75" s="333"/>
+      <c r="AL75" s="333"/>
+      <c r="AM75" s="333"/>
+      <c r="AN75" s="333"/>
+      <c r="AO75" s="333"/>
+      <c r="AP75" s="333"/>
+      <c r="AQ75" s="333"/>
+      <c r="AR75" s="333"/>
+      <c r="AS75" s="333"/>
+      <c r="AT75" s="333"/>
+      <c r="AU75" s="333"/>
+      <c r="AV75" s="333"/>
+      <c r="AW75" s="334"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
       <c r="AZ75" s="10"/>
     </row>
     <row r="76" spans="1:98" ht="12" customHeight="1">
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="M76" s="53"/>
-      <c r="N76" s="53"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="53"/>
-      <c r="S76" s="53"/>
-      <c r="T76" s="53"/>
-      <c r="U76" s="53"/>
-      <c r="V76" s="53"/>
-      <c r="W76" s="53"/>
-      <c r="X76" s="53"/>
-      <c r="Y76" s="53"/>
-      <c r="Z76" s="53"/>
-      <c r="AA76" s="53"/>
-      <c r="AB76" s="53"/>
-      <c r="AC76" s="53"/>
-      <c r="AD76" s="53"/>
-      <c r="AE76" s="53"/>
-      <c r="AF76" s="53"/>
-      <c r="AG76" s="53"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="53"/>
-      <c r="AJ76" s="53"/>
-      <c r="AK76" s="53"/>
-      <c r="AL76" s="53"/>
-      <c r="AM76" s="53"/>
-      <c r="AN76" s="53"/>
-      <c r="AO76" s="53"/>
-      <c r="AP76" s="53"/>
-      <c r="AQ76" s="53"/>
-      <c r="AR76" s="53"/>
-      <c r="AS76" s="53"/>
-      <c r="AT76" s="53"/>
-      <c r="AU76" s="53"/>
-      <c r="AV76" s="53"/>
-      <c r="AW76" s="54"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="335"/>
+      <c r="I76" s="336"/>
+      <c r="J76" s="336"/>
+      <c r="K76" s="336"/>
+      <c r="L76" s="336"/>
+      <c r="M76" s="336"/>
+      <c r="N76" s="336"/>
+      <c r="O76" s="336"/>
+      <c r="P76" s="336"/>
+      <c r="Q76" s="336"/>
+      <c r="R76" s="336"/>
+      <c r="S76" s="336"/>
+      <c r="T76" s="336"/>
+      <c r="U76" s="336"/>
+      <c r="V76" s="336"/>
+      <c r="W76" s="336"/>
+      <c r="X76" s="336"/>
+      <c r="Y76" s="336"/>
+      <c r="Z76" s="336"/>
+      <c r="AA76" s="336"/>
+      <c r="AB76" s="336"/>
+      <c r="AC76" s="336"/>
+      <c r="AD76" s="336"/>
+      <c r="AE76" s="336"/>
+      <c r="AF76" s="336"/>
+      <c r="AG76" s="336"/>
+      <c r="AH76" s="336"/>
+      <c r="AI76" s="336"/>
+      <c r="AJ76" s="336"/>
+      <c r="AK76" s="336"/>
+      <c r="AL76" s="336"/>
+      <c r="AM76" s="336"/>
+      <c r="AN76" s="336"/>
+      <c r="AO76" s="336"/>
+      <c r="AP76" s="336"/>
+      <c r="AQ76" s="336"/>
+      <c r="AR76" s="336"/>
+      <c r="AS76" s="336"/>
+      <c r="AT76" s="336"/>
+      <c r="AU76" s="336"/>
+      <c r="AV76" s="336"/>
+      <c r="AW76" s="337"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
     </row>
     <row r="77" spans="1:98" ht="12" customHeight="1">
-      <c r="B77" s="43"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="53"/>
-      <c r="M77" s="53"/>
-      <c r="N77" s="53"/>
-      <c r="O77" s="53"/>
-      <c r="P77" s="53"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="53"/>
-      <c r="S77" s="53"/>
-      <c r="T77" s="53"/>
-      <c r="U77" s="53"/>
-      <c r="V77" s="53"/>
-      <c r="W77" s="53"/>
-      <c r="X77" s="53"/>
-      <c r="Y77" s="53"/>
-      <c r="Z77" s="53"/>
-      <c r="AA77" s="53"/>
-      <c r="AB77" s="53"/>
-      <c r="AC77" s="53"/>
-      <c r="AD77" s="53"/>
-      <c r="AE77" s="53"/>
-      <c r="AF77" s="53"/>
-      <c r="AG77" s="53"/>
-      <c r="AH77" s="53"/>
-      <c r="AI77" s="53"/>
-      <c r="AJ77" s="53"/>
-      <c r="AK77" s="53"/>
-      <c r="AL77" s="53"/>
-      <c r="AM77" s="53"/>
-      <c r="AN77" s="53"/>
-      <c r="AO77" s="53"/>
-      <c r="AP77" s="53"/>
-      <c r="AQ77" s="53"/>
-      <c r="AR77" s="53"/>
-      <c r="AS77" s="53"/>
-      <c r="AT77" s="53"/>
-      <c r="AU77" s="53"/>
-      <c r="AV77" s="53"/>
-      <c r="AW77" s="54"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="335"/>
+      <c r="I77" s="336"/>
+      <c r="J77" s="336"/>
+      <c r="K77" s="336"/>
+      <c r="L77" s="336"/>
+      <c r="M77" s="336"/>
+      <c r="N77" s="336"/>
+      <c r="O77" s="336"/>
+      <c r="P77" s="336"/>
+      <c r="Q77" s="336"/>
+      <c r="R77" s="336"/>
+      <c r="S77" s="336"/>
+      <c r="T77" s="336"/>
+      <c r="U77" s="336"/>
+      <c r="V77" s="336"/>
+      <c r="W77" s="336"/>
+      <c r="X77" s="336"/>
+      <c r="Y77" s="336"/>
+      <c r="Z77" s="336"/>
+      <c r="AA77" s="336"/>
+      <c r="AB77" s="336"/>
+      <c r="AC77" s="336"/>
+      <c r="AD77" s="336"/>
+      <c r="AE77" s="336"/>
+      <c r="AF77" s="336"/>
+      <c r="AG77" s="336"/>
+      <c r="AH77" s="336"/>
+      <c r="AI77" s="336"/>
+      <c r="AJ77" s="336"/>
+      <c r="AK77" s="336"/>
+      <c r="AL77" s="336"/>
+      <c r="AM77" s="336"/>
+      <c r="AN77" s="336"/>
+      <c r="AO77" s="336"/>
+      <c r="AP77" s="336"/>
+      <c r="AQ77" s="336"/>
+      <c r="AR77" s="336"/>
+      <c r="AS77" s="336"/>
+      <c r="AT77" s="336"/>
+      <c r="AU77" s="336"/>
+      <c r="AV77" s="336"/>
+      <c r="AW77" s="337"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
     </row>
     <row r="78" spans="1:98" ht="12" customHeight="1">
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="53"/>
-      <c r="T78" s="53"/>
-      <c r="U78" s="53"/>
-      <c r="V78" s="53"/>
-      <c r="W78" s="53"/>
-      <c r="X78" s="53"/>
-      <c r="Y78" s="53"/>
-      <c r="Z78" s="53"/>
-      <c r="AA78" s="53"/>
-      <c r="AB78" s="53"/>
-      <c r="AC78" s="53"/>
-      <c r="AD78" s="53"/>
-      <c r="AE78" s="53"/>
-      <c r="AF78" s="53"/>
-      <c r="AG78" s="53"/>
-      <c r="AH78" s="53"/>
-      <c r="AI78" s="53"/>
-      <c r="AJ78" s="53"/>
-      <c r="AK78" s="53"/>
-      <c r="AL78" s="53"/>
-      <c r="AM78" s="53"/>
-      <c r="AN78" s="53"/>
-      <c r="AO78" s="53"/>
-      <c r="AP78" s="53"/>
-      <c r="AQ78" s="53"/>
-      <c r="AR78" s="53"/>
-      <c r="AS78" s="53"/>
-      <c r="AT78" s="53"/>
-      <c r="AU78" s="53"/>
-      <c r="AV78" s="53"/>
-      <c r="AW78" s="54"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="335"/>
+      <c r="I78" s="336"/>
+      <c r="J78" s="336"/>
+      <c r="K78" s="336"/>
+      <c r="L78" s="336"/>
+      <c r="M78" s="336"/>
+      <c r="N78" s="336"/>
+      <c r="O78" s="336"/>
+      <c r="P78" s="336"/>
+      <c r="Q78" s="336"/>
+      <c r="R78" s="336"/>
+      <c r="S78" s="336"/>
+      <c r="T78" s="336"/>
+      <c r="U78" s="336"/>
+      <c r="V78" s="336"/>
+      <c r="W78" s="336"/>
+      <c r="X78" s="336"/>
+      <c r="Y78" s="336"/>
+      <c r="Z78" s="336"/>
+      <c r="AA78" s="336"/>
+      <c r="AB78" s="336"/>
+      <c r="AC78" s="336"/>
+      <c r="AD78" s="336"/>
+      <c r="AE78" s="336"/>
+      <c r="AF78" s="336"/>
+      <c r="AG78" s="336"/>
+      <c r="AH78" s="336"/>
+      <c r="AI78" s="336"/>
+      <c r="AJ78" s="336"/>
+      <c r="AK78" s="336"/>
+      <c r="AL78" s="336"/>
+      <c r="AM78" s="336"/>
+      <c r="AN78" s="336"/>
+      <c r="AO78" s="336"/>
+      <c r="AP78" s="336"/>
+      <c r="AQ78" s="336"/>
+      <c r="AR78" s="336"/>
+      <c r="AS78" s="336"/>
+      <c r="AT78" s="336"/>
+      <c r="AU78" s="336"/>
+      <c r="AV78" s="336"/>
+      <c r="AW78" s="337"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
       <c r="AZ78" s="10"/>
     </row>
     <row r="79" spans="1:98" ht="12" customHeight="1">
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="53"/>
-      <c r="AQ79" s="53"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="54"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="335"/>
+      <c r="I79" s="336"/>
+      <c r="J79" s="336"/>
+      <c r="K79" s="336"/>
+      <c r="L79" s="336"/>
+      <c r="M79" s="336"/>
+      <c r="N79" s="336"/>
+      <c r="O79" s="336"/>
+      <c r="P79" s="336"/>
+      <c r="Q79" s="336"/>
+      <c r="R79" s="336"/>
+      <c r="S79" s="336"/>
+      <c r="T79" s="336"/>
+      <c r="U79" s="336"/>
+      <c r="V79" s="336"/>
+      <c r="W79" s="336"/>
+      <c r="X79" s="336"/>
+      <c r="Y79" s="336"/>
+      <c r="Z79" s="336"/>
+      <c r="AA79" s="336"/>
+      <c r="AB79" s="336"/>
+      <c r="AC79" s="336"/>
+      <c r="AD79" s="336"/>
+      <c r="AE79" s="336"/>
+      <c r="AF79" s="336"/>
+      <c r="AG79" s="336"/>
+      <c r="AH79" s="336"/>
+      <c r="AI79" s="336"/>
+      <c r="AJ79" s="336"/>
+      <c r="AK79" s="336"/>
+      <c r="AL79" s="336"/>
+      <c r="AM79" s="336"/>
+      <c r="AN79" s="336"/>
+      <c r="AO79" s="336"/>
+      <c r="AP79" s="336"/>
+      <c r="AQ79" s="336"/>
+      <c r="AR79" s="336"/>
+      <c r="AS79" s="336"/>
+      <c r="AT79" s="336"/>
+      <c r="AU79" s="336"/>
+      <c r="AV79" s="336"/>
+      <c r="AW79" s="337"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
       <c r="AZ79" s="10"/>
     </row>
     <row r="80" spans="1:98" ht="12" customHeight="1">
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="53"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
-      <c r="T80" s="53"/>
-      <c r="U80" s="53"/>
-      <c r="V80" s="53"/>
-      <c r="W80" s="53"/>
-      <c r="X80" s="53"/>
-      <c r="Y80" s="53"/>
-      <c r="Z80" s="53"/>
-      <c r="AA80" s="53"/>
-      <c r="AB80" s="53"/>
-      <c r="AC80" s="53"/>
-      <c r="AD80" s="53"/>
-      <c r="AE80" s="53"/>
-      <c r="AF80" s="53"/>
-      <c r="AG80" s="53"/>
-      <c r="AH80" s="53"/>
-      <c r="AI80" s="53"/>
-      <c r="AJ80" s="53"/>
-      <c r="AK80" s="53"/>
-      <c r="AL80" s="53"/>
-      <c r="AM80" s="53"/>
-      <c r="AN80" s="53"/>
-      <c r="AO80" s="53"/>
-      <c r="AP80" s="53"/>
-      <c r="AQ80" s="53"/>
-      <c r="AR80" s="53"/>
-      <c r="AS80" s="53"/>
-      <c r="AT80" s="53"/>
-      <c r="AU80" s="53"/>
-      <c r="AV80" s="53"/>
-      <c r="AW80" s="54"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="335"/>
+      <c r="I80" s="336"/>
+      <c r="J80" s="336"/>
+      <c r="K80" s="336"/>
+      <c r="L80" s="336"/>
+      <c r="M80" s="336"/>
+      <c r="N80" s="336"/>
+      <c r="O80" s="336"/>
+      <c r="P80" s="336"/>
+      <c r="Q80" s="336"/>
+      <c r="R80" s="336"/>
+      <c r="S80" s="336"/>
+      <c r="T80" s="336"/>
+      <c r="U80" s="336"/>
+      <c r="V80" s="336"/>
+      <c r="W80" s="336"/>
+      <c r="X80" s="336"/>
+      <c r="Y80" s="336"/>
+      <c r="Z80" s="336"/>
+      <c r="AA80" s="336"/>
+      <c r="AB80" s="336"/>
+      <c r="AC80" s="336"/>
+      <c r="AD80" s="336"/>
+      <c r="AE80" s="336"/>
+      <c r="AF80" s="336"/>
+      <c r="AG80" s="336"/>
+      <c r="AH80" s="336"/>
+      <c r="AI80" s="336"/>
+      <c r="AJ80" s="336"/>
+      <c r="AK80" s="336"/>
+      <c r="AL80" s="336"/>
+      <c r="AM80" s="336"/>
+      <c r="AN80" s="336"/>
+      <c r="AO80" s="336"/>
+      <c r="AP80" s="336"/>
+      <c r="AQ80" s="336"/>
+      <c r="AR80" s="336"/>
+      <c r="AS80" s="336"/>
+      <c r="AT80" s="336"/>
+      <c r="AU80" s="336"/>
+      <c r="AV80" s="336"/>
+      <c r="AW80" s="337"/>
       <c r="AX80" s="10"/>
       <c r="AY80" s="10"/>
     </row>
     <row r="81" spans="2:51" ht="12" customHeight="1">
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="56"/>
-      <c r="V81" s="56"/>
-      <c r="W81" s="56"/>
-      <c r="X81" s="56"/>
-      <c r="Y81" s="56"/>
-      <c r="Z81" s="56"/>
-      <c r="AA81" s="56"/>
-      <c r="AB81" s="56"/>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="56"/>
-      <c r="AE81" s="56"/>
-      <c r="AF81" s="56"/>
-      <c r="AG81" s="56"/>
-      <c r="AH81" s="56"/>
-      <c r="AI81" s="56"/>
-      <c r="AJ81" s="56"/>
-      <c r="AK81" s="56"/>
-      <c r="AL81" s="56"/>
-      <c r="AM81" s="56"/>
-      <c r="AN81" s="56"/>
-      <c r="AO81" s="56"/>
-      <c r="AP81" s="56"/>
-      <c r="AQ81" s="56"/>
-      <c r="AR81" s="56"/>
-      <c r="AS81" s="56"/>
-      <c r="AT81" s="56"/>
-      <c r="AU81" s="56"/>
-      <c r="AV81" s="56"/>
-      <c r="AW81" s="57"/>
+      <c r="B81" s="228"/>
+      <c r="C81" s="220"/>
+      <c r="D81" s="220"/>
+      <c r="E81" s="220"/>
+      <c r="F81" s="220"/>
+      <c r="G81" s="229"/>
+      <c r="H81" s="338"/>
+      <c r="I81" s="339"/>
+      <c r="J81" s="339"/>
+      <c r="K81" s="339"/>
+      <c r="L81" s="339"/>
+      <c r="M81" s="339"/>
+      <c r="N81" s="339"/>
+      <c r="O81" s="339"/>
+      <c r="P81" s="339"/>
+      <c r="Q81" s="339"/>
+      <c r="R81" s="339"/>
+      <c r="S81" s="339"/>
+      <c r="T81" s="339"/>
+      <c r="U81" s="339"/>
+      <c r="V81" s="339"/>
+      <c r="W81" s="339"/>
+      <c r="X81" s="339"/>
+      <c r="Y81" s="339"/>
+      <c r="Z81" s="339"/>
+      <c r="AA81" s="339"/>
+      <c r="AB81" s="339"/>
+      <c r="AC81" s="339"/>
+      <c r="AD81" s="339"/>
+      <c r="AE81" s="339"/>
+      <c r="AF81" s="339"/>
+      <c r="AG81" s="339"/>
+      <c r="AH81" s="339"/>
+      <c r="AI81" s="339"/>
+      <c r="AJ81" s="339"/>
+      <c r="AK81" s="339"/>
+      <c r="AL81" s="339"/>
+      <c r="AM81" s="339"/>
+      <c r="AN81" s="339"/>
+      <c r="AO81" s="339"/>
+      <c r="AP81" s="339"/>
+      <c r="AQ81" s="339"/>
+      <c r="AR81" s="339"/>
+      <c r="AS81" s="339"/>
+      <c r="AT81" s="339"/>
+      <c r="AU81" s="339"/>
+      <c r="AV81" s="339"/>
+      <c r="AW81" s="340"/>
       <c r="AX81" s="10"/>
       <c r="AY81" s="10"/>
     </row>
@@ -11320,119 +11320,72 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="203">
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="U16:Z17"/>
-    <mergeCell ref="AA16:AM17"/>
-    <mergeCell ref="AN16:AS17"/>
-    <mergeCell ref="AT16:AW17"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="A6:AX9"/>
-    <mergeCell ref="AL10:AQ11"/>
-    <mergeCell ref="AR10:AW11"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:T15"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AS3"/>
-    <mergeCell ref="AT2:AU3"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:AH23"/>
-    <mergeCell ref="AI22:AL23"/>
-    <mergeCell ref="AM22:AW23"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="H24:AW25"/>
-    <mergeCell ref="B18:C21"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:AH19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AM18:AW19"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="H20:AW21"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:AH27"/>
-    <mergeCell ref="AI26:AL27"/>
-    <mergeCell ref="AM26:AW27"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:AW30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H31:AD32"/>
-    <mergeCell ref="AE31:AH32"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AN32"/>
-    <mergeCell ref="AO31:AP32"/>
-    <mergeCell ref="AQ31:AT32"/>
-    <mergeCell ref="AU31:AW32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:AD34"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AI33:AU34"/>
-    <mergeCell ref="AV33:AW34"/>
-    <mergeCell ref="T38:W39"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="AG38:AH39"/>
-    <mergeCell ref="AI38:AL39"/>
-    <mergeCell ref="AM38:AU39"/>
-    <mergeCell ref="AV38:AW39"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:N36"/>
-    <mergeCell ref="O35:R36"/>
-    <mergeCell ref="S35:Y36"/>
-    <mergeCell ref="Z35:AW36"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="X44:AF45"/>
-    <mergeCell ref="AG44:AH45"/>
-    <mergeCell ref="AI44:AL45"/>
-    <mergeCell ref="AM44:AU45"/>
-    <mergeCell ref="AG40:AH41"/>
-    <mergeCell ref="AI40:AL41"/>
-    <mergeCell ref="AM40:AU41"/>
-    <mergeCell ref="AV40:AW41"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="H42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:W43"/>
-    <mergeCell ref="X42:AF43"/>
-    <mergeCell ref="AG42:AH43"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="AI42:AL43"/>
-    <mergeCell ref="AM42:AU43"/>
-    <mergeCell ref="AV42:AW43"/>
-    <mergeCell ref="BE47:BF47"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="H48:L49"/>
-    <mergeCell ref="M48:Q49"/>
-    <mergeCell ref="R48:U49"/>
-    <mergeCell ref="V48:AA49"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:AA47"/>
-    <mergeCell ref="AB46:AC47"/>
-    <mergeCell ref="AD46:AE47"/>
-    <mergeCell ref="AF46:AG47"/>
-    <mergeCell ref="AH46:AI47"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="H46:K47"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:Q47"/>
-    <mergeCell ref="R46:S47"/>
-    <mergeCell ref="T46:U47"/>
-    <mergeCell ref="AJ46:AL47"/>
-    <mergeCell ref="AM46:AM47"/>
-    <mergeCell ref="AN46:AV47"/>
-    <mergeCell ref="AW46:AW47"/>
+    <mergeCell ref="AN72:AO73"/>
+    <mergeCell ref="B75:G81"/>
+    <mergeCell ref="H75:AW81"/>
+    <mergeCell ref="V72:AA73"/>
+    <mergeCell ref="AB72:AE73"/>
+    <mergeCell ref="AF72:AG73"/>
+    <mergeCell ref="AH72:AI73"/>
+    <mergeCell ref="AJ72:AK73"/>
+    <mergeCell ref="AL72:AM73"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="H69:J70"/>
+    <mergeCell ref="K69:S70"/>
+    <mergeCell ref="T69:U70"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="H72:J73"/>
+    <mergeCell ref="K72:S73"/>
+    <mergeCell ref="T72:U73"/>
+    <mergeCell ref="AB67:AE68"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:S68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="V67:AA68"/>
+    <mergeCell ref="AF67:AG68"/>
+    <mergeCell ref="AH67:AI68"/>
+    <mergeCell ref="AJ67:AK68"/>
+    <mergeCell ref="AL67:AM68"/>
+    <mergeCell ref="AN67:AO68"/>
+    <mergeCell ref="AF65:AG66"/>
+    <mergeCell ref="AH65:AI66"/>
+    <mergeCell ref="AJ65:AK66"/>
+    <mergeCell ref="AL65:AM66"/>
+    <mergeCell ref="AN65:AO66"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:S66"/>
+    <mergeCell ref="T65:U66"/>
+    <mergeCell ref="V65:AA66"/>
+    <mergeCell ref="AB65:AE66"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="AF62:AG63"/>
+    <mergeCell ref="AH62:AI63"/>
+    <mergeCell ref="AJ62:AK63"/>
+    <mergeCell ref="AL62:AM63"/>
+    <mergeCell ref="AN62:AO63"/>
+    <mergeCell ref="AL60:AM61"/>
+    <mergeCell ref="AN60:AO61"/>
+    <mergeCell ref="B62:G63"/>
+    <mergeCell ref="H62:K63"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="R62:S63"/>
+    <mergeCell ref="T62:U63"/>
+    <mergeCell ref="V62:AA63"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:AA61"/>
+    <mergeCell ref="AB60:AE61"/>
+    <mergeCell ref="AF60:AG61"/>
+    <mergeCell ref="AH60:AI61"/>
+    <mergeCell ref="AJ60:AK61"/>
+    <mergeCell ref="B60:G61"/>
+    <mergeCell ref="H60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
     <mergeCell ref="R60:S61"/>
     <mergeCell ref="B54:G57"/>
     <mergeCell ref="H54:K55"/>
@@ -11457,72 +11410,119 @@
     <mergeCell ref="K44:Q45"/>
     <mergeCell ref="R44:S45"/>
     <mergeCell ref="T44:W45"/>
-    <mergeCell ref="AJ62:AK63"/>
-    <mergeCell ref="AL62:AM63"/>
-    <mergeCell ref="AN62:AO63"/>
-    <mergeCell ref="AL60:AM61"/>
-    <mergeCell ref="AN60:AO61"/>
-    <mergeCell ref="B62:G63"/>
-    <mergeCell ref="H62:K63"/>
-    <mergeCell ref="L62:M63"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="R62:S63"/>
-    <mergeCell ref="T62:U63"/>
-    <mergeCell ref="V62:AA63"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:AA61"/>
-    <mergeCell ref="AB60:AE61"/>
-    <mergeCell ref="AF60:AG61"/>
-    <mergeCell ref="AH60:AI61"/>
-    <mergeCell ref="AJ60:AK61"/>
-    <mergeCell ref="B60:G61"/>
-    <mergeCell ref="H60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:S66"/>
-    <mergeCell ref="T65:U66"/>
-    <mergeCell ref="V65:AA66"/>
-    <mergeCell ref="AB65:AE66"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="AF62:AG63"/>
-    <mergeCell ref="AH62:AI63"/>
-    <mergeCell ref="AF67:AG68"/>
-    <mergeCell ref="AH67:AI68"/>
-    <mergeCell ref="AJ67:AK68"/>
-    <mergeCell ref="AL67:AM68"/>
-    <mergeCell ref="AN67:AO68"/>
-    <mergeCell ref="AF65:AG66"/>
-    <mergeCell ref="AH65:AI66"/>
-    <mergeCell ref="AJ65:AK66"/>
-    <mergeCell ref="AL65:AM66"/>
-    <mergeCell ref="AN65:AO66"/>
-    <mergeCell ref="B69:G70"/>
-    <mergeCell ref="H69:J70"/>
-    <mergeCell ref="K69:S70"/>
-    <mergeCell ref="T69:U70"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="H72:J73"/>
-    <mergeCell ref="K72:S73"/>
-    <mergeCell ref="T72:U73"/>
-    <mergeCell ref="AB67:AE68"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="K67:S68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="V67:AA68"/>
-    <mergeCell ref="AN72:AO73"/>
-    <mergeCell ref="B75:G81"/>
-    <mergeCell ref="H75:AW81"/>
-    <mergeCell ref="V72:AA73"/>
-    <mergeCell ref="AB72:AE73"/>
-    <mergeCell ref="AF72:AG73"/>
-    <mergeCell ref="AH72:AI73"/>
-    <mergeCell ref="AJ72:AK73"/>
-    <mergeCell ref="AL72:AM73"/>
+    <mergeCell ref="BE47:BF47"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="H48:L49"/>
+    <mergeCell ref="M48:Q49"/>
+    <mergeCell ref="R48:U49"/>
+    <mergeCell ref="V48:AA49"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:AA47"/>
+    <mergeCell ref="AB46:AC47"/>
+    <mergeCell ref="AD46:AE47"/>
+    <mergeCell ref="AF46:AG47"/>
+    <mergeCell ref="AH46:AI47"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="H46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:Q47"/>
+    <mergeCell ref="R46:S47"/>
+    <mergeCell ref="T46:U47"/>
+    <mergeCell ref="AJ46:AL47"/>
+    <mergeCell ref="AM46:AM47"/>
+    <mergeCell ref="AN46:AV47"/>
+    <mergeCell ref="AW46:AW47"/>
+    <mergeCell ref="X44:AF45"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AI44:AL45"/>
+    <mergeCell ref="AM44:AU45"/>
+    <mergeCell ref="AG40:AH41"/>
+    <mergeCell ref="AI40:AL41"/>
+    <mergeCell ref="AM40:AU41"/>
+    <mergeCell ref="AV40:AW41"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="H42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:W43"/>
+    <mergeCell ref="X42:AF43"/>
+    <mergeCell ref="AG42:AH43"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="AI42:AL43"/>
+    <mergeCell ref="AM42:AU43"/>
+    <mergeCell ref="AV42:AW43"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AI38:AL39"/>
+    <mergeCell ref="AM38:AU39"/>
+    <mergeCell ref="AV38:AW39"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:N36"/>
+    <mergeCell ref="O35:R36"/>
+    <mergeCell ref="S35:Y36"/>
+    <mergeCell ref="Z35:AW36"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:AH27"/>
+    <mergeCell ref="AI26:AL27"/>
+    <mergeCell ref="AM26:AW27"/>
+    <mergeCell ref="B29:C36"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:AW30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:AD32"/>
+    <mergeCell ref="AE31:AH32"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AN32"/>
+    <mergeCell ref="AO31:AP32"/>
+    <mergeCell ref="AQ31:AT32"/>
+    <mergeCell ref="AU31:AW32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:AD34"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AI33:AU34"/>
+    <mergeCell ref="AV33:AW34"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:AH23"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AM22:AW23"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="H24:AW25"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:AH19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AM18:AW19"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="H20:AW21"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="U16:Z17"/>
+    <mergeCell ref="AA16:AM17"/>
+    <mergeCell ref="AN16:AS17"/>
+    <mergeCell ref="AT16:AW17"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="A6:AX9"/>
+    <mergeCell ref="AL10:AQ11"/>
+    <mergeCell ref="AR10:AW11"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="H14:T15"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AS3"/>
+    <mergeCell ref="AT2:AU3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="12">
@@ -11543,7 +11543,7 @@
       <formula1>"土地,戸建,アパート,マンション,テラスハウス,事務所,店舗,倉庫,その他"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:T15" xr:uid="{B93D5AF7-77D7-4750-8794-45565EA1B848}">
-      <formula1>"居住用普通建物賃貸借,居住用定期建物賃貸借"</formula1>
+      <formula1>"居住用普通建物賃貸借,居住用定期建物賃貸借,事業用普通建物賃貸借,事業用定期建物賃貸借,駐車場賃貸借"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T38:W39" xr:uid="{9CBD899C-5E6C-4208-A2F6-2F4BC407D971}">
       <formula1>"敷  金,保証金"</formula1>

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513EF87B-55CF-4A1D-9E87-293CEFCD0039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35953EC-F285-4087-8B8F-3CD187B978FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取引成立台帳_テンプレート" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">取引成立台帳_テンプレート!$AN$16:$AW$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">取引成立台帳_テンプレート!$A$1:$AY$81</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -446,34 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都中央区銀座四丁目10番10号</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ギンザ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>成立年月日</t>
     <rPh sb="0" eb="2">
       <t>セイリツ</t>
@@ -902,6 +874,28 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>シハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都中央区銀座三丁目9番7号</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サンチョウメ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3161,6 +3155,346 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="59" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="56" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="60" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="47" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3173,6 +3507,706 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="27" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="28" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="23" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="44" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="7" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="33" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3230,30 +4264,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3345,1022 +4355,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="27" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="33" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="28" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="23" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="44" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="7" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="59" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="56" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="60" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="47" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="2" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5053,19 +5047,19 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="7"/>
-    <col min="3" max="3" width="2.5" style="7" customWidth="1"/>
-    <col min="4" max="49" width="2.5" style="7"/>
-    <col min="50" max="50" width="2.5" style="7" customWidth="1"/>
-    <col min="51" max="51" width="2.5" style="5" customWidth="1"/>
-    <col min="52" max="53" width="2.5" style="7"/>
-    <col min="54" max="55" width="13.375" style="7" customWidth="1"/>
-    <col min="56" max="56" width="2.5" style="7" customWidth="1"/>
-    <col min="57" max="57" width="9.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.375" style="7" customWidth="1"/>
-    <col min="59" max="16384" width="2.5" style="7"/>
+    <col min="1" max="2" width="2.453125" style="7"/>
+    <col min="3" max="3" width="2.453125" style="7" customWidth="1"/>
+    <col min="4" max="49" width="2.453125" style="7"/>
+    <col min="50" max="50" width="2.453125" style="7" customWidth="1"/>
+    <col min="51" max="51" width="2.453125" style="5" customWidth="1"/>
+    <col min="52" max="53" width="2.453125" style="7"/>
+    <col min="54" max="55" width="13.36328125" style="7" customWidth="1"/>
+    <col min="56" max="56" width="2.453125" style="7" customWidth="1"/>
+    <col min="57" max="57" width="9.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.36328125" style="7" customWidth="1"/>
+    <col min="59" max="16384" width="2.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="12" customHeight="1">
@@ -5140,36 +5134,36 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="338" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="85" t="s">
+      <c r="AI2" s="338"/>
+      <c r="AJ2" s="338"/>
+      <c r="AK2" s="339" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="339"/>
+      <c r="AM2" s="339"/>
+      <c r="AN2" s="320" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="320"/>
+      <c r="AP2" s="340" t="s">
         <v>102</v>
       </c>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="86" t="s">
+      <c r="AQ2" s="340"/>
+      <c r="AR2" s="320" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="320"/>
+      <c r="AT2" s="340" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="66" t="s">
+      <c r="AU2" s="340"/>
+      <c r="AV2" s="320" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="66"/>
+      <c r="AW2" s="320"/>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:70" ht="12" customHeight="1">
@@ -5200,22 +5194,22 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
+      <c r="AH3" s="338"/>
+      <c r="AI3" s="338"/>
+      <c r="AJ3" s="338"/>
+      <c r="AK3" s="339"/>
+      <c r="AL3" s="339"/>
+      <c r="AM3" s="339"/>
+      <c r="AN3" s="320"/>
+      <c r="AO3" s="320"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="340"/>
+      <c r="AR3" s="320"/>
+      <c r="AS3" s="320"/>
+      <c r="AT3" s="340"/>
+      <c r="AU3" s="340"/>
+      <c r="AV3" s="320"/>
+      <c r="AW3" s="320"/>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:70" ht="12" customHeight="1">
@@ -5310,214 +5304,214 @@
       <c r="BR5" s="5"/>
     </row>
     <row r="6" spans="1:70" ht="12" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
+      <c r="B6" s="321"/>
+      <c r="C6" s="321"/>
+      <c r="D6" s="321"/>
+      <c r="E6" s="321"/>
+      <c r="F6" s="321"/>
+      <c r="G6" s="321"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
+      <c r="M6" s="321"/>
+      <c r="N6" s="321"/>
+      <c r="O6" s="321"/>
+      <c r="P6" s="321"/>
+      <c r="Q6" s="321"/>
+      <c r="R6" s="321"/>
+      <c r="S6" s="321"/>
+      <c r="T6" s="321"/>
+      <c r="U6" s="321"/>
+      <c r="V6" s="321"/>
+      <c r="W6" s="321"/>
+      <c r="X6" s="321"/>
+      <c r="Y6" s="321"/>
+      <c r="Z6" s="321"/>
+      <c r="AA6" s="321"/>
+      <c r="AB6" s="321"/>
+      <c r="AC6" s="321"/>
+      <c r="AD6" s="321"/>
+      <c r="AE6" s="321"/>
+      <c r="AF6" s="321"/>
+      <c r="AG6" s="321"/>
+      <c r="AH6" s="321"/>
+      <c r="AI6" s="321"/>
+      <c r="AJ6" s="321"/>
+      <c r="AK6" s="321"/>
+      <c r="AL6" s="321"/>
+      <c r="AM6" s="321"/>
+      <c r="AN6" s="321"/>
+      <c r="AO6" s="321"/>
+      <c r="AP6" s="321"/>
+      <c r="AQ6" s="321"/>
+      <c r="AR6" s="321"/>
+      <c r="AS6" s="321"/>
+      <c r="AT6" s="321"/>
+      <c r="AU6" s="321"/>
+      <c r="AV6" s="321"/>
+      <c r="AW6" s="321"/>
+      <c r="AX6" s="321"/>
     </row>
     <row r="7" spans="1:70" ht="12" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
+      <c r="A7" s="321"/>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="321"/>
+      <c r="N7" s="321"/>
+      <c r="O7" s="321"/>
+      <c r="P7" s="321"/>
+      <c r="Q7" s="321"/>
+      <c r="R7" s="321"/>
+      <c r="S7" s="321"/>
+      <c r="T7" s="321"/>
+      <c r="U7" s="321"/>
+      <c r="V7" s="321"/>
+      <c r="W7" s="321"/>
+      <c r="X7" s="321"/>
+      <c r="Y7" s="321"/>
+      <c r="Z7" s="321"/>
+      <c r="AA7" s="321"/>
+      <c r="AB7" s="321"/>
+      <c r="AC7" s="321"/>
+      <c r="AD7" s="321"/>
+      <c r="AE7" s="321"/>
+      <c r="AF7" s="321"/>
+      <c r="AG7" s="321"/>
+      <c r="AH7" s="321"/>
+      <c r="AI7" s="321"/>
+      <c r="AJ7" s="321"/>
+      <c r="AK7" s="321"/>
+      <c r="AL7" s="321"/>
+      <c r="AM7" s="321"/>
+      <c r="AN7" s="321"/>
+      <c r="AO7" s="321"/>
+      <c r="AP7" s="321"/>
+      <c r="AQ7" s="321"/>
+      <c r="AR7" s="321"/>
+      <c r="AS7" s="321"/>
+      <c r="AT7" s="321"/>
+      <c r="AU7" s="321"/>
+      <c r="AV7" s="321"/>
+      <c r="AW7" s="321"/>
+      <c r="AX7" s="321"/>
     </row>
     <row r="8" spans="1:70" ht="12" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="67"/>
+      <c r="A8" s="321"/>
+      <c r="B8" s="321"/>
+      <c r="C8" s="321"/>
+      <c r="D8" s="321"/>
+      <c r="E8" s="321"/>
+      <c r="F8" s="321"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="321"/>
+      <c r="O8" s="321"/>
+      <c r="P8" s="321"/>
+      <c r="Q8" s="321"/>
+      <c r="R8" s="321"/>
+      <c r="S8" s="321"/>
+      <c r="T8" s="321"/>
+      <c r="U8" s="321"/>
+      <c r="V8" s="321"/>
+      <c r="W8" s="321"/>
+      <c r="X8" s="321"/>
+      <c r="Y8" s="321"/>
+      <c r="Z8" s="321"/>
+      <c r="AA8" s="321"/>
+      <c r="AB8" s="321"/>
+      <c r="AC8" s="321"/>
+      <c r="AD8" s="321"/>
+      <c r="AE8" s="321"/>
+      <c r="AF8" s="321"/>
+      <c r="AG8" s="321"/>
+      <c r="AH8" s="321"/>
+      <c r="AI8" s="321"/>
+      <c r="AJ8" s="321"/>
+      <c r="AK8" s="321"/>
+      <c r="AL8" s="321"/>
+      <c r="AM8" s="321"/>
+      <c r="AN8" s="321"/>
+      <c r="AO8" s="321"/>
+      <c r="AP8" s="321"/>
+      <c r="AQ8" s="321"/>
+      <c r="AR8" s="321"/>
+      <c r="AS8" s="321"/>
+      <c r="AT8" s="321"/>
+      <c r="AU8" s="321"/>
+      <c r="AV8" s="321"/>
+      <c r="AW8" s="321"/>
+      <c r="AX8" s="321"/>
     </row>
     <row r="9" spans="1:70" ht="12" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="67"/>
+      <c r="A9" s="321"/>
+      <c r="B9" s="321"/>
+      <c r="C9" s="321"/>
+      <c r="D9" s="321"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="321"/>
+      <c r="G9" s="321"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="321"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="321"/>
+      <c r="L9" s="321"/>
+      <c r="M9" s="321"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="321"/>
+      <c r="P9" s="321"/>
+      <c r="Q9" s="321"/>
+      <c r="R9" s="321"/>
+      <c r="S9" s="321"/>
+      <c r="T9" s="321"/>
+      <c r="U9" s="321"/>
+      <c r="V9" s="321"/>
+      <c r="W9" s="321"/>
+      <c r="X9" s="321"/>
+      <c r="Y9" s="321"/>
+      <c r="Z9" s="321"/>
+      <c r="AA9" s="321"/>
+      <c r="AB9" s="321"/>
+      <c r="AC9" s="321"/>
+      <c r="AD9" s="321"/>
+      <c r="AE9" s="321"/>
+      <c r="AF9" s="321"/>
+      <c r="AG9" s="321"/>
+      <c r="AH9" s="321"/>
+      <c r="AI9" s="321"/>
+      <c r="AJ9" s="321"/>
+      <c r="AK9" s="321"/>
+      <c r="AL9" s="321"/>
+      <c r="AM9" s="321"/>
+      <c r="AN9" s="321"/>
+      <c r="AO9" s="321"/>
+      <c r="AP9" s="321"/>
+      <c r="AQ9" s="321"/>
+      <c r="AR9" s="321"/>
+      <c r="AS9" s="321"/>
+      <c r="AT9" s="321"/>
+      <c r="AU9" s="321"/>
+      <c r="AV9" s="321"/>
+      <c r="AW9" s="321"/>
+      <c r="AX9" s="321"/>
     </row>
     <row r="10" spans="1:70" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
@@ -5533,22 +5527,22 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AL10" s="68" t="s">
+      <c r="AL10" s="322" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM10" s="323"/>
+      <c r="AN10" s="323"/>
+      <c r="AO10" s="323"/>
+      <c r="AP10" s="323"/>
+      <c r="AQ10" s="323"/>
+      <c r="AR10" s="326" t="s">
         <v>67</v>
       </c>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="74"/>
+      <c r="AS10" s="327"/>
+      <c r="AT10" s="327"/>
+      <c r="AU10" s="327"/>
+      <c r="AV10" s="327"/>
+      <c r="AW10" s="328"/>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:70" ht="12.75" customHeight="1">
@@ -5565,18 +5559,18 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="77"/>
+      <c r="AL11" s="324"/>
+      <c r="AM11" s="325"/>
+      <c r="AN11" s="325"/>
+      <c r="AO11" s="325"/>
+      <c r="AP11" s="325"/>
+      <c r="AQ11" s="325"/>
+      <c r="AR11" s="329"/>
+      <c r="AS11" s="330"/>
+      <c r="AT11" s="330"/>
+      <c r="AU11" s="330"/>
+      <c r="AV11" s="330"/>
+      <c r="AW11" s="331"/>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:70" ht="12" customHeight="1">
@@ -5637,29 +5631,29 @@
     </row>
     <row r="14" spans="1:70" ht="12" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="80"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="332" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="333"/>
+      <c r="J14" s="333"/>
+      <c r="K14" s="333"/>
+      <c r="L14" s="333"/>
+      <c r="M14" s="333"/>
+      <c r="N14" s="333"/>
+      <c r="O14" s="333"/>
+      <c r="P14" s="333"/>
+      <c r="Q14" s="333"/>
+      <c r="R14" s="333"/>
+      <c r="S14" s="333"/>
+      <c r="T14" s="334"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -5682,25 +5676,25 @@
     </row>
     <row r="15" spans="1:70" ht="12" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="335"/>
+      <c r="I15" s="336"/>
+      <c r="J15" s="336"/>
+      <c r="K15" s="336"/>
+      <c r="L15" s="336"/>
+      <c r="M15" s="336"/>
+      <c r="N15" s="336"/>
+      <c r="O15" s="336"/>
+      <c r="P15" s="336"/>
+      <c r="Q15" s="336"/>
+      <c r="R15" s="336"/>
+      <c r="S15" s="336"/>
+      <c r="T15" s="337"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -5729,400 +5723,400 @@
     </row>
     <row r="16" spans="1:70" ht="12" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="304" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="305"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="56" t="s">
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="310" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB16" s="311"/>
+      <c r="AC16" s="311"/>
+      <c r="AD16" s="311"/>
+      <c r="AE16" s="311"/>
+      <c r="AF16" s="311"/>
+      <c r="AG16" s="311"/>
+      <c r="AH16" s="311"/>
+      <c r="AI16" s="311"/>
+      <c r="AJ16" s="311"/>
+      <c r="AK16" s="311"/>
+      <c r="AL16" s="311"/>
+      <c r="AM16" s="312"/>
+      <c r="AN16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="62" t="s">
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="316" t="s">
         <v>47</v>
       </c>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="63"/>
+      <c r="AU16" s="316"/>
+      <c r="AV16" s="316"/>
+      <c r="AW16" s="317"/>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:85" ht="12" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="60"/>
-      <c r="AP17" s="60"/>
-      <c r="AQ17" s="60"/>
-      <c r="AR17" s="60"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="64"/>
-      <c r="AW17" s="65"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="308"/>
+      <c r="J17" s="308"/>
+      <c r="K17" s="308"/>
+      <c r="L17" s="308"/>
+      <c r="M17" s="308"/>
+      <c r="N17" s="308"/>
+      <c r="O17" s="308"/>
+      <c r="P17" s="308"/>
+      <c r="Q17" s="308"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="302"/>
+      <c r="W17" s="302"/>
+      <c r="X17" s="302"/>
+      <c r="Y17" s="302"/>
+      <c r="Z17" s="303"/>
+      <c r="AA17" s="313"/>
+      <c r="AB17" s="314"/>
+      <c r="AC17" s="314"/>
+      <c r="AD17" s="314"/>
+      <c r="AE17" s="314"/>
+      <c r="AF17" s="314"/>
+      <c r="AG17" s="314"/>
+      <c r="AH17" s="314"/>
+      <c r="AI17" s="314"/>
+      <c r="AJ17" s="314"/>
+      <c r="AK17" s="314"/>
+      <c r="AL17" s="314"/>
+      <c r="AM17" s="315"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="318"/>
+      <c r="AU17" s="318"/>
+      <c r="AV17" s="318"/>
+      <c r="AW17" s="319"/>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:85" ht="12" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="292"/>
+      <c r="D18" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="114" t="s">
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="115"/>
-      <c r="AA18" s="115"/>
-      <c r="AB18" s="115"/>
-      <c r="AC18" s="115"/>
-      <c r="AD18" s="115"/>
-      <c r="AE18" s="115"/>
-      <c r="AF18" s="115"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="119"/>
-      <c r="AL18" s="120"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="107"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="146"/>
+      <c r="AB18" s="146"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="295"/>
+      <c r="AJ18" s="296"/>
+      <c r="AK18" s="296"/>
+      <c r="AL18" s="297"/>
+      <c r="AM18" s="290"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="134"/>
+      <c r="AP18" s="134"/>
+      <c r="AQ18" s="134"/>
+      <c r="AR18" s="134"/>
+      <c r="AS18" s="134"/>
+      <c r="AT18" s="134"/>
+      <c r="AU18" s="134"/>
+      <c r="AV18" s="134"/>
+      <c r="AW18" s="261"/>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:85" ht="12" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="122"/>
-      <c r="AK19" s="122"/>
-      <c r="AL19" s="123"/>
-      <c r="AM19" s="108"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="98"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="98"/>
-      <c r="AS19" s="98"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="98"/>
-      <c r="AW19" s="109"/>
+      <c r="B19" s="293"/>
+      <c r="C19" s="294"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="298"/>
+      <c r="AJ19" s="299"/>
+      <c r="AK19" s="299"/>
+      <c r="AL19" s="300"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="137"/>
+      <c r="AO19" s="137"/>
+      <c r="AP19" s="137"/>
+      <c r="AQ19" s="137"/>
+      <c r="AR19" s="137"/>
+      <c r="AS19" s="137"/>
+      <c r="AT19" s="137"/>
+      <c r="AU19" s="137"/>
+      <c r="AV19" s="137"/>
+      <c r="AW19" s="155"/>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:85" ht="12" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="93" t="s">
+      <c r="B20" s="293"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="95"/>
-      <c r="AM20" s="95"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="107"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="134"/>
+      <c r="AK20" s="134"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="134"/>
+      <c r="AP20" s="134"/>
+      <c r="AQ20" s="134"/>
+      <c r="AR20" s="134"/>
+      <c r="AS20" s="134"/>
+      <c r="AT20" s="134"/>
+      <c r="AU20" s="134"/>
+      <c r="AV20" s="134"/>
+      <c r="AW20" s="261"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="98"/>
-      <c r="AS21" s="98"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="98"/>
-      <c r="AV21" s="98"/>
-      <c r="AW21" s="109"/>
+      <c r="B21" s="293"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="137"/>
+      <c r="AH21" s="137"/>
+      <c r="AI21" s="137"/>
+      <c r="AJ21" s="137"/>
+      <c r="AK21" s="137"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="137"/>
+      <c r="AN21" s="137"/>
+      <c r="AO21" s="137"/>
+      <c r="AP21" s="137"/>
+      <c r="AQ21" s="137"/>
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="137"/>
+      <c r="AT21" s="137"/>
+      <c r="AU21" s="137"/>
+      <c r="AV21" s="137"/>
+      <c r="AW21" s="155"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="1:85" ht="12" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="93" t="s">
+      <c r="C22" s="283"/>
+      <c r="D22" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="100" t="s">
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="288" t="s">
         <v>27</v>
       </c>
-      <c r="AJ22" s="101"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="107"/>
+      <c r="AJ22" s="140"/>
+      <c r="AK22" s="140"/>
+      <c r="AL22" s="289"/>
+      <c r="AM22" s="290" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="134"/>
+      <c r="AP22" s="134"/>
+      <c r="AQ22" s="134"/>
+      <c r="AR22" s="134"/>
+      <c r="AS22" s="134"/>
+      <c r="AT22" s="134"/>
+      <c r="AU22" s="134"/>
+      <c r="AV22" s="134"/>
+      <c r="AW22" s="261"/>
       <c r="AY22" s="7"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -6157,54 +6151,54 @@
     </row>
     <row r="23" spans="1:85" ht="12" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="99"/>
-      <c r="AI23" s="103"/>
-      <c r="AJ23" s="104"/>
-      <c r="AK23" s="104"/>
-      <c r="AL23" s="105"/>
-      <c r="AM23" s="108"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="98"/>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="98"/>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="98"/>
-      <c r="AT23" s="98"/>
-      <c r="AU23" s="98"/>
-      <c r="AV23" s="98"/>
-      <c r="AW23" s="109"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="137"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="137"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="259"/>
+      <c r="AJ23" s="143"/>
+      <c r="AK23" s="143"/>
+      <c r="AL23" s="260"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="137"/>
+      <c r="AO23" s="137"/>
+      <c r="AP23" s="137"/>
+      <c r="AQ23" s="137"/>
+      <c r="AR23" s="137"/>
+      <c r="AS23" s="137"/>
+      <c r="AT23" s="137"/>
+      <c r="AU23" s="137"/>
+      <c r="AV23" s="137"/>
+      <c r="AW23" s="155"/>
       <c r="AY23" s="7"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -6239,58 +6233,58 @@
     </row>
     <row r="24" spans="1:85" ht="12" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="93" t="s">
+      <c r="B24" s="284"/>
+      <c r="C24" s="285"/>
+      <c r="D24" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="95"/>
-      <c r="AM24" s="95"/>
-      <c r="AN24" s="95"/>
-      <c r="AO24" s="95"/>
-      <c r="AP24" s="95"/>
-      <c r="AQ24" s="95"/>
-      <c r="AR24" s="95"/>
-      <c r="AS24" s="95"/>
-      <c r="AT24" s="95"/>
-      <c r="AU24" s="95"/>
-      <c r="AV24" s="95"/>
-      <c r="AW24" s="107"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
+      <c r="AL24" s="134"/>
+      <c r="AM24" s="134"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="134"/>
+      <c r="AP24" s="134"/>
+      <c r="AQ24" s="134"/>
+      <c r="AR24" s="134"/>
+      <c r="AS24" s="134"/>
+      <c r="AT24" s="134"/>
+      <c r="AU24" s="134"/>
+      <c r="AV24" s="134"/>
+      <c r="AW24" s="261"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="1"/>
       <c r="BD24" s="10"/>
@@ -6326,54 +6320,54 @@
     </row>
     <row r="25" spans="1:85" ht="12" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="98"/>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="98"/>
-      <c r="AO25" s="98"/>
-      <c r="AP25" s="98"/>
-      <c r="AQ25" s="98"/>
-      <c r="AR25" s="98"/>
-      <c r="AS25" s="98"/>
-      <c r="AT25" s="98"/>
-      <c r="AU25" s="98"/>
-      <c r="AV25" s="98"/>
-      <c r="AW25" s="109"/>
+      <c r="B25" s="286"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="137"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="137"/>
+      <c r="AH25" s="137"/>
+      <c r="AI25" s="137"/>
+      <c r="AJ25" s="137"/>
+      <c r="AK25" s="137"/>
+      <c r="AL25" s="137"/>
+      <c r="AM25" s="137"/>
+      <c r="AN25" s="137"/>
+      <c r="AO25" s="137"/>
+      <c r="AP25" s="137"/>
+      <c r="AQ25" s="137"/>
+      <c r="AR25" s="137"/>
+      <c r="AS25" s="137"/>
+      <c r="AT25" s="137"/>
+      <c r="AU25" s="137"/>
+      <c r="AV25" s="137"/>
+      <c r="AW25" s="155"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="1"/>
       <c r="BD25" s="10"/>
@@ -6409,62 +6403,62 @@
     </row>
     <row r="26" spans="1:85" ht="12" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="130" t="s">
+      <c r="C26" s="253"/>
+      <c r="D26" s="253"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="152"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="152"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="152"/>
+      <c r="AD26" s="152"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="255"/>
+      <c r="AI26" s="256" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ26" s="257"/>
+      <c r="AK26" s="257"/>
+      <c r="AL26" s="258"/>
+      <c r="AM26" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ26" s="134"/>
-      <c r="AK26" s="134"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN26" s="131"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="131"/>
-      <c r="AS26" s="131"/>
-      <c r="AT26" s="131"/>
-      <c r="AU26" s="131"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="136"/>
+      <c r="AN26" s="152"/>
+      <c r="AO26" s="152"/>
+      <c r="AP26" s="152"/>
+      <c r="AQ26" s="152"/>
+      <c r="AR26" s="152"/>
+      <c r="AS26" s="152"/>
+      <c r="AT26" s="152"/>
+      <c r="AU26" s="152"/>
+      <c r="AV26" s="152"/>
+      <c r="AW26" s="153"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="7"/>
       <c r="BA26" s="10"/>
@@ -6503,54 +6497,54 @@
     </row>
     <row r="27" spans="1:85" ht="12" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="99"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="104"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="98"/>
-      <c r="AO27" s="98"/>
-      <c r="AP27" s="98"/>
-      <c r="AQ27" s="98"/>
-      <c r="AR27" s="98"/>
-      <c r="AS27" s="98"/>
-      <c r="AT27" s="98"/>
-      <c r="AU27" s="98"/>
-      <c r="AV27" s="98"/>
-      <c r="AW27" s="109"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="137"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="137"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="259"/>
+      <c r="AJ27" s="143"/>
+      <c r="AK27" s="143"/>
+      <c r="AL27" s="260"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="137"/>
+      <c r="AO27" s="137"/>
+      <c r="AP27" s="137"/>
+      <c r="AQ27" s="137"/>
+      <c r="AR27" s="137"/>
+      <c r="AS27" s="137"/>
+      <c r="AT27" s="137"/>
+      <c r="AU27" s="137"/>
+      <c r="AV27" s="137"/>
+      <c r="AW27" s="155"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -6677,60 +6671,60 @@
     </row>
     <row r="29" spans="1:85" ht="12" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="143" t="s">
+      <c r="C29" s="178"/>
+      <c r="D29" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="107"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="134"/>
+      <c r="AJ29" s="134"/>
+      <c r="AK29" s="134"/>
+      <c r="AL29" s="134"/>
+      <c r="AM29" s="134"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="134"/>
+      <c r="AP29" s="134"/>
+      <c r="AQ29" s="134"/>
+      <c r="AR29" s="134"/>
+      <c r="AS29" s="134"/>
+      <c r="AT29" s="134"/>
+      <c r="AU29" s="134"/>
+      <c r="AV29" s="134"/>
+      <c r="AW29" s="261"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -6766,54 +6760,54 @@
       <c r="CD29" s="10"/>
     </row>
     <row r="30" spans="1:85" ht="12" customHeight="1">
-      <c r="B30" s="139"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
-      <c r="AP30" s="98"/>
-      <c r="AQ30" s="98"/>
-      <c r="AR30" s="98"/>
-      <c r="AS30" s="98"/>
-      <c r="AT30" s="98"/>
-      <c r="AU30" s="98"/>
-      <c r="AV30" s="98"/>
-      <c r="AW30" s="109"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
+      <c r="AL30" s="137"/>
+      <c r="AM30" s="137"/>
+      <c r="AN30" s="137"/>
+      <c r="AO30" s="137"/>
+      <c r="AP30" s="137"/>
+      <c r="AQ30" s="137"/>
+      <c r="AR30" s="137"/>
+      <c r="AS30" s="137"/>
+      <c r="AT30" s="137"/>
+      <c r="AU30" s="137"/>
+      <c r="AV30" s="137"/>
+      <c r="AW30" s="155"/>
       <c r="AY30" s="7"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -6847,68 +6841,68 @@
       <c r="CD30" s="10"/>
     </row>
     <row r="31" spans="1:85" ht="12" customHeight="1">
-      <c r="B31" s="139"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="143" t="s">
+      <c r="B31" s="179"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="152" t="s">
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="263"/>
+      <c r="J31" s="263"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="263"/>
+      <c r="Q31" s="263"/>
+      <c r="R31" s="263"/>
+      <c r="S31" s="263"/>
+      <c r="T31" s="263"/>
+      <c r="U31" s="263"/>
+      <c r="V31" s="263"/>
+      <c r="W31" s="263"/>
+      <c r="X31" s="263"/>
+      <c r="Y31" s="263"/>
+      <c r="Z31" s="263"/>
+      <c r="AA31" s="263"/>
+      <c r="AB31" s="263"/>
+      <c r="AC31" s="263"/>
+      <c r="AD31" s="263"/>
+      <c r="AE31" s="266"/>
+      <c r="AF31" s="267"/>
+      <c r="AG31" s="267"/>
+      <c r="AH31" s="267"/>
+      <c r="AI31" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="AJ31" s="152"/>
-      <c r="AK31" s="149" t="s">
+      <c r="AJ31" s="270"/>
+      <c r="AK31" s="267" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL31" s="267"/>
+      <c r="AM31" s="267"/>
+      <c r="AN31" s="267"/>
+      <c r="AO31" s="270" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP31" s="270"/>
+      <c r="AQ31" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="149"/>
-      <c r="AN31" s="149"/>
-      <c r="AO31" s="152" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP31" s="152"/>
-      <c r="AQ31" s="149" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR31" s="149"/>
-      <c r="AS31" s="149"/>
-      <c r="AT31" s="149"/>
-      <c r="AU31" s="152" t="s">
+      <c r="AR31" s="267"/>
+      <c r="AS31" s="267"/>
+      <c r="AT31" s="267"/>
+      <c r="AU31" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="AV31" s="152"/>
-      <c r="AW31" s="154"/>
+      <c r="AV31" s="270"/>
+      <c r="AW31" s="272"/>
       <c r="AY31" s="7"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -6942,54 +6936,54 @@
       <c r="CD31" s="10"/>
     </row>
     <row r="32" spans="1:85" ht="12" customHeight="1">
-      <c r="B32" s="139"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="153"/>
-      <c r="AJ32" s="153"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="151"/>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="153"/>
-      <c r="AP32" s="153"/>
-      <c r="AQ32" s="151"/>
-      <c r="AR32" s="151"/>
-      <c r="AS32" s="151"/>
-      <c r="AT32" s="151"/>
-      <c r="AU32" s="153"/>
-      <c r="AV32" s="153"/>
-      <c r="AW32" s="155"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="264"/>
+      <c r="I32" s="265"/>
+      <c r="J32" s="265"/>
+      <c r="K32" s="265"/>
+      <c r="L32" s="265"/>
+      <c r="M32" s="265"/>
+      <c r="N32" s="265"/>
+      <c r="O32" s="265"/>
+      <c r="P32" s="265"/>
+      <c r="Q32" s="265"/>
+      <c r="R32" s="265"/>
+      <c r="S32" s="265"/>
+      <c r="T32" s="265"/>
+      <c r="U32" s="265"/>
+      <c r="V32" s="265"/>
+      <c r="W32" s="265"/>
+      <c r="X32" s="265"/>
+      <c r="Y32" s="265"/>
+      <c r="Z32" s="265"/>
+      <c r="AA32" s="265"/>
+      <c r="AB32" s="265"/>
+      <c r="AC32" s="265"/>
+      <c r="AD32" s="265"/>
+      <c r="AE32" s="268"/>
+      <c r="AF32" s="269"/>
+      <c r="AG32" s="269"/>
+      <c r="AH32" s="269"/>
+      <c r="AI32" s="271"/>
+      <c r="AJ32" s="271"/>
+      <c r="AK32" s="269"/>
+      <c r="AL32" s="269"/>
+      <c r="AM32" s="269"/>
+      <c r="AN32" s="269"/>
+      <c r="AO32" s="271"/>
+      <c r="AP32" s="271"/>
+      <c r="AQ32" s="269"/>
+      <c r="AR32" s="269"/>
+      <c r="AS32" s="269"/>
+      <c r="AT32" s="269"/>
+      <c r="AU32" s="271"/>
+      <c r="AV32" s="271"/>
+      <c r="AW32" s="273"/>
       <c r="AY32" s="7"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -7023,64 +7017,64 @@
       <c r="CD32" s="10"/>
     </row>
     <row r="33" spans="1:101" ht="12" customHeight="1">
-      <c r="B33" s="139"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="143" t="s">
+      <c r="B33" s="179"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="115"/>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="156" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="157"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ33" s="163"/>
-      <c r="AK33" s="163"/>
-      <c r="AL33" s="163"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="163"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="163"/>
-      <c r="AS33" s="163"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="166" t="s">
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="240" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF33" s="241"/>
+      <c r="AG33" s="241"/>
+      <c r="AH33" s="242"/>
+      <c r="AI33" s="274" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ33" s="275"/>
+      <c r="AK33" s="275"/>
+      <c r="AL33" s="275"/>
+      <c r="AM33" s="275"/>
+      <c r="AN33" s="275"/>
+      <c r="AO33" s="275"/>
+      <c r="AP33" s="275"/>
+      <c r="AQ33" s="275"/>
+      <c r="AR33" s="275"/>
+      <c r="AS33" s="275"/>
+      <c r="AT33" s="275"/>
+      <c r="AU33" s="275"/>
+      <c r="AV33" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="AW33" s="167"/>
+      <c r="AW33" s="279"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
@@ -7114,54 +7108,54 @@
       <c r="CC33" s="10"/>
     </row>
     <row r="34" spans="1:101" ht="12" customHeight="1">
-      <c r="B34" s="139"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="159"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="161"/>
-      <c r="AI34" s="164"/>
-      <c r="AJ34" s="165"/>
-      <c r="AK34" s="165"/>
-      <c r="AL34" s="165"/>
-      <c r="AM34" s="165"/>
-      <c r="AN34" s="165"/>
-      <c r="AO34" s="165"/>
-      <c r="AP34" s="165"/>
-      <c r="AQ34" s="165"/>
-      <c r="AR34" s="165"/>
-      <c r="AS34" s="165"/>
-      <c r="AT34" s="165"/>
-      <c r="AU34" s="165"/>
-      <c r="AV34" s="168"/>
-      <c r="AW34" s="169"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="149"/>
+      <c r="AD34" s="149"/>
+      <c r="AE34" s="243"/>
+      <c r="AF34" s="244"/>
+      <c r="AG34" s="244"/>
+      <c r="AH34" s="245"/>
+      <c r="AI34" s="276"/>
+      <c r="AJ34" s="277"/>
+      <c r="AK34" s="277"/>
+      <c r="AL34" s="277"/>
+      <c r="AM34" s="277"/>
+      <c r="AN34" s="277"/>
+      <c r="AO34" s="277"/>
+      <c r="AP34" s="277"/>
+      <c r="AQ34" s="277"/>
+      <c r="AR34" s="277"/>
+      <c r="AS34" s="277"/>
+      <c r="AT34" s="277"/>
+      <c r="AU34" s="277"/>
+      <c r="AV34" s="280"/>
+      <c r="AW34" s="281"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
@@ -7195,62 +7189,62 @@
       <c r="CC34" s="10"/>
     </row>
     <row r="35" spans="1:101" ht="12" customHeight="1">
-      <c r="B35" s="139"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="187" t="s">
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="168" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="236" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="237"/>
+      <c r="J35" s="237"/>
+      <c r="K35" s="237"/>
+      <c r="L35" s="237"/>
+      <c r="M35" s="237"/>
+      <c r="N35" s="237"/>
+      <c r="O35" s="240" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="241"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="242"/>
+      <c r="S35" s="237" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
-      <c r="L35" s="188"/>
-      <c r="M35" s="188"/>
-      <c r="N35" s="188"/>
-      <c r="O35" s="156" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="157"/>
-      <c r="Q35" s="157"/>
-      <c r="R35" s="158"/>
-      <c r="S35" s="188" t="s">
-        <v>106</v>
-      </c>
-      <c r="T35" s="188"/>
-      <c r="U35" s="188"/>
-      <c r="V35" s="188"/>
-      <c r="W35" s="188"/>
-      <c r="X35" s="188"/>
-      <c r="Y35" s="188"/>
-      <c r="Z35" s="191"/>
-      <c r="AA35" s="192"/>
-      <c r="AB35" s="192"/>
-      <c r="AC35" s="192"/>
-      <c r="AD35" s="192"/>
-      <c r="AE35" s="192"/>
-      <c r="AF35" s="192"/>
-      <c r="AG35" s="192"/>
-      <c r="AH35" s="192"/>
-      <c r="AI35" s="192"/>
-      <c r="AJ35" s="192"/>
-      <c r="AK35" s="192"/>
-      <c r="AL35" s="192"/>
-      <c r="AM35" s="192"/>
-      <c r="AN35" s="192"/>
-      <c r="AO35" s="192"/>
-      <c r="AP35" s="192"/>
-      <c r="AQ35" s="192"/>
-      <c r="AR35" s="192"/>
-      <c r="AS35" s="192"/>
-      <c r="AT35" s="192"/>
-      <c r="AU35" s="192"/>
-      <c r="AV35" s="192"/>
-      <c r="AW35" s="193"/>
+      <c r="T35" s="237"/>
+      <c r="U35" s="237"/>
+      <c r="V35" s="237"/>
+      <c r="W35" s="237"/>
+      <c r="X35" s="237"/>
+      <c r="Y35" s="237"/>
+      <c r="Z35" s="246"/>
+      <c r="AA35" s="247"/>
+      <c r="AB35" s="247"/>
+      <c r="AC35" s="247"/>
+      <c r="AD35" s="247"/>
+      <c r="AE35" s="247"/>
+      <c r="AF35" s="247"/>
+      <c r="AG35" s="247"/>
+      <c r="AH35" s="247"/>
+      <c r="AI35" s="247"/>
+      <c r="AJ35" s="247"/>
+      <c r="AK35" s="247"/>
+      <c r="AL35" s="247"/>
+      <c r="AM35" s="247"/>
+      <c r="AN35" s="247"/>
+      <c r="AO35" s="247"/>
+      <c r="AP35" s="247"/>
+      <c r="AQ35" s="247"/>
+      <c r="AR35" s="247"/>
+      <c r="AS35" s="247"/>
+      <c r="AT35" s="247"/>
+      <c r="AU35" s="247"/>
+      <c r="AV35" s="247"/>
+      <c r="AW35" s="248"/>
       <c r="AY35" s="7"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -7278,54 +7272,54 @@
       <c r="CB35" s="10"/>
     </row>
     <row r="36" spans="1:101" ht="12" customHeight="1">
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="161"/>
-      <c r="S36" s="190"/>
-      <c r="T36" s="190"/>
-      <c r="U36" s="190"/>
-      <c r="V36" s="190"/>
-      <c r="W36" s="190"/>
-      <c r="X36" s="190"/>
-      <c r="Y36" s="190"/>
-      <c r="Z36" s="194"/>
-      <c r="AA36" s="195"/>
-      <c r="AB36" s="195"/>
-      <c r="AC36" s="195"/>
-      <c r="AD36" s="195"/>
-      <c r="AE36" s="195"/>
-      <c r="AF36" s="195"/>
-      <c r="AG36" s="195"/>
-      <c r="AH36" s="195"/>
-      <c r="AI36" s="195"/>
-      <c r="AJ36" s="195"/>
-      <c r="AK36" s="195"/>
-      <c r="AL36" s="195"/>
-      <c r="AM36" s="195"/>
-      <c r="AN36" s="195"/>
-      <c r="AO36" s="195"/>
-      <c r="AP36" s="195"/>
-      <c r="AQ36" s="195"/>
-      <c r="AR36" s="195"/>
-      <c r="AS36" s="195"/>
-      <c r="AT36" s="195"/>
-      <c r="AU36" s="195"/>
-      <c r="AV36" s="195"/>
-      <c r="AW36" s="196"/>
+      <c r="B36" s="181"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="239"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="239"/>
+      <c r="L36" s="239"/>
+      <c r="M36" s="239"/>
+      <c r="N36" s="239"/>
+      <c r="O36" s="243"/>
+      <c r="P36" s="244"/>
+      <c r="Q36" s="244"/>
+      <c r="R36" s="245"/>
+      <c r="S36" s="239"/>
+      <c r="T36" s="239"/>
+      <c r="U36" s="239"/>
+      <c r="V36" s="239"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="239"/>
+      <c r="Y36" s="239"/>
+      <c r="Z36" s="249"/>
+      <c r="AA36" s="250"/>
+      <c r="AB36" s="250"/>
+      <c r="AC36" s="250"/>
+      <c r="AD36" s="250"/>
+      <c r="AE36" s="250"/>
+      <c r="AF36" s="250"/>
+      <c r="AG36" s="250"/>
+      <c r="AH36" s="250"/>
+      <c r="AI36" s="250"/>
+      <c r="AJ36" s="250"/>
+      <c r="AK36" s="250"/>
+      <c r="AL36" s="250"/>
+      <c r="AM36" s="250"/>
+      <c r="AN36" s="250"/>
+      <c r="AO36" s="250"/>
+      <c r="AP36" s="250"/>
+      <c r="AQ36" s="250"/>
+      <c r="AR36" s="250"/>
+      <c r="AS36" s="250"/>
+      <c r="AT36" s="250"/>
+      <c r="AU36" s="250"/>
+      <c r="AV36" s="250"/>
+      <c r="AW36" s="251"/>
       <c r="AY36" s="7"/>
       <c r="BE36" s="10"/>
       <c r="BF36" s="10"/>
@@ -7404,144 +7398,144 @@
       <c r="AY37" s="7"/>
     </row>
     <row r="38" spans="1:101" ht="12" customHeight="1">
-      <c r="B38" s="137" t="s">
+      <c r="B38" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="138"/>
-      <c r="D38" s="143" t="s">
+      <c r="C38" s="178"/>
+      <c r="D38" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="197" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="203" t="str">
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="230" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="231"/>
+      <c r="J38" s="232"/>
+      <c r="K38" s="188" t="str">
         <f>IF(H38="月額（税込）",BC38,IF(H38="月額",BB38,""))</f>
         <v>$rentPrice$</v>
       </c>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="177" t="s">
+      <c r="L38" s="189"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="189"/>
+      <c r="R38" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="178"/>
-      <c r="T38" s="170" t="s">
-        <v>133</v>
-      </c>
-      <c r="U38" s="170"/>
-      <c r="V38" s="170"/>
-      <c r="W38" s="170"/>
-      <c r="X38" s="171" t="str">
+      <c r="S38" s="184"/>
+      <c r="T38" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="U38" s="229"/>
+      <c r="V38" s="229"/>
+      <c r="W38" s="229"/>
+      <c r="X38" s="213" t="str">
         <f>IF(T38="敷  金",BE38,IF(T38="保証金",BF38,""))</f>
         <v>$securityDeposit$</v>
       </c>
-      <c r="Y38" s="172"/>
-      <c r="Z38" s="172"/>
-      <c r="AA38" s="172"/>
-      <c r="AB38" s="172"/>
-      <c r="AC38" s="172"/>
-      <c r="AD38" s="172"/>
-      <c r="AE38" s="172"/>
-      <c r="AF38" s="173"/>
-      <c r="AG38" s="177" t="s">
+      <c r="Y38" s="214"/>
+      <c r="Z38" s="214"/>
+      <c r="AA38" s="214"/>
+      <c r="AB38" s="214"/>
+      <c r="AC38" s="214"/>
+      <c r="AD38" s="214"/>
+      <c r="AE38" s="214"/>
+      <c r="AF38" s="215"/>
+      <c r="AG38" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AH38" s="178"/>
-      <c r="AI38" s="181" t="s">
+      <c r="AH38" s="184"/>
+      <c r="AI38" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AJ38" s="182"/>
-      <c r="AK38" s="182"/>
-      <c r="AL38" s="183"/>
-      <c r="AM38" s="171" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN38" s="172"/>
-      <c r="AO38" s="172"/>
-      <c r="AP38" s="172"/>
-      <c r="AQ38" s="172"/>
-      <c r="AR38" s="172"/>
-      <c r="AS38" s="172"/>
-      <c r="AT38" s="172"/>
-      <c r="AU38" s="173"/>
-      <c r="AV38" s="177" t="s">
+      <c r="AJ38" s="85"/>
+      <c r="AK38" s="85"/>
+      <c r="AL38" s="86"/>
+      <c r="AM38" s="213" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN38" s="214"/>
+      <c r="AO38" s="214"/>
+      <c r="AP38" s="214"/>
+      <c r="AQ38" s="214"/>
+      <c r="AR38" s="214"/>
+      <c r="AS38" s="214"/>
+      <c r="AT38" s="214"/>
+      <c r="AU38" s="215"/>
+      <c r="AV38" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AW38" s="178"/>
+      <c r="AW38" s="184"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BD38" s="5"/>
       <c r="BE38" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BF38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
     </row>
     <row r="39" spans="1:101" ht="12" customHeight="1">
-      <c r="B39" s="139"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="200"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="206"/>
-      <c r="O39" s="206"/>
-      <c r="P39" s="206"/>
-      <c r="Q39" s="206"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="180"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="170"/>
-      <c r="V39" s="170"/>
-      <c r="W39" s="170"/>
-      <c r="X39" s="174"/>
-      <c r="Y39" s="175"/>
-      <c r="Z39" s="175"/>
-      <c r="AA39" s="175"/>
-      <c r="AB39" s="175"/>
-      <c r="AC39" s="175"/>
-      <c r="AD39" s="175"/>
-      <c r="AE39" s="175"/>
-      <c r="AF39" s="176"/>
-      <c r="AG39" s="179"/>
-      <c r="AH39" s="180"/>
-      <c r="AI39" s="184"/>
-      <c r="AJ39" s="185"/>
-      <c r="AK39" s="185"/>
-      <c r="AL39" s="186"/>
-      <c r="AM39" s="174"/>
-      <c r="AN39" s="175"/>
-      <c r="AO39" s="175"/>
-      <c r="AP39" s="175"/>
-      <c r="AQ39" s="175"/>
-      <c r="AR39" s="175"/>
-      <c r="AS39" s="175"/>
-      <c r="AT39" s="175"/>
-      <c r="AU39" s="176"/>
-      <c r="AV39" s="179"/>
-      <c r="AW39" s="180"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="233"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="235"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="191"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="191"/>
+      <c r="P39" s="191"/>
+      <c r="Q39" s="191"/>
+      <c r="R39" s="203"/>
+      <c r="S39" s="163"/>
+      <c r="T39" s="229"/>
+      <c r="U39" s="229"/>
+      <c r="V39" s="229"/>
+      <c r="W39" s="229"/>
+      <c r="X39" s="226"/>
+      <c r="Y39" s="227"/>
+      <c r="Z39" s="227"/>
+      <c r="AA39" s="227"/>
+      <c r="AB39" s="227"/>
+      <c r="AC39" s="227"/>
+      <c r="AD39" s="227"/>
+      <c r="AE39" s="227"/>
+      <c r="AF39" s="228"/>
+      <c r="AG39" s="203"/>
+      <c r="AH39" s="163"/>
+      <c r="AI39" s="87"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="89"/>
+      <c r="AM39" s="226"/>
+      <c r="AN39" s="227"/>
+      <c r="AO39" s="227"/>
+      <c r="AP39" s="227"/>
+      <c r="AQ39" s="227"/>
+      <c r="AR39" s="227"/>
+      <c r="AS39" s="227"/>
+      <c r="AT39" s="227"/>
+      <c r="AU39" s="228"/>
+      <c r="AV39" s="203"/>
+      <c r="AW39" s="163"/>
       <c r="AY39" s="7"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
@@ -7552,81 +7546,81 @@
       <c r="BH39" s="5"/>
     </row>
     <row r="40" spans="1:101" ht="12" customHeight="1">
-      <c r="B40" s="139"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="170" t="s">
+      <c r="B40" s="179"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="197" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="203" t="str">
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="230" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
+      <c r="K40" s="188" t="str">
         <f>IF(D40="共益費",IF(H40="月額（税込）",BC40,IF(H40="月額",BB40,"")),IF(D40="管理費",IF(H40="月額（税込）",BC41,IF(H40="月額",BB41,"")),""))</f>
         <v>$condoFee$</v>
       </c>
-      <c r="L40" s="204"/>
-      <c r="M40" s="204"/>
-      <c r="N40" s="204"/>
-      <c r="O40" s="204"/>
-      <c r="P40" s="204"/>
-      <c r="Q40" s="204"/>
-      <c r="R40" s="177" t="s">
+      <c r="L40" s="189"/>
+      <c r="M40" s="189"/>
+      <c r="N40" s="189"/>
+      <c r="O40" s="189"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="189"/>
+      <c r="R40" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="178"/>
-      <c r="T40" s="143" t="s">
+      <c r="S40" s="184"/>
+      <c r="T40" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="U40" s="143"/>
-      <c r="V40" s="143"/>
-      <c r="W40" s="143"/>
-      <c r="X40" s="171" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y40" s="172"/>
-      <c r="Z40" s="172"/>
-      <c r="AA40" s="172"/>
-      <c r="AB40" s="172"/>
-      <c r="AC40" s="172"/>
-      <c r="AD40" s="172"/>
-      <c r="AE40" s="172"/>
-      <c r="AF40" s="173"/>
-      <c r="AG40" s="177" t="s">
+      <c r="U40" s="168"/>
+      <c r="V40" s="168"/>
+      <c r="W40" s="168"/>
+      <c r="X40" s="213" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y40" s="214"/>
+      <c r="Z40" s="214"/>
+      <c r="AA40" s="214"/>
+      <c r="AB40" s="214"/>
+      <c r="AC40" s="214"/>
+      <c r="AD40" s="214"/>
+      <c r="AE40" s="214"/>
+      <c r="AF40" s="215"/>
+      <c r="AG40" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AH40" s="178"/>
-      <c r="AI40" s="143" t="s">
+      <c r="AH40" s="184"/>
+      <c r="AI40" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="AJ40" s="143"/>
-      <c r="AK40" s="143"/>
-      <c r="AL40" s="143"/>
-      <c r="AM40" s="217" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN40" s="204"/>
-      <c r="AO40" s="204"/>
-      <c r="AP40" s="204"/>
-      <c r="AQ40" s="204"/>
-      <c r="AR40" s="204"/>
-      <c r="AS40" s="204"/>
-      <c r="AT40" s="204"/>
-      <c r="AU40" s="204"/>
-      <c r="AV40" s="177" t="s">
+      <c r="AJ40" s="168"/>
+      <c r="AK40" s="168"/>
+      <c r="AL40" s="168"/>
+      <c r="AM40" s="224" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN40" s="189"/>
+      <c r="AO40" s="189"/>
+      <c r="AP40" s="189"/>
+      <c r="AQ40" s="189"/>
+      <c r="AR40" s="189"/>
+      <c r="AS40" s="189"/>
+      <c r="AT40" s="189"/>
+      <c r="AU40" s="189"/>
+      <c r="AV40" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AW40" s="178"/>
+      <c r="AW40" s="184"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BD40" s="5"/>
       <c r="BE40" s="5"/>
@@ -7635,60 +7629,60 @@
       <c r="BH40" s="5"/>
     </row>
     <row r="41" spans="1:101" ht="12" customHeight="1">
-      <c r="B41" s="139"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
-      <c r="M41" s="206"/>
-      <c r="N41" s="206"/>
-      <c r="O41" s="206"/>
-      <c r="P41" s="206"/>
-      <c r="Q41" s="206"/>
-      <c r="R41" s="179"/>
-      <c r="S41" s="180"/>
-      <c r="T41" s="143"/>
-      <c r="U41" s="143"/>
-      <c r="V41" s="143"/>
-      <c r="W41" s="143"/>
-      <c r="X41" s="174"/>
-      <c r="Y41" s="175"/>
-      <c r="Z41" s="175"/>
-      <c r="AA41" s="175"/>
-      <c r="AB41" s="175"/>
-      <c r="AC41" s="175"/>
-      <c r="AD41" s="175"/>
-      <c r="AE41" s="175"/>
-      <c r="AF41" s="176"/>
-      <c r="AG41" s="179"/>
-      <c r="AH41" s="180"/>
-      <c r="AI41" s="143"/>
-      <c r="AJ41" s="143"/>
-      <c r="AK41" s="143"/>
-      <c r="AL41" s="143"/>
-      <c r="AM41" s="218"/>
-      <c r="AN41" s="206"/>
-      <c r="AO41" s="206"/>
-      <c r="AP41" s="206"/>
-      <c r="AQ41" s="206"/>
-      <c r="AR41" s="206"/>
-      <c r="AS41" s="206"/>
-      <c r="AT41" s="206"/>
-      <c r="AU41" s="206"/>
-      <c r="AV41" s="179"/>
-      <c r="AW41" s="180"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="233"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="235"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="203"/>
+      <c r="S41" s="163"/>
+      <c r="T41" s="168"/>
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="168"/>
+      <c r="X41" s="226"/>
+      <c r="Y41" s="227"/>
+      <c r="Z41" s="227"/>
+      <c r="AA41" s="227"/>
+      <c r="AB41" s="227"/>
+      <c r="AC41" s="227"/>
+      <c r="AD41" s="227"/>
+      <c r="AE41" s="227"/>
+      <c r="AF41" s="228"/>
+      <c r="AG41" s="203"/>
+      <c r="AH41" s="163"/>
+      <c r="AI41" s="168"/>
+      <c r="AJ41" s="168"/>
+      <c r="AK41" s="168"/>
+      <c r="AL41" s="168"/>
+      <c r="AM41" s="225"/>
+      <c r="AN41" s="191"/>
+      <c r="AO41" s="191"/>
+      <c r="AP41" s="191"/>
+      <c r="AQ41" s="191"/>
+      <c r="AR41" s="191"/>
+      <c r="AS41" s="191"/>
+      <c r="AT41" s="191"/>
+      <c r="AU41" s="191"/>
+      <c r="AV41" s="203"/>
+      <c r="AW41" s="163"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
@@ -7697,66 +7691,66 @@
       <c r="BH41" s="5"/>
     </row>
     <row r="42" spans="1:101" ht="12" customHeight="1">
-      <c r="B42" s="139"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="143" t="s">
+      <c r="B42" s="179"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="171" t="s">
-        <v>78</v>
-      </c>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="177" t="s">
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="214"/>
+      <c r="N42" s="214"/>
+      <c r="O42" s="214"/>
+      <c r="P42" s="214"/>
+      <c r="Q42" s="215"/>
+      <c r="R42" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="S42" s="178"/>
-      <c r="T42" s="143"/>
-      <c r="U42" s="143"/>
-      <c r="V42" s="143"/>
-      <c r="W42" s="143"/>
-      <c r="X42" s="171" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y42" s="172"/>
-      <c r="Z42" s="172"/>
-      <c r="AA42" s="172"/>
-      <c r="AB42" s="172"/>
-      <c r="AC42" s="172"/>
-      <c r="AD42" s="172"/>
-      <c r="AE42" s="172"/>
-      <c r="AF42" s="173"/>
-      <c r="AG42" s="177" t="s">
+      <c r="S42" s="184"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="168"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="168"/>
+      <c r="X42" s="213" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y42" s="214"/>
+      <c r="Z42" s="214"/>
+      <c r="AA42" s="214"/>
+      <c r="AB42" s="214"/>
+      <c r="AC42" s="214"/>
+      <c r="AD42" s="214"/>
+      <c r="AE42" s="214"/>
+      <c r="AF42" s="215"/>
+      <c r="AG42" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AH42" s="178"/>
-      <c r="AI42" s="143"/>
-      <c r="AJ42" s="143"/>
-      <c r="AK42" s="143"/>
-      <c r="AL42" s="143"/>
-      <c r="AM42" s="214"/>
-      <c r="AN42" s="204"/>
-      <c r="AO42" s="204"/>
-      <c r="AP42" s="204"/>
-      <c r="AQ42" s="204"/>
-      <c r="AR42" s="204"/>
-      <c r="AS42" s="204"/>
-      <c r="AT42" s="204"/>
-      <c r="AU42" s="204"/>
-      <c r="AV42" s="177" t="s">
+      <c r="AH42" s="184"/>
+      <c r="AI42" s="168"/>
+      <c r="AJ42" s="168"/>
+      <c r="AK42" s="168"/>
+      <c r="AL42" s="168"/>
+      <c r="AM42" s="221"/>
+      <c r="AN42" s="189"/>
+      <c r="AO42" s="189"/>
+      <c r="AP42" s="189"/>
+      <c r="AQ42" s="189"/>
+      <c r="AR42" s="189"/>
+      <c r="AS42" s="189"/>
+      <c r="AT42" s="189"/>
+      <c r="AU42" s="189"/>
+      <c r="AV42" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AW42" s="178"/>
+      <c r="AW42" s="184"/>
       <c r="AY42" s="7"/>
       <c r="BB42" s="36"/>
       <c r="BC42" s="36"/>
@@ -7765,172 +7759,172 @@
       <c r="BF42" s="36"/>
     </row>
     <row r="43" spans="1:101" ht="12" customHeight="1">
-      <c r="B43" s="139"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="176"/>
-      <c r="R43" s="179"/>
-      <c r="S43" s="180"/>
-      <c r="T43" s="143"/>
-      <c r="U43" s="143"/>
-      <c r="V43" s="143"/>
-      <c r="W43" s="143"/>
-      <c r="X43" s="174"/>
-      <c r="Y43" s="175"/>
-      <c r="Z43" s="175"/>
-      <c r="AA43" s="175"/>
-      <c r="AB43" s="175"/>
-      <c r="AC43" s="175"/>
-      <c r="AD43" s="175"/>
-      <c r="AE43" s="175"/>
-      <c r="AF43" s="176"/>
-      <c r="AG43" s="179"/>
-      <c r="AH43" s="180"/>
-      <c r="AI43" s="143"/>
-      <c r="AJ43" s="143"/>
-      <c r="AK43" s="143"/>
-      <c r="AL43" s="143"/>
-      <c r="AM43" s="218"/>
-      <c r="AN43" s="206"/>
-      <c r="AO43" s="206"/>
-      <c r="AP43" s="206"/>
-      <c r="AQ43" s="206"/>
-      <c r="AR43" s="206"/>
-      <c r="AS43" s="206"/>
-      <c r="AT43" s="206"/>
-      <c r="AU43" s="206"/>
-      <c r="AV43" s="179"/>
-      <c r="AW43" s="180"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="227"/>
+      <c r="K43" s="227"/>
+      <c r="L43" s="227"/>
+      <c r="M43" s="227"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="227"/>
+      <c r="P43" s="227"/>
+      <c r="Q43" s="228"/>
+      <c r="R43" s="203"/>
+      <c r="S43" s="163"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
+      <c r="X43" s="226"/>
+      <c r="Y43" s="227"/>
+      <c r="Z43" s="227"/>
+      <c r="AA43" s="227"/>
+      <c r="AB43" s="227"/>
+      <c r="AC43" s="227"/>
+      <c r="AD43" s="227"/>
+      <c r="AE43" s="227"/>
+      <c r="AF43" s="228"/>
+      <c r="AG43" s="203"/>
+      <c r="AH43" s="163"/>
+      <c r="AI43" s="168"/>
+      <c r="AJ43" s="168"/>
+      <c r="AK43" s="168"/>
+      <c r="AL43" s="168"/>
+      <c r="AM43" s="225"/>
+      <c r="AN43" s="191"/>
+      <c r="AO43" s="191"/>
+      <c r="AP43" s="191"/>
+      <c r="AQ43" s="191"/>
+      <c r="AR43" s="191"/>
+      <c r="AS43" s="191"/>
+      <c r="AT43" s="191"/>
+      <c r="AU43" s="191"/>
+      <c r="AV43" s="203"/>
+      <c r="AW43" s="163"/>
       <c r="AY43" s="7"/>
     </row>
     <row r="44" spans="1:101" ht="12" customHeight="1">
-      <c r="B44" s="139"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="272" t="s">
+      <c r="B44" s="179"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="189"/>
+      <c r="M44" s="189"/>
+      <c r="N44" s="189"/>
+      <c r="O44" s="189"/>
+      <c r="P44" s="189"/>
+      <c r="Q44" s="189"/>
+      <c r="R44" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" s="193"/>
+      <c r="T44" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="272"/>
-      <c r="F44" s="272"/>
-      <c r="G44" s="272"/>
-      <c r="H44" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="273"/>
-      <c r="K44" s="203" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="204"/>
-      <c r="M44" s="204"/>
-      <c r="N44" s="204"/>
-      <c r="O44" s="204"/>
-      <c r="P44" s="204"/>
-      <c r="Q44" s="204"/>
-      <c r="R44" s="275" t="s">
+      <c r="U44" s="187"/>
+      <c r="V44" s="187"/>
+      <c r="W44" s="187"/>
+      <c r="X44" s="213" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y44" s="214"/>
+      <c r="Z44" s="214"/>
+      <c r="AA44" s="214"/>
+      <c r="AB44" s="214"/>
+      <c r="AC44" s="214"/>
+      <c r="AD44" s="214"/>
+      <c r="AE44" s="214"/>
+      <c r="AF44" s="215"/>
+      <c r="AG44" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="S44" s="276"/>
-      <c r="T44" s="279" t="s">
-        <v>66</v>
-      </c>
-      <c r="U44" s="272"/>
-      <c r="V44" s="272"/>
-      <c r="W44" s="272"/>
-      <c r="X44" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y44" s="172"/>
-      <c r="Z44" s="172"/>
-      <c r="AA44" s="172"/>
-      <c r="AB44" s="172"/>
-      <c r="AC44" s="172"/>
-      <c r="AD44" s="172"/>
-      <c r="AE44" s="172"/>
-      <c r="AF44" s="173"/>
-      <c r="AG44" s="177" t="s">
+      <c r="AH44" s="184"/>
+      <c r="AI44" s="219"/>
+      <c r="AJ44" s="219"/>
+      <c r="AK44" s="219"/>
+      <c r="AL44" s="219"/>
+      <c r="AM44" s="221"/>
+      <c r="AN44" s="189"/>
+      <c r="AO44" s="189"/>
+      <c r="AP44" s="189"/>
+      <c r="AQ44" s="189"/>
+      <c r="AR44" s="189"/>
+      <c r="AS44" s="189"/>
+      <c r="AT44" s="189"/>
+      <c r="AU44" s="189"/>
+      <c r="AV44" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AH44" s="178"/>
-      <c r="AI44" s="212"/>
-      <c r="AJ44" s="212"/>
-      <c r="AK44" s="212"/>
-      <c r="AL44" s="212"/>
-      <c r="AM44" s="214"/>
-      <c r="AN44" s="204"/>
-      <c r="AO44" s="204"/>
-      <c r="AP44" s="204"/>
-      <c r="AQ44" s="204"/>
-      <c r="AR44" s="204"/>
-      <c r="AS44" s="204"/>
-      <c r="AT44" s="204"/>
-      <c r="AU44" s="204"/>
-      <c r="AV44" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW44" s="178"/>
+      <c r="AW44" s="184"/>
       <c r="AY44" s="7"/>
     </row>
     <row r="45" spans="1:101" ht="12" customHeight="1">
-      <c r="B45" s="139"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="272"/>
-      <c r="E45" s="272"/>
-      <c r="F45" s="272"/>
-      <c r="G45" s="272"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="274"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="206"/>
-      <c r="N45" s="206"/>
-      <c r="O45" s="206"/>
-      <c r="P45" s="206"/>
-      <c r="Q45" s="206"/>
-      <c r="R45" s="277"/>
-      <c r="S45" s="278"/>
-      <c r="T45" s="280"/>
-      <c r="U45" s="280"/>
-      <c r="V45" s="280"/>
-      <c r="W45" s="280"/>
-      <c r="X45" s="207"/>
-      <c r="Y45" s="208"/>
-      <c r="Z45" s="208"/>
-      <c r="AA45" s="208"/>
-      <c r="AB45" s="208"/>
-      <c r="AC45" s="208"/>
-      <c r="AD45" s="208"/>
-      <c r="AE45" s="208"/>
-      <c r="AF45" s="209"/>
-      <c r="AG45" s="210"/>
-      <c r="AH45" s="211"/>
-      <c r="AI45" s="213"/>
-      <c r="AJ45" s="213"/>
-      <c r="AK45" s="213"/>
-      <c r="AL45" s="213"/>
-      <c r="AM45" s="215"/>
-      <c r="AN45" s="216"/>
-      <c r="AO45" s="216"/>
-      <c r="AP45" s="216"/>
-      <c r="AQ45" s="216"/>
-      <c r="AR45" s="216"/>
-      <c r="AS45" s="216"/>
-      <c r="AT45" s="216"/>
-      <c r="AU45" s="216"/>
-      <c r="AV45" s="210"/>
-      <c r="AW45" s="211"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="180"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="190"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="191"/>
+      <c r="O45" s="191"/>
+      <c r="P45" s="191"/>
+      <c r="Q45" s="191"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="195"/>
+      <c r="T45" s="197"/>
+      <c r="U45" s="197"/>
+      <c r="V45" s="197"/>
+      <c r="W45" s="197"/>
+      <c r="X45" s="216"/>
+      <c r="Y45" s="217"/>
+      <c r="Z45" s="217"/>
+      <c r="AA45" s="217"/>
+      <c r="AB45" s="217"/>
+      <c r="AC45" s="217"/>
+      <c r="AD45" s="217"/>
+      <c r="AE45" s="217"/>
+      <c r="AF45" s="218"/>
+      <c r="AG45" s="185"/>
+      <c r="AH45" s="186"/>
+      <c r="AI45" s="220"/>
+      <c r="AJ45" s="220"/>
+      <c r="AK45" s="220"/>
+      <c r="AL45" s="220"/>
+      <c r="AM45" s="222"/>
+      <c r="AN45" s="223"/>
+      <c r="AO45" s="223"/>
+      <c r="AP45" s="223"/>
+      <c r="AQ45" s="223"/>
+      <c r="AR45" s="223"/>
+      <c r="AS45" s="223"/>
+      <c r="AT45" s="223"/>
+      <c r="AU45" s="223"/>
+      <c r="AV45" s="185"/>
+      <c r="AW45" s="186"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
@@ -7985,86 +7979,86 @@
       <c r="CW45" s="10"/>
     </row>
     <row r="46" spans="1:101" ht="12" customHeight="1">
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="143" t="s">
+      <c r="B46" s="179"/>
+      <c r="C46" s="180"/>
+      <c r="D46" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="238" t="s">
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="38"/>
+      <c r="N46" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="232"/>
-      <c r="J46" s="232"/>
-      <c r="K46" s="232"/>
-      <c r="L46" s="234" t="s">
+      <c r="O46" s="62"/>
+      <c r="P46" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="S46" s="62"/>
+      <c r="T46" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U46" s="38"/>
+      <c r="V46" s="205" t="s">
+        <v>38</v>
+      </c>
+      <c r="W46" s="205"/>
+      <c r="X46" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y46" s="59"/>
+      <c r="Z46" s="59"/>
+      <c r="AA46" s="59"/>
+      <c r="AB46" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M46" s="234"/>
-      <c r="N46" s="236" t="s">
-        <v>81</v>
-      </c>
-      <c r="O46" s="236"/>
-      <c r="P46" s="234" t="s">
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Q46" s="234"/>
-      <c r="R46" s="236" t="s">
-        <v>82</v>
-      </c>
-      <c r="S46" s="236"/>
-      <c r="T46" s="234" t="s">
-        <v>2</v>
-      </c>
-      <c r="U46" s="234"/>
-      <c r="V46" s="230" t="s">
-        <v>38</v>
-      </c>
-      <c r="W46" s="230"/>
-      <c r="X46" s="232" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y46" s="232"/>
-      <c r="Z46" s="232"/>
-      <c r="AA46" s="232"/>
-      <c r="AB46" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="234"/>
-      <c r="AD46" s="236" t="s">
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="AE46" s="236"/>
-      <c r="AF46" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="234"/>
-      <c r="AH46" s="236" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI46" s="236"/>
-      <c r="AJ46" s="234" t="s">
+      <c r="AI46" s="62"/>
+      <c r="AJ46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AK46" s="234"/>
-      <c r="AL46" s="234"/>
-      <c r="AM46" s="240" t="s">
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="AN46" s="242" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO46" s="242"/>
-      <c r="AP46" s="242"/>
-      <c r="AQ46" s="242"/>
-      <c r="AR46" s="242"/>
-      <c r="AS46" s="242"/>
-      <c r="AT46" s="242"/>
-      <c r="AU46" s="242"/>
-      <c r="AV46" s="242"/>
-      <c r="AW46" s="244" t="s">
+      <c r="AN46" s="209" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO46" s="209"/>
+      <c r="AP46" s="209"/>
+      <c r="AQ46" s="209"/>
+      <c r="AR46" s="209"/>
+      <c r="AS46" s="209"/>
+      <c r="AT46" s="209"/>
+      <c r="AU46" s="209"/>
+      <c r="AV46" s="209"/>
+      <c r="AW46" s="211" t="s">
         <v>41</v>
       </c>
       <c r="AX46" s="10"/>
@@ -8121,54 +8115,54 @@
       <c r="CW46" s="10"/>
     </row>
     <row r="47" spans="1:101" ht="12" customHeight="1">
-      <c r="B47" s="139"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="233"/>
-      <c r="L47" s="235"/>
-      <c r="M47" s="235"/>
-      <c r="N47" s="237"/>
-      <c r="O47" s="237"/>
-      <c r="P47" s="235"/>
-      <c r="Q47" s="235"/>
-      <c r="R47" s="237"/>
-      <c r="S47" s="237"/>
-      <c r="T47" s="235"/>
-      <c r="U47" s="235"/>
-      <c r="V47" s="231"/>
-      <c r="W47" s="231"/>
-      <c r="X47" s="233"/>
-      <c r="Y47" s="233"/>
-      <c r="Z47" s="233"/>
-      <c r="AA47" s="233"/>
-      <c r="AB47" s="235"/>
-      <c r="AC47" s="235"/>
-      <c r="AD47" s="237"/>
-      <c r="AE47" s="237"/>
-      <c r="AF47" s="235"/>
-      <c r="AG47" s="235"/>
-      <c r="AH47" s="237"/>
-      <c r="AI47" s="237"/>
-      <c r="AJ47" s="235"/>
-      <c r="AK47" s="235"/>
-      <c r="AL47" s="235"/>
-      <c r="AM47" s="241"/>
-      <c r="AN47" s="243"/>
-      <c r="AO47" s="243"/>
-      <c r="AP47" s="243"/>
-      <c r="AQ47" s="243"/>
-      <c r="AR47" s="243"/>
-      <c r="AS47" s="243"/>
-      <c r="AT47" s="243"/>
-      <c r="AU47" s="243"/>
-      <c r="AV47" s="243"/>
-      <c r="AW47" s="245"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="63"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="206"/>
+      <c r="W47" s="206"/>
+      <c r="X47" s="61"/>
+      <c r="Y47" s="61"/>
+      <c r="Z47" s="61"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="63"/>
+      <c r="AE47" s="63"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="63"/>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="208"/>
+      <c r="AN47" s="210"/>
+      <c r="AO47" s="210"/>
+      <c r="AP47" s="210"/>
+      <c r="AQ47" s="210"/>
+      <c r="AR47" s="210"/>
+      <c r="AS47" s="210"/>
+      <c r="AT47" s="210"/>
+      <c r="AU47" s="210"/>
+      <c r="AV47" s="210"/>
+      <c r="AW47" s="212"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
@@ -8176,8 +8170,8 @@
       <c r="BB47" s="10"/>
       <c r="BC47" s="10"/>
       <c r="BD47" s="10"/>
-      <c r="BE47" s="219"/>
-      <c r="BF47" s="219"/>
+      <c r="BE47" s="198"/>
+      <c r="BF47" s="198"/>
       <c r="BG47" s="10"/>
       <c r="BH47" s="10"/>
       <c r="BI47" s="10"/>
@@ -8224,68 +8218,68 @@
     </row>
     <row r="48" spans="1:101" ht="12" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="143" t="s">
+      <c r="B48" s="179"/>
+      <c r="C48" s="180"/>
+      <c r="D48" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="60" t="s">
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="221" t="s">
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="199" t="s">
+        <v>115</v>
+      </c>
+      <c r="N48" s="199"/>
+      <c r="O48" s="199"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="201" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" s="160"/>
+      <c r="T48" s="160"/>
+      <c r="U48" s="202"/>
+      <c r="V48" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="156" t="s">
         <v>116</v>
       </c>
-      <c r="N48" s="221"/>
-      <c r="O48" s="221"/>
-      <c r="P48" s="221"/>
-      <c r="Q48" s="221"/>
-      <c r="R48" s="223" t="s">
-        <v>26</v>
-      </c>
-      <c r="S48" s="224"/>
-      <c r="T48" s="224"/>
-      <c r="U48" s="225"/>
-      <c r="V48" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="W48" s="60"/>
-      <c r="X48" s="60"/>
-      <c r="Y48" s="60"/>
-      <c r="Z48" s="60"/>
-      <c r="AA48" s="61"/>
-      <c r="AB48" s="255" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC48" s="256"/>
-      <c r="AD48" s="256"/>
-      <c r="AE48" s="256"/>
-      <c r="AF48" s="256"/>
-      <c r="AG48" s="256"/>
-      <c r="AH48" s="256"/>
-      <c r="AI48" s="224" t="s">
+      <c r="AC48" s="157"/>
+      <c r="AD48" s="157"/>
+      <c r="AE48" s="157"/>
+      <c r="AF48" s="157"/>
+      <c r="AG48" s="157"/>
+      <c r="AH48" s="157"/>
+      <c r="AI48" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="AJ48" s="224"/>
-      <c r="AK48" s="224"/>
-      <c r="AL48" s="259"/>
-      <c r="AM48" s="260"/>
-      <c r="AN48" s="260"/>
-      <c r="AO48" s="260"/>
-      <c r="AP48" s="260"/>
-      <c r="AQ48" s="260"/>
-      <c r="AR48" s="260"/>
-      <c r="AS48" s="260"/>
-      <c r="AT48" s="260"/>
-      <c r="AU48" s="260"/>
-      <c r="AV48" s="260"/>
-      <c r="AW48" s="261"/>
+      <c r="AJ48" s="160"/>
+      <c r="AK48" s="160"/>
+      <c r="AL48" s="161"/>
+      <c r="AM48" s="164"/>
+      <c r="AN48" s="164"/>
+      <c r="AO48" s="164"/>
+      <c r="AP48" s="164"/>
+      <c r="AQ48" s="164"/>
+      <c r="AR48" s="164"/>
+      <c r="AS48" s="164"/>
+      <c r="AT48" s="164"/>
+      <c r="AU48" s="164"/>
+      <c r="AV48" s="164"/>
+      <c r="AW48" s="165"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
@@ -8340,54 +8334,54 @@
     </row>
     <row r="49" spans="1:100" ht="12" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="220"/>
-      <c r="I49" s="220"/>
-      <c r="J49" s="220"/>
-      <c r="K49" s="220"/>
-      <c r="L49" s="220"/>
-      <c r="M49" s="222"/>
-      <c r="N49" s="222"/>
-      <c r="O49" s="222"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
-      <c r="R49" s="179"/>
-      <c r="S49" s="226"/>
-      <c r="T49" s="226"/>
-      <c r="U49" s="227"/>
-      <c r="V49" s="228"/>
-      <c r="W49" s="220"/>
-      <c r="X49" s="220"/>
-      <c r="Y49" s="220"/>
-      <c r="Z49" s="220"/>
-      <c r="AA49" s="229"/>
-      <c r="AB49" s="257"/>
-      <c r="AC49" s="258"/>
-      <c r="AD49" s="258"/>
-      <c r="AE49" s="258"/>
-      <c r="AF49" s="258"/>
-      <c r="AG49" s="258"/>
-      <c r="AH49" s="258"/>
-      <c r="AI49" s="226"/>
-      <c r="AJ49" s="226"/>
-      <c r="AK49" s="226"/>
-      <c r="AL49" s="180"/>
-      <c r="AM49" s="262"/>
-      <c r="AN49" s="262"/>
-      <c r="AO49" s="262"/>
-      <c r="AP49" s="262"/>
-      <c r="AQ49" s="262"/>
-      <c r="AR49" s="262"/>
-      <c r="AS49" s="262"/>
-      <c r="AT49" s="262"/>
-      <c r="AU49" s="262"/>
-      <c r="AV49" s="262"/>
-      <c r="AW49" s="263"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="200"/>
+      <c r="O49" s="200"/>
+      <c r="P49" s="200"/>
+      <c r="Q49" s="200"/>
+      <c r="R49" s="203"/>
+      <c r="S49" s="162"/>
+      <c r="T49" s="162"/>
+      <c r="U49" s="204"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="47"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="47"/>
+      <c r="AA49" s="48"/>
+      <c r="AB49" s="158"/>
+      <c r="AC49" s="159"/>
+      <c r="AD49" s="159"/>
+      <c r="AE49" s="159"/>
+      <c r="AF49" s="159"/>
+      <c r="AG49" s="159"/>
+      <c r="AH49" s="159"/>
+      <c r="AI49" s="162"/>
+      <c r="AJ49" s="162"/>
+      <c r="AK49" s="162"/>
+      <c r="AL49" s="163"/>
+      <c r="AM49" s="166"/>
+      <c r="AN49" s="166"/>
+      <c r="AO49" s="166"/>
+      <c r="AP49" s="166"/>
+      <c r="AQ49" s="166"/>
+      <c r="AR49" s="166"/>
+      <c r="AS49" s="166"/>
+      <c r="AT49" s="166"/>
+      <c r="AU49" s="166"/>
+      <c r="AV49" s="166"/>
+      <c r="AW49" s="167"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -8442,64 +8436,64 @@
     </row>
     <row r="50" spans="1:100" ht="12" customHeight="1">
       <c r="A50" s="12"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="143" t="s">
+      <c r="B50" s="179"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="168" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="56" t="s">
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="169"/>
+      <c r="Q50" s="169"/>
+      <c r="R50" s="169"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="264" t="s">
-        <v>118</v>
-      </c>
-      <c r="M50" s="264"/>
-      <c r="N50" s="264"/>
-      <c r="O50" s="264"/>
-      <c r="P50" s="264"/>
-      <c r="Q50" s="264"/>
-      <c r="R50" s="264"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="W50" s="60"/>
-      <c r="X50" s="60"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="60"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="266" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC50" s="267"/>
-      <c r="AD50" s="267"/>
-      <c r="AE50" s="267"/>
-      <c r="AF50" s="267"/>
-      <c r="AG50" s="267"/>
-      <c r="AH50" s="267"/>
-      <c r="AI50" s="267"/>
-      <c r="AJ50" s="267"/>
-      <c r="AK50" s="267"/>
-      <c r="AL50" s="267"/>
-      <c r="AM50" s="267"/>
-      <c r="AN50" s="267"/>
-      <c r="AO50" s="267"/>
-      <c r="AP50" s="267"/>
-      <c r="AQ50" s="267"/>
-      <c r="AR50" s="267"/>
-      <c r="AS50" s="267"/>
-      <c r="AT50" s="267"/>
-      <c r="AU50" s="267"/>
-      <c r="AV50" s="267"/>
-      <c r="AW50" s="268"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="45"/>
+      <c r="AB50" s="171" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC50" s="172"/>
+      <c r="AD50" s="172"/>
+      <c r="AE50" s="172"/>
+      <c r="AF50" s="172"/>
+      <c r="AG50" s="172"/>
+      <c r="AH50" s="172"/>
+      <c r="AI50" s="172"/>
+      <c r="AJ50" s="172"/>
+      <c r="AK50" s="172"/>
+      <c r="AL50" s="172"/>
+      <c r="AM50" s="172"/>
+      <c r="AN50" s="172"/>
+      <c r="AO50" s="172"/>
+      <c r="AP50" s="172"/>
+      <c r="AQ50" s="172"/>
+      <c r="AR50" s="172"/>
+      <c r="AS50" s="172"/>
+      <c r="AT50" s="172"/>
+      <c r="AU50" s="172"/>
+      <c r="AV50" s="172"/>
+      <c r="AW50" s="173"/>
       <c r="AX50" s="10"/>
       <c r="AY50" s="10"/>
       <c r="AZ50" s="10"/>
@@ -8554,54 +8548,54 @@
     </row>
     <row r="51" spans="1:100" ht="12" customHeight="1">
       <c r="A51" s="10"/>
-      <c r="B51" s="141"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="228"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="265"/>
-      <c r="M51" s="265"/>
-      <c r="N51" s="265"/>
-      <c r="O51" s="265"/>
-      <c r="P51" s="265"/>
-      <c r="Q51" s="265"/>
-      <c r="R51" s="265"/>
-      <c r="S51" s="220"/>
-      <c r="T51" s="220"/>
-      <c r="U51" s="229"/>
-      <c r="V51" s="228"/>
-      <c r="W51" s="220"/>
-      <c r="X51" s="220"/>
-      <c r="Y51" s="220"/>
-      <c r="Z51" s="220"/>
-      <c r="AA51" s="229"/>
-      <c r="AB51" s="269"/>
-      <c r="AC51" s="270"/>
-      <c r="AD51" s="270"/>
-      <c r="AE51" s="270"/>
-      <c r="AF51" s="270"/>
-      <c r="AG51" s="270"/>
-      <c r="AH51" s="270"/>
-      <c r="AI51" s="270"/>
-      <c r="AJ51" s="270"/>
-      <c r="AK51" s="270"/>
-      <c r="AL51" s="270"/>
-      <c r="AM51" s="270"/>
-      <c r="AN51" s="270"/>
-      <c r="AO51" s="270"/>
-      <c r="AP51" s="270"/>
-      <c r="AQ51" s="270"/>
-      <c r="AR51" s="270"/>
-      <c r="AS51" s="270"/>
-      <c r="AT51" s="270"/>
-      <c r="AU51" s="270"/>
-      <c r="AV51" s="270"/>
-      <c r="AW51" s="271"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="170"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="170"/>
+      <c r="P51" s="170"/>
+      <c r="Q51" s="170"/>
+      <c r="R51" s="170"/>
+      <c r="S51" s="47"/>
+      <c r="T51" s="47"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="47"/>
+      <c r="Y51" s="47"/>
+      <c r="Z51" s="47"/>
+      <c r="AA51" s="48"/>
+      <c r="AB51" s="174"/>
+      <c r="AC51" s="175"/>
+      <c r="AD51" s="175"/>
+      <c r="AE51" s="175"/>
+      <c r="AF51" s="175"/>
+      <c r="AG51" s="175"/>
+      <c r="AH51" s="175"/>
+      <c r="AI51" s="175"/>
+      <c r="AJ51" s="175"/>
+      <c r="AK51" s="175"/>
+      <c r="AL51" s="175"/>
+      <c r="AM51" s="175"/>
+      <c r="AN51" s="175"/>
+      <c r="AO51" s="175"/>
+      <c r="AP51" s="175"/>
+      <c r="AQ51" s="175"/>
+      <c r="AR51" s="175"/>
+      <c r="AS51" s="175"/>
+      <c r="AT51" s="175"/>
+      <c r="AU51" s="175"/>
+      <c r="AV51" s="175"/>
+      <c r="AW51" s="176"/>
       <c r="AX51" s="10"/>
       <c r="AY51" s="10"/>
       <c r="AZ51" s="10"/>
@@ -8859,221 +8853,221 @@
       <c r="CV53" s="10"/>
     </row>
     <row r="54" spans="1:100" ht="12" customHeight="1">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="93" t="s">
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="M54" s="95"/>
-      <c r="N54" s="95"/>
-      <c r="O54" s="95"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="95"/>
-      <c r="R54" s="95"/>
-      <c r="S54" s="95"/>
-      <c r="T54" s="95"/>
-      <c r="U54" s="95"/>
-      <c r="V54" s="95"/>
-      <c r="W54" s="95"/>
-      <c r="X54" s="95"/>
-      <c r="Y54" s="95"/>
-      <c r="Z54" s="95"/>
-      <c r="AA54" s="95"/>
-      <c r="AB54" s="95"/>
-      <c r="AC54" s="95"/>
-      <c r="AD54" s="95"/>
-      <c r="AE54" s="95"/>
-      <c r="AF54" s="95"/>
-      <c r="AG54" s="95"/>
-      <c r="AH54" s="96"/>
-      <c r="AI54" s="249" t="s">
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="133" t="s">
+        <v>129</v>
+      </c>
+      <c r="M54" s="134"/>
+      <c r="N54" s="134"/>
+      <c r="O54" s="134"/>
+      <c r="P54" s="134"/>
+      <c r="Q54" s="134"/>
+      <c r="R54" s="134"/>
+      <c r="S54" s="134"/>
+      <c r="T54" s="134"/>
+      <c r="U54" s="134"/>
+      <c r="V54" s="134"/>
+      <c r="W54" s="134"/>
+      <c r="X54" s="134"/>
+      <c r="Y54" s="134"/>
+      <c r="Z54" s="134"/>
+      <c r="AA54" s="134"/>
+      <c r="AB54" s="134"/>
+      <c r="AC54" s="134"/>
+      <c r="AD54" s="134"/>
+      <c r="AE54" s="134"/>
+      <c r="AF54" s="134"/>
+      <c r="AG54" s="134"/>
+      <c r="AH54" s="135"/>
+      <c r="AI54" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AJ54" s="101"/>
-      <c r="AK54" s="101"/>
-      <c r="AL54" s="250"/>
-      <c r="AM54" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN54" s="115"/>
-      <c r="AO54" s="115"/>
-      <c r="AP54" s="115"/>
-      <c r="AQ54" s="115"/>
-      <c r="AR54" s="115"/>
-      <c r="AS54" s="115"/>
-      <c r="AT54" s="115"/>
-      <c r="AU54" s="115"/>
-      <c r="AV54" s="115"/>
-      <c r="AW54" s="253"/>
+      <c r="AJ54" s="140"/>
+      <c r="AK54" s="140"/>
+      <c r="AL54" s="141"/>
+      <c r="AM54" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN54" s="146"/>
+      <c r="AO54" s="146"/>
+      <c r="AP54" s="146"/>
+      <c r="AQ54" s="146"/>
+      <c r="AR54" s="146"/>
+      <c r="AS54" s="146"/>
+      <c r="AT54" s="146"/>
+      <c r="AU54" s="146"/>
+      <c r="AV54" s="146"/>
+      <c r="AW54" s="147"/>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:100" ht="12" customHeight="1">
-      <c r="B55" s="246"/>
-      <c r="C55" s="247"/>
-      <c r="D55" s="247"/>
-      <c r="E55" s="247"/>
-      <c r="F55" s="247"/>
-      <c r="G55" s="248"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="97"/>
-      <c r="M55" s="98"/>
-      <c r="N55" s="98"/>
-      <c r="O55" s="98"/>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="98"/>
-      <c r="R55" s="98"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="98"/>
-      <c r="U55" s="98"/>
-      <c r="V55" s="98"/>
-      <c r="W55" s="98"/>
-      <c r="X55" s="98"/>
-      <c r="Y55" s="98"/>
-      <c r="Z55" s="98"/>
-      <c r="AA55" s="98"/>
-      <c r="AB55" s="98"/>
-      <c r="AC55" s="98"/>
-      <c r="AD55" s="98"/>
-      <c r="AE55" s="98"/>
-      <c r="AF55" s="98"/>
-      <c r="AG55" s="98"/>
-      <c r="AH55" s="99"/>
-      <c r="AI55" s="251"/>
-      <c r="AJ55" s="104"/>
-      <c r="AK55" s="104"/>
-      <c r="AL55" s="252"/>
-      <c r="AM55" s="116"/>
-      <c r="AN55" s="117"/>
-      <c r="AO55" s="117"/>
-      <c r="AP55" s="117"/>
-      <c r="AQ55" s="117"/>
-      <c r="AR55" s="117"/>
-      <c r="AS55" s="117"/>
-      <c r="AT55" s="117"/>
-      <c r="AU55" s="117"/>
-      <c r="AV55" s="117"/>
-      <c r="AW55" s="254"/>
+      <c r="B55" s="126"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="137"/>
+      <c r="P55" s="137"/>
+      <c r="Q55" s="137"/>
+      <c r="R55" s="137"/>
+      <c r="S55" s="137"/>
+      <c r="T55" s="137"/>
+      <c r="U55" s="137"/>
+      <c r="V55" s="137"/>
+      <c r="W55" s="137"/>
+      <c r="X55" s="137"/>
+      <c r="Y55" s="137"/>
+      <c r="Z55" s="137"/>
+      <c r="AA55" s="137"/>
+      <c r="AB55" s="137"/>
+      <c r="AC55" s="137"/>
+      <c r="AD55" s="137"/>
+      <c r="AE55" s="137"/>
+      <c r="AF55" s="137"/>
+      <c r="AG55" s="137"/>
+      <c r="AH55" s="138"/>
+      <c r="AI55" s="142"/>
+      <c r="AJ55" s="143"/>
+      <c r="AK55" s="143"/>
+      <c r="AL55" s="144"/>
+      <c r="AM55" s="148"/>
+      <c r="AN55" s="149"/>
+      <c r="AO55" s="149"/>
+      <c r="AP55" s="149"/>
+      <c r="AQ55" s="149"/>
+      <c r="AR55" s="149"/>
+      <c r="AS55" s="149"/>
+      <c r="AT55" s="149"/>
+      <c r="AU55" s="149"/>
+      <c r="AV55" s="149"/>
+      <c r="AW55" s="150"/>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:100" ht="12" customHeight="1">
-      <c r="B56" s="246"/>
-      <c r="C56" s="247"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="247"/>
-      <c r="F56" s="247"/>
-      <c r="G56" s="248"/>
-      <c r="H56" s="93" t="s">
+      <c r="B56" s="126"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="M56" s="131"/>
-      <c r="N56" s="131"/>
-      <c r="O56" s="131"/>
-      <c r="P56" s="131"/>
-      <c r="Q56" s="131"/>
-      <c r="R56" s="131"/>
-      <c r="S56" s="131"/>
-      <c r="T56" s="131"/>
-      <c r="U56" s="131"/>
-      <c r="V56" s="131"/>
-      <c r="W56" s="131"/>
-      <c r="X56" s="131"/>
-      <c r="Y56" s="131"/>
-      <c r="Z56" s="131"/>
-      <c r="AA56" s="131"/>
-      <c r="AB56" s="131"/>
-      <c r="AC56" s="131"/>
-      <c r="AD56" s="131"/>
-      <c r="AE56" s="131"/>
-      <c r="AF56" s="131"/>
-      <c r="AG56" s="131"/>
-      <c r="AH56" s="131"/>
-      <c r="AI56" s="131"/>
-      <c r="AJ56" s="131"/>
-      <c r="AK56" s="131"/>
-      <c r="AL56" s="131"/>
-      <c r="AM56" s="131"/>
-      <c r="AN56" s="131"/>
-      <c r="AO56" s="131"/>
-      <c r="AP56" s="131"/>
-      <c r="AQ56" s="131"/>
-      <c r="AR56" s="131"/>
-      <c r="AS56" s="131"/>
-      <c r="AT56" s="131"/>
-      <c r="AU56" s="131"/>
-      <c r="AV56" s="131"/>
-      <c r="AW56" s="136"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152"/>
+      <c r="W56" s="152"/>
+      <c r="X56" s="152"/>
+      <c r="Y56" s="152"/>
+      <c r="Z56" s="152"/>
+      <c r="AA56" s="152"/>
+      <c r="AB56" s="152"/>
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="152"/>
+      <c r="AE56" s="152"/>
+      <c r="AF56" s="152"/>
+      <c r="AG56" s="152"/>
+      <c r="AH56" s="152"/>
+      <c r="AI56" s="152"/>
+      <c r="AJ56" s="152"/>
+      <c r="AK56" s="152"/>
+      <c r="AL56" s="152"/>
+      <c r="AM56" s="152"/>
+      <c r="AN56" s="152"/>
+      <c r="AO56" s="152"/>
+      <c r="AP56" s="152"/>
+      <c r="AQ56" s="152"/>
+      <c r="AR56" s="152"/>
+      <c r="AS56" s="152"/>
+      <c r="AT56" s="152"/>
+      <c r="AU56" s="152"/>
+      <c r="AV56" s="152"/>
+      <c r="AW56" s="153"/>
       <c r="AY56" s="7"/>
     </row>
     <row r="57" spans="1:100" ht="12" customHeight="1">
-      <c r="B57" s="127"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="98"/>
-      <c r="O57" s="98"/>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="98"/>
-      <c r="T57" s="98"/>
-      <c r="U57" s="98"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
-      <c r="X57" s="98"/>
-      <c r="Y57" s="98"/>
-      <c r="Z57" s="98"/>
-      <c r="AA57" s="98"/>
-      <c r="AB57" s="98"/>
-      <c r="AC57" s="98"/>
-      <c r="AD57" s="98"/>
-      <c r="AE57" s="98"/>
-      <c r="AF57" s="98"/>
-      <c r="AG57" s="98"/>
-      <c r="AH57" s="98"/>
-      <c r="AI57" s="98"/>
-      <c r="AJ57" s="98"/>
-      <c r="AK57" s="98"/>
-      <c r="AL57" s="98"/>
-      <c r="AM57" s="98"/>
-      <c r="AN57" s="98"/>
-      <c r="AO57" s="98"/>
-      <c r="AP57" s="98"/>
-      <c r="AQ57" s="98"/>
-      <c r="AR57" s="98"/>
-      <c r="AS57" s="98"/>
-      <c r="AT57" s="98"/>
-      <c r="AU57" s="98"/>
-      <c r="AV57" s="98"/>
-      <c r="AW57" s="109"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="137"/>
+      <c r="P57" s="137"/>
+      <c r="Q57" s="137"/>
+      <c r="R57" s="137"/>
+      <c r="S57" s="137"/>
+      <c r="T57" s="137"/>
+      <c r="U57" s="137"/>
+      <c r="V57" s="137"/>
+      <c r="W57" s="137"/>
+      <c r="X57" s="137"/>
+      <c r="Y57" s="137"/>
+      <c r="Z57" s="137"/>
+      <c r="AA57" s="137"/>
+      <c r="AB57" s="137"/>
+      <c r="AC57" s="137"/>
+      <c r="AD57" s="137"/>
+      <c r="AE57" s="137"/>
+      <c r="AF57" s="137"/>
+      <c r="AG57" s="137"/>
+      <c r="AH57" s="137"/>
+      <c r="AI57" s="137"/>
+      <c r="AJ57" s="137"/>
+      <c r="AK57" s="137"/>
+      <c r="AL57" s="137"/>
+      <c r="AM57" s="137"/>
+      <c r="AN57" s="137"/>
+      <c r="AO57" s="137"/>
+      <c r="AP57" s="137"/>
+      <c r="AQ57" s="137"/>
+      <c r="AR57" s="137"/>
+      <c r="AS57" s="137"/>
+      <c r="AT57" s="137"/>
+      <c r="AU57" s="137"/>
+      <c r="AV57" s="137"/>
+      <c r="AW57" s="155"/>
       <c r="AY57" s="7"/>
     </row>
     <row r="58" spans="1:100" ht="12" customHeight="1">
@@ -9231,74 +9225,74 @@
     </row>
     <row r="60" spans="1:100" ht="12" customHeight="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="281" t="s">
+      <c r="B60" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="282"/>
-      <c r="D60" s="282"/>
-      <c r="E60" s="282"/>
-      <c r="F60" s="282"/>
-      <c r="G60" s="283"/>
-      <c r="H60" s="238" t="s">
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="38"/>
+      <c r="N60" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="I60" s="232"/>
-      <c r="J60" s="232"/>
-      <c r="K60" s="232"/>
-      <c r="L60" s="234" t="s">
+      <c r="O60" s="62"/>
+      <c r="P60" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="S60" s="62"/>
+      <c r="T60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U60" s="38"/>
+      <c r="V60" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC60" s="59"/>
+      <c r="AD60" s="59"/>
+      <c r="AE60" s="59"/>
+      <c r="AF60" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M60" s="234"/>
-      <c r="N60" s="236" t="s">
-        <v>120</v>
-      </c>
-      <c r="O60" s="236"/>
-      <c r="P60" s="234" t="s">
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI60" s="62"/>
+      <c r="AJ60" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="234"/>
-      <c r="R60" s="236" t="s">
-        <v>121</v>
-      </c>
-      <c r="S60" s="236"/>
-      <c r="T60" s="234" t="s">
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM60" s="62"/>
+      <c r="AN60" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="234"/>
-      <c r="V60" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="238" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC60" s="232"/>
-      <c r="AD60" s="232"/>
-      <c r="AE60" s="232"/>
-      <c r="AF60" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="234"/>
-      <c r="AH60" s="236" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI60" s="236"/>
-      <c r="AJ60" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK60" s="234"/>
-      <c r="AL60" s="236" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM60" s="236"/>
-      <c r="AN60" s="234" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO60" s="234"/>
+      <c r="AO60" s="38"/>
       <c r="AP60" s="32"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -9351,46 +9345,46 @@
     </row>
     <row r="61" spans="1:100" ht="12" customHeight="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="284"/>
-      <c r="C61" s="285"/>
-      <c r="D61" s="285"/>
-      <c r="E61" s="285"/>
-      <c r="F61" s="285"/>
-      <c r="G61" s="286"/>
-      <c r="H61" s="239"/>
-      <c r="I61" s="233"/>
-      <c r="J61" s="233"/>
-      <c r="K61" s="233"/>
-      <c r="L61" s="235"/>
-      <c r="M61" s="235"/>
-      <c r="N61" s="237"/>
-      <c r="O61" s="237"/>
-      <c r="P61" s="235"/>
-      <c r="Q61" s="235"/>
-      <c r="R61" s="237"/>
-      <c r="S61" s="237"/>
-      <c r="T61" s="235"/>
-      <c r="U61" s="235"/>
-      <c r="V61" s="228"/>
-      <c r="W61" s="220"/>
-      <c r="X61" s="220"/>
-      <c r="Y61" s="220"/>
-      <c r="Z61" s="220"/>
-      <c r="AA61" s="229"/>
-      <c r="AB61" s="239"/>
-      <c r="AC61" s="233"/>
-      <c r="AD61" s="233"/>
-      <c r="AE61" s="233"/>
-      <c r="AF61" s="235"/>
-      <c r="AG61" s="235"/>
-      <c r="AH61" s="237"/>
-      <c r="AI61" s="237"/>
-      <c r="AJ61" s="235"/>
-      <c r="AK61" s="235"/>
-      <c r="AL61" s="237"/>
-      <c r="AM61" s="237"/>
-      <c r="AN61" s="235"/>
-      <c r="AO61" s="235"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="47"/>
+      <c r="AA61" s="48"/>
+      <c r="AB61" s="60"/>
+      <c r="AC61" s="61"/>
+      <c r="AD61" s="61"/>
+      <c r="AE61" s="61"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="39"/>
+      <c r="AH61" s="63"/>
+      <c r="AI61" s="63"/>
+      <c r="AJ61" s="39"/>
+      <c r="AK61" s="39"/>
+      <c r="AL61" s="63"/>
+      <c r="AM61" s="63"/>
+      <c r="AN61" s="39"/>
+      <c r="AO61" s="39"/>
       <c r="AP61" s="32"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -9443,74 +9437,74 @@
     </row>
     <row r="62" spans="1:100" ht="12" customHeight="1">
       <c r="A62" s="10"/>
-      <c r="B62" s="281" t="s">
+      <c r="B62" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="118"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="118"/>
+      <c r="F62" s="118"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="59"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="38"/>
+      <c r="N62" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="O62" s="62"/>
+      <c r="P62" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="S62" s="62"/>
+      <c r="T62" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="282"/>
-      <c r="D62" s="282"/>
-      <c r="E62" s="282"/>
-      <c r="F62" s="282"/>
-      <c r="G62" s="283"/>
-      <c r="H62" s="238" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" s="232"/>
-      <c r="J62" s="232"/>
-      <c r="K62" s="232"/>
-      <c r="L62" s="234" t="s">
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC62" s="59"/>
+      <c r="AD62" s="59"/>
+      <c r="AE62" s="59"/>
+      <c r="AF62" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M62" s="234"/>
-      <c r="N62" s="236" t="s">
-        <v>87</v>
-      </c>
-      <c r="O62" s="236"/>
-      <c r="P62" s="234" t="s">
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI62" s="62"/>
+      <c r="AJ62" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Q62" s="234"/>
-      <c r="R62" s="236" t="s">
-        <v>88</v>
-      </c>
-      <c r="S62" s="236"/>
-      <c r="T62" s="234" t="s">
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM62" s="62"/>
+      <c r="AN62" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="U62" s="234"/>
-      <c r="V62" s="234" t="s">
-        <v>63</v>
-      </c>
-      <c r="W62" s="234"/>
-      <c r="X62" s="234"/>
-      <c r="Y62" s="234"/>
-      <c r="Z62" s="234"/>
-      <c r="AA62" s="234"/>
-      <c r="AB62" s="232" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC62" s="232"/>
-      <c r="AD62" s="232"/>
-      <c r="AE62" s="232"/>
-      <c r="AF62" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="234"/>
-      <c r="AH62" s="236" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI62" s="236"/>
-      <c r="AJ62" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK62" s="234"/>
-      <c r="AL62" s="236" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM62" s="236"/>
-      <c r="AN62" s="234" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO62" s="234"/>
+      <c r="AO62" s="38"/>
       <c r="AP62" s="32"/>
       <c r="AQ62" s="10"/>
       <c r="AR62" s="10"/>
@@ -9563,46 +9557,46 @@
     </row>
     <row r="63" spans="1:100" ht="12" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="284"/>
-      <c r="C63" s="285"/>
-      <c r="D63" s="285"/>
-      <c r="E63" s="285"/>
-      <c r="F63" s="285"/>
-      <c r="G63" s="286"/>
-      <c r="H63" s="239"/>
-      <c r="I63" s="233"/>
-      <c r="J63" s="233"/>
-      <c r="K63" s="233"/>
-      <c r="L63" s="235"/>
-      <c r="M63" s="235"/>
-      <c r="N63" s="237"/>
-      <c r="O63" s="237"/>
-      <c r="P63" s="235"/>
-      <c r="Q63" s="235"/>
-      <c r="R63" s="237"/>
-      <c r="S63" s="237"/>
-      <c r="T63" s="235"/>
-      <c r="U63" s="235"/>
-      <c r="V63" s="235"/>
-      <c r="W63" s="235"/>
-      <c r="X63" s="235"/>
-      <c r="Y63" s="235"/>
-      <c r="Z63" s="235"/>
-      <c r="AA63" s="235"/>
-      <c r="AB63" s="233"/>
-      <c r="AC63" s="233"/>
-      <c r="AD63" s="233"/>
-      <c r="AE63" s="233"/>
-      <c r="AF63" s="235"/>
-      <c r="AG63" s="235"/>
-      <c r="AH63" s="237"/>
-      <c r="AI63" s="237"/>
-      <c r="AJ63" s="235"/>
-      <c r="AK63" s="235"/>
-      <c r="AL63" s="237"/>
-      <c r="AM63" s="237"/>
-      <c r="AN63" s="235"/>
-      <c r="AO63" s="235"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="61"/>
+      <c r="AC63" s="61"/>
+      <c r="AD63" s="61"/>
+      <c r="AE63" s="61"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="63"/>
+      <c r="AI63" s="63"/>
+      <c r="AJ63" s="39"/>
+      <c r="AK63" s="39"/>
+      <c r="AL63" s="63"/>
+      <c r="AM63" s="63"/>
+      <c r="AN63" s="39"/>
+      <c r="AO63" s="39"/>
       <c r="AP63" s="32"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -9722,68 +9716,68 @@
     </row>
     <row r="65" spans="1:98" ht="12" customHeight="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="287" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="288"/>
-      <c r="D65" s="288"/>
-      <c r="E65" s="288"/>
-      <c r="F65" s="288"/>
-      <c r="G65" s="289"/>
-      <c r="H65" s="56" t="s">
+      <c r="B65" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="I65" s="57"/>
-      <c r="J65" s="273"/>
-      <c r="K65" s="293" t="s">
+      <c r="I65" s="41"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="U65" s="99"/>
+      <c r="V65" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="L65" s="294"/>
-      <c r="M65" s="294"/>
-      <c r="N65" s="294"/>
-      <c r="O65" s="294"/>
-      <c r="P65" s="294"/>
-      <c r="Q65" s="294"/>
-      <c r="R65" s="294"/>
-      <c r="S65" s="295"/>
-      <c r="T65" s="299" t="s">
-        <v>11</v>
-      </c>
-      <c r="U65" s="300"/>
-      <c r="V65" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="W65" s="57"/>
-      <c r="X65" s="57"/>
-      <c r="Y65" s="57"/>
-      <c r="Z65" s="57"/>
-      <c r="AA65" s="58"/>
-      <c r="AB65" s="238" t="s">
+      <c r="AC65" s="59"/>
+      <c r="AD65" s="59"/>
+      <c r="AE65" s="59"/>
+      <c r="AF65" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="AC65" s="232"/>
-      <c r="AD65" s="232"/>
-      <c r="AE65" s="232"/>
-      <c r="AF65" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="234"/>
-      <c r="AH65" s="236" t="s">
+      <c r="AI65" s="62"/>
+      <c r="AJ65" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AI65" s="236"/>
-      <c r="AJ65" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK65" s="234"/>
-      <c r="AL65" s="236" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM65" s="236"/>
-      <c r="AN65" s="234" t="s">
+      <c r="AM65" s="62"/>
+      <c r="AN65" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AO65" s="234"/>
+      <c r="AO65" s="38"/>
       <c r="AP65" s="32"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -9816,46 +9810,46 @@
     </row>
     <row r="66" spans="1:98" ht="12" customHeight="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="290"/>
-      <c r="C66" s="291"/>
-      <c r="D66" s="291"/>
-      <c r="E66" s="291"/>
-      <c r="F66" s="291"/>
-      <c r="G66" s="292"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="220"/>
-      <c r="J66" s="274"/>
-      <c r="K66" s="296"/>
-      <c r="L66" s="297"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="297"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="297"/>
-      <c r="Q66" s="297"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="298"/>
-      <c r="T66" s="301"/>
-      <c r="U66" s="302"/>
-      <c r="V66" s="228"/>
-      <c r="W66" s="220"/>
-      <c r="X66" s="220"/>
-      <c r="Y66" s="220"/>
-      <c r="Z66" s="220"/>
-      <c r="AA66" s="229"/>
-      <c r="AB66" s="239"/>
-      <c r="AC66" s="233"/>
-      <c r="AD66" s="233"/>
-      <c r="AE66" s="233"/>
-      <c r="AF66" s="235"/>
-      <c r="AG66" s="235"/>
-      <c r="AH66" s="237"/>
-      <c r="AI66" s="237"/>
-      <c r="AJ66" s="235"/>
-      <c r="AK66" s="235"/>
-      <c r="AL66" s="237"/>
-      <c r="AM66" s="237"/>
-      <c r="AN66" s="235"/>
-      <c r="AO66" s="235"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="97"/>
+      <c r="T66" s="100"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="47"/>
+      <c r="Z66" s="47"/>
+      <c r="AA66" s="48"/>
+      <c r="AB66" s="60"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="61"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="63"/>
+      <c r="AI66" s="63"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="39"/>
+      <c r="AL66" s="63"/>
+      <c r="AM66" s="63"/>
+      <c r="AN66" s="39"/>
+      <c r="AO66" s="39"/>
       <c r="AP66" s="32"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -9888,66 +9882,66 @@
     </row>
     <row r="67" spans="1:98" ht="12" customHeight="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="323"/>
-      <c r="C67" s="324"/>
-      <c r="D67" s="324"/>
-      <c r="E67" s="324"/>
-      <c r="F67" s="324"/>
-      <c r="G67" s="325"/>
-      <c r="H67" s="59" t="s">
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="I67" s="60"/>
-      <c r="J67" s="326"/>
-      <c r="K67" s="327" t="s">
+      <c r="I67" s="44"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="110"/>
+      <c r="S67" s="111"/>
+      <c r="T67" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="U67" s="113"/>
+      <c r="V67" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="L67" s="328"/>
-      <c r="M67" s="328"/>
-      <c r="N67" s="328"/>
-      <c r="O67" s="328"/>
-      <c r="P67" s="328"/>
-      <c r="Q67" s="328"/>
-      <c r="R67" s="328"/>
-      <c r="S67" s="329"/>
-      <c r="T67" s="330" t="s">
-        <v>11</v>
-      </c>
-      <c r="U67" s="331"/>
-      <c r="V67" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="W67" s="57"/>
-      <c r="X67" s="57"/>
-      <c r="Y67" s="57"/>
-      <c r="Z67" s="57"/>
-      <c r="AA67" s="58"/>
-      <c r="AB67" s="238" t="s">
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AC67" s="232"/>
-      <c r="AD67" s="232"/>
-      <c r="AE67" s="232"/>
-      <c r="AF67" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG67" s="234"/>
-      <c r="AH67" s="236" t="s">
+      <c r="AI67" s="62"/>
+      <c r="AJ67" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK67" s="38"/>
+      <c r="AL67" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AI67" s="236"/>
-      <c r="AJ67" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK67" s="234"/>
-      <c r="AL67" s="236" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM67" s="236"/>
-      <c r="AN67" s="234" t="s">
+      <c r="AM67" s="62"/>
+      <c r="AN67" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AO67" s="234"/>
+      <c r="AO67" s="38"/>
       <c r="AP67" s="32"/>
       <c r="AQ67" s="10"/>
       <c r="AR67" s="10"/>
@@ -9980,46 +9974,46 @@
     </row>
     <row r="68" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="290"/>
-      <c r="C68" s="291"/>
-      <c r="D68" s="291"/>
-      <c r="E68" s="291"/>
-      <c r="F68" s="291"/>
-      <c r="G68" s="292"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="220"/>
-      <c r="J68" s="274"/>
-      <c r="K68" s="296"/>
-      <c r="L68" s="297"/>
-      <c r="M68" s="297"/>
-      <c r="N68" s="297"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="297"/>
-      <c r="Q68" s="297"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="301"/>
-      <c r="U68" s="302"/>
-      <c r="V68" s="228"/>
-      <c r="W68" s="220"/>
-      <c r="X68" s="220"/>
-      <c r="Y68" s="220"/>
-      <c r="Z68" s="220"/>
-      <c r="AA68" s="229"/>
-      <c r="AB68" s="239"/>
-      <c r="AC68" s="233"/>
-      <c r="AD68" s="233"/>
-      <c r="AE68" s="233"/>
-      <c r="AF68" s="235"/>
-      <c r="AG68" s="235"/>
-      <c r="AH68" s="237"/>
-      <c r="AI68" s="237"/>
-      <c r="AJ68" s="235"/>
-      <c r="AK68" s="235"/>
-      <c r="AL68" s="237"/>
-      <c r="AM68" s="237"/>
-      <c r="AN68" s="235"/>
-      <c r="AO68" s="235"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="91"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="97"/>
+      <c r="T68" s="100"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="47"/>
+      <c r="Z68" s="47"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="60"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="61"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="63"/>
+      <c r="AI68" s="63"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="63"/>
+      <c r="AM68" s="63"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
       <c r="AP68" s="32"/>
       <c r="AQ68" s="10"/>
       <c r="AR68" s="10"/>
@@ -10052,34 +10046,34 @@
     </row>
     <row r="69" spans="1:98" ht="12" customHeight="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="303" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="304"/>
-      <c r="D69" s="304"/>
-      <c r="E69" s="304"/>
-      <c r="F69" s="304"/>
-      <c r="G69" s="304"/>
-      <c r="H69" s="307" t="s">
+      <c r="B69" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="I69" s="308"/>
-      <c r="J69" s="309"/>
-      <c r="K69" s="313" t="s">
-        <v>129</v>
-      </c>
-      <c r="L69" s="314"/>
-      <c r="M69" s="314"/>
-      <c r="N69" s="314"/>
-      <c r="O69" s="314"/>
-      <c r="P69" s="314"/>
-      <c r="Q69" s="314"/>
-      <c r="R69" s="314"/>
-      <c r="S69" s="315"/>
-      <c r="T69" s="319" t="s">
+      <c r="I69" s="69"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="U69" s="320"/>
+      <c r="U69" s="81"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
       <c r="X69" s="10"/>
@@ -10113,26 +10107,26 @@
     </row>
     <row r="70" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="305"/>
-      <c r="C70" s="306"/>
-      <c r="D70" s="306"/>
-      <c r="E70" s="306"/>
-      <c r="F70" s="306"/>
-      <c r="G70" s="306"/>
-      <c r="H70" s="310"/>
-      <c r="I70" s="311"/>
-      <c r="J70" s="312"/>
-      <c r="K70" s="316"/>
-      <c r="L70" s="317"/>
-      <c r="M70" s="317"/>
-      <c r="N70" s="317"/>
-      <c r="O70" s="317"/>
-      <c r="P70" s="317"/>
-      <c r="Q70" s="317"/>
-      <c r="R70" s="317"/>
-      <c r="S70" s="318"/>
-      <c r="T70" s="321"/>
-      <c r="U70" s="322"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="83"/>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
       <c r="X70" s="10"/>
@@ -10233,68 +10227,68 @@
     </row>
     <row r="72" spans="1:98" ht="12" customHeight="1">
       <c r="A72" s="10"/>
-      <c r="B72" s="181" t="s">
+      <c r="B72" s="84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="41"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="182"/>
-      <c r="D72" s="182"/>
-      <c r="E72" s="182"/>
-      <c r="F72" s="182"/>
-      <c r="G72" s="183"/>
-      <c r="H72" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="57"/>
-      <c r="J72" s="273"/>
-      <c r="K72" s="293" t="s">
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="U72" s="99"/>
+      <c r="V72" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="L72" s="294"/>
-      <c r="M72" s="294"/>
-      <c r="N72" s="294"/>
-      <c r="O72" s="294"/>
-      <c r="P72" s="294"/>
-      <c r="Q72" s="294"/>
-      <c r="R72" s="294"/>
-      <c r="S72" s="295"/>
-      <c r="T72" s="299" t="s">
-        <v>11</v>
-      </c>
-      <c r="U72" s="300"/>
-      <c r="V72" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="W72" s="57"/>
-      <c r="X72" s="57"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="57"/>
-      <c r="AA72" s="58"/>
-      <c r="AB72" s="238" t="s">
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
+      <c r="AF72" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AC72" s="232"/>
-      <c r="AD72" s="232"/>
-      <c r="AE72" s="232"/>
-      <c r="AF72" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="234"/>
-      <c r="AH72" s="236" t="s">
+      <c r="AI72" s="62"/>
+      <c r="AJ72" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="AI72" s="236"/>
-      <c r="AJ72" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="234"/>
-      <c r="AL72" s="236" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM72" s="236"/>
-      <c r="AN72" s="234" t="s">
+      <c r="AM72" s="62"/>
+      <c r="AN72" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="AO72" s="234"/>
+      <c r="AO72" s="38"/>
       <c r="AP72" s="35"/>
       <c r="AQ72" s="15"/>
       <c r="AR72" s="10"/>
@@ -10349,46 +10343,46 @@
     </row>
     <row r="73" spans="1:98" ht="12" customHeight="1">
       <c r="A73" s="10"/>
-      <c r="B73" s="184"/>
-      <c r="C73" s="185"/>
-      <c r="D73" s="185"/>
-      <c r="E73" s="185"/>
-      <c r="F73" s="185"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="220"/>
-      <c r="J73" s="274"/>
-      <c r="K73" s="296"/>
-      <c r="L73" s="297"/>
-      <c r="M73" s="297"/>
-      <c r="N73" s="297"/>
-      <c r="O73" s="297"/>
-      <c r="P73" s="297"/>
-      <c r="Q73" s="297"/>
-      <c r="R73" s="297"/>
-      <c r="S73" s="298"/>
-      <c r="T73" s="301"/>
-      <c r="U73" s="302"/>
-      <c r="V73" s="228"/>
-      <c r="W73" s="220"/>
-      <c r="X73" s="220"/>
-      <c r="Y73" s="220"/>
-      <c r="Z73" s="220"/>
-      <c r="AA73" s="229"/>
-      <c r="AB73" s="239"/>
-      <c r="AC73" s="233"/>
-      <c r="AD73" s="233"/>
-      <c r="AE73" s="233"/>
-      <c r="AF73" s="235"/>
-      <c r="AG73" s="235"/>
-      <c r="AH73" s="237"/>
-      <c r="AI73" s="237"/>
-      <c r="AJ73" s="235"/>
-      <c r="AK73" s="235"/>
-      <c r="AL73" s="237"/>
-      <c r="AM73" s="237"/>
-      <c r="AN73" s="235"/>
-      <c r="AO73" s="235"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="91"/>
+      <c r="K73" s="95"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="97"/>
+      <c r="T73" s="100"/>
+      <c r="U73" s="101"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="60"/>
+      <c r="AC73" s="61"/>
+      <c r="AD73" s="61"/>
+      <c r="AE73" s="61"/>
+      <c r="AF73" s="39"/>
+      <c r="AG73" s="39"/>
+      <c r="AH73" s="63"/>
+      <c r="AI73" s="63"/>
+      <c r="AJ73" s="39"/>
+      <c r="AK73" s="39"/>
+      <c r="AL73" s="63"/>
+      <c r="AM73" s="63"/>
+      <c r="AN73" s="39"/>
+      <c r="AO73" s="39"/>
       <c r="AP73" s="35"/>
       <c r="AQ73" s="15"/>
       <c r="AR73" s="10"/>
@@ -10542,375 +10536,375 @@
       <c r="CT74" s="10"/>
     </row>
     <row r="75" spans="1:98" ht="12" customHeight="1">
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="332" t="s">
-        <v>101</v>
-      </c>
-      <c r="I75" s="333"/>
-      <c r="J75" s="333"/>
-      <c r="K75" s="333"/>
-      <c r="L75" s="333"/>
-      <c r="M75" s="333"/>
-      <c r="N75" s="333"/>
-      <c r="O75" s="333"/>
-      <c r="P75" s="333"/>
-      <c r="Q75" s="333"/>
-      <c r="R75" s="333"/>
-      <c r="S75" s="333"/>
-      <c r="T75" s="333"/>
-      <c r="U75" s="333"/>
-      <c r="V75" s="333"/>
-      <c r="W75" s="333"/>
-      <c r="X75" s="333"/>
-      <c r="Y75" s="333"/>
-      <c r="Z75" s="333"/>
-      <c r="AA75" s="333"/>
-      <c r="AB75" s="333"/>
-      <c r="AC75" s="333"/>
-      <c r="AD75" s="333"/>
-      <c r="AE75" s="333"/>
-      <c r="AF75" s="333"/>
-      <c r="AG75" s="333"/>
-      <c r="AH75" s="333"/>
-      <c r="AI75" s="333"/>
-      <c r="AJ75" s="333"/>
-      <c r="AK75" s="333"/>
-      <c r="AL75" s="333"/>
-      <c r="AM75" s="333"/>
-      <c r="AN75" s="333"/>
-      <c r="AO75" s="333"/>
-      <c r="AP75" s="333"/>
-      <c r="AQ75" s="333"/>
-      <c r="AR75" s="333"/>
-      <c r="AS75" s="333"/>
-      <c r="AT75" s="333"/>
-      <c r="AU75" s="333"/>
-      <c r="AV75" s="333"/>
-      <c r="AW75" s="334"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="50"/>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="50"/>
+      <c r="AL75" s="50"/>
+      <c r="AM75" s="50"/>
+      <c r="AN75" s="50"/>
+      <c r="AO75" s="50"/>
+      <c r="AP75" s="50"/>
+      <c r="AQ75" s="50"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="50"/>
+      <c r="AT75" s="50"/>
+      <c r="AU75" s="50"/>
+      <c r="AV75" s="50"/>
+      <c r="AW75" s="51"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
       <c r="AZ75" s="10"/>
     </row>
     <row r="76" spans="1:98" ht="12" customHeight="1">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="335"/>
-      <c r="I76" s="336"/>
-      <c r="J76" s="336"/>
-      <c r="K76" s="336"/>
-      <c r="L76" s="336"/>
-      <c r="M76" s="336"/>
-      <c r="N76" s="336"/>
-      <c r="O76" s="336"/>
-      <c r="P76" s="336"/>
-      <c r="Q76" s="336"/>
-      <c r="R76" s="336"/>
-      <c r="S76" s="336"/>
-      <c r="T76" s="336"/>
-      <c r="U76" s="336"/>
-      <c r="V76" s="336"/>
-      <c r="W76" s="336"/>
-      <c r="X76" s="336"/>
-      <c r="Y76" s="336"/>
-      <c r="Z76" s="336"/>
-      <c r="AA76" s="336"/>
-      <c r="AB76" s="336"/>
-      <c r="AC76" s="336"/>
-      <c r="AD76" s="336"/>
-      <c r="AE76" s="336"/>
-      <c r="AF76" s="336"/>
-      <c r="AG76" s="336"/>
-      <c r="AH76" s="336"/>
-      <c r="AI76" s="336"/>
-      <c r="AJ76" s="336"/>
-      <c r="AK76" s="336"/>
-      <c r="AL76" s="336"/>
-      <c r="AM76" s="336"/>
-      <c r="AN76" s="336"/>
-      <c r="AO76" s="336"/>
-      <c r="AP76" s="336"/>
-      <c r="AQ76" s="336"/>
-      <c r="AR76" s="336"/>
-      <c r="AS76" s="336"/>
-      <c r="AT76" s="336"/>
-      <c r="AU76" s="336"/>
-      <c r="AV76" s="336"/>
-      <c r="AW76" s="337"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="53"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="53"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="53"/>
+      <c r="S76" s="53"/>
+      <c r="T76" s="53"/>
+      <c r="U76" s="53"/>
+      <c r="V76" s="53"/>
+      <c r="W76" s="53"/>
+      <c r="X76" s="53"/>
+      <c r="Y76" s="53"/>
+      <c r="Z76" s="53"/>
+      <c r="AA76" s="53"/>
+      <c r="AB76" s="53"/>
+      <c r="AC76" s="53"/>
+      <c r="AD76" s="53"/>
+      <c r="AE76" s="53"/>
+      <c r="AF76" s="53"/>
+      <c r="AG76" s="53"/>
+      <c r="AH76" s="53"/>
+      <c r="AI76" s="53"/>
+      <c r="AJ76" s="53"/>
+      <c r="AK76" s="53"/>
+      <c r="AL76" s="53"/>
+      <c r="AM76" s="53"/>
+      <c r="AN76" s="53"/>
+      <c r="AO76" s="53"/>
+      <c r="AP76" s="53"/>
+      <c r="AQ76" s="53"/>
+      <c r="AR76" s="53"/>
+      <c r="AS76" s="53"/>
+      <c r="AT76" s="53"/>
+      <c r="AU76" s="53"/>
+      <c r="AV76" s="53"/>
+      <c r="AW76" s="54"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
     </row>
     <row r="77" spans="1:98" ht="12" customHeight="1">
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="335"/>
-      <c r="I77" s="336"/>
-      <c r="J77" s="336"/>
-      <c r="K77" s="336"/>
-      <c r="L77" s="336"/>
-      <c r="M77" s="336"/>
-      <c r="N77" s="336"/>
-      <c r="O77" s="336"/>
-      <c r="P77" s="336"/>
-      <c r="Q77" s="336"/>
-      <c r="R77" s="336"/>
-      <c r="S77" s="336"/>
-      <c r="T77" s="336"/>
-      <c r="U77" s="336"/>
-      <c r="V77" s="336"/>
-      <c r="W77" s="336"/>
-      <c r="X77" s="336"/>
-      <c r="Y77" s="336"/>
-      <c r="Z77" s="336"/>
-      <c r="AA77" s="336"/>
-      <c r="AB77" s="336"/>
-      <c r="AC77" s="336"/>
-      <c r="AD77" s="336"/>
-      <c r="AE77" s="336"/>
-      <c r="AF77" s="336"/>
-      <c r="AG77" s="336"/>
-      <c r="AH77" s="336"/>
-      <c r="AI77" s="336"/>
-      <c r="AJ77" s="336"/>
-      <c r="AK77" s="336"/>
-      <c r="AL77" s="336"/>
-      <c r="AM77" s="336"/>
-      <c r="AN77" s="336"/>
-      <c r="AO77" s="336"/>
-      <c r="AP77" s="336"/>
-      <c r="AQ77" s="336"/>
-      <c r="AR77" s="336"/>
-      <c r="AS77" s="336"/>
-      <c r="AT77" s="336"/>
-      <c r="AU77" s="336"/>
-      <c r="AV77" s="336"/>
-      <c r="AW77" s="337"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+      <c r="N77" s="53"/>
+      <c r="O77" s="53"/>
+      <c r="P77" s="53"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="53"/>
+      <c r="S77" s="53"/>
+      <c r="T77" s="53"/>
+      <c r="U77" s="53"/>
+      <c r="V77" s="53"/>
+      <c r="W77" s="53"/>
+      <c r="X77" s="53"/>
+      <c r="Y77" s="53"/>
+      <c r="Z77" s="53"/>
+      <c r="AA77" s="53"/>
+      <c r="AB77" s="53"/>
+      <c r="AC77" s="53"/>
+      <c r="AD77" s="53"/>
+      <c r="AE77" s="53"/>
+      <c r="AF77" s="53"/>
+      <c r="AG77" s="53"/>
+      <c r="AH77" s="53"/>
+      <c r="AI77" s="53"/>
+      <c r="AJ77" s="53"/>
+      <c r="AK77" s="53"/>
+      <c r="AL77" s="53"/>
+      <c r="AM77" s="53"/>
+      <c r="AN77" s="53"/>
+      <c r="AO77" s="53"/>
+      <c r="AP77" s="53"/>
+      <c r="AQ77" s="53"/>
+      <c r="AR77" s="53"/>
+      <c r="AS77" s="53"/>
+      <c r="AT77" s="53"/>
+      <c r="AU77" s="53"/>
+      <c r="AV77" s="53"/>
+      <c r="AW77" s="54"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
     </row>
     <row r="78" spans="1:98" ht="12" customHeight="1">
-      <c r="B78" s="59"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="335"/>
-      <c r="I78" s="336"/>
-      <c r="J78" s="336"/>
-      <c r="K78" s="336"/>
-      <c r="L78" s="336"/>
-      <c r="M78" s="336"/>
-      <c r="N78" s="336"/>
-      <c r="O78" s="336"/>
-      <c r="P78" s="336"/>
-      <c r="Q78" s="336"/>
-      <c r="R78" s="336"/>
-      <c r="S78" s="336"/>
-      <c r="T78" s="336"/>
-      <c r="U78" s="336"/>
-      <c r="V78" s="336"/>
-      <c r="W78" s="336"/>
-      <c r="X78" s="336"/>
-      <c r="Y78" s="336"/>
-      <c r="Z78" s="336"/>
-      <c r="AA78" s="336"/>
-      <c r="AB78" s="336"/>
-      <c r="AC78" s="336"/>
-      <c r="AD78" s="336"/>
-      <c r="AE78" s="336"/>
-      <c r="AF78" s="336"/>
-      <c r="AG78" s="336"/>
-      <c r="AH78" s="336"/>
-      <c r="AI78" s="336"/>
-      <c r="AJ78" s="336"/>
-      <c r="AK78" s="336"/>
-      <c r="AL78" s="336"/>
-      <c r="AM78" s="336"/>
-      <c r="AN78" s="336"/>
-      <c r="AO78" s="336"/>
-      <c r="AP78" s="336"/>
-      <c r="AQ78" s="336"/>
-      <c r="AR78" s="336"/>
-      <c r="AS78" s="336"/>
-      <c r="AT78" s="336"/>
-      <c r="AU78" s="336"/>
-      <c r="AV78" s="336"/>
-      <c r="AW78" s="337"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
+      <c r="T78" s="53"/>
+      <c r="U78" s="53"/>
+      <c r="V78" s="53"/>
+      <c r="W78" s="53"/>
+      <c r="X78" s="53"/>
+      <c r="Y78" s="53"/>
+      <c r="Z78" s="53"/>
+      <c r="AA78" s="53"/>
+      <c r="AB78" s="53"/>
+      <c r="AC78" s="53"/>
+      <c r="AD78" s="53"/>
+      <c r="AE78" s="53"/>
+      <c r="AF78" s="53"/>
+      <c r="AG78" s="53"/>
+      <c r="AH78" s="53"/>
+      <c r="AI78" s="53"/>
+      <c r="AJ78" s="53"/>
+      <c r="AK78" s="53"/>
+      <c r="AL78" s="53"/>
+      <c r="AM78" s="53"/>
+      <c r="AN78" s="53"/>
+      <c r="AO78" s="53"/>
+      <c r="AP78" s="53"/>
+      <c r="AQ78" s="53"/>
+      <c r="AR78" s="53"/>
+      <c r="AS78" s="53"/>
+      <c r="AT78" s="53"/>
+      <c r="AU78" s="53"/>
+      <c r="AV78" s="53"/>
+      <c r="AW78" s="54"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
       <c r="AZ78" s="10"/>
     </row>
     <row r="79" spans="1:98" ht="12" customHeight="1">
-      <c r="B79" s="59"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="335"/>
-      <c r="I79" s="336"/>
-      <c r="J79" s="336"/>
-      <c r="K79" s="336"/>
-      <c r="L79" s="336"/>
-      <c r="M79" s="336"/>
-      <c r="N79" s="336"/>
-      <c r="O79" s="336"/>
-      <c r="P79" s="336"/>
-      <c r="Q79" s="336"/>
-      <c r="R79" s="336"/>
-      <c r="S79" s="336"/>
-      <c r="T79" s="336"/>
-      <c r="U79" s="336"/>
-      <c r="V79" s="336"/>
-      <c r="W79" s="336"/>
-      <c r="X79" s="336"/>
-      <c r="Y79" s="336"/>
-      <c r="Z79" s="336"/>
-      <c r="AA79" s="336"/>
-      <c r="AB79" s="336"/>
-      <c r="AC79" s="336"/>
-      <c r="AD79" s="336"/>
-      <c r="AE79" s="336"/>
-      <c r="AF79" s="336"/>
-      <c r="AG79" s="336"/>
-      <c r="AH79" s="336"/>
-      <c r="AI79" s="336"/>
-      <c r="AJ79" s="336"/>
-      <c r="AK79" s="336"/>
-      <c r="AL79" s="336"/>
-      <c r="AM79" s="336"/>
-      <c r="AN79" s="336"/>
-      <c r="AO79" s="336"/>
-      <c r="AP79" s="336"/>
-      <c r="AQ79" s="336"/>
-      <c r="AR79" s="336"/>
-      <c r="AS79" s="336"/>
-      <c r="AT79" s="336"/>
-      <c r="AU79" s="336"/>
-      <c r="AV79" s="336"/>
-      <c r="AW79" s="337"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="53"/>
+      <c r="AQ79" s="53"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="54"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
       <c r="AZ79" s="10"/>
     </row>
     <row r="80" spans="1:98" ht="12" customHeight="1">
-      <c r="B80" s="59"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="335"/>
-      <c r="I80" s="336"/>
-      <c r="J80" s="336"/>
-      <c r="K80" s="336"/>
-      <c r="L80" s="336"/>
-      <c r="M80" s="336"/>
-      <c r="N80" s="336"/>
-      <c r="O80" s="336"/>
-      <c r="P80" s="336"/>
-      <c r="Q80" s="336"/>
-      <c r="R80" s="336"/>
-      <c r="S80" s="336"/>
-      <c r="T80" s="336"/>
-      <c r="U80" s="336"/>
-      <c r="V80" s="336"/>
-      <c r="W80" s="336"/>
-      <c r="X80" s="336"/>
-      <c r="Y80" s="336"/>
-      <c r="Z80" s="336"/>
-      <c r="AA80" s="336"/>
-      <c r="AB80" s="336"/>
-      <c r="AC80" s="336"/>
-      <c r="AD80" s="336"/>
-      <c r="AE80" s="336"/>
-      <c r="AF80" s="336"/>
-      <c r="AG80" s="336"/>
-      <c r="AH80" s="336"/>
-      <c r="AI80" s="336"/>
-      <c r="AJ80" s="336"/>
-      <c r="AK80" s="336"/>
-      <c r="AL80" s="336"/>
-      <c r="AM80" s="336"/>
-      <c r="AN80" s="336"/>
-      <c r="AO80" s="336"/>
-      <c r="AP80" s="336"/>
-      <c r="AQ80" s="336"/>
-      <c r="AR80" s="336"/>
-      <c r="AS80" s="336"/>
-      <c r="AT80" s="336"/>
-      <c r="AU80" s="336"/>
-      <c r="AV80" s="336"/>
-      <c r="AW80" s="337"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="53"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="53"/>
+      <c r="Q80" s="53"/>
+      <c r="R80" s="53"/>
+      <c r="S80" s="53"/>
+      <c r="T80" s="53"/>
+      <c r="U80" s="53"/>
+      <c r="V80" s="53"/>
+      <c r="W80" s="53"/>
+      <c r="X80" s="53"/>
+      <c r="Y80" s="53"/>
+      <c r="Z80" s="53"/>
+      <c r="AA80" s="53"/>
+      <c r="AB80" s="53"/>
+      <c r="AC80" s="53"/>
+      <c r="AD80" s="53"/>
+      <c r="AE80" s="53"/>
+      <c r="AF80" s="53"/>
+      <c r="AG80" s="53"/>
+      <c r="AH80" s="53"/>
+      <c r="AI80" s="53"/>
+      <c r="AJ80" s="53"/>
+      <c r="AK80" s="53"/>
+      <c r="AL80" s="53"/>
+      <c r="AM80" s="53"/>
+      <c r="AN80" s="53"/>
+      <c r="AO80" s="53"/>
+      <c r="AP80" s="53"/>
+      <c r="AQ80" s="53"/>
+      <c r="AR80" s="53"/>
+      <c r="AS80" s="53"/>
+      <c r="AT80" s="53"/>
+      <c r="AU80" s="53"/>
+      <c r="AV80" s="53"/>
+      <c r="AW80" s="54"/>
       <c r="AX80" s="10"/>
       <c r="AY80" s="10"/>
     </row>
     <row r="81" spans="2:51" ht="12" customHeight="1">
-      <c r="B81" s="228"/>
-      <c r="C81" s="220"/>
-      <c r="D81" s="220"/>
-      <c r="E81" s="220"/>
-      <c r="F81" s="220"/>
-      <c r="G81" s="229"/>
-      <c r="H81" s="338"/>
-      <c r="I81" s="339"/>
-      <c r="J81" s="339"/>
-      <c r="K81" s="339"/>
-      <c r="L81" s="339"/>
-      <c r="M81" s="339"/>
-      <c r="N81" s="339"/>
-      <c r="O81" s="339"/>
-      <c r="P81" s="339"/>
-      <c r="Q81" s="339"/>
-      <c r="R81" s="339"/>
-      <c r="S81" s="339"/>
-      <c r="T81" s="339"/>
-      <c r="U81" s="339"/>
-      <c r="V81" s="339"/>
-      <c r="W81" s="339"/>
-      <c r="X81" s="339"/>
-      <c r="Y81" s="339"/>
-      <c r="Z81" s="339"/>
-      <c r="AA81" s="339"/>
-      <c r="AB81" s="339"/>
-      <c r="AC81" s="339"/>
-      <c r="AD81" s="339"/>
-      <c r="AE81" s="339"/>
-      <c r="AF81" s="339"/>
-      <c r="AG81" s="339"/>
-      <c r="AH81" s="339"/>
-      <c r="AI81" s="339"/>
-      <c r="AJ81" s="339"/>
-      <c r="AK81" s="339"/>
-      <c r="AL81" s="339"/>
-      <c r="AM81" s="339"/>
-      <c r="AN81" s="339"/>
-      <c r="AO81" s="339"/>
-      <c r="AP81" s="339"/>
-      <c r="AQ81" s="339"/>
-      <c r="AR81" s="339"/>
-      <c r="AS81" s="339"/>
-      <c r="AT81" s="339"/>
-      <c r="AU81" s="339"/>
-      <c r="AV81" s="339"/>
-      <c r="AW81" s="340"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="56"/>
+      <c r="V81" s="56"/>
+      <c r="W81" s="56"/>
+      <c r="X81" s="56"/>
+      <c r="Y81" s="56"/>
+      <c r="Z81" s="56"/>
+      <c r="AA81" s="56"/>
+      <c r="AB81" s="56"/>
+      <c r="AC81" s="56"/>
+      <c r="AD81" s="56"/>
+      <c r="AE81" s="56"/>
+      <c r="AF81" s="56"/>
+      <c r="AG81" s="56"/>
+      <c r="AH81" s="56"/>
+      <c r="AI81" s="56"/>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="56"/>
+      <c r="AL81" s="56"/>
+      <c r="AM81" s="56"/>
+      <c r="AN81" s="56"/>
+      <c r="AO81" s="56"/>
+      <c r="AP81" s="56"/>
+      <c r="AQ81" s="56"/>
+      <c r="AR81" s="56"/>
+      <c r="AS81" s="56"/>
+      <c r="AT81" s="56"/>
+      <c r="AU81" s="56"/>
+      <c r="AV81" s="56"/>
+      <c r="AW81" s="57"/>
       <c r="AX81" s="10"/>
       <c r="AY81" s="10"/>
     </row>
@@ -11320,48 +11314,143 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="203">
-    <mergeCell ref="AN72:AO73"/>
-    <mergeCell ref="B75:G81"/>
-    <mergeCell ref="H75:AW81"/>
-    <mergeCell ref="V72:AA73"/>
-    <mergeCell ref="AB72:AE73"/>
-    <mergeCell ref="AF72:AG73"/>
-    <mergeCell ref="AH72:AI73"/>
-    <mergeCell ref="AJ72:AK73"/>
-    <mergeCell ref="AL72:AM73"/>
-    <mergeCell ref="B69:G70"/>
-    <mergeCell ref="H69:J70"/>
-    <mergeCell ref="K69:S70"/>
-    <mergeCell ref="T69:U70"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="H72:J73"/>
-    <mergeCell ref="K72:S73"/>
-    <mergeCell ref="T72:U73"/>
-    <mergeCell ref="AB67:AE68"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="K67:S68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="V67:AA68"/>
-    <mergeCell ref="AF67:AG68"/>
-    <mergeCell ref="AH67:AI68"/>
-    <mergeCell ref="AJ67:AK68"/>
-    <mergeCell ref="AL67:AM68"/>
-    <mergeCell ref="AN67:AO68"/>
-    <mergeCell ref="AF65:AG66"/>
-    <mergeCell ref="AH65:AI66"/>
-    <mergeCell ref="AJ65:AK66"/>
-    <mergeCell ref="AL65:AM66"/>
-    <mergeCell ref="AN65:AO66"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:S66"/>
-    <mergeCell ref="T65:U66"/>
-    <mergeCell ref="V65:AA66"/>
-    <mergeCell ref="AB65:AE66"/>
-    <mergeCell ref="AB62:AE63"/>
-    <mergeCell ref="AF62:AG63"/>
-    <mergeCell ref="AH62:AI63"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="U16:Z17"/>
+    <mergeCell ref="AA16:AM17"/>
+    <mergeCell ref="AN16:AS17"/>
+    <mergeCell ref="AT16:AW17"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="A6:AX9"/>
+    <mergeCell ref="AL10:AQ11"/>
+    <mergeCell ref="AR10:AW11"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="H14:T15"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AS3"/>
+    <mergeCell ref="AT2:AU3"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:AH23"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AM22:AW23"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="H24:AW25"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:AH19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AM18:AW19"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="H20:AW21"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:AH27"/>
+    <mergeCell ref="AI26:AL27"/>
+    <mergeCell ref="AM26:AW27"/>
+    <mergeCell ref="B29:C36"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:AW30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:AD32"/>
+    <mergeCell ref="AE31:AH32"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AN32"/>
+    <mergeCell ref="AO31:AP32"/>
+    <mergeCell ref="AQ31:AT32"/>
+    <mergeCell ref="AU31:AW32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:AD34"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AI33:AU34"/>
+    <mergeCell ref="AV33:AW34"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AI38:AL39"/>
+    <mergeCell ref="AM38:AU39"/>
+    <mergeCell ref="AV38:AW39"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:N36"/>
+    <mergeCell ref="O35:R36"/>
+    <mergeCell ref="S35:Y36"/>
+    <mergeCell ref="Z35:AW36"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="X44:AF45"/>
+    <mergeCell ref="AG44:AH45"/>
+    <mergeCell ref="AI44:AL45"/>
+    <mergeCell ref="AM44:AU45"/>
+    <mergeCell ref="AG40:AH41"/>
+    <mergeCell ref="AI40:AL41"/>
+    <mergeCell ref="AM40:AU41"/>
+    <mergeCell ref="AV40:AW41"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="H42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:W43"/>
+    <mergeCell ref="X42:AF43"/>
+    <mergeCell ref="AG42:AH43"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="AI42:AL43"/>
+    <mergeCell ref="AM42:AU43"/>
+    <mergeCell ref="AV42:AW43"/>
+    <mergeCell ref="BE47:BF47"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="H48:L49"/>
+    <mergeCell ref="M48:Q49"/>
+    <mergeCell ref="R48:U49"/>
+    <mergeCell ref="V48:AA49"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:AA47"/>
+    <mergeCell ref="AB46:AC47"/>
+    <mergeCell ref="AD46:AE47"/>
+    <mergeCell ref="AF46:AG47"/>
+    <mergeCell ref="AH46:AI47"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="H46:K47"/>
+    <mergeCell ref="L46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:Q47"/>
+    <mergeCell ref="R46:S47"/>
+    <mergeCell ref="T46:U47"/>
+    <mergeCell ref="AJ46:AL47"/>
+    <mergeCell ref="AM46:AM47"/>
+    <mergeCell ref="AN46:AV47"/>
+    <mergeCell ref="AW46:AW47"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="B54:G57"/>
+    <mergeCell ref="H54:K55"/>
+    <mergeCell ref="L54:AH55"/>
+    <mergeCell ref="AI54:AL55"/>
+    <mergeCell ref="AM54:AW55"/>
+    <mergeCell ref="H56:K57"/>
+    <mergeCell ref="L56:AW57"/>
+    <mergeCell ref="AB48:AH49"/>
+    <mergeCell ref="AI48:AL49"/>
+    <mergeCell ref="AM48:AW49"/>
+    <mergeCell ref="D50:G51"/>
+    <mergeCell ref="H50:K51"/>
+    <mergeCell ref="L50:R51"/>
+    <mergeCell ref="S50:U51"/>
+    <mergeCell ref="V50:AA51"/>
+    <mergeCell ref="AB50:AW51"/>
+    <mergeCell ref="B38:C51"/>
+    <mergeCell ref="AV44:AW45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="K44:Q45"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="T44:W45"/>
     <mergeCell ref="AJ62:AK63"/>
     <mergeCell ref="AL62:AM63"/>
     <mergeCell ref="AN62:AO63"/>
@@ -11386,143 +11475,48 @@
     <mergeCell ref="L60:M61"/>
     <mergeCell ref="N60:O61"/>
     <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="B54:G57"/>
-    <mergeCell ref="H54:K55"/>
-    <mergeCell ref="L54:AH55"/>
-    <mergeCell ref="AI54:AL55"/>
-    <mergeCell ref="AM54:AW55"/>
-    <mergeCell ref="H56:K57"/>
-    <mergeCell ref="L56:AW57"/>
-    <mergeCell ref="AB48:AH49"/>
-    <mergeCell ref="AI48:AL49"/>
-    <mergeCell ref="AM48:AW49"/>
-    <mergeCell ref="D50:G51"/>
-    <mergeCell ref="H50:K51"/>
-    <mergeCell ref="L50:R51"/>
-    <mergeCell ref="S50:U51"/>
-    <mergeCell ref="V50:AA51"/>
-    <mergeCell ref="AB50:AW51"/>
-    <mergeCell ref="B38:C51"/>
-    <mergeCell ref="AV44:AW45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="K44:Q45"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="T44:W45"/>
-    <mergeCell ref="BE47:BF47"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="H48:L49"/>
-    <mergeCell ref="M48:Q49"/>
-    <mergeCell ref="R48:U49"/>
-    <mergeCell ref="V48:AA49"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:AA47"/>
-    <mergeCell ref="AB46:AC47"/>
-    <mergeCell ref="AD46:AE47"/>
-    <mergeCell ref="AF46:AG47"/>
-    <mergeCell ref="AH46:AI47"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="H46:K47"/>
-    <mergeCell ref="L46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:Q47"/>
-    <mergeCell ref="R46:S47"/>
-    <mergeCell ref="T46:U47"/>
-    <mergeCell ref="AJ46:AL47"/>
-    <mergeCell ref="AM46:AM47"/>
-    <mergeCell ref="AN46:AV47"/>
-    <mergeCell ref="AW46:AW47"/>
-    <mergeCell ref="X44:AF45"/>
-    <mergeCell ref="AG44:AH45"/>
-    <mergeCell ref="AI44:AL45"/>
-    <mergeCell ref="AM44:AU45"/>
-    <mergeCell ref="AG40:AH41"/>
-    <mergeCell ref="AI40:AL41"/>
-    <mergeCell ref="AM40:AU41"/>
-    <mergeCell ref="AV40:AW41"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="H42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:W43"/>
-    <mergeCell ref="X42:AF43"/>
-    <mergeCell ref="AG42:AH43"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="AI42:AL43"/>
-    <mergeCell ref="AM42:AU43"/>
-    <mergeCell ref="AV42:AW43"/>
-    <mergeCell ref="T38:W39"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="AG38:AH39"/>
-    <mergeCell ref="AI38:AL39"/>
-    <mergeCell ref="AM38:AU39"/>
-    <mergeCell ref="AV38:AW39"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:N36"/>
-    <mergeCell ref="O35:R36"/>
-    <mergeCell ref="S35:Y36"/>
-    <mergeCell ref="Z35:AW36"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:AH27"/>
-    <mergeCell ref="AI26:AL27"/>
-    <mergeCell ref="AM26:AW27"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:AW30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H31:AD32"/>
-    <mergeCell ref="AE31:AH32"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AN32"/>
-    <mergeCell ref="AO31:AP32"/>
-    <mergeCell ref="AQ31:AT32"/>
-    <mergeCell ref="AU31:AW32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:AD34"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AI33:AU34"/>
-    <mergeCell ref="AV33:AW34"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:AH23"/>
-    <mergeCell ref="AI22:AL23"/>
-    <mergeCell ref="AM22:AW23"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="H24:AW25"/>
-    <mergeCell ref="B18:C21"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:AH19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AM18:AW19"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="H20:AW21"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="U16:Z17"/>
-    <mergeCell ref="AA16:AM17"/>
-    <mergeCell ref="AN16:AS17"/>
-    <mergeCell ref="AT16:AW17"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="A6:AX9"/>
-    <mergeCell ref="AL10:AQ11"/>
-    <mergeCell ref="AR10:AW11"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:T15"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AS3"/>
-    <mergeCell ref="AT2:AU3"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:S66"/>
+    <mergeCell ref="T65:U66"/>
+    <mergeCell ref="V65:AA66"/>
+    <mergeCell ref="AB65:AE66"/>
+    <mergeCell ref="AB62:AE63"/>
+    <mergeCell ref="AF62:AG63"/>
+    <mergeCell ref="AH62:AI63"/>
+    <mergeCell ref="AF67:AG68"/>
+    <mergeCell ref="AH67:AI68"/>
+    <mergeCell ref="AJ67:AK68"/>
+    <mergeCell ref="AL67:AM68"/>
+    <mergeCell ref="AN67:AO68"/>
+    <mergeCell ref="AF65:AG66"/>
+    <mergeCell ref="AH65:AI66"/>
+    <mergeCell ref="AJ65:AK66"/>
+    <mergeCell ref="AL65:AM66"/>
+    <mergeCell ref="AN65:AO66"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="H69:J70"/>
+    <mergeCell ref="K69:S70"/>
+    <mergeCell ref="T69:U70"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="H72:J73"/>
+    <mergeCell ref="K72:S73"/>
+    <mergeCell ref="T72:U73"/>
+    <mergeCell ref="AB67:AE68"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:S68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="V67:AA68"/>
+    <mergeCell ref="AN72:AO73"/>
+    <mergeCell ref="B75:G81"/>
+    <mergeCell ref="H75:AW81"/>
+    <mergeCell ref="V72:AA73"/>
+    <mergeCell ref="AB72:AE73"/>
+    <mergeCell ref="AF72:AG73"/>
+    <mergeCell ref="AH72:AI73"/>
+    <mergeCell ref="AJ72:AK73"/>
+    <mergeCell ref="AL72:AM73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="12">

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\メトロス依頼資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\メトロス開発\07_テンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562706D-D498-4378-B431-DAB42E4368BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CD178-61E9-4604-8A2B-92D8B2A1888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
   <si>
     <t>年</t>
   </si>
@@ -143,13 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月額</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入居者氏名</t>
     <rPh sb="0" eb="3">
       <t>ニュウキョシャ</t>
@@ -195,16 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新料</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>解約予告</t>
     <rPh sb="0" eb="2">
       <t>カイヤク</t>
@@ -228,26 +211,6 @@
     <t>連絡先</t>
     <rPh sb="0" eb="3">
       <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新賃料の</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>チンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヶ月分</t>
-    <rPh sb="1" eb="2">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -312,26 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>賃  料</t>
-    <rPh sb="0" eb="1">
-      <t>チン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>償  却</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>備  考</t>
     <rPh sb="0" eb="1">
       <t>ビ</t>
@@ -499,10 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>駐車場賃料（税込）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>契約物件番号</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,10 +613,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$updateFee$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$contractEndNotification$</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -765,9 +700,6 @@
   <si>
     <t>$managementFeeInTax$</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$managementFee$</t>
   </si>
   <si>
     <t>$agreementDate$</t>
@@ -866,12 +798,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$managementCondoType$</t>
-  </si>
-  <si>
-    <t>$otherExpenses$</t>
-  </si>
-  <si>
     <t>駐車場敷金</t>
   </si>
   <si>
@@ -895,6 +821,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>$managementCondoType$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$managementFee$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$otherExpenses$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$parkingFeeTaxType$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$parkingFeeInTax$</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -903,7 +849,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,13 +1049,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -1132,7 +1071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1387,30 +1326,6 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="hair">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="hair">
-        <color auto="1"/>
-      </diagonal>
     </border>
     <border>
       <left style="hair">
@@ -1637,26 +1552,6 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="hair">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="hair">
-        <color auto="1"/>
-      </diagonal>
     </border>
     <border>
       <left/>
@@ -1826,6 +1721,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2939,7 +2908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3079,12 +3048,682 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="25" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="31" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3095,40 +3734,284 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="45" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="42" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="40" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3165,956 +4048,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="50" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="56" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="57" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="44" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="27" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="33" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4894,36 +4827,36 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="285" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2" s="285"/>
-      <c r="AJ2" s="285"/>
-      <c r="AK2" s="286" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" s="286"/>
-      <c r="AM2" s="286"/>
-      <c r="AN2" s="267" t="s">
+      <c r="AH2" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="267"/>
-      <c r="AP2" s="287" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="287"/>
-      <c r="AR2" s="267" t="s">
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="267"/>
-      <c r="AT2" s="287" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU2" s="287"/>
-      <c r="AV2" s="267" t="s">
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="267"/>
+      <c r="AW2" s="59"/>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:70" ht="12" customHeight="1">
@@ -4954,22 +4887,22 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="285"/>
-      <c r="AI3" s="285"/>
-      <c r="AJ3" s="285"/>
-      <c r="AK3" s="286"/>
-      <c r="AL3" s="286"/>
-      <c r="AM3" s="286"/>
-      <c r="AN3" s="267"/>
-      <c r="AO3" s="267"/>
-      <c r="AP3" s="287"/>
-      <c r="AQ3" s="287"/>
-      <c r="AR3" s="267"/>
-      <c r="AS3" s="267"/>
-      <c r="AT3" s="287"/>
-      <c r="AU3" s="287"/>
-      <c r="AV3" s="267"/>
-      <c r="AW3" s="267"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="79"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="79"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:70" ht="12" customHeight="1">
@@ -5064,214 +4997,214 @@
       <c r="BR5" s="5"/>
     </row>
     <row r="6" spans="1:70" ht="12" customHeight="1">
-      <c r="A6" s="268" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="268"/>
-      <c r="I6" s="268"/>
-      <c r="J6" s="268"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="268"/>
-      <c r="M6" s="268"/>
-      <c r="N6" s="268"/>
-      <c r="O6" s="268"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="268"/>
-      <c r="R6" s="268"/>
-      <c r="S6" s="268"/>
-      <c r="T6" s="268"/>
-      <c r="U6" s="268"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
-      <c r="X6" s="268"/>
-      <c r="Y6" s="268"/>
-      <c r="Z6" s="268"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="268"/>
-      <c r="AF6" s="268"/>
-      <c r="AG6" s="268"/>
-      <c r="AH6" s="268"/>
-      <c r="AI6" s="268"/>
-      <c r="AJ6" s="268"/>
-      <c r="AK6" s="268"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="268"/>
-      <c r="AN6" s="268"/>
-      <c r="AO6" s="268"/>
-      <c r="AP6" s="268"/>
-      <c r="AQ6" s="268"/>
-      <c r="AR6" s="268"/>
-      <c r="AS6" s="268"/>
-      <c r="AT6" s="268"/>
-      <c r="AU6" s="268"/>
-      <c r="AV6" s="268"/>
-      <c r="AW6" s="268"/>
-      <c r="AX6" s="268"/>
+      <c r="A6" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
     </row>
     <row r="7" spans="1:70" ht="12" customHeight="1">
-      <c r="A7" s="268"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="268"/>
-      <c r="I7" s="268"/>
-      <c r="J7" s="268"/>
-      <c r="K7" s="268"/>
-      <c r="L7" s="268"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="268"/>
-      <c r="O7" s="268"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="268"/>
-      <c r="R7" s="268"/>
-      <c r="S7" s="268"/>
-      <c r="T7" s="268"/>
-      <c r="U7" s="268"/>
-      <c r="V7" s="268"/>
-      <c r="W7" s="268"/>
-      <c r="X7" s="268"/>
-      <c r="Y7" s="268"/>
-      <c r="Z7" s="268"/>
-      <c r="AA7" s="268"/>
-      <c r="AB7" s="268"/>
-      <c r="AC7" s="268"/>
-      <c r="AD7" s="268"/>
-      <c r="AE7" s="268"/>
-      <c r="AF7" s="268"/>
-      <c r="AG7" s="268"/>
-      <c r="AH7" s="268"/>
-      <c r="AI7" s="268"/>
-      <c r="AJ7" s="268"/>
-      <c r="AK7" s="268"/>
-      <c r="AL7" s="268"/>
-      <c r="AM7" s="268"/>
-      <c r="AN7" s="268"/>
-      <c r="AO7" s="268"/>
-      <c r="AP7" s="268"/>
-      <c r="AQ7" s="268"/>
-      <c r="AR7" s="268"/>
-      <c r="AS7" s="268"/>
-      <c r="AT7" s="268"/>
-      <c r="AU7" s="268"/>
-      <c r="AV7" s="268"/>
-      <c r="AW7" s="268"/>
-      <c r="AX7" s="268"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="60"/>
+      <c r="AU7" s="60"/>
+      <c r="AV7" s="60"/>
+      <c r="AW7" s="60"/>
+      <c r="AX7" s="60"/>
     </row>
     <row r="8" spans="1:70" ht="12" customHeight="1">
-      <c r="A8" s="268"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="268"/>
-      <c r="AJ8" s="268"/>
-      <c r="AK8" s="268"/>
-      <c r="AL8" s="268"/>
-      <c r="AM8" s="268"/>
-      <c r="AN8" s="268"/>
-      <c r="AO8" s="268"/>
-      <c r="AP8" s="268"/>
-      <c r="AQ8" s="268"/>
-      <c r="AR8" s="268"/>
-      <c r="AS8" s="268"/>
-      <c r="AT8" s="268"/>
-      <c r="AU8" s="268"/>
-      <c r="AV8" s="268"/>
-      <c r="AW8" s="268"/>
-      <c r="AX8" s="268"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
     </row>
     <row r="9" spans="1:70" ht="12" customHeight="1">
-      <c r="A9" s="268"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="268"/>
-      <c r="M9" s="268"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="268"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="268"/>
-      <c r="R9" s="268"/>
-      <c r="S9" s="268"/>
-      <c r="T9" s="268"/>
-      <c r="U9" s="268"/>
-      <c r="V9" s="268"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="268"/>
-      <c r="Y9" s="268"/>
-      <c r="Z9" s="268"/>
-      <c r="AA9" s="268"/>
-      <c r="AB9" s="268"/>
-      <c r="AC9" s="268"/>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="268"/>
-      <c r="AF9" s="268"/>
-      <c r="AG9" s="268"/>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="268"/>
-      <c r="AJ9" s="268"/>
-      <c r="AK9" s="268"/>
-      <c r="AL9" s="268"/>
-      <c r="AM9" s="268"/>
-      <c r="AN9" s="268"/>
-      <c r="AO9" s="268"/>
-      <c r="AP9" s="268"/>
-      <c r="AQ9" s="268"/>
-      <c r="AR9" s="268"/>
-      <c r="AS9" s="268"/>
-      <c r="AT9" s="268"/>
-      <c r="AU9" s="268"/>
-      <c r="AV9" s="268"/>
-      <c r="AW9" s="268"/>
-      <c r="AX9" s="268"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
     </row>
     <row r="10" spans="1:70" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
@@ -5287,22 +5220,22 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AL10" s="269" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM10" s="270"/>
-      <c r="AN10" s="270"/>
-      <c r="AO10" s="270"/>
-      <c r="AP10" s="270"/>
-      <c r="AQ10" s="270"/>
-      <c r="AR10" s="273" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS10" s="274"/>
-      <c r="AT10" s="274"/>
-      <c r="AU10" s="274"/>
-      <c r="AV10" s="274"/>
-      <c r="AW10" s="275"/>
+      <c r="AL10" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="67"/>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:70" ht="12.75" customHeight="1">
@@ -5319,18 +5252,18 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
-      <c r="AL11" s="271"/>
-      <c r="AM11" s="272"/>
-      <c r="AN11" s="272"/>
-      <c r="AO11" s="272"/>
-      <c r="AP11" s="272"/>
-      <c r="AQ11" s="272"/>
-      <c r="AR11" s="276"/>
-      <c r="AS11" s="277"/>
-      <c r="AT11" s="277"/>
-      <c r="AU11" s="277"/>
-      <c r="AV11" s="277"/>
-      <c r="AW11" s="278"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="70"/>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:70" ht="12" customHeight="1">
@@ -5391,43 +5324,43 @@
     </row>
     <row r="14" spans="1:70" ht="12" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="279" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="280"/>
-      <c r="J14" s="280"/>
-      <c r="K14" s="280"/>
-      <c r="L14" s="280"/>
-      <c r="M14" s="280"/>
-      <c r="N14" s="280"/>
-      <c r="O14" s="280"/>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="280"/>
-      <c r="R14" s="280"/>
-      <c r="S14" s="280"/>
-      <c r="T14" s="281"/>
-      <c r="U14" s="289" t="s">
-        <v>129</v>
-      </c>
-      <c r="V14" s="289"/>
-      <c r="W14" s="289"/>
-      <c r="X14" s="289"/>
-      <c r="Y14" s="289"/>
-      <c r="Z14" s="289"/>
-      <c r="AA14" s="290" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="290"/>
-      <c r="AC14" s="290"/>
-      <c r="AD14" s="290"/>
+      <c r="B14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
@@ -5446,35 +5379,35 @@
     </row>
     <row r="15" spans="1:70" ht="12" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="253"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="254"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="283"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="283"/>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="283"/>
-      <c r="R15" s="283"/>
-      <c r="S15" s="283"/>
-      <c r="T15" s="284"/>
-      <c r="U15" s="289"/>
-      <c r="V15" s="289"/>
-      <c r="W15" s="289"/>
-      <c r="X15" s="289"/>
-      <c r="Y15" s="289"/>
-      <c r="Z15" s="289"/>
-      <c r="AA15" s="290"/>
-      <c r="AB15" s="290"/>
-      <c r="AC15" s="290"/>
-      <c r="AD15" s="290"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
@@ -5493,400 +5426,400 @@
     </row>
     <row r="16" spans="1:70" ht="12" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="116" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="255" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="256"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="257"/>
-      <c r="U16" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="261" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB16" s="262"/>
-      <c r="AC16" s="262"/>
-      <c r="AD16" s="262"/>
-      <c r="AE16" s="262"/>
-      <c r="AF16" s="262"/>
-      <c r="AG16" s="262"/>
-      <c r="AH16" s="262"/>
-      <c r="AI16" s="262"/>
-      <c r="AJ16" s="262"/>
-      <c r="AK16" s="262"/>
-      <c r="AL16" s="262"/>
-      <c r="AM16" s="263"/>
-      <c r="AN16" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="288" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR16" s="288"/>
-      <c r="AS16" s="288"/>
-      <c r="AT16" s="288"/>
-      <c r="AU16" s="288"/>
-      <c r="AV16" s="288"/>
-      <c r="AW16" s="288"/>
+      <c r="B16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:85" ht="12" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="253"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="254"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="259"/>
-      <c r="L17" s="259"/>
-      <c r="M17" s="259"/>
-      <c r="N17" s="259"/>
-      <c r="O17" s="259"/>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="259"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="253"/>
-      <c r="W17" s="253"/>
-      <c r="X17" s="253"/>
-      <c r="Y17" s="253"/>
-      <c r="Z17" s="254"/>
-      <c r="AA17" s="264"/>
-      <c r="AB17" s="265"/>
-      <c r="AC17" s="265"/>
-      <c r="AD17" s="265"/>
-      <c r="AE17" s="265"/>
-      <c r="AF17" s="265"/>
-      <c r="AG17" s="265"/>
-      <c r="AH17" s="265"/>
-      <c r="AI17" s="265"/>
-      <c r="AJ17" s="265"/>
-      <c r="AK17" s="265"/>
-      <c r="AL17" s="265"/>
-      <c r="AM17" s="266"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="288"/>
-      <c r="AR17" s="288"/>
-      <c r="AS17" s="288"/>
-      <c r="AT17" s="288"/>
-      <c r="AU17" s="288"/>
-      <c r="AV17" s="288"/>
-      <c r="AW17" s="288"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="83"/>
+      <c r="AP17" s="83"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:85" ht="12" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="248" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="245"/>
-      <c r="AJ18" s="133"/>
-      <c r="AK18" s="133"/>
-      <c r="AL18" s="246"/>
-      <c r="AM18" s="247"/>
-      <c r="AN18" s="127"/>
-      <c r="AO18" s="127"/>
-      <c r="AP18" s="127"/>
-      <c r="AQ18" s="127"/>
-      <c r="AR18" s="127"/>
-      <c r="AS18" s="127"/>
-      <c r="AT18" s="127"/>
-      <c r="AU18" s="127"/>
-      <c r="AV18" s="127"/>
-      <c r="AW18" s="224"/>
+      <c r="B18" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="94"/>
+      <c r="AS18" s="94"/>
+      <c r="AT18" s="94"/>
+      <c r="AU18" s="94"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="95"/>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:85" ht="12" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="142"/>
-      <c r="W19" s="142"/>
-      <c r="X19" s="142"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="142"/>
-      <c r="AA19" s="142"/>
-      <c r="AB19" s="142"/>
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="142"/>
-      <c r="AG19" s="142"/>
-      <c r="AH19" s="142"/>
-      <c r="AI19" s="216"/>
-      <c r="AJ19" s="136"/>
-      <c r="AK19" s="136"/>
-      <c r="AL19" s="217"/>
-      <c r="AM19" s="147"/>
-      <c r="AN19" s="130"/>
-      <c r="AO19" s="130"/>
-      <c r="AP19" s="130"/>
-      <c r="AQ19" s="130"/>
-      <c r="AR19" s="130"/>
-      <c r="AS19" s="130"/>
-      <c r="AT19" s="130"/>
-      <c r="AU19" s="130"/>
-      <c r="AV19" s="130"/>
-      <c r="AW19" s="148"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="109"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="109"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="109"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="91"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="97"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="97"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="97"/>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="97"/>
+      <c r="AW19" s="98"/>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:85" ht="12" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="125"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-      <c r="AP20" s="127"/>
-      <c r="AQ20" s="127"/>
-      <c r="AR20" s="127"/>
-      <c r="AS20" s="127"/>
-      <c r="AT20" s="127"/>
-      <c r="AU20" s="127"/>
-      <c r="AV20" s="127"/>
-      <c r="AW20" s="224"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+      <c r="AI20" s="94"/>
+      <c r="AJ20" s="94"/>
+      <c r="AK20" s="94"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="94"/>
+      <c r="AS20" s="94"/>
+      <c r="AT20" s="94"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="95"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="130"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="130"/>
-      <c r="Q21" s="130"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-      <c r="Y21" s="130"/>
-      <c r="Z21" s="130"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="130"/>
-      <c r="AC21" s="130"/>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="130"/>
-      <c r="AH21" s="130"/>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="130"/>
-      <c r="AM21" s="130"/>
-      <c r="AN21" s="130"/>
-      <c r="AO21" s="130"/>
-      <c r="AP21" s="130"/>
-      <c r="AQ21" s="130"/>
-      <c r="AR21" s="130"/>
-      <c r="AS21" s="130"/>
-      <c r="AT21" s="130"/>
-      <c r="AU21" s="130"/>
-      <c r="AV21" s="130"/>
-      <c r="AW21" s="148"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="97"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="97"/>
+      <c r="AO21" s="97"/>
+      <c r="AP21" s="97"/>
+      <c r="AQ21" s="97"/>
+      <c r="AR21" s="97"/>
+      <c r="AS21" s="97"/>
+      <c r="AT21" s="97"/>
+      <c r="AU21" s="97"/>
+      <c r="AV21" s="97"/>
+      <c r="AW21" s="98"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="1:85" ht="12" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="291" t="s">
+      <c r="B22" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="127"/>
-      <c r="AE22" s="127"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="245" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ22" s="133"/>
-      <c r="AK22" s="133"/>
-      <c r="AL22" s="246"/>
-      <c r="AM22" s="247" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN22" s="127"/>
-      <c r="AO22" s="127"/>
-      <c r="AP22" s="127"/>
-      <c r="AQ22" s="127"/>
-      <c r="AR22" s="127"/>
-      <c r="AS22" s="127"/>
-      <c r="AT22" s="127"/>
-      <c r="AU22" s="127"/>
-      <c r="AV22" s="127"/>
-      <c r="AW22" s="224"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="94"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="94"/>
+      <c r="AP22" s="94"/>
+      <c r="AQ22" s="94"/>
+      <c r="AR22" s="94"/>
+      <c r="AS22" s="94"/>
+      <c r="AT22" s="94"/>
+      <c r="AU22" s="94"/>
+      <c r="AV22" s="94"/>
+      <c r="AW22" s="95"/>
       <c r="AY22" s="7"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -5921,54 +5854,54 @@
     </row>
     <row r="23" spans="1:85" ht="12" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="293"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="216"/>
-      <c r="AJ23" s="136"/>
-      <c r="AK23" s="136"/>
-      <c r="AL23" s="217"/>
-      <c r="AM23" s="147"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="130"/>
-      <c r="AQ23" s="130"/>
-      <c r="AR23" s="130"/>
-      <c r="AS23" s="130"/>
-      <c r="AT23" s="130"/>
-      <c r="AU23" s="130"/>
-      <c r="AV23" s="130"/>
-      <c r="AW23" s="148"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="117"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="91"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="97"/>
+      <c r="AW23" s="98"/>
       <c r="AY23" s="7"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -6003,58 +5936,58 @@
     </row>
     <row r="24" spans="1:85" ht="12" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="293"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="127"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="127"/>
-      <c r="AL24" s="127"/>
-      <c r="AM24" s="127"/>
-      <c r="AN24" s="127"/>
-      <c r="AO24" s="127"/>
-      <c r="AP24" s="127"/>
-      <c r="AQ24" s="127"/>
-      <c r="AR24" s="127"/>
-      <c r="AS24" s="127"/>
-      <c r="AT24" s="127"/>
-      <c r="AU24" s="127"/>
-      <c r="AV24" s="127"/>
-      <c r="AW24" s="224"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="94"/>
+      <c r="AL24" s="94"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="94"/>
+      <c r="AO24" s="94"/>
+      <c r="AP24" s="94"/>
+      <c r="AQ24" s="94"/>
+      <c r="AR24" s="94"/>
+      <c r="AS24" s="94"/>
+      <c r="AT24" s="94"/>
+      <c r="AU24" s="94"/>
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="95"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="1"/>
       <c r="BD24" s="10"/>
@@ -6090,54 +6023,54 @@
     </row>
     <row r="25" spans="1:85" ht="12" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="295"/>
-      <c r="C25" s="296"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="130"/>
-      <c r="O25" s="130"/>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
-      <c r="U25" s="130"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="130"/>
-      <c r="X25" s="130"/>
-      <c r="Y25" s="130"/>
-      <c r="Z25" s="130"/>
-      <c r="AA25" s="130"/>
-      <c r="AB25" s="130"/>
-      <c r="AC25" s="130"/>
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="130"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="130"/>
-      <c r="AM25" s="130"/>
-      <c r="AN25" s="130"/>
-      <c r="AO25" s="130"/>
-      <c r="AP25" s="130"/>
-      <c r="AQ25" s="130"/>
-      <c r="AR25" s="130"/>
-      <c r="AS25" s="130"/>
-      <c r="AT25" s="130"/>
-      <c r="AU25" s="130"/>
-      <c r="AV25" s="130"/>
-      <c r="AW25" s="148"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="97"/>
+      <c r="AH25" s="97"/>
+      <c r="AI25" s="97"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="97"/>
+      <c r="AL25" s="97"/>
+      <c r="AM25" s="97"/>
+      <c r="AN25" s="97"/>
+      <c r="AO25" s="97"/>
+      <c r="AP25" s="97"/>
+      <c r="AQ25" s="97"/>
+      <c r="AR25" s="97"/>
+      <c r="AS25" s="97"/>
+      <c r="AT25" s="97"/>
+      <c r="AU25" s="97"/>
+      <c r="AV25" s="97"/>
+      <c r="AW25" s="98"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="1"/>
       <c r="BD25" s="10"/>
@@ -6173,62 +6106,62 @@
     </row>
     <row r="26" spans="1:85" ht="12" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="210"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145"/>
-      <c r="T26" s="145"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="212"/>
-      <c r="AI26" s="213" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ26" s="214"/>
-      <c r="AK26" s="214"/>
-      <c r="AL26" s="215"/>
-      <c r="AM26" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN26" s="145"/>
-      <c r="AO26" s="145"/>
-      <c r="AP26" s="145"/>
-      <c r="AQ26" s="145"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="145"/>
-      <c r="AT26" s="145"/>
-      <c r="AU26" s="145"/>
-      <c r="AV26" s="145"/>
-      <c r="AW26" s="146"/>
+      <c r="B26" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="125"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="126"/>
+      <c r="AI26" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN26" s="125"/>
+      <c r="AO26" s="125"/>
+      <c r="AP26" s="125"/>
+      <c r="AQ26" s="125"/>
+      <c r="AR26" s="125"/>
+      <c r="AS26" s="125"/>
+      <c r="AT26" s="125"/>
+      <c r="AU26" s="125"/>
+      <c r="AV26" s="125"/>
+      <c r="AW26" s="130"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="7"/>
       <c r="BA26" s="10"/>
@@ -6267,54 +6200,54 @@
     </row>
     <row r="27" spans="1:85" ht="12" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="130"/>
-      <c r="O27" s="130"/>
-      <c r="P27" s="130"/>
-      <c r="Q27" s="130"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="130"/>
-      <c r="U27" s="130"/>
-      <c r="V27" s="130"/>
-      <c r="W27" s="130"/>
-      <c r="X27" s="130"/>
-      <c r="Y27" s="130"/>
-      <c r="Z27" s="130"/>
-      <c r="AA27" s="130"/>
-      <c r="AB27" s="130"/>
-      <c r="AC27" s="130"/>
-      <c r="AD27" s="130"/>
-      <c r="AE27" s="130"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="130"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="216"/>
-      <c r="AJ27" s="136"/>
-      <c r="AK27" s="136"/>
-      <c r="AL27" s="217"/>
-      <c r="AM27" s="147"/>
-      <c r="AN27" s="130"/>
-      <c r="AO27" s="130"/>
-      <c r="AP27" s="130"/>
-      <c r="AQ27" s="130"/>
-      <c r="AR27" s="130"/>
-      <c r="AS27" s="130"/>
-      <c r="AT27" s="130"/>
-      <c r="AU27" s="130"/>
-      <c r="AV27" s="130"/>
-      <c r="AW27" s="148"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
+      <c r="T27" s="97"/>
+      <c r="U27" s="97"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="97"/>
+      <c r="AH27" s="117"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="91"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="96"/>
+      <c r="AN27" s="97"/>
+      <c r="AO27" s="97"/>
+      <c r="AP27" s="97"/>
+      <c r="AQ27" s="97"/>
+      <c r="AR27" s="97"/>
+      <c r="AS27" s="97"/>
+      <c r="AT27" s="97"/>
+      <c r="AU27" s="97"/>
+      <c r="AV27" s="97"/>
+      <c r="AW27" s="98"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -6441,60 +6374,60 @@
     </row>
     <row r="29" spans="1:85" ht="12" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="218" t="s">
+      <c r="B29" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="219"/>
-      <c r="D29" s="161" t="s">
+      <c r="C29" s="132"/>
+      <c r="D29" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="126" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="127"/>
-      <c r="AD29" s="127"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="127"/>
-      <c r="AJ29" s="127"/>
-      <c r="AK29" s="127"/>
-      <c r="AL29" s="127"/>
-      <c r="AM29" s="127"/>
-      <c r="AN29" s="127"/>
-      <c r="AO29" s="127"/>
-      <c r="AP29" s="127"/>
-      <c r="AQ29" s="127"/>
-      <c r="AR29" s="127"/>
-      <c r="AS29" s="127"/>
-      <c r="AT29" s="127"/>
-      <c r="AU29" s="127"/>
-      <c r="AV29" s="127"/>
-      <c r="AW29" s="224"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="100" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="94"/>
+      <c r="AB29" s="94"/>
+      <c r="AC29" s="94"/>
+      <c r="AD29" s="94"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="94"/>
+      <c r="AI29" s="94"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="94"/>
+      <c r="AL29" s="94"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="94"/>
+      <c r="AO29" s="94"/>
+      <c r="AP29" s="94"/>
+      <c r="AQ29" s="94"/>
+      <c r="AR29" s="94"/>
+      <c r="AS29" s="94"/>
+      <c r="AT29" s="94"/>
+      <c r="AU29" s="94"/>
+      <c r="AV29" s="94"/>
+      <c r="AW29" s="95"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -6530,54 +6463,54 @@
       <c r="CD29" s="10"/>
     </row>
     <row r="30" spans="1:85" ht="12" customHeight="1">
-      <c r="B30" s="220"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="130"/>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
-      <c r="T30" s="130"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="130"/>
-      <c r="AQ30" s="130"/>
-      <c r="AR30" s="130"/>
-      <c r="AS30" s="130"/>
-      <c r="AT30" s="130"/>
-      <c r="AU30" s="130"/>
-      <c r="AV30" s="130"/>
-      <c r="AW30" s="148"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+      <c r="AL30" s="97"/>
+      <c r="AM30" s="97"/>
+      <c r="AN30" s="97"/>
+      <c r="AO30" s="97"/>
+      <c r="AP30" s="97"/>
+      <c r="AQ30" s="97"/>
+      <c r="AR30" s="97"/>
+      <c r="AS30" s="97"/>
+      <c r="AT30" s="97"/>
+      <c r="AU30" s="97"/>
+      <c r="AV30" s="97"/>
+      <c r="AW30" s="98"/>
       <c r="AY30" s="7"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -6611,68 +6544,68 @@
       <c r="CD30" s="10"/>
     </row>
     <row r="31" spans="1:85" ht="12" customHeight="1">
-      <c r="B31" s="220"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="161" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="225" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="226"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="226"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="226"/>
-      <c r="O31" s="226"/>
-      <c r="P31" s="226"/>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="226"/>
-      <c r="S31" s="226"/>
-      <c r="T31" s="226"/>
-      <c r="U31" s="226"/>
-      <c r="V31" s="226"/>
-      <c r="W31" s="226"/>
-      <c r="X31" s="226"/>
-      <c r="Y31" s="226"/>
-      <c r="Z31" s="226"/>
-      <c r="AA31" s="226"/>
-      <c r="AB31" s="226"/>
-      <c r="AC31" s="226"/>
-      <c r="AD31" s="226"/>
-      <c r="AE31" s="229"/>
-      <c r="AF31" s="230"/>
-      <c r="AG31" s="230"/>
-      <c r="AH31" s="230"/>
-      <c r="AI31" s="233" t="s">
+      <c r="B31" s="133"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="142"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ31" s="146"/>
+      <c r="AK31" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL31" s="143"/>
+      <c r="AM31" s="143"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="AJ31" s="233"/>
-      <c r="AK31" s="230" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL31" s="230"/>
-      <c r="AM31" s="230"/>
-      <c r="AN31" s="230"/>
-      <c r="AO31" s="233" t="s">
+      <c r="AP31" s="146"/>
+      <c r="AQ31" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="143"/>
+      <c r="AU31" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="AP31" s="233"/>
-      <c r="AQ31" s="230" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR31" s="230"/>
-      <c r="AS31" s="230"/>
-      <c r="AT31" s="230"/>
-      <c r="AU31" s="233" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV31" s="233"/>
-      <c r="AW31" s="235"/>
+      <c r="AV31" s="146"/>
+      <c r="AW31" s="148"/>
       <c r="AY31" s="7"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -6706,54 +6639,54 @@
       <c r="CD31" s="10"/>
     </row>
     <row r="32" spans="1:85" ht="12" customHeight="1">
-      <c r="B32" s="220"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="228"/>
-      <c r="J32" s="228"/>
-      <c r="K32" s="228"/>
-      <c r="L32" s="228"/>
-      <c r="M32" s="228"/>
-      <c r="N32" s="228"/>
-      <c r="O32" s="228"/>
-      <c r="P32" s="228"/>
-      <c r="Q32" s="228"/>
-      <c r="R32" s="228"/>
-      <c r="S32" s="228"/>
-      <c r="T32" s="228"/>
-      <c r="U32" s="228"/>
-      <c r="V32" s="228"/>
-      <c r="W32" s="228"/>
-      <c r="X32" s="228"/>
-      <c r="Y32" s="228"/>
-      <c r="Z32" s="228"/>
-      <c r="AA32" s="228"/>
-      <c r="AB32" s="228"/>
-      <c r="AC32" s="228"/>
-      <c r="AD32" s="228"/>
-      <c r="AE32" s="231"/>
-      <c r="AF32" s="232"/>
-      <c r="AG32" s="232"/>
-      <c r="AH32" s="232"/>
-      <c r="AI32" s="234"/>
-      <c r="AJ32" s="234"/>
-      <c r="AK32" s="232"/>
-      <c r="AL32" s="232"/>
-      <c r="AM32" s="232"/>
-      <c r="AN32" s="232"/>
-      <c r="AO32" s="234"/>
-      <c r="AP32" s="234"/>
-      <c r="AQ32" s="232"/>
-      <c r="AR32" s="232"/>
-      <c r="AS32" s="232"/>
-      <c r="AT32" s="232"/>
-      <c r="AU32" s="234"/>
-      <c r="AV32" s="234"/>
-      <c r="AW32" s="236"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
+      <c r="Y32" s="141"/>
+      <c r="Z32" s="141"/>
+      <c r="AA32" s="141"/>
+      <c r="AB32" s="141"/>
+      <c r="AC32" s="141"/>
+      <c r="AD32" s="141"/>
+      <c r="AE32" s="144"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="147"/>
+      <c r="AJ32" s="147"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="145"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="147"/>
+      <c r="AP32" s="147"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="145"/>
+      <c r="AT32" s="145"/>
+      <c r="AU32" s="147"/>
+      <c r="AV32" s="147"/>
+      <c r="AW32" s="149"/>
       <c r="AY32" s="7"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -6787,64 +6720,64 @@
       <c r="CD32" s="10"/>
     </row>
     <row r="33" spans="1:101" ht="12" customHeight="1">
-      <c r="B33" s="220"/>
-      <c r="C33" s="221"/>
-      <c r="D33" s="161" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="139"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="139"/>
-      <c r="T33" s="139"/>
-      <c r="U33" s="139"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="203" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF33" s="204"/>
-      <c r="AG33" s="204"/>
-      <c r="AH33" s="205"/>
-      <c r="AI33" s="237" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ33" s="238"/>
-      <c r="AK33" s="238"/>
-      <c r="AL33" s="238"/>
-      <c r="AM33" s="238"/>
-      <c r="AN33" s="238"/>
-      <c r="AO33" s="238"/>
-      <c r="AP33" s="238"/>
-      <c r="AQ33" s="238"/>
-      <c r="AR33" s="238"/>
-      <c r="AS33" s="238"/>
-      <c r="AT33" s="238"/>
-      <c r="AU33" s="238"/>
-      <c r="AV33" s="241" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW33" s="242"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="152"/>
+      <c r="AI33" s="156" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157"/>
+      <c r="AL33" s="157"/>
+      <c r="AM33" s="157"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="157"/>
+      <c r="AP33" s="157"/>
+      <c r="AQ33" s="157"/>
+      <c r="AR33" s="157"/>
+      <c r="AS33" s="157"/>
+      <c r="AT33" s="157"/>
+      <c r="AU33" s="157"/>
+      <c r="AV33" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW33" s="161"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
@@ -6878,58 +6811,57 @@
       <c r="CC33" s="10"/>
     </row>
     <row r="34" spans="1:101" ht="12" customHeight="1">
-      <c r="B34" s="220"/>
-      <c r="C34" s="221"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="142"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="142"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="142"/>
-      <c r="W34" s="142"/>
-      <c r="X34" s="142"/>
-      <c r="Y34" s="142"/>
-      <c r="Z34" s="142"/>
-      <c r="AA34" s="142"/>
-      <c r="AB34" s="142"/>
-      <c r="AC34" s="142"/>
-      <c r="AD34" s="142"/>
-      <c r="AE34" s="206"/>
-      <c r="AF34" s="207"/>
-      <c r="AG34" s="207"/>
-      <c r="AH34" s="208"/>
-      <c r="AI34" s="239"/>
-      <c r="AJ34" s="240"/>
-      <c r="AK34" s="240"/>
-      <c r="AL34" s="240"/>
-      <c r="AM34" s="240"/>
-      <c r="AN34" s="240"/>
-      <c r="AO34" s="240"/>
-      <c r="AP34" s="240"/>
-      <c r="AQ34" s="240"/>
-      <c r="AR34" s="240"/>
-      <c r="AS34" s="240"/>
-      <c r="AT34" s="240"/>
-      <c r="AU34" s="240"/>
-      <c r="AV34" s="243"/>
-      <c r="AW34" s="244"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="109"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="109"/>
+      <c r="S34" s="109"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="109"/>
+      <c r="V34" s="109"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="154"/>
+      <c r="AG34" s="154"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="158"/>
+      <c r="AJ34" s="159"/>
+      <c r="AK34" s="159"/>
+      <c r="AL34" s="159"/>
+      <c r="AM34" s="159"/>
+      <c r="AN34" s="159"/>
+      <c r="AO34" s="159"/>
+      <c r="AP34" s="159"/>
+      <c r="AQ34" s="159"/>
+      <c r="AR34" s="159"/>
+      <c r="AS34" s="159"/>
+      <c r="AT34" s="159"/>
+      <c r="AU34" s="159"/>
+      <c r="AV34" s="162"/>
+      <c r="AW34" s="163"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
       <c r="BC34" s="10"/>
       <c r="BD34" s="10"/>
       <c r="BE34" s="10"/>
@@ -6959,62 +6891,62 @@
       <c r="CC34" s="10"/>
     </row>
     <row r="35" spans="1:101" ht="12" customHeight="1">
-      <c r="B35" s="220"/>
-      <c r="C35" s="221"/>
-      <c r="D35" s="161" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="199" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="200"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="200"/>
-      <c r="L35" s="200"/>
-      <c r="M35" s="200"/>
-      <c r="N35" s="200"/>
-      <c r="O35" s="203" t="s">
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="180" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="204"/>
-      <c r="Q35" s="204"/>
-      <c r="R35" s="205"/>
-      <c r="S35" s="200" t="s">
-        <v>92</v>
-      </c>
-      <c r="T35" s="200"/>
-      <c r="U35" s="200"/>
-      <c r="V35" s="200"/>
-      <c r="W35" s="200"/>
-      <c r="X35" s="200"/>
-      <c r="Y35" s="200"/>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="84"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="84"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="84"/>
-      <c r="AO35" s="84"/>
-      <c r="AP35" s="84"/>
-      <c r="AQ35" s="84"/>
-      <c r="AR35" s="84"/>
-      <c r="AS35" s="84"/>
-      <c r="AT35" s="84"/>
-      <c r="AU35" s="84"/>
-      <c r="AV35" s="84"/>
-      <c r="AW35" s="85"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="152"/>
+      <c r="S35" s="181" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="181"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
+      <c r="X35" s="181"/>
+      <c r="Y35" s="181"/>
+      <c r="Z35" s="174"/>
+      <c r="AA35" s="175"/>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="175"/>
+      <c r="AD35" s="175"/>
+      <c r="AE35" s="175"/>
+      <c r="AF35" s="175"/>
+      <c r="AG35" s="175"/>
+      <c r="AH35" s="175"/>
+      <c r="AI35" s="175"/>
+      <c r="AJ35" s="175"/>
+      <c r="AK35" s="175"/>
+      <c r="AL35" s="175"/>
+      <c r="AM35" s="175"/>
+      <c r="AN35" s="175"/>
+      <c r="AO35" s="175"/>
+      <c r="AP35" s="175"/>
+      <c r="AQ35" s="175"/>
+      <c r="AR35" s="175"/>
+      <c r="AS35" s="175"/>
+      <c r="AT35" s="175"/>
+      <c r="AU35" s="175"/>
+      <c r="AV35" s="175"/>
+      <c r="AW35" s="176"/>
       <c r="AY35" s="7"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -7042,61 +6974,68 @@
       <c r="CB35" s="10"/>
     </row>
     <row r="36" spans="1:101" ht="12" customHeight="1">
-      <c r="B36" s="222"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="201"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="206"/>
-      <c r="P36" s="207"/>
-      <c r="Q36" s="207"/>
-      <c r="R36" s="208"/>
-      <c r="S36" s="202"/>
-      <c r="T36" s="202"/>
-      <c r="U36" s="202"/>
-      <c r="V36" s="202"/>
-      <c r="W36" s="202"/>
-      <c r="X36" s="202"/>
-      <c r="Y36" s="202"/>
-      <c r="Z36" s="86"/>
-      <c r="AA36" s="87"/>
-      <c r="AB36" s="87"/>
-      <c r="AC36" s="87"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="87"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="87"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="87"/>
-      <c r="AK36" s="87"/>
-      <c r="AL36" s="87"/>
-      <c r="AM36" s="87"/>
-      <c r="AN36" s="87"/>
-      <c r="AO36" s="87"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="87"/>
-      <c r="AR36" s="87"/>
-      <c r="AS36" s="87"/>
-      <c r="AT36" s="87"/>
-      <c r="AU36" s="87"/>
-      <c r="AV36" s="87"/>
-      <c r="AW36" s="88"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="154"/>
+      <c r="Q36" s="154"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="183"/>
+      <c r="T36" s="183"/>
+      <c r="U36" s="183"/>
+      <c r="V36" s="183"/>
+      <c r="W36" s="183"/>
+      <c r="X36" s="183"/>
+      <c r="Y36" s="183"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="178"/>
+      <c r="AB36" s="178"/>
+      <c r="AC36" s="178"/>
+      <c r="AD36" s="178"/>
+      <c r="AE36" s="178"/>
+      <c r="AF36" s="178"/>
+      <c r="AG36" s="178"/>
+      <c r="AH36" s="178"/>
+      <c r="AI36" s="178"/>
+      <c r="AJ36" s="178"/>
+      <c r="AK36" s="178"/>
+      <c r="AL36" s="178"/>
+      <c r="AM36" s="178"/>
+      <c r="AN36" s="178"/>
+      <c r="AO36" s="178"/>
+      <c r="AP36" s="178"/>
+      <c r="AQ36" s="178"/>
+      <c r="AR36" s="178"/>
+      <c r="AS36" s="178"/>
+      <c r="AT36" s="178"/>
+      <c r="AU36" s="178"/>
+      <c r="AV36" s="178"/>
+      <c r="AW36" s="179"/>
       <c r="AY36" s="7"/>
-      <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
-      <c r="BI36" s="10"/>
-      <c r="BJ36" s="10"/>
+      <c r="BB36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
       <c r="BK36" s="10"/>
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
@@ -7166,140 +7105,162 @@
       <c r="AV37" s="23"/>
       <c r="AW37" s="23"/>
       <c r="AY37" s="7"/>
+      <c r="BB37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BC37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
     </row>
     <row r="38" spans="1:101" ht="12" customHeight="1">
-      <c r="B38" s="218" t="s">
+      <c r="B38" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="219"/>
-      <c r="D38" s="161" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="194" t="str">
-        <f>IF(H38="月額（税込）",BC38,IF(H38="月額",BB38,""))</f>
+      <c r="C38" s="132"/>
+      <c r="D38" s="137" t="str">
+        <f>IF(K38="","","賃  料")</f>
         <v/>
       </c>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="190"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="187" t="s">
-        <v>11</v>
-      </c>
-      <c r="S38" s="188"/>
-      <c r="T38" s="161" t="s">
-        <v>136</v>
-      </c>
-      <c r="U38" s="161"/>
-      <c r="V38" s="161"/>
-      <c r="W38" s="161"/>
-      <c r="X38" s="181" t="str">
-        <f>IF(T38="敷　金",BE38,IF(T38="保証金",BF38,""))</f>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="80" t="str">
+        <f>IF(K38="","",BB36)</f>
         <v/>
       </c>
-      <c r="Y38" s="182"/>
-      <c r="Z38" s="182"/>
-      <c r="AA38" s="182"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="182"/>
-      <c r="AD38" s="182"/>
-      <c r="AE38" s="182"/>
-      <c r="AF38" s="183"/>
-      <c r="AG38" s="187" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH38" s="188"/>
-      <c r="AI38" s="83"/>
-      <c r="AJ38" s="84"/>
-      <c r="AK38" s="84"/>
-      <c r="AL38" s="85"/>
-      <c r="AM38" s="181"/>
-      <c r="AN38" s="182"/>
-      <c r="AO38" s="182"/>
-      <c r="AP38" s="182"/>
-      <c r="AQ38" s="182"/>
-      <c r="AR38" s="182"/>
-      <c r="AS38" s="182"/>
-      <c r="AT38" s="182"/>
-      <c r="AU38" s="183"/>
-      <c r="AV38" s="187"/>
-      <c r="AW38" s="188"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="186" t="str">
+        <f>IF(BB36="月額（税込）",BC38,IF(BB36="月額",BB38,""))</f>
+        <v/>
+      </c>
+      <c r="L38" s="187"/>
+      <c r="M38" s="187"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187"/>
+      <c r="R38" s="170" t="str">
+        <f>IF(K38="","","円")</f>
+        <v/>
+      </c>
+      <c r="S38" s="171"/>
+      <c r="T38" s="137" t="str">
+        <f>IF(X38="","",BC36)</f>
+        <v/>
+      </c>
+      <c r="U38" s="137"/>
+      <c r="V38" s="137"/>
+      <c r="W38" s="137"/>
+      <c r="X38" s="164" t="str">
+        <f>IF(BC36="敷　金",BE38,IF(BC36="保証金",BF38,""))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="165"/>
+      <c r="Z38" s="165"/>
+      <c r="AA38" s="165"/>
+      <c r="AB38" s="165"/>
+      <c r="AC38" s="165"/>
+      <c r="AD38" s="165"/>
+      <c r="AE38" s="165"/>
+      <c r="AF38" s="166"/>
+      <c r="AG38" s="170" t="str">
+        <f>IF(X38="","","円")</f>
+        <v/>
+      </c>
+      <c r="AH38" s="171"/>
+      <c r="AI38" s="174"/>
+      <c r="AJ38" s="175"/>
+      <c r="AK38" s="175"/>
+      <c r="AL38" s="176"/>
+      <c r="AM38" s="164"/>
+      <c r="AN38" s="165"/>
+      <c r="AO38" s="165"/>
+      <c r="AP38" s="165"/>
+      <c r="AQ38" s="165"/>
+      <c r="AR38" s="165"/>
+      <c r="AS38" s="165"/>
+      <c r="AT38" s="165"/>
+      <c r="AU38" s="166"/>
+      <c r="AV38" s="170"/>
+      <c r="AW38" s="171"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="BD38" s="5"/>
-      <c r="BE38" s="36" t="s">
-        <v>120</v>
+      <c r="BE38" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="BF38" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="1:101" ht="12" customHeight="1">
-      <c r="B39" s="220"/>
-      <c r="C39" s="221"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="192"/>
-      <c r="P39" s="192"/>
-      <c r="Q39" s="192"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="156"/>
-      <c r="T39" s="161"/>
-      <c r="U39" s="161"/>
-      <c r="V39" s="161"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="184"/>
-      <c r="Y39" s="185"/>
-      <c r="Z39" s="185"/>
-      <c r="AA39" s="185"/>
-      <c r="AB39" s="185"/>
-      <c r="AC39" s="185"/>
-      <c r="AD39" s="185"/>
-      <c r="AE39" s="185"/>
-      <c r="AF39" s="186"/>
-      <c r="AG39" s="173"/>
-      <c r="AH39" s="156"/>
-      <c r="AI39" s="86"/>
-      <c r="AJ39" s="87"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="184"/>
-      <c r="AN39" s="185"/>
-      <c r="AO39" s="185"/>
-      <c r="AP39" s="185"/>
-      <c r="AQ39" s="185"/>
-      <c r="AR39" s="185"/>
-      <c r="AS39" s="185"/>
-      <c r="AT39" s="185"/>
-      <c r="AU39" s="186"/>
-      <c r="AV39" s="173"/>
-      <c r="AW39" s="156"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="189"/>
+      <c r="M39" s="189"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="189"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="167"/>
+      <c r="Y39" s="168"/>
+      <c r="Z39" s="168"/>
+      <c r="AA39" s="168"/>
+      <c r="AB39" s="168"/>
+      <c r="AC39" s="168"/>
+      <c r="AD39" s="168"/>
+      <c r="AE39" s="168"/>
+      <c r="AF39" s="169"/>
+      <c r="AG39" s="172"/>
+      <c r="AH39" s="173"/>
+      <c r="AI39" s="177"/>
+      <c r="AJ39" s="178"/>
+      <c r="AK39" s="178"/>
+      <c r="AL39" s="179"/>
+      <c r="AM39" s="167"/>
+      <c r="AN39" s="168"/>
+      <c r="AO39" s="168"/>
+      <c r="AP39" s="168"/>
+      <c r="AQ39" s="168"/>
+      <c r="AR39" s="168"/>
+      <c r="AS39" s="168"/>
+      <c r="AT39" s="168"/>
+      <c r="AU39" s="169"/>
+      <c r="AV39" s="172"/>
+      <c r="AW39" s="173"/>
       <c r="AY39" s="7"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
@@ -7308,375 +7269,403 @@
       <c r="BF39" s="5"/>
       <c r="BG39" s="5"/>
       <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
     </row>
     <row r="40" spans="1:101" ht="12" customHeight="1">
-      <c r="B40" s="220"/>
-      <c r="C40" s="221"/>
-      <c r="D40" s="161" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" s="40"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="194" t="str">
-        <f>IF(D40="共益費",IF(H40="月額（税込）",BC40,IF(H40="月額",BB40,"")),IF(D40="管理費",IF(H40="月額（税込）",BC41,IF(H40="月額",BB41,"")),""))</f>
+      <c r="B40" s="133"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="137" t="str">
+        <f>IF(K40="","",BB37)</f>
         <v/>
       </c>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="190"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="187" t="s">
-        <v>11</v>
-      </c>
-      <c r="S40" s="188"/>
-      <c r="T40" s="161" t="s">
-        <v>32</v>
-      </c>
-      <c r="U40" s="161"/>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="181" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y40" s="182"/>
-      <c r="Z40" s="182"/>
-      <c r="AA40" s="182"/>
-      <c r="AB40" s="182"/>
-      <c r="AC40" s="182"/>
-      <c r="AD40" s="182"/>
-      <c r="AE40" s="182"/>
-      <c r="AF40" s="183"/>
-      <c r="AG40" s="187" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH40" s="188"/>
-      <c r="AI40" s="161"/>
-      <c r="AJ40" s="161"/>
-      <c r="AK40" s="161"/>
-      <c r="AL40" s="161"/>
-      <c r="AM40" s="189"/>
-      <c r="AN40" s="190"/>
-      <c r="AO40" s="190"/>
-      <c r="AP40" s="190"/>
-      <c r="AQ40" s="190"/>
-      <c r="AR40" s="190"/>
-      <c r="AS40" s="190"/>
-      <c r="AT40" s="190"/>
-      <c r="AU40" s="190"/>
-      <c r="AV40" s="187"/>
-      <c r="AW40" s="188"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="80" t="str">
+        <f>IF(K40="","",BC37)</f>
+        <v/>
+      </c>
+      <c r="I40" s="81"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="186" t="str">
+        <f>IF(BB37="共益費",IF(BC37="月額（税込）",BC40,IF(BC37="月額",BB40,"")),IF(BB37="管理費",IF(BC37="月額（税込）",BC41,IF(BC37="月額",BB41,"")),""))</f>
+        <v/>
+      </c>
+      <c r="L40" s="187"/>
+      <c r="M40" s="187"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="187"/>
+      <c r="P40" s="187"/>
+      <c r="Q40" s="187"/>
+      <c r="R40" s="170" t="str">
+        <f>IF(K40="","","円")</f>
+        <v/>
+      </c>
+      <c r="S40" s="171"/>
+      <c r="T40" s="137" t="str">
+        <f>IF(X40="","","償  却")</f>
+        <v>償  却</v>
+      </c>
+      <c r="U40" s="137"/>
+      <c r="V40" s="137"/>
+      <c r="W40" s="137"/>
+      <c r="X40" s="164" t="str">
+        <f>IF(BF37="","",BF37)</f>
+        <v>$amortization$</v>
+      </c>
+      <c r="Y40" s="165"/>
+      <c r="Z40" s="165"/>
+      <c r="AA40" s="165"/>
+      <c r="AB40" s="165"/>
+      <c r="AC40" s="165"/>
+      <c r="AD40" s="165"/>
+      <c r="AE40" s="165"/>
+      <c r="AF40" s="166"/>
+      <c r="AG40" s="170" t="str">
+        <f>IF(X40="","","円")</f>
+        <v>円</v>
+      </c>
+      <c r="AH40" s="171"/>
+      <c r="AI40" s="137"/>
+      <c r="AJ40" s="137"/>
+      <c r="AK40" s="137"/>
+      <c r="AL40" s="137"/>
+      <c r="AM40" s="233"/>
+      <c r="AN40" s="187"/>
+      <c r="AO40" s="187"/>
+      <c r="AP40" s="187"/>
+      <c r="AQ40" s="187"/>
+      <c r="AR40" s="187"/>
+      <c r="AS40" s="187"/>
+      <c r="AT40" s="187"/>
+      <c r="AU40" s="187"/>
+      <c r="AV40" s="170"/>
+      <c r="AW40" s="171"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="BD40" s="5"/>
       <c r="BE40" s="5"/>
       <c r="BF40" s="5"/>
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:101" ht="12" customHeight="1">
-      <c r="B41" s="220"/>
-      <c r="C41" s="221"/>
-      <c r="D41" s="161"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="192"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="192"/>
-      <c r="O41" s="192"/>
-      <c r="P41" s="192"/>
-      <c r="Q41" s="192"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="161"/>
-      <c r="U41" s="161"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="184"/>
-      <c r="Y41" s="185"/>
-      <c r="Z41" s="185"/>
-      <c r="AA41" s="185"/>
-      <c r="AB41" s="185"/>
-      <c r="AC41" s="185"/>
-      <c r="AD41" s="185"/>
-      <c r="AE41" s="185"/>
-      <c r="AF41" s="186"/>
-      <c r="AG41" s="173"/>
-      <c r="AH41" s="156"/>
-      <c r="AI41" s="161"/>
-      <c r="AJ41" s="161"/>
-      <c r="AK41" s="161"/>
-      <c r="AL41" s="161"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="188"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="189"/>
+      <c r="N41" s="189"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="172"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="137"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="168"/>
+      <c r="Z41" s="168"/>
+      <c r="AA41" s="168"/>
+      <c r="AB41" s="168"/>
+      <c r="AC41" s="168"/>
+      <c r="AD41" s="168"/>
+      <c r="AE41" s="168"/>
+      <c r="AF41" s="169"/>
+      <c r="AG41" s="172"/>
+      <c r="AH41" s="173"/>
+      <c r="AI41" s="137"/>
+      <c r="AJ41" s="137"/>
+      <c r="AK41" s="137"/>
+      <c r="AL41" s="137"/>
       <c r="AM41" s="191"/>
-      <c r="AN41" s="192"/>
-      <c r="AO41" s="192"/>
-      <c r="AP41" s="192"/>
-      <c r="AQ41" s="192"/>
-      <c r="AR41" s="192"/>
-      <c r="AS41" s="192"/>
-      <c r="AT41" s="192"/>
-      <c r="AU41" s="192"/>
-      <c r="AV41" s="173"/>
-      <c r="AW41" s="156"/>
+      <c r="AN41" s="189"/>
+      <c r="AO41" s="189"/>
+      <c r="AP41" s="189"/>
+      <c r="AQ41" s="189"/>
+      <c r="AR41" s="189"/>
+      <c r="AS41" s="189"/>
+      <c r="AT41" s="189"/>
+      <c r="AU41" s="189"/>
+      <c r="AV41" s="172"/>
+      <c r="AW41" s="173"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="BD41" s="5"/>
       <c r="BE41" s="5"/>
       <c r="BF41" s="5"/>
       <c r="BG41" s="5"/>
       <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
     </row>
     <row r="42" spans="1:101" ht="12" customHeight="1">
-      <c r="B42" s="220"/>
-      <c r="C42" s="221"/>
-      <c r="D42" s="196" t="s">
-        <v>56</v>
+      <c r="B42" s="133"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="196" t="str">
+        <f>IF(K42="","","駐車場賃料")</f>
+        <v/>
       </c>
       <c r="E42" s="196"/>
       <c r="F42" s="196"/>
       <c r="G42" s="196"/>
-      <c r="H42" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="194" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="190"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="163" t="s">
-        <v>11</v>
-      </c>
-      <c r="S42" s="164"/>
+      <c r="H42" s="80" t="str">
+        <f>IF(K42="","",BB45)</f>
+        <v/>
+      </c>
+      <c r="I42" s="81"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="186" t="str">
+        <f>IF(BB45="月額（税込）",BC46,IF(BB45="月額",BB46,""))</f>
+        <v/>
+      </c>
+      <c r="L42" s="187"/>
+      <c r="M42" s="187"/>
+      <c r="N42" s="187"/>
+      <c r="O42" s="187"/>
+      <c r="P42" s="187"/>
+      <c r="Q42" s="187"/>
+      <c r="R42" s="170" t="str">
+        <f>IF(K42="","","円")</f>
+        <v/>
+      </c>
+      <c r="S42" s="171"/>
       <c r="T42" s="197" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="U42" s="198"/>
       <c r="V42" s="198"/>
       <c r="W42" s="198"/>
-      <c r="X42" s="181" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y42" s="182"/>
-      <c r="Z42" s="182"/>
-      <c r="AA42" s="182"/>
-      <c r="AB42" s="182"/>
-      <c r="AC42" s="182"/>
-      <c r="AD42" s="182"/>
-      <c r="AE42" s="182"/>
-      <c r="AF42" s="183"/>
-      <c r="AG42" s="187" t="s">
+      <c r="X42" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y42" s="165"/>
+      <c r="Z42" s="165"/>
+      <c r="AA42" s="165"/>
+      <c r="AB42" s="165"/>
+      <c r="AC42" s="165"/>
+      <c r="AD42" s="165"/>
+      <c r="AE42" s="165"/>
+      <c r="AF42" s="166"/>
+      <c r="AG42" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AH42" s="188"/>
-      <c r="AI42" s="161" t="str">
+      <c r="AH42" s="171"/>
+      <c r="AI42" s="137" t="str">
         <f>IF(OR(BB43="", BB43=0),"","その他費用")</f>
         <v>その他費用</v>
       </c>
-      <c r="AJ42" s="161"/>
-      <c r="AK42" s="161"/>
-      <c r="AL42" s="161"/>
-      <c r="AM42" s="193" t="str">
+      <c r="AJ42" s="137"/>
+      <c r="AK42" s="137"/>
+      <c r="AL42" s="137"/>
+      <c r="AM42" s="190" t="str">
         <f>IF(OR(BB43="", BB43=0),"",BB43)</f>
         <v>$otherExpenses$</v>
       </c>
-      <c r="AN42" s="190"/>
-      <c r="AO42" s="190"/>
-      <c r="AP42" s="190"/>
-      <c r="AQ42" s="190"/>
-      <c r="AR42" s="190"/>
-      <c r="AS42" s="190"/>
-      <c r="AT42" s="190"/>
-      <c r="AU42" s="190"/>
-      <c r="AV42" s="163" t="str">
+      <c r="AN42" s="187"/>
+      <c r="AO42" s="187"/>
+      <c r="AP42" s="187"/>
+      <c r="AQ42" s="187"/>
+      <c r="AR42" s="187"/>
+      <c r="AS42" s="187"/>
+      <c r="AT42" s="187"/>
+      <c r="AU42" s="187"/>
+      <c r="AV42" s="192" t="str">
         <f>IF(OR(BB43="", BB43=0),"","円")</f>
         <v>円</v>
       </c>
-      <c r="AW42" s="164"/>
+      <c r="AW42" s="193"/>
       <c r="AY42" s="7"/>
-      <c r="BB42" s="35"/>
-      <c r="BC42" s="35"/>
-      <c r="BD42" s="35"/>
-      <c r="BE42" s="35"/>
-      <c r="BF42" s="35"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
     </row>
     <row r="43" spans="1:101" ht="12" customHeight="1">
-      <c r="B43" s="220"/>
-      <c r="C43" s="221"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="196"/>
       <c r="E43" s="196"/>
       <c r="F43" s="196"/>
       <c r="G43" s="196"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="192"/>
-      <c r="O43" s="192"/>
-      <c r="P43" s="192"/>
-      <c r="Q43" s="192"/>
-      <c r="R43" s="166"/>
-      <c r="S43" s="167"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="188"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="189"/>
+      <c r="N43" s="189"/>
+      <c r="O43" s="189"/>
+      <c r="P43" s="189"/>
+      <c r="Q43" s="189"/>
+      <c r="R43" s="172"/>
+      <c r="S43" s="173"/>
       <c r="T43" s="198"/>
       <c r="U43" s="198"/>
       <c r="V43" s="198"/>
       <c r="W43" s="198"/>
-      <c r="X43" s="184"/>
-      <c r="Y43" s="185"/>
-      <c r="Z43" s="185"/>
-      <c r="AA43" s="185"/>
-      <c r="AB43" s="185"/>
-      <c r="AC43" s="185"/>
-      <c r="AD43" s="185"/>
-      <c r="AE43" s="185"/>
-      <c r="AF43" s="186"/>
-      <c r="AG43" s="173"/>
-      <c r="AH43" s="156"/>
-      <c r="AI43" s="161"/>
-      <c r="AJ43" s="161"/>
-      <c r="AK43" s="161"/>
-      <c r="AL43" s="161"/>
+      <c r="X43" s="167"/>
+      <c r="Y43" s="168"/>
+      <c r="Z43" s="168"/>
+      <c r="AA43" s="168"/>
+      <c r="AB43" s="168"/>
+      <c r="AC43" s="168"/>
+      <c r="AD43" s="168"/>
+      <c r="AE43" s="168"/>
+      <c r="AF43" s="169"/>
+      <c r="AG43" s="172"/>
+      <c r="AH43" s="173"/>
+      <c r="AI43" s="137"/>
+      <c r="AJ43" s="137"/>
+      <c r="AK43" s="137"/>
+      <c r="AL43" s="137"/>
       <c r="AM43" s="191"/>
-      <c r="AN43" s="192"/>
-      <c r="AO43" s="192"/>
-      <c r="AP43" s="192"/>
-      <c r="AQ43" s="192"/>
-      <c r="AR43" s="192"/>
-      <c r="AS43" s="192"/>
-      <c r="AT43" s="192"/>
-      <c r="AU43" s="192"/>
-      <c r="AV43" s="166"/>
-      <c r="AW43" s="167"/>
+      <c r="AN43" s="189"/>
+      <c r="AO43" s="189"/>
+      <c r="AP43" s="189"/>
+      <c r="AQ43" s="189"/>
+      <c r="AR43" s="189"/>
+      <c r="AS43" s="189"/>
+      <c r="AT43" s="189"/>
+      <c r="AU43" s="189"/>
+      <c r="AV43" s="194"/>
+      <c r="AW43" s="195"/>
       <c r="AY43" s="7"/>
       <c r="BB43" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="1:101" ht="12" customHeight="1">
-      <c r="B44" s="220"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="37" t="s">
+      <c r="B44" s="133"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="211" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="O44" s="61"/>
-      <c r="P44" s="37" t="s">
+      <c r="M44" s="207"/>
+      <c r="N44" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="209"/>
+      <c r="P44" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="S44" s="61"/>
-      <c r="T44" s="37" t="s">
+      <c r="Q44" s="207"/>
+      <c r="R44" s="209" t="s">
+        <v>63</v>
+      </c>
+      <c r="S44" s="209"/>
+      <c r="T44" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="175" t="s">
-        <v>34</v>
-      </c>
-      <c r="W44" s="175"/>
-      <c r="X44" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y44" s="58"/>
-      <c r="Z44" s="58"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="37" t="s">
+      <c r="U44" s="207"/>
+      <c r="V44" s="203" t="s">
+        <v>28</v>
+      </c>
+      <c r="W44" s="203"/>
+      <c r="X44" s="205" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y44" s="205"/>
+      <c r="Z44" s="205"/>
+      <c r="AA44" s="205"/>
+      <c r="AB44" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE44" s="61"/>
-      <c r="AF44" s="37" t="s">
+      <c r="AC44" s="207"/>
+      <c r="AD44" s="209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE44" s="209"/>
+      <c r="AF44" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
-      <c r="AM44" s="175" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN44" s="177" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO44" s="177"/>
-      <c r="AP44" s="177"/>
-      <c r="AQ44" s="177"/>
-      <c r="AR44" s="177"/>
-      <c r="AS44" s="177"/>
-      <c r="AT44" s="177"/>
-      <c r="AU44" s="177"/>
-      <c r="AV44" s="177"/>
-      <c r="AW44" s="179" t="s">
-        <v>37</v>
+      <c r="AG44" s="207"/>
+      <c r="AH44" s="209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI44" s="209"/>
+      <c r="AJ44" s="207" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK44" s="207"/>
+      <c r="AL44" s="207"/>
+      <c r="AM44" s="203" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN44" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO44" s="213"/>
+      <c r="AP44" s="213"/>
+      <c r="AQ44" s="213"/>
+      <c r="AR44" s="213"/>
+      <c r="AS44" s="213"/>
+      <c r="AT44" s="213"/>
+      <c r="AU44" s="213"/>
+      <c r="AV44" s="213"/>
+      <c r="AW44" s="215" t="s">
+        <v>31</v>
       </c>
       <c r="AX44" s="10"/>
       <c r="AY44" s="10"/>
       <c r="AZ44" s="10"/>
       <c r="BA44" s="10"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="10"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="10"/>
-      <c r="BI44" s="10"/>
-      <c r="BJ44" s="10"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
       <c r="BK44" s="10"/>
       <c r="BL44" s="10"/>
       <c r="BM44" s="10"/>
@@ -7718,63 +7707,65 @@
       <c r="CW44" s="10"/>
     </row>
     <row r="45" spans="1:101" ht="12" customHeight="1">
-      <c r="B45" s="220"/>
-      <c r="C45" s="221"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="176"/>
-      <c r="W45" s="176"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="62"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="176"/>
-      <c r="AN45" s="178"/>
-      <c r="AO45" s="178"/>
-      <c r="AP45" s="178"/>
-      <c r="AQ45" s="178"/>
-      <c r="AR45" s="178"/>
-      <c r="AS45" s="178"/>
-      <c r="AT45" s="178"/>
-      <c r="AU45" s="178"/>
-      <c r="AV45" s="178"/>
-      <c r="AW45" s="180"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="206"/>
+      <c r="J45" s="206"/>
+      <c r="K45" s="206"/>
+      <c r="L45" s="208"/>
+      <c r="M45" s="208"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="210"/>
+      <c r="P45" s="208"/>
+      <c r="Q45" s="208"/>
+      <c r="R45" s="210"/>
+      <c r="S45" s="210"/>
+      <c r="T45" s="208"/>
+      <c r="U45" s="208"/>
+      <c r="V45" s="204"/>
+      <c r="W45" s="204"/>
+      <c r="X45" s="206"/>
+      <c r="Y45" s="206"/>
+      <c r="Z45" s="206"/>
+      <c r="AA45" s="206"/>
+      <c r="AB45" s="208"/>
+      <c r="AC45" s="208"/>
+      <c r="AD45" s="210"/>
+      <c r="AE45" s="210"/>
+      <c r="AF45" s="208"/>
+      <c r="AG45" s="208"/>
+      <c r="AH45" s="210"/>
+      <c r="AI45" s="210"/>
+      <c r="AJ45" s="208"/>
+      <c r="AK45" s="208"/>
+      <c r="AL45" s="208"/>
+      <c r="AM45" s="204"/>
+      <c r="AN45" s="214"/>
+      <c r="AO45" s="214"/>
+      <c r="AP45" s="214"/>
+      <c r="AQ45" s="214"/>
+      <c r="AR45" s="214"/>
+      <c r="AS45" s="214"/>
+      <c r="AT45" s="214"/>
+      <c r="AU45" s="214"/>
+      <c r="AV45" s="214"/>
+      <c r="AW45" s="216"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
       <c r="BA45" s="10"/>
-      <c r="BB45" s="10"/>
+      <c r="BB45" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
-      <c r="BE45" s="168"/>
-      <c r="BF45" s="168"/>
+      <c r="BE45" s="199"/>
+      <c r="BF45" s="199"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
       <c r="BI45" s="10"/>
@@ -7821,74 +7812,70 @@
     </row>
     <row r="46" spans="1:101" ht="12" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="220"/>
-      <c r="C46" s="221"/>
-      <c r="D46" s="161" t="s">
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="169" t="s">
-        <v>100</v>
-      </c>
-      <c r="N46" s="169"/>
-      <c r="O46" s="169"/>
-      <c r="P46" s="169"/>
-      <c r="Q46" s="169"/>
-      <c r="R46" s="171" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="153"/>
-      <c r="T46" s="153"/>
-      <c r="U46" s="172"/>
-      <c r="V46" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC46" s="150"/>
-      <c r="AD46" s="150"/>
-      <c r="AE46" s="150"/>
-      <c r="AF46" s="150"/>
-      <c r="AG46" s="150"/>
-      <c r="AH46" s="150"/>
-      <c r="AI46" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ46" s="153"/>
-      <c r="AK46" s="153"/>
-      <c r="AL46" s="154"/>
-      <c r="AM46" s="157"/>
-      <c r="AN46" s="157"/>
-      <c r="AO46" s="157"/>
-      <c r="AP46" s="157"/>
-      <c r="AQ46" s="157"/>
-      <c r="AR46" s="157"/>
-      <c r="AS46" s="157"/>
-      <c r="AT46" s="157"/>
-      <c r="AU46" s="157"/>
-      <c r="AV46" s="157"/>
-      <c r="AW46" s="158"/>
+      <c r="S46" s="200"/>
+      <c r="T46" s="200"/>
+      <c r="U46" s="201"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="36"/>
+      <c r="Y46" s="36"/>
+      <c r="Z46" s="36"/>
+      <c r="AA46" s="36"/>
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+      <c r="AJ46" s="36"/>
+      <c r="AK46" s="36"/>
+      <c r="AL46" s="36"/>
+      <c r="AM46" s="36"/>
+      <c r="AN46" s="36"/>
+      <c r="AO46" s="36"/>
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="36"/>
+      <c r="AR46" s="36"/>
+      <c r="AS46" s="36"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
+      <c r="AV46" s="36"/>
+      <c r="AW46" s="37"/>
       <c r="AX46" s="10"/>
       <c r="AY46" s="10"/>
       <c r="AZ46" s="10"/>
       <c r="BA46" s="10"/>
-      <c r="BB46" s="10"/>
-      <c r="BC46" s="10"/>
+      <c r="BB46" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC46" s="10" t="s">
+        <v>135</v>
+      </c>
       <c r="BD46" s="10"/>
       <c r="BE46" s="10"/>
       <c r="BF46" s="10"/>
@@ -7937,54 +7924,54 @@
     </row>
     <row r="47" spans="1:101" ht="12" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="221"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="173"/>
-      <c r="S47" s="155"/>
-      <c r="T47" s="155"/>
-      <c r="U47" s="174"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="151"/>
-      <c r="AC47" s="152"/>
-      <c r="AD47" s="152"/>
-      <c r="AE47" s="152"/>
-      <c r="AF47" s="152"/>
-      <c r="AG47" s="152"/>
-      <c r="AH47" s="152"/>
-      <c r="AI47" s="155"/>
-      <c r="AJ47" s="155"/>
-      <c r="AK47" s="155"/>
-      <c r="AL47" s="156"/>
-      <c r="AM47" s="159"/>
-      <c r="AN47" s="159"/>
-      <c r="AO47" s="159"/>
-      <c r="AP47" s="159"/>
-      <c r="AQ47" s="159"/>
-      <c r="AR47" s="159"/>
-      <c r="AS47" s="159"/>
-      <c r="AT47" s="159"/>
-      <c r="AU47" s="159"/>
-      <c r="AV47" s="159"/>
-      <c r="AW47" s="160"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="202"/>
+      <c r="S47" s="202"/>
+      <c r="T47" s="202"/>
+      <c r="U47" s="173"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39"/>
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39"/>
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39"/>
+      <c r="AW47" s="40"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
@@ -8039,64 +8026,64 @@
     </row>
     <row r="48" spans="1:101" ht="12" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="221"/>
-      <c r="D48" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="162" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC48" s="163"/>
-      <c r="AD48" s="163"/>
-      <c r="AE48" s="163"/>
-      <c r="AF48" s="163"/>
-      <c r="AG48" s="163"/>
-      <c r="AH48" s="163"/>
-      <c r="AI48" s="163"/>
-      <c r="AJ48" s="163"/>
-      <c r="AK48" s="163"/>
-      <c r="AL48" s="163"/>
-      <c r="AM48" s="163"/>
-      <c r="AN48" s="163"/>
-      <c r="AO48" s="163"/>
-      <c r="AP48" s="163"/>
-      <c r="AQ48" s="163"/>
-      <c r="AR48" s="163"/>
-      <c r="AS48" s="163"/>
-      <c r="AT48" s="163"/>
-      <c r="AU48" s="163"/>
-      <c r="AV48" s="163"/>
-      <c r="AW48" s="164"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="137" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="226"/>
+      <c r="V48" s="228" t="s">
+        <v>44</v>
+      </c>
+      <c r="W48" s="229"/>
+      <c r="X48" s="229"/>
+      <c r="Y48" s="229"/>
+      <c r="Z48" s="229"/>
+      <c r="AA48" s="230"/>
+      <c r="AB48" s="231" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC48" s="192"/>
+      <c r="AD48" s="192"/>
+      <c r="AE48" s="192"/>
+      <c r="AF48" s="192"/>
+      <c r="AG48" s="192"/>
+      <c r="AH48" s="192"/>
+      <c r="AI48" s="192"/>
+      <c r="AJ48" s="192"/>
+      <c r="AK48" s="192"/>
+      <c r="AL48" s="192"/>
+      <c r="AM48" s="192"/>
+      <c r="AN48" s="192"/>
+      <c r="AO48" s="192"/>
+      <c r="AP48" s="192"/>
+      <c r="AQ48" s="192"/>
+      <c r="AR48" s="192"/>
+      <c r="AS48" s="192"/>
+      <c r="AT48" s="192"/>
+      <c r="AU48" s="192"/>
+      <c r="AV48" s="192"/>
+      <c r="AW48" s="193"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
@@ -8151,54 +8138,54 @@
     </row>
     <row r="49" spans="1:100" ht="12" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="222"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="165"/>
-      <c r="AC49" s="166"/>
-      <c r="AD49" s="166"/>
-      <c r="AE49" s="166"/>
-      <c r="AF49" s="166"/>
-      <c r="AG49" s="166"/>
-      <c r="AH49" s="166"/>
-      <c r="AI49" s="166"/>
-      <c r="AJ49" s="166"/>
-      <c r="AK49" s="166"/>
-      <c r="AL49" s="166"/>
-      <c r="AM49" s="166"/>
-      <c r="AN49" s="166"/>
-      <c r="AO49" s="166"/>
-      <c r="AP49" s="166"/>
-      <c r="AQ49" s="166"/>
-      <c r="AR49" s="166"/>
-      <c r="AS49" s="166"/>
-      <c r="AT49" s="166"/>
-      <c r="AU49" s="166"/>
-      <c r="AV49" s="166"/>
-      <c r="AW49" s="167"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="227"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="83"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="83"/>
+      <c r="Z49" s="83"/>
+      <c r="AA49" s="227"/>
+      <c r="AB49" s="232"/>
+      <c r="AC49" s="194"/>
+      <c r="AD49" s="194"/>
+      <c r="AE49" s="194"/>
+      <c r="AF49" s="194"/>
+      <c r="AG49" s="194"/>
+      <c r="AH49" s="194"/>
+      <c r="AI49" s="194"/>
+      <c r="AJ49" s="194"/>
+      <c r="AK49" s="194"/>
+      <c r="AL49" s="194"/>
+      <c r="AM49" s="194"/>
+      <c r="AN49" s="194"/>
+      <c r="AO49" s="194"/>
+      <c r="AP49" s="194"/>
+      <c r="AQ49" s="194"/>
+      <c r="AR49" s="194"/>
+      <c r="AS49" s="194"/>
+      <c r="AT49" s="194"/>
+      <c r="AU49" s="194"/>
+      <c r="AV49" s="194"/>
+      <c r="AW49" s="195"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -8456,221 +8443,221 @@
       <c r="CV51" s="10"/>
     </row>
     <row r="52" spans="1:100" ht="12" customHeight="1">
-      <c r="B52" s="116" t="s">
+      <c r="B52" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="125" t="s">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="M52" s="127"/>
-      <c r="N52" s="127"/>
-      <c r="O52" s="127"/>
-      <c r="P52" s="127"/>
-      <c r="Q52" s="127"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="127"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="127"/>
-      <c r="V52" s="127"/>
-      <c r="W52" s="127"/>
-      <c r="X52" s="127"/>
-      <c r="Y52" s="127"/>
-      <c r="Z52" s="127"/>
-      <c r="AA52" s="127"/>
-      <c r="AB52" s="127"/>
-      <c r="AC52" s="127"/>
-      <c r="AD52" s="127"/>
-      <c r="AE52" s="127"/>
-      <c r="AF52" s="127"/>
-      <c r="AG52" s="127"/>
-      <c r="AH52" s="128"/>
-      <c r="AI52" s="132" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ52" s="133"/>
-      <c r="AK52" s="133"/>
-      <c r="AL52" s="134"/>
-      <c r="AM52" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN52" s="139"/>
-      <c r="AO52" s="139"/>
-      <c r="AP52" s="139"/>
-      <c r="AQ52" s="139"/>
-      <c r="AR52" s="139"/>
-      <c r="AS52" s="139"/>
-      <c r="AT52" s="139"/>
-      <c r="AU52" s="139"/>
-      <c r="AV52" s="139"/>
-      <c r="AW52" s="140"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="M52" s="94"/>
+      <c r="N52" s="94"/>
+      <c r="O52" s="94"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
+      <c r="R52" s="94"/>
+      <c r="S52" s="94"/>
+      <c r="T52" s="94"/>
+      <c r="U52" s="94"/>
+      <c r="V52" s="94"/>
+      <c r="W52" s="94"/>
+      <c r="X52" s="94"/>
+      <c r="Y52" s="94"/>
+      <c r="Z52" s="94"/>
+      <c r="AA52" s="94"/>
+      <c r="AB52" s="94"/>
+      <c r="AC52" s="94"/>
+      <c r="AD52" s="94"/>
+      <c r="AE52" s="94"/>
+      <c r="AF52" s="94"/>
+      <c r="AG52" s="94"/>
+      <c r="AH52" s="116"/>
+      <c r="AI52" s="220" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="221"/>
+      <c r="AM52" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN52" s="107"/>
+      <c r="AO52" s="107"/>
+      <c r="AP52" s="107"/>
+      <c r="AQ52" s="107"/>
+      <c r="AR52" s="107"/>
+      <c r="AS52" s="107"/>
+      <c r="AT52" s="107"/>
+      <c r="AU52" s="107"/>
+      <c r="AV52" s="107"/>
+      <c r="AW52" s="224"/>
       <c r="AY52" s="7"/>
     </row>
     <row r="53" spans="1:100" ht="12" customHeight="1">
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="130"/>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
-      <c r="U53" s="130"/>
-      <c r="V53" s="130"/>
-      <c r="W53" s="130"/>
-      <c r="X53" s="130"/>
-      <c r="Y53" s="130"/>
-      <c r="Z53" s="130"/>
-      <c r="AA53" s="130"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="130"/>
-      <c r="AD53" s="130"/>
-      <c r="AE53" s="130"/>
-      <c r="AF53" s="130"/>
-      <c r="AG53" s="130"/>
-      <c r="AH53" s="131"/>
-      <c r="AI53" s="135"/>
-      <c r="AJ53" s="136"/>
-      <c r="AK53" s="136"/>
-      <c r="AL53" s="137"/>
-      <c r="AM53" s="141"/>
-      <c r="AN53" s="142"/>
-      <c r="AO53" s="142"/>
-      <c r="AP53" s="142"/>
-      <c r="AQ53" s="142"/>
-      <c r="AR53" s="142"/>
-      <c r="AS53" s="142"/>
-      <c r="AT53" s="142"/>
-      <c r="AU53" s="142"/>
-      <c r="AV53" s="142"/>
-      <c r="AW53" s="143"/>
+      <c r="B53" s="217"/>
+      <c r="C53" s="218"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="218"/>
+      <c r="G53" s="219"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="97"/>
+      <c r="N53" s="97"/>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="97"/>
+      <c r="S53" s="97"/>
+      <c r="T53" s="97"/>
+      <c r="U53" s="97"/>
+      <c r="V53" s="97"/>
+      <c r="W53" s="97"/>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="97"/>
+      <c r="Z53" s="97"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="97"/>
+      <c r="AG53" s="97"/>
+      <c r="AH53" s="117"/>
+      <c r="AI53" s="222"/>
+      <c r="AJ53" s="91"/>
+      <c r="AK53" s="91"/>
+      <c r="AL53" s="223"/>
+      <c r="AM53" s="108"/>
+      <c r="AN53" s="109"/>
+      <c r="AO53" s="109"/>
+      <c r="AP53" s="109"/>
+      <c r="AQ53" s="109"/>
+      <c r="AR53" s="109"/>
+      <c r="AS53" s="109"/>
+      <c r="AT53" s="109"/>
+      <c r="AU53" s="109"/>
+      <c r="AV53" s="109"/>
+      <c r="AW53" s="225"/>
       <c r="AY53" s="7"/>
     </row>
     <row r="54" spans="1:100" ht="12" customHeight="1">
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="125" t="s">
+      <c r="B54" s="217"/>
+      <c r="C54" s="218"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="218"/>
+      <c r="G54" s="219"/>
+      <c r="H54" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="144" t="s">
-        <v>115</v>
-      </c>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
-      <c r="O54" s="145"/>
-      <c r="P54" s="145"/>
-      <c r="Q54" s="145"/>
-      <c r="R54" s="145"/>
-      <c r="S54" s="145"/>
-      <c r="T54" s="145"/>
-      <c r="U54" s="145"/>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
-      <c r="Y54" s="145"/>
-      <c r="Z54" s="145"/>
-      <c r="AA54" s="145"/>
-      <c r="AB54" s="145"/>
-      <c r="AC54" s="145"/>
-      <c r="AD54" s="145"/>
-      <c r="AE54" s="145"/>
-      <c r="AF54" s="145"/>
-      <c r="AG54" s="145"/>
-      <c r="AH54" s="145"/>
-      <c r="AI54" s="145"/>
-      <c r="AJ54" s="145"/>
-      <c r="AK54" s="145"/>
-      <c r="AL54" s="145"/>
-      <c r="AM54" s="145"/>
-      <c r="AN54" s="145"/>
-      <c r="AO54" s="145"/>
-      <c r="AP54" s="145"/>
-      <c r="AQ54" s="145"/>
-      <c r="AR54" s="145"/>
-      <c r="AS54" s="145"/>
-      <c r="AT54" s="145"/>
-      <c r="AU54" s="145"/>
-      <c r="AV54" s="145"/>
-      <c r="AW54" s="146"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
+      <c r="U54" s="125"/>
+      <c r="V54" s="125"/>
+      <c r="W54" s="125"/>
+      <c r="X54" s="125"/>
+      <c r="Y54" s="125"/>
+      <c r="Z54" s="125"/>
+      <c r="AA54" s="125"/>
+      <c r="AB54" s="125"/>
+      <c r="AC54" s="125"/>
+      <c r="AD54" s="125"/>
+      <c r="AE54" s="125"/>
+      <c r="AF54" s="125"/>
+      <c r="AG54" s="125"/>
+      <c r="AH54" s="125"/>
+      <c r="AI54" s="125"/>
+      <c r="AJ54" s="125"/>
+      <c r="AK54" s="125"/>
+      <c r="AL54" s="125"/>
+      <c r="AM54" s="125"/>
+      <c r="AN54" s="125"/>
+      <c r="AO54" s="125"/>
+      <c r="AP54" s="125"/>
+      <c r="AQ54" s="125"/>
+      <c r="AR54" s="125"/>
+      <c r="AS54" s="125"/>
+      <c r="AT54" s="125"/>
+      <c r="AU54" s="125"/>
+      <c r="AV54" s="125"/>
+      <c r="AW54" s="130"/>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:100" ht="12" customHeight="1">
-      <c r="B55" s="122"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="130"/>
-      <c r="P55" s="130"/>
-      <c r="Q55" s="130"/>
-      <c r="R55" s="130"/>
-      <c r="S55" s="130"/>
-      <c r="T55" s="130"/>
-      <c r="U55" s="130"/>
-      <c r="V55" s="130"/>
-      <c r="W55" s="130"/>
-      <c r="X55" s="130"/>
-      <c r="Y55" s="130"/>
-      <c r="Z55" s="130"/>
-      <c r="AA55" s="130"/>
-      <c r="AB55" s="130"/>
-      <c r="AC55" s="130"/>
-      <c r="AD55" s="130"/>
-      <c r="AE55" s="130"/>
-      <c r="AF55" s="130"/>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="130"/>
-      <c r="AI55" s="130"/>
-      <c r="AJ55" s="130"/>
-      <c r="AK55" s="130"/>
-      <c r="AL55" s="130"/>
-      <c r="AM55" s="130"/>
-      <c r="AN55" s="130"/>
-      <c r="AO55" s="130"/>
-      <c r="AP55" s="130"/>
-      <c r="AQ55" s="130"/>
-      <c r="AR55" s="130"/>
-      <c r="AS55" s="130"/>
-      <c r="AT55" s="130"/>
-      <c r="AU55" s="130"/>
-      <c r="AV55" s="130"/>
-      <c r="AW55" s="148"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="97"/>
+      <c r="N55" s="97"/>
+      <c r="O55" s="97"/>
+      <c r="P55" s="97"/>
+      <c r="Q55" s="97"/>
+      <c r="R55" s="97"/>
+      <c r="S55" s="97"/>
+      <c r="T55" s="97"/>
+      <c r="U55" s="97"/>
+      <c r="V55" s="97"/>
+      <c r="W55" s="97"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="97"/>
+      <c r="AD55" s="97"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="97"/>
+      <c r="AG55" s="97"/>
+      <c r="AH55" s="97"/>
+      <c r="AI55" s="97"/>
+      <c r="AJ55" s="97"/>
+      <c r="AK55" s="97"/>
+      <c r="AL55" s="97"/>
+      <c r="AM55" s="97"/>
+      <c r="AN55" s="97"/>
+      <c r="AO55" s="97"/>
+      <c r="AP55" s="97"/>
+      <c r="AQ55" s="97"/>
+      <c r="AR55" s="97"/>
+      <c r="AS55" s="97"/>
+      <c r="AT55" s="97"/>
+      <c r="AU55" s="97"/>
+      <c r="AV55" s="97"/>
+      <c r="AW55" s="98"/>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:100" ht="12" customHeight="1">
@@ -8828,74 +8815,74 @@
     </row>
     <row r="58" spans="1:100" ht="12" customHeight="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="37" t="s">
+      <c r="B58" s="174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="175"/>
+      <c r="D58" s="175"/>
+      <c r="E58" s="175"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="211" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="O58" s="61"/>
-      <c r="P58" s="37" t="s">
+      <c r="M58" s="207"/>
+      <c r="N58" s="209" t="s">
+        <v>96</v>
+      </c>
+      <c r="O58" s="209"/>
+      <c r="P58" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="S58" s="61"/>
-      <c r="T58" s="37" t="s">
+      <c r="Q58" s="207"/>
+      <c r="R58" s="209" t="s">
+        <v>97</v>
+      </c>
+      <c r="S58" s="209"/>
+      <c r="T58" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="U58" s="37"/>
-      <c r="V58" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="37" t="s">
+      <c r="U58" s="207"/>
+      <c r="V58" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="W58" s="81"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="226"/>
+      <c r="AB58" s="211" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC58" s="205"/>
+      <c r="AD58" s="205"/>
+      <c r="AE58" s="205"/>
+      <c r="AF58" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AG58" s="37"/>
-      <c r="AH58" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI58" s="61"/>
-      <c r="AJ58" s="37" t="s">
+      <c r="AG58" s="207"/>
+      <c r="AH58" s="209" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI58" s="209"/>
+      <c r="AJ58" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AK58" s="37"/>
-      <c r="AL58" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM58" s="61"/>
-      <c r="AN58" s="37" t="s">
+      <c r="AK58" s="207"/>
+      <c r="AL58" s="209" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM58" s="209"/>
+      <c r="AN58" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="AO58" s="37"/>
+      <c r="AO58" s="207"/>
       <c r="AP58" s="31"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
@@ -8948,46 +8935,46 @@
     </row>
     <row r="59" spans="1:100" ht="12" customHeight="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="45"/>
-      <c r="W59" s="46"/>
-      <c r="X59" s="46"/>
-      <c r="Y59" s="46"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="47"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="60"/>
-      <c r="AD59" s="60"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38"/>
-      <c r="AH59" s="62"/>
-      <c r="AI59" s="62"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="62"/>
-      <c r="AM59" s="62"/>
-      <c r="AN59" s="38"/>
-      <c r="AO59" s="38"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="178"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="178"/>
+      <c r="G59" s="179"/>
+      <c r="H59" s="212"/>
+      <c r="I59" s="206"/>
+      <c r="J59" s="206"/>
+      <c r="K59" s="206"/>
+      <c r="L59" s="208"/>
+      <c r="M59" s="208"/>
+      <c r="N59" s="210"/>
+      <c r="O59" s="210"/>
+      <c r="P59" s="208"/>
+      <c r="Q59" s="208"/>
+      <c r="R59" s="210"/>
+      <c r="S59" s="210"/>
+      <c r="T59" s="208"/>
+      <c r="U59" s="208"/>
+      <c r="V59" s="82"/>
+      <c r="W59" s="83"/>
+      <c r="X59" s="83"/>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="227"/>
+      <c r="AB59" s="212"/>
+      <c r="AC59" s="206"/>
+      <c r="AD59" s="206"/>
+      <c r="AE59" s="206"/>
+      <c r="AF59" s="208"/>
+      <c r="AG59" s="208"/>
+      <c r="AH59" s="210"/>
+      <c r="AI59" s="210"/>
+      <c r="AJ59" s="208"/>
+      <c r="AK59" s="208"/>
+      <c r="AL59" s="210"/>
+      <c r="AM59" s="210"/>
+      <c r="AN59" s="208"/>
+      <c r="AO59" s="208"/>
       <c r="AP59" s="31"/>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="10"/>
@@ -9040,74 +9027,74 @@
     </row>
     <row r="60" spans="1:100" ht="12" customHeight="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="37" t="s">
+      <c r="B60" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="175"/>
+      <c r="D60" s="175"/>
+      <c r="E60" s="175"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="211" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="205"/>
+      <c r="J60" s="205"/>
+      <c r="K60" s="205"/>
+      <c r="L60" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="O60" s="61"/>
-      <c r="P60" s="37" t="s">
+      <c r="M60" s="207"/>
+      <c r="N60" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="209"/>
+      <c r="P60" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="S60" s="61"/>
-      <c r="T60" s="37" t="s">
+      <c r="Q60" s="207"/>
+      <c r="R60" s="209" t="s">
+        <v>69</v>
+      </c>
+      <c r="S60" s="209"/>
+      <c r="T60" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="37" t="s">
+      <c r="U60" s="207"/>
+      <c r="V60" s="207" t="s">
+        <v>49</v>
+      </c>
+      <c r="W60" s="207"/>
+      <c r="X60" s="207"/>
+      <c r="Y60" s="207"/>
+      <c r="Z60" s="207"/>
+      <c r="AA60" s="207"/>
+      <c r="AB60" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC60" s="205"/>
+      <c r="AD60" s="205"/>
+      <c r="AE60" s="205"/>
+      <c r="AF60" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AG60" s="37"/>
-      <c r="AH60" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI60" s="61"/>
-      <c r="AJ60" s="37" t="s">
+      <c r="AG60" s="207"/>
+      <c r="AH60" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI60" s="209"/>
+      <c r="AJ60" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AK60" s="37"/>
-      <c r="AL60" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM60" s="61"/>
-      <c r="AN60" s="37" t="s">
+      <c r="AK60" s="207"/>
+      <c r="AL60" s="209" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM60" s="209"/>
+      <c r="AN60" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="AO60" s="37"/>
+      <c r="AO60" s="207"/>
       <c r="AP60" s="31"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -9160,46 +9147,46 @@
     </row>
     <row r="61" spans="1:100" ht="12" customHeight="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
-      <c r="AF61" s="38"/>
-      <c r="AG61" s="38"/>
-      <c r="AH61" s="62"/>
-      <c r="AI61" s="62"/>
-      <c r="AJ61" s="38"/>
-      <c r="AK61" s="38"/>
-      <c r="AL61" s="62"/>
-      <c r="AM61" s="62"/>
-      <c r="AN61" s="38"/>
-      <c r="AO61" s="38"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="178"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="178"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="212"/>
+      <c r="I61" s="206"/>
+      <c r="J61" s="206"/>
+      <c r="K61" s="206"/>
+      <c r="L61" s="208"/>
+      <c r="M61" s="208"/>
+      <c r="N61" s="210"/>
+      <c r="O61" s="210"/>
+      <c r="P61" s="208"/>
+      <c r="Q61" s="208"/>
+      <c r="R61" s="210"/>
+      <c r="S61" s="210"/>
+      <c r="T61" s="208"/>
+      <c r="U61" s="208"/>
+      <c r="V61" s="208"/>
+      <c r="W61" s="208"/>
+      <c r="X61" s="208"/>
+      <c r="Y61" s="208"/>
+      <c r="Z61" s="208"/>
+      <c r="AA61" s="208"/>
+      <c r="AB61" s="206"/>
+      <c r="AC61" s="206"/>
+      <c r="AD61" s="206"/>
+      <c r="AE61" s="206"/>
+      <c r="AF61" s="208"/>
+      <c r="AG61" s="208"/>
+      <c r="AH61" s="210"/>
+      <c r="AI61" s="210"/>
+      <c r="AJ61" s="208"/>
+      <c r="AK61" s="208"/>
+      <c r="AL61" s="210"/>
+      <c r="AM61" s="210"/>
+      <c r="AN61" s="208"/>
+      <c r="AO61" s="208"/>
       <c r="AP61" s="31"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -9319,68 +9306,68 @@
     </row>
     <row r="63" spans="1:100" ht="12" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
-      <c r="G63" s="115"/>
-      <c r="H63" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I63" s="40"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="92"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="92"/>
-      <c r="S63" s="93"/>
-      <c r="T63" s="97" t="s">
+      <c r="B63" s="234" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="235"/>
+      <c r="D63" s="235"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="81"/>
+      <c r="J63" s="184"/>
+      <c r="K63" s="240" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" s="241"/>
+      <c r="M63" s="241"/>
+      <c r="N63" s="241"/>
+      <c r="O63" s="241"/>
+      <c r="P63" s="241"/>
+      <c r="Q63" s="241"/>
+      <c r="R63" s="241"/>
+      <c r="S63" s="242"/>
+      <c r="T63" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="U63" s="98"/>
-      <c r="V63" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
-      <c r="AA63" s="41"/>
-      <c r="AB63" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC63" s="58"/>
-      <c r="AD63" s="58"/>
-      <c r="AE63" s="58"/>
-      <c r="AF63" s="37" t="s">
+      <c r="U63" s="247"/>
+      <c r="V63" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="W63" s="81"/>
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="226"/>
+      <c r="AB63" s="211" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC63" s="205"/>
+      <c r="AD63" s="205"/>
+      <c r="AE63" s="205"/>
+      <c r="AF63" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AG63" s="37"/>
-      <c r="AH63" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI63" s="61"/>
-      <c r="AJ63" s="37" t="s">
+      <c r="AG63" s="207"/>
+      <c r="AH63" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI63" s="209"/>
+      <c r="AJ63" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AK63" s="37"/>
-      <c r="AL63" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM63" s="61"/>
-      <c r="AN63" s="37" t="s">
+      <c r="AK63" s="207"/>
+      <c r="AL63" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM63" s="209"/>
+      <c r="AN63" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="AO63" s="37"/>
+      <c r="AO63" s="207"/>
       <c r="AP63" s="31"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -9413,46 +9400,46 @@
     </row>
     <row r="64" spans="1:100" ht="12" customHeight="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="94"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="100"/>
-      <c r="V64" s="45"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="47"/>
-      <c r="AB64" s="59"/>
-      <c r="AC64" s="60"/>
-      <c r="AD64" s="60"/>
-      <c r="AE64" s="60"/>
-      <c r="AF64" s="38"/>
-      <c r="AG64" s="38"/>
-      <c r="AH64" s="62"/>
-      <c r="AI64" s="62"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="38"/>
-      <c r="AL64" s="62"/>
-      <c r="AM64" s="62"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="38"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="238"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
+      <c r="G64" s="239"/>
+      <c r="H64" s="82"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="185"/>
+      <c r="K64" s="243"/>
+      <c r="L64" s="244"/>
+      <c r="M64" s="244"/>
+      <c r="N64" s="244"/>
+      <c r="O64" s="244"/>
+      <c r="P64" s="244"/>
+      <c r="Q64" s="244"/>
+      <c r="R64" s="244"/>
+      <c r="S64" s="245"/>
+      <c r="T64" s="248"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="82"/>
+      <c r="W64" s="83"/>
+      <c r="X64" s="83"/>
+      <c r="Y64" s="83"/>
+      <c r="Z64" s="83"/>
+      <c r="AA64" s="227"/>
+      <c r="AB64" s="212"/>
+      <c r="AC64" s="206"/>
+      <c r="AD64" s="206"/>
+      <c r="AE64" s="206"/>
+      <c r="AF64" s="208"/>
+      <c r="AG64" s="208"/>
+      <c r="AH64" s="210"/>
+      <c r="AI64" s="210"/>
+      <c r="AJ64" s="208"/>
+      <c r="AK64" s="208"/>
+      <c r="AL64" s="210"/>
+      <c r="AM64" s="210"/>
+      <c r="AN64" s="208"/>
+      <c r="AO64" s="208"/>
       <c r="AP64" s="31"/>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="10"/>
@@ -9485,66 +9472,66 @@
     </row>
     <row r="65" spans="1:98" ht="12" customHeight="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="43"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="109"/>
-      <c r="S65" s="110"/>
-      <c r="T65" s="111" t="s">
+      <c r="B65" s="270"/>
+      <c r="C65" s="271"/>
+      <c r="D65" s="271"/>
+      <c r="E65" s="271"/>
+      <c r="F65" s="271"/>
+      <c r="G65" s="272"/>
+      <c r="H65" s="228" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="229"/>
+      <c r="J65" s="273"/>
+      <c r="K65" s="274" t="s">
+        <v>101</v>
+      </c>
+      <c r="L65" s="275"/>
+      <c r="M65" s="275"/>
+      <c r="N65" s="275"/>
+      <c r="O65" s="275"/>
+      <c r="P65" s="275"/>
+      <c r="Q65" s="275"/>
+      <c r="R65" s="275"/>
+      <c r="S65" s="276"/>
+      <c r="T65" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="112"/>
-      <c r="V65" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC65" s="58"/>
-      <c r="AD65" s="58"/>
-      <c r="AE65" s="58"/>
-      <c r="AF65" s="37" t="s">
+      <c r="U65" s="278"/>
+      <c r="V65" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="W65" s="81"/>
+      <c r="X65" s="81"/>
+      <c r="Y65" s="81"/>
+      <c r="Z65" s="81"/>
+      <c r="AA65" s="226"/>
+      <c r="AB65" s="211" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC65" s="205"/>
+      <c r="AD65" s="205"/>
+      <c r="AE65" s="205"/>
+      <c r="AF65" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AG65" s="37"/>
-      <c r="AH65" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI65" s="61"/>
-      <c r="AJ65" s="37" t="s">
+      <c r="AG65" s="207"/>
+      <c r="AH65" s="209" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI65" s="209"/>
+      <c r="AJ65" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AK65" s="37"/>
-      <c r="AL65" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM65" s="61"/>
-      <c r="AN65" s="37" t="s">
+      <c r="AK65" s="207"/>
+      <c r="AL65" s="209" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM65" s="209"/>
+      <c r="AN65" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="AO65" s="37"/>
+      <c r="AO65" s="207"/>
       <c r="AP65" s="31"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -9577,46 +9564,46 @@
     </row>
     <row r="66" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="90"/>
-      <c r="K66" s="94"/>
-      <c r="L66" s="95"/>
-      <c r="M66" s="95"/>
-      <c r="N66" s="95"/>
-      <c r="O66" s="95"/>
-      <c r="P66" s="95"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="100"/>
-      <c r="V66" s="45"/>
-      <c r="W66" s="46"/>
-      <c r="X66" s="46"/>
-      <c r="Y66" s="46"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="47"/>
-      <c r="AB66" s="59"/>
-      <c r="AC66" s="60"/>
-      <c r="AD66" s="60"/>
-      <c r="AE66" s="60"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38"/>
-      <c r="AH66" s="62"/>
-      <c r="AI66" s="62"/>
-      <c r="AJ66" s="38"/>
-      <c r="AK66" s="38"/>
-      <c r="AL66" s="62"/>
-      <c r="AM66" s="62"/>
-      <c r="AN66" s="38"/>
-      <c r="AO66" s="38"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="238"/>
+      <c r="D66" s="238"/>
+      <c r="E66" s="238"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="239"/>
+      <c r="H66" s="82"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="185"/>
+      <c r="K66" s="243"/>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="244"/>
+      <c r="R66" s="244"/>
+      <c r="S66" s="245"/>
+      <c r="T66" s="248"/>
+      <c r="U66" s="249"/>
+      <c r="V66" s="82"/>
+      <c r="W66" s="83"/>
+      <c r="X66" s="83"/>
+      <c r="Y66" s="83"/>
+      <c r="Z66" s="83"/>
+      <c r="AA66" s="227"/>
+      <c r="AB66" s="212"/>
+      <c r="AC66" s="206"/>
+      <c r="AD66" s="206"/>
+      <c r="AE66" s="206"/>
+      <c r="AF66" s="208"/>
+      <c r="AG66" s="208"/>
+      <c r="AH66" s="210"/>
+      <c r="AI66" s="210"/>
+      <c r="AJ66" s="208"/>
+      <c r="AK66" s="208"/>
+      <c r="AL66" s="210"/>
+      <c r="AM66" s="210"/>
+      <c r="AN66" s="208"/>
+      <c r="AO66" s="208"/>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -9649,34 +9636,34 @@
     </row>
     <row r="67" spans="1:98" ht="12" customHeight="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="68"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="74"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="79" t="s">
+      <c r="B67" s="250" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="251"/>
+      <c r="D67" s="251"/>
+      <c r="E67" s="251"/>
+      <c r="F67" s="251"/>
+      <c r="G67" s="251"/>
+      <c r="H67" s="254" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="255"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="260" t="s">
+        <v>105</v>
+      </c>
+      <c r="L67" s="261"/>
+      <c r="M67" s="261"/>
+      <c r="N67" s="261"/>
+      <c r="O67" s="261"/>
+      <c r="P67" s="261"/>
+      <c r="Q67" s="261"/>
+      <c r="R67" s="261"/>
+      <c r="S67" s="262"/>
+      <c r="T67" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="U67" s="80"/>
+      <c r="U67" s="267"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
@@ -9710,26 +9697,26 @@
     </row>
     <row r="68" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="77"/>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77"/>
-      <c r="P68" s="77"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="77"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="81"/>
-      <c r="U68" s="82"/>
+      <c r="B68" s="252"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="253"/>
+      <c r="F68" s="253"/>
+      <c r="G68" s="253"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="258"/>
+      <c r="J68" s="259"/>
+      <c r="K68" s="263"/>
+      <c r="L68" s="264"/>
+      <c r="M68" s="264"/>
+      <c r="N68" s="264"/>
+      <c r="O68" s="264"/>
+      <c r="P68" s="264"/>
+      <c r="Q68" s="264"/>
+      <c r="R68" s="264"/>
+      <c r="S68" s="265"/>
+      <c r="T68" s="268"/>
+      <c r="U68" s="269"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="10"/>
@@ -9830,68 +9817,68 @@
     </row>
     <row r="70" spans="1:98" ht="12" customHeight="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I70" s="40"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
-      <c r="P70" s="92"/>
-      <c r="Q70" s="92"/>
-      <c r="R70" s="92"/>
-      <c r="S70" s="93"/>
-      <c r="T70" s="97" t="s">
+      <c r="B70" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="175"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="176"/>
+      <c r="H70" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="81"/>
+      <c r="J70" s="184"/>
+      <c r="K70" s="240" t="s">
+        <v>77</v>
+      </c>
+      <c r="L70" s="241"/>
+      <c r="M70" s="241"/>
+      <c r="N70" s="241"/>
+      <c r="O70" s="241"/>
+      <c r="P70" s="241"/>
+      <c r="Q70" s="241"/>
+      <c r="R70" s="241"/>
+      <c r="S70" s="242"/>
+      <c r="T70" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="U70" s="98"/>
-      <c r="V70" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="41"/>
-      <c r="AB70" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC70" s="58"/>
-      <c r="AD70" s="58"/>
-      <c r="AE70" s="58"/>
-      <c r="AF70" s="37" t="s">
+      <c r="U70" s="247"/>
+      <c r="V70" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="W70" s="81"/>
+      <c r="X70" s="81"/>
+      <c r="Y70" s="81"/>
+      <c r="Z70" s="81"/>
+      <c r="AA70" s="226"/>
+      <c r="AB70" s="211" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC70" s="205"/>
+      <c r="AD70" s="205"/>
+      <c r="AE70" s="205"/>
+      <c r="AF70" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="AG70" s="37"/>
-      <c r="AH70" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI70" s="61"/>
-      <c r="AJ70" s="37" t="s">
+      <c r="AG70" s="207"/>
+      <c r="AH70" s="209" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI70" s="209"/>
+      <c r="AJ70" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="AK70" s="37"/>
-      <c r="AL70" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM70" s="61"/>
-      <c r="AN70" s="37" t="s">
+      <c r="AK70" s="207"/>
+      <c r="AL70" s="209" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM70" s="209"/>
+      <c r="AN70" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="AO70" s="37"/>
+      <c r="AO70" s="207"/>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="15"/>
       <c r="AR70" s="10"/>
@@ -9946,46 +9933,46 @@
     </row>
     <row r="71" spans="1:98" ht="12" customHeight="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="90"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
-      <c r="N71" s="95"/>
-      <c r="O71" s="95"/>
-      <c r="P71" s="95"/>
-      <c r="Q71" s="95"/>
-      <c r="R71" s="95"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="99"/>
-      <c r="U71" s="100"/>
-      <c r="V71" s="45"/>
-      <c r="W71" s="46"/>
-      <c r="X71" s="46"/>
-      <c r="Y71" s="46"/>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="60"/>
-      <c r="AD71" s="60"/>
-      <c r="AE71" s="60"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="38"/>
-      <c r="AH71" s="62"/>
-      <c r="AI71" s="62"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="62"/>
-      <c r="AM71" s="62"/>
-      <c r="AN71" s="38"/>
-      <c r="AO71" s="38"/>
+      <c r="B71" s="177"/>
+      <c r="C71" s="178"/>
+      <c r="D71" s="178"/>
+      <c r="E71" s="178"/>
+      <c r="F71" s="178"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="185"/>
+      <c r="K71" s="243"/>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
+      <c r="P71" s="244"/>
+      <c r="Q71" s="244"/>
+      <c r="R71" s="244"/>
+      <c r="S71" s="245"/>
+      <c r="T71" s="248"/>
+      <c r="U71" s="249"/>
+      <c r="V71" s="82"/>
+      <c r="W71" s="83"/>
+      <c r="X71" s="83"/>
+      <c r="Y71" s="83"/>
+      <c r="Z71" s="83"/>
+      <c r="AA71" s="227"/>
+      <c r="AB71" s="212"/>
+      <c r="AC71" s="206"/>
+      <c r="AD71" s="206"/>
+      <c r="AE71" s="206"/>
+      <c r="AF71" s="208"/>
+      <c r="AG71" s="208"/>
+      <c r="AH71" s="210"/>
+      <c r="AI71" s="210"/>
+      <c r="AJ71" s="208"/>
+      <c r="AK71" s="208"/>
+      <c r="AL71" s="210"/>
+      <c r="AM71" s="210"/>
+      <c r="AN71" s="208"/>
+      <c r="AO71" s="208"/>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="15"/>
       <c r="AR71" s="10"/>
@@ -10139,375 +10126,375 @@
       <c r="CT72" s="10"/>
     </row>
     <row r="73" spans="1:98" ht="12" customHeight="1">
-      <c r="B73" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="49"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="49"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="49"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="49"/>
-      <c r="X73" s="49"/>
-      <c r="Y73" s="49"/>
-      <c r="Z73" s="49"/>
-      <c r="AA73" s="49"/>
-      <c r="AB73" s="49"/>
-      <c r="AC73" s="49"/>
-      <c r="AD73" s="49"/>
-      <c r="AE73" s="49"/>
-      <c r="AF73" s="49"/>
-      <c r="AG73" s="49"/>
-      <c r="AH73" s="49"/>
-      <c r="AI73" s="49"/>
-      <c r="AJ73" s="49"/>
-      <c r="AK73" s="49"/>
-      <c r="AL73" s="49"/>
-      <c r="AM73" s="49"/>
-      <c r="AN73" s="49"/>
-      <c r="AO73" s="49"/>
-      <c r="AP73" s="49"/>
-      <c r="AQ73" s="49"/>
-      <c r="AR73" s="49"/>
-      <c r="AS73" s="49"/>
-      <c r="AT73" s="49"/>
-      <c r="AU73" s="49"/>
-      <c r="AV73" s="49"/>
-      <c r="AW73" s="50"/>
+      <c r="B73" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="226"/>
+      <c r="H73" s="279" t="s">
+        <v>130</v>
+      </c>
+      <c r="I73" s="280"/>
+      <c r="J73" s="280"/>
+      <c r="K73" s="280"/>
+      <c r="L73" s="280"/>
+      <c r="M73" s="280"/>
+      <c r="N73" s="280"/>
+      <c r="O73" s="280"/>
+      <c r="P73" s="280"/>
+      <c r="Q73" s="280"/>
+      <c r="R73" s="280"/>
+      <c r="S73" s="280"/>
+      <c r="T73" s="280"/>
+      <c r="U73" s="280"/>
+      <c r="V73" s="280"/>
+      <c r="W73" s="280"/>
+      <c r="X73" s="280"/>
+      <c r="Y73" s="280"/>
+      <c r="Z73" s="280"/>
+      <c r="AA73" s="280"/>
+      <c r="AB73" s="280"/>
+      <c r="AC73" s="280"/>
+      <c r="AD73" s="280"/>
+      <c r="AE73" s="280"/>
+      <c r="AF73" s="280"/>
+      <c r="AG73" s="280"/>
+      <c r="AH73" s="280"/>
+      <c r="AI73" s="280"/>
+      <c r="AJ73" s="280"/>
+      <c r="AK73" s="280"/>
+      <c r="AL73" s="280"/>
+      <c r="AM73" s="280"/>
+      <c r="AN73" s="280"/>
+      <c r="AO73" s="280"/>
+      <c r="AP73" s="280"/>
+      <c r="AQ73" s="280"/>
+      <c r="AR73" s="280"/>
+      <c r="AS73" s="280"/>
+      <c r="AT73" s="280"/>
+      <c r="AU73" s="280"/>
+      <c r="AV73" s="280"/>
+      <c r="AW73" s="281"/>
       <c r="AX73" s="10"/>
       <c r="AY73" s="10"/>
       <c r="AZ73" s="10"/>
     </row>
     <row r="74" spans="1:98" ht="12" customHeight="1">
-      <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
-      <c r="X74" s="52"/>
-      <c r="Y74" s="52"/>
-      <c r="Z74" s="52"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-      <c r="AF74" s="52"/>
-      <c r="AG74" s="52"/>
-      <c r="AH74" s="52"/>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="52"/>
-      <c r="AM74" s="52"/>
-      <c r="AN74" s="52"/>
-      <c r="AO74" s="52"/>
-      <c r="AP74" s="52"/>
-      <c r="AQ74" s="52"/>
-      <c r="AR74" s="52"/>
-      <c r="AS74" s="52"/>
-      <c r="AT74" s="52"/>
-      <c r="AU74" s="52"/>
-      <c r="AV74" s="52"/>
-      <c r="AW74" s="53"/>
+      <c r="B74" s="228"/>
+      <c r="C74" s="229"/>
+      <c r="D74" s="229"/>
+      <c r="E74" s="229"/>
+      <c r="F74" s="229"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="282"/>
+      <c r="I74" s="283"/>
+      <c r="J74" s="283"/>
+      <c r="K74" s="283"/>
+      <c r="L74" s="283"/>
+      <c r="M74" s="283"/>
+      <c r="N74" s="283"/>
+      <c r="O74" s="283"/>
+      <c r="P74" s="283"/>
+      <c r="Q74" s="283"/>
+      <c r="R74" s="283"/>
+      <c r="S74" s="283"/>
+      <c r="T74" s="283"/>
+      <c r="U74" s="283"/>
+      <c r="V74" s="283"/>
+      <c r="W74" s="283"/>
+      <c r="X74" s="283"/>
+      <c r="Y74" s="283"/>
+      <c r="Z74" s="283"/>
+      <c r="AA74" s="283"/>
+      <c r="AB74" s="283"/>
+      <c r="AC74" s="283"/>
+      <c r="AD74" s="283"/>
+      <c r="AE74" s="283"/>
+      <c r="AF74" s="283"/>
+      <c r="AG74" s="283"/>
+      <c r="AH74" s="283"/>
+      <c r="AI74" s="283"/>
+      <c r="AJ74" s="283"/>
+      <c r="AK74" s="283"/>
+      <c r="AL74" s="283"/>
+      <c r="AM74" s="283"/>
+      <c r="AN74" s="283"/>
+      <c r="AO74" s="283"/>
+      <c r="AP74" s="283"/>
+      <c r="AQ74" s="283"/>
+      <c r="AR74" s="283"/>
+      <c r="AS74" s="283"/>
+      <c r="AT74" s="283"/>
+      <c r="AU74" s="283"/>
+      <c r="AV74" s="283"/>
+      <c r="AW74" s="284"/>
       <c r="AX74" s="10"/>
       <c r="AY74" s="10"/>
       <c r="AZ74" s="10"/>
     </row>
     <row r="75" spans="1:98" ht="12" customHeight="1">
-      <c r="B75" s="42"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-      <c r="AF75" s="52"/>
-      <c r="AG75" s="52"/>
-      <c r="AH75" s="52"/>
-      <c r="AI75" s="52"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="52"/>
-      <c r="AL75" s="52"/>
-      <c r="AM75" s="52"/>
-      <c r="AN75" s="52"/>
-      <c r="AO75" s="52"/>
-      <c r="AP75" s="52"/>
-      <c r="AQ75" s="52"/>
-      <c r="AR75" s="52"/>
-      <c r="AS75" s="52"/>
-      <c r="AT75" s="52"/>
-      <c r="AU75" s="52"/>
-      <c r="AV75" s="52"/>
-      <c r="AW75" s="53"/>
+      <c r="B75" s="228"/>
+      <c r="C75" s="229"/>
+      <c r="D75" s="229"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="229"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="282"/>
+      <c r="I75" s="283"/>
+      <c r="J75" s="283"/>
+      <c r="K75" s="283"/>
+      <c r="L75" s="283"/>
+      <c r="M75" s="283"/>
+      <c r="N75" s="283"/>
+      <c r="O75" s="283"/>
+      <c r="P75" s="283"/>
+      <c r="Q75" s="283"/>
+      <c r="R75" s="283"/>
+      <c r="S75" s="283"/>
+      <c r="T75" s="283"/>
+      <c r="U75" s="283"/>
+      <c r="V75" s="283"/>
+      <c r="W75" s="283"/>
+      <c r="X75" s="283"/>
+      <c r="Y75" s="283"/>
+      <c r="Z75" s="283"/>
+      <c r="AA75" s="283"/>
+      <c r="AB75" s="283"/>
+      <c r="AC75" s="283"/>
+      <c r="AD75" s="283"/>
+      <c r="AE75" s="283"/>
+      <c r="AF75" s="283"/>
+      <c r="AG75" s="283"/>
+      <c r="AH75" s="283"/>
+      <c r="AI75" s="283"/>
+      <c r="AJ75" s="283"/>
+      <c r="AK75" s="283"/>
+      <c r="AL75" s="283"/>
+      <c r="AM75" s="283"/>
+      <c r="AN75" s="283"/>
+      <c r="AO75" s="283"/>
+      <c r="AP75" s="283"/>
+      <c r="AQ75" s="283"/>
+      <c r="AR75" s="283"/>
+      <c r="AS75" s="283"/>
+      <c r="AT75" s="283"/>
+      <c r="AU75" s="283"/>
+      <c r="AV75" s="283"/>
+      <c r="AW75" s="284"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
       <c r="AZ75" s="10"/>
     </row>
     <row r="76" spans="1:98" ht="12" customHeight="1">
-      <c r="B76" s="42"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="52"/>
-      <c r="X76" s="52"/>
-      <c r="Y76" s="52"/>
-      <c r="Z76" s="52"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-      <c r="AC76" s="52"/>
-      <c r="AD76" s="52"/>
-      <c r="AE76" s="52"/>
-      <c r="AF76" s="52"/>
-      <c r="AG76" s="52"/>
-      <c r="AH76" s="52"/>
-      <c r="AI76" s="52"/>
-      <c r="AJ76" s="52"/>
-      <c r="AK76" s="52"/>
-      <c r="AL76" s="52"/>
-      <c r="AM76" s="52"/>
-      <c r="AN76" s="52"/>
-      <c r="AO76" s="52"/>
-      <c r="AP76" s="52"/>
-      <c r="AQ76" s="52"/>
-      <c r="AR76" s="52"/>
-      <c r="AS76" s="52"/>
-      <c r="AT76" s="52"/>
-      <c r="AU76" s="52"/>
-      <c r="AV76" s="52"/>
-      <c r="AW76" s="53"/>
+      <c r="B76" s="228"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="229"/>
+      <c r="F76" s="229"/>
+      <c r="G76" s="230"/>
+      <c r="H76" s="282"/>
+      <c r="I76" s="283"/>
+      <c r="J76" s="283"/>
+      <c r="K76" s="283"/>
+      <c r="L76" s="283"/>
+      <c r="M76" s="283"/>
+      <c r="N76" s="283"/>
+      <c r="O76" s="283"/>
+      <c r="P76" s="283"/>
+      <c r="Q76" s="283"/>
+      <c r="R76" s="283"/>
+      <c r="S76" s="283"/>
+      <c r="T76" s="283"/>
+      <c r="U76" s="283"/>
+      <c r="V76" s="283"/>
+      <c r="W76" s="283"/>
+      <c r="X76" s="283"/>
+      <c r="Y76" s="283"/>
+      <c r="Z76" s="283"/>
+      <c r="AA76" s="283"/>
+      <c r="AB76" s="283"/>
+      <c r="AC76" s="283"/>
+      <c r="AD76" s="283"/>
+      <c r="AE76" s="283"/>
+      <c r="AF76" s="283"/>
+      <c r="AG76" s="283"/>
+      <c r="AH76" s="283"/>
+      <c r="AI76" s="283"/>
+      <c r="AJ76" s="283"/>
+      <c r="AK76" s="283"/>
+      <c r="AL76" s="283"/>
+      <c r="AM76" s="283"/>
+      <c r="AN76" s="283"/>
+      <c r="AO76" s="283"/>
+      <c r="AP76" s="283"/>
+      <c r="AQ76" s="283"/>
+      <c r="AR76" s="283"/>
+      <c r="AS76" s="283"/>
+      <c r="AT76" s="283"/>
+      <c r="AU76" s="283"/>
+      <c r="AV76" s="283"/>
+      <c r="AW76" s="284"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
     </row>
     <row r="77" spans="1:98" ht="12" customHeight="1">
-      <c r="B77" s="42"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="52"/>
-      <c r="AH77" s="52"/>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="52"/>
-      <c r="AO77" s="52"/>
-      <c r="AP77" s="52"/>
-      <c r="AQ77" s="52"/>
-      <c r="AR77" s="52"/>
-      <c r="AS77" s="52"/>
-      <c r="AT77" s="52"/>
-      <c r="AU77" s="52"/>
-      <c r="AV77" s="52"/>
-      <c r="AW77" s="53"/>
+      <c r="B77" s="228"/>
+      <c r="C77" s="229"/>
+      <c r="D77" s="229"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="229"/>
+      <c r="G77" s="230"/>
+      <c r="H77" s="282"/>
+      <c r="I77" s="283"/>
+      <c r="J77" s="283"/>
+      <c r="K77" s="283"/>
+      <c r="L77" s="283"/>
+      <c r="M77" s="283"/>
+      <c r="N77" s="283"/>
+      <c r="O77" s="283"/>
+      <c r="P77" s="283"/>
+      <c r="Q77" s="283"/>
+      <c r="R77" s="283"/>
+      <c r="S77" s="283"/>
+      <c r="T77" s="283"/>
+      <c r="U77" s="283"/>
+      <c r="V77" s="283"/>
+      <c r="W77" s="283"/>
+      <c r="X77" s="283"/>
+      <c r="Y77" s="283"/>
+      <c r="Z77" s="283"/>
+      <c r="AA77" s="283"/>
+      <c r="AB77" s="283"/>
+      <c r="AC77" s="283"/>
+      <c r="AD77" s="283"/>
+      <c r="AE77" s="283"/>
+      <c r="AF77" s="283"/>
+      <c r="AG77" s="283"/>
+      <c r="AH77" s="283"/>
+      <c r="AI77" s="283"/>
+      <c r="AJ77" s="283"/>
+      <c r="AK77" s="283"/>
+      <c r="AL77" s="283"/>
+      <c r="AM77" s="283"/>
+      <c r="AN77" s="283"/>
+      <c r="AO77" s="283"/>
+      <c r="AP77" s="283"/>
+      <c r="AQ77" s="283"/>
+      <c r="AR77" s="283"/>
+      <c r="AS77" s="283"/>
+      <c r="AT77" s="283"/>
+      <c r="AU77" s="283"/>
+      <c r="AV77" s="283"/>
+      <c r="AW77" s="284"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
     </row>
     <row r="78" spans="1:98" ht="12" customHeight="1">
-      <c r="B78" s="42"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="52"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="52"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="52"/>
-      <c r="T78" s="52"/>
-      <c r="U78" s="52"/>
-      <c r="V78" s="52"/>
-      <c r="W78" s="52"/>
-      <c r="X78" s="52"/>
-      <c r="Y78" s="52"/>
-      <c r="Z78" s="52"/>
-      <c r="AA78" s="52"/>
-      <c r="AB78" s="52"/>
-      <c r="AC78" s="52"/>
-      <c r="AD78" s="52"/>
-      <c r="AE78" s="52"/>
-      <c r="AF78" s="52"/>
-      <c r="AG78" s="52"/>
-      <c r="AH78" s="52"/>
-      <c r="AI78" s="52"/>
-      <c r="AJ78" s="52"/>
-      <c r="AK78" s="52"/>
-      <c r="AL78" s="52"/>
-      <c r="AM78" s="52"/>
-      <c r="AN78" s="52"/>
-      <c r="AO78" s="52"/>
-      <c r="AP78" s="52"/>
-      <c r="AQ78" s="52"/>
-      <c r="AR78" s="52"/>
-      <c r="AS78" s="52"/>
-      <c r="AT78" s="52"/>
-      <c r="AU78" s="52"/>
-      <c r="AV78" s="52"/>
-      <c r="AW78" s="53"/>
+      <c r="B78" s="228"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="229"/>
+      <c r="E78" s="229"/>
+      <c r="F78" s="229"/>
+      <c r="G78" s="230"/>
+      <c r="H78" s="282"/>
+      <c r="I78" s="283"/>
+      <c r="J78" s="283"/>
+      <c r="K78" s="283"/>
+      <c r="L78" s="283"/>
+      <c r="M78" s="283"/>
+      <c r="N78" s="283"/>
+      <c r="O78" s="283"/>
+      <c r="P78" s="283"/>
+      <c r="Q78" s="283"/>
+      <c r="R78" s="283"/>
+      <c r="S78" s="283"/>
+      <c r="T78" s="283"/>
+      <c r="U78" s="283"/>
+      <c r="V78" s="283"/>
+      <c r="W78" s="283"/>
+      <c r="X78" s="283"/>
+      <c r="Y78" s="283"/>
+      <c r="Z78" s="283"/>
+      <c r="AA78" s="283"/>
+      <c r="AB78" s="283"/>
+      <c r="AC78" s="283"/>
+      <c r="AD78" s="283"/>
+      <c r="AE78" s="283"/>
+      <c r="AF78" s="283"/>
+      <c r="AG78" s="283"/>
+      <c r="AH78" s="283"/>
+      <c r="AI78" s="283"/>
+      <c r="AJ78" s="283"/>
+      <c r="AK78" s="283"/>
+      <c r="AL78" s="283"/>
+      <c r="AM78" s="283"/>
+      <c r="AN78" s="283"/>
+      <c r="AO78" s="283"/>
+      <c r="AP78" s="283"/>
+      <c r="AQ78" s="283"/>
+      <c r="AR78" s="283"/>
+      <c r="AS78" s="283"/>
+      <c r="AT78" s="283"/>
+      <c r="AU78" s="283"/>
+      <c r="AV78" s="283"/>
+      <c r="AW78" s="284"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
     </row>
     <row r="79" spans="1:98" ht="12" customHeight="1">
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="55"/>
-      <c r="W79" s="55"/>
-      <c r="X79" s="55"/>
-      <c r="Y79" s="55"/>
-      <c r="Z79" s="55"/>
-      <c r="AA79" s="55"/>
-      <c r="AB79" s="55"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="55"/>
-      <c r="AI79" s="55"/>
-      <c r="AJ79" s="55"/>
-      <c r="AK79" s="55"/>
-      <c r="AL79" s="55"/>
-      <c r="AM79" s="55"/>
-      <c r="AN79" s="55"/>
-      <c r="AO79" s="55"/>
-      <c r="AP79" s="55"/>
-      <c r="AQ79" s="55"/>
-      <c r="AR79" s="55"/>
-      <c r="AS79" s="55"/>
-      <c r="AT79" s="55"/>
-      <c r="AU79" s="55"/>
-      <c r="AV79" s="55"/>
-      <c r="AW79" s="56"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="227"/>
+      <c r="H79" s="285"/>
+      <c r="I79" s="286"/>
+      <c r="J79" s="286"/>
+      <c r="K79" s="286"/>
+      <c r="L79" s="286"/>
+      <c r="M79" s="286"/>
+      <c r="N79" s="286"/>
+      <c r="O79" s="286"/>
+      <c r="P79" s="286"/>
+      <c r="Q79" s="286"/>
+      <c r="R79" s="286"/>
+      <c r="S79" s="286"/>
+      <c r="T79" s="286"/>
+      <c r="U79" s="286"/>
+      <c r="V79" s="286"/>
+      <c r="W79" s="286"/>
+      <c r="X79" s="286"/>
+      <c r="Y79" s="286"/>
+      <c r="Z79" s="286"/>
+      <c r="AA79" s="286"/>
+      <c r="AB79" s="286"/>
+      <c r="AC79" s="286"/>
+      <c r="AD79" s="286"/>
+      <c r="AE79" s="286"/>
+      <c r="AF79" s="286"/>
+      <c r="AG79" s="286"/>
+      <c r="AH79" s="286"/>
+      <c r="AI79" s="286"/>
+      <c r="AJ79" s="286"/>
+      <c r="AK79" s="286"/>
+      <c r="AL79" s="286"/>
+      <c r="AM79" s="286"/>
+      <c r="AN79" s="286"/>
+      <c r="AO79" s="286"/>
+      <c r="AP79" s="286"/>
+      <c r="AQ79" s="286"/>
+      <c r="AR79" s="286"/>
+      <c r="AS79" s="286"/>
+      <c r="AT79" s="286"/>
+      <c r="AU79" s="286"/>
+      <c r="AV79" s="286"/>
+      <c r="AW79" s="287"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
     </row>
@@ -10916,137 +10903,49 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
-  <mergeCells count="196">
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="U16:Z17"/>
-    <mergeCell ref="AA16:AM17"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="A6:AX9"/>
-    <mergeCell ref="AL10:AQ11"/>
-    <mergeCell ref="AR10:AW11"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:T15"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AS3"/>
-    <mergeCell ref="AT2:AU3"/>
-    <mergeCell ref="AN16:AP17"/>
-    <mergeCell ref="AQ16:AW17"/>
-    <mergeCell ref="U14:Z15"/>
-    <mergeCell ref="AA14:AD15"/>
-    <mergeCell ref="AI22:AL23"/>
-    <mergeCell ref="AM22:AW23"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="H24:AW25"/>
-    <mergeCell ref="B18:C21"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:AH19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AM18:AW19"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="H20:AW21"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:AH23"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:AH27"/>
-    <mergeCell ref="AI26:AL27"/>
-    <mergeCell ref="AM26:AW27"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:AW30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H31:AD32"/>
-    <mergeCell ref="AE31:AH32"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AN32"/>
-    <mergeCell ref="AO31:AP32"/>
-    <mergeCell ref="AQ31:AT32"/>
-    <mergeCell ref="AU31:AW32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:AD34"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AI33:AU34"/>
-    <mergeCell ref="AV33:AW34"/>
-    <mergeCell ref="T38:W39"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="AG38:AH39"/>
-    <mergeCell ref="AI38:AL39"/>
-    <mergeCell ref="AM38:AU39"/>
-    <mergeCell ref="AV38:AW39"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:N36"/>
-    <mergeCell ref="O35:R36"/>
-    <mergeCell ref="S35:Y36"/>
-    <mergeCell ref="Z35:AW36"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="X42:AF43"/>
-    <mergeCell ref="AG42:AH43"/>
-    <mergeCell ref="AG40:AH41"/>
-    <mergeCell ref="AI40:AL41"/>
-    <mergeCell ref="AM40:AU41"/>
-    <mergeCell ref="AV40:AW41"/>
-    <mergeCell ref="AM42:AU43"/>
-    <mergeCell ref="AV42:AW43"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="AI42:AL43"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:W43"/>
-    <mergeCell ref="BE45:BF45"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="H46:L47"/>
-    <mergeCell ref="M46:Q47"/>
-    <mergeCell ref="R46:U47"/>
-    <mergeCell ref="V46:AA47"/>
-    <mergeCell ref="V44:W45"/>
-    <mergeCell ref="X44:AA45"/>
-    <mergeCell ref="AB44:AC45"/>
-    <mergeCell ref="AD44:AE45"/>
-    <mergeCell ref="AF44:AG45"/>
-    <mergeCell ref="AH44:AI45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="L44:M45"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="AJ44:AL45"/>
-    <mergeCell ref="AM44:AM45"/>
-    <mergeCell ref="AN44:AV45"/>
-    <mergeCell ref="AW44:AW45"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="B52:G55"/>
-    <mergeCell ref="H52:K53"/>
-    <mergeCell ref="L52:AH53"/>
-    <mergeCell ref="AI52:AL53"/>
-    <mergeCell ref="AM52:AW53"/>
-    <mergeCell ref="H54:K55"/>
-    <mergeCell ref="L54:AW55"/>
-    <mergeCell ref="AB46:AH47"/>
-    <mergeCell ref="AI46:AL47"/>
-    <mergeCell ref="AM46:AW47"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="H48:K49"/>
-    <mergeCell ref="L48:R49"/>
-    <mergeCell ref="S48:U49"/>
-    <mergeCell ref="V48:AA49"/>
-    <mergeCell ref="AB48:AW49"/>
-    <mergeCell ref="B38:C49"/>
+  <mergeCells count="192">
+    <mergeCell ref="AN70:AO71"/>
+    <mergeCell ref="B73:G79"/>
+    <mergeCell ref="H73:AW79"/>
+    <mergeCell ref="V70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="AF70:AG71"/>
+    <mergeCell ref="AH70:AI71"/>
+    <mergeCell ref="AJ70:AK71"/>
+    <mergeCell ref="AL70:AM71"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:S68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="H70:J71"/>
+    <mergeCell ref="K70:S71"/>
+    <mergeCell ref="T70:U71"/>
+    <mergeCell ref="AB65:AE66"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:S66"/>
+    <mergeCell ref="T65:U66"/>
+    <mergeCell ref="V65:AA66"/>
+    <mergeCell ref="AF65:AG66"/>
+    <mergeCell ref="AH65:AI66"/>
+    <mergeCell ref="AJ65:AK66"/>
+    <mergeCell ref="AL65:AM66"/>
+    <mergeCell ref="AN65:AO66"/>
+    <mergeCell ref="AF63:AG64"/>
+    <mergeCell ref="AH63:AI64"/>
+    <mergeCell ref="AJ63:AK64"/>
+    <mergeCell ref="AL63:AM64"/>
+    <mergeCell ref="AN63:AO64"/>
+    <mergeCell ref="B63:G64"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:S64"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="V63:AA64"/>
+    <mergeCell ref="AB63:AE64"/>
+    <mergeCell ref="AB60:AE61"/>
+    <mergeCell ref="AF60:AG61"/>
+    <mergeCell ref="AH60:AI61"/>
     <mergeCell ref="AJ60:AK61"/>
     <mergeCell ref="AL60:AM61"/>
     <mergeCell ref="AN60:AO61"/>
@@ -11071,48 +10970,132 @@
     <mergeCell ref="L58:M59"/>
     <mergeCell ref="N58:O59"/>
     <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="B63:G64"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:S64"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="V63:AA64"/>
-    <mergeCell ref="AB63:AE64"/>
-    <mergeCell ref="AB60:AE61"/>
-    <mergeCell ref="AF60:AG61"/>
-    <mergeCell ref="AH60:AI61"/>
-    <mergeCell ref="AF65:AG66"/>
-    <mergeCell ref="AH65:AI66"/>
-    <mergeCell ref="AJ65:AK66"/>
-    <mergeCell ref="AL65:AM66"/>
-    <mergeCell ref="AN65:AO66"/>
-    <mergeCell ref="AF63:AG64"/>
-    <mergeCell ref="AH63:AI64"/>
-    <mergeCell ref="AJ63:AK64"/>
-    <mergeCell ref="AL63:AM64"/>
-    <mergeCell ref="AN63:AO64"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="K67:S68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="B70:G71"/>
-    <mergeCell ref="H70:J71"/>
-    <mergeCell ref="K70:S71"/>
-    <mergeCell ref="T70:U71"/>
-    <mergeCell ref="AB65:AE66"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:S66"/>
-    <mergeCell ref="T65:U66"/>
-    <mergeCell ref="V65:AA66"/>
-    <mergeCell ref="AN70:AO71"/>
-    <mergeCell ref="B73:G79"/>
-    <mergeCell ref="H73:AW79"/>
-    <mergeCell ref="V70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="AF70:AG71"/>
-    <mergeCell ref="AH70:AI71"/>
-    <mergeCell ref="AJ70:AK71"/>
-    <mergeCell ref="AL70:AM71"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="B52:G55"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="L52:AH53"/>
+    <mergeCell ref="AI52:AL53"/>
+    <mergeCell ref="AM52:AW53"/>
+    <mergeCell ref="H54:K55"/>
+    <mergeCell ref="L54:AW55"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="L48:R49"/>
+    <mergeCell ref="S48:U49"/>
+    <mergeCell ref="V48:AA49"/>
+    <mergeCell ref="AB48:AW49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="X42:AF43"/>
+    <mergeCell ref="AG42:AH43"/>
+    <mergeCell ref="AG40:AH41"/>
+    <mergeCell ref="AI40:AL41"/>
+    <mergeCell ref="AM40:AU41"/>
+    <mergeCell ref="AV40:AW41"/>
+    <mergeCell ref="BE45:BF45"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="R46:U47"/>
+    <mergeCell ref="V44:W45"/>
+    <mergeCell ref="X44:AA45"/>
+    <mergeCell ref="AB44:AC45"/>
+    <mergeCell ref="AD44:AE45"/>
+    <mergeCell ref="AF44:AG45"/>
+    <mergeCell ref="AH44:AI45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="L44:M45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="AJ44:AL45"/>
+    <mergeCell ref="AM44:AM45"/>
+    <mergeCell ref="AN44:AV45"/>
+    <mergeCell ref="AW44:AW45"/>
+    <mergeCell ref="H46:Q47"/>
+    <mergeCell ref="AM42:AU43"/>
+    <mergeCell ref="AV42:AW43"/>
+    <mergeCell ref="D40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="AI42:AL43"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:W43"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AI38:AL39"/>
+    <mergeCell ref="AM38:AU39"/>
+    <mergeCell ref="AV38:AW39"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:N36"/>
+    <mergeCell ref="O35:R36"/>
+    <mergeCell ref="S35:Y36"/>
+    <mergeCell ref="Z35:AW36"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:AH27"/>
+    <mergeCell ref="AI26:AL27"/>
+    <mergeCell ref="AM26:AW27"/>
+    <mergeCell ref="B29:C36"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:AW30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:AD32"/>
+    <mergeCell ref="AE31:AH32"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AN32"/>
+    <mergeCell ref="AO31:AP32"/>
+    <mergeCell ref="AQ31:AT32"/>
+    <mergeCell ref="AU31:AW32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:AD34"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AI33:AU34"/>
+    <mergeCell ref="AV33:AW34"/>
+    <mergeCell ref="H24:AW25"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:AH19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AM18:AW19"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="H20:AW21"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:AH23"/>
+    <mergeCell ref="V46:AW47"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="U16:Z17"/>
+    <mergeCell ref="AA16:AM17"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="A6:AX9"/>
+    <mergeCell ref="AL10:AQ11"/>
+    <mergeCell ref="AR10:AW11"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="H14:T15"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AS3"/>
+    <mergeCell ref="AT2:AU3"/>
+    <mergeCell ref="AN16:AP17"/>
+    <mergeCell ref="AQ16:AW17"/>
+    <mergeCell ref="U14:Z15"/>
+    <mergeCell ref="AA14:AD15"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AM22:AW23"/>
+    <mergeCell ref="D24:G25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\メトロス開発\07_テンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\メトロス開発\source\_kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CD178-61E9-4604-8A2B-92D8B2A1888D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C68A4E-5E94-4D3B-9D98-CB384A247ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3048,6 +3048,838 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="45" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="42" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="40" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="25" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="31" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3069,18 +3901,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -3218,22 +4038,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3244,810 +4048,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="25" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="31" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="45" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="42" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="40" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4827,36 +4827,36 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="77" t="s">
+      <c r="AH2" s="282" t="s">
         <v>124</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="78" t="s">
+      <c r="AI2" s="282"/>
+      <c r="AJ2" s="282"/>
+      <c r="AK2" s="283" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="59" t="s">
+      <c r="AL2" s="283"/>
+      <c r="AM2" s="283"/>
+      <c r="AN2" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="79" t="s">
+      <c r="AO2" s="264"/>
+      <c r="AP2" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="59" t="s">
+      <c r="AQ2" s="284"/>
+      <c r="AR2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="79" t="s">
+      <c r="AS2" s="264"/>
+      <c r="AT2" s="284" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="59" t="s">
+      <c r="AU2" s="284"/>
+      <c r="AV2" s="264" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="59"/>
+      <c r="AW2" s="264"/>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:70" ht="12" customHeight="1">
@@ -4887,22 +4887,22 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="79"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="79"/>
-      <c r="AU3" s="79"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
+      <c r="AH3" s="282"/>
+      <c r="AI3" s="282"/>
+      <c r="AJ3" s="282"/>
+      <c r="AK3" s="283"/>
+      <c r="AL3" s="283"/>
+      <c r="AM3" s="283"/>
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="264"/>
+      <c r="AP3" s="284"/>
+      <c r="AQ3" s="284"/>
+      <c r="AR3" s="264"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="284"/>
+      <c r="AU3" s="284"/>
+      <c r="AV3" s="264"/>
+      <c r="AW3" s="264"/>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:70" ht="12" customHeight="1">
@@ -4997,214 +4997,214 @@
       <c r="BR5" s="5"/>
     </row>
     <row r="6" spans="1:70" ht="12" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="265"/>
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="265"/>
+      <c r="Q6" s="265"/>
+      <c r="R6" s="265"/>
+      <c r="S6" s="265"/>
+      <c r="T6" s="265"/>
+      <c r="U6" s="265"/>
+      <c r="V6" s="265"/>
+      <c r="W6" s="265"/>
+      <c r="X6" s="265"/>
+      <c r="Y6" s="265"/>
+      <c r="Z6" s="265"/>
+      <c r="AA6" s="265"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
+      <c r="AE6" s="265"/>
+      <c r="AF6" s="265"/>
+      <c r="AG6" s="265"/>
+      <c r="AH6" s="265"/>
+      <c r="AI6" s="265"/>
+      <c r="AJ6" s="265"/>
+      <c r="AK6" s="265"/>
+      <c r="AL6" s="265"/>
+      <c r="AM6" s="265"/>
+      <c r="AN6" s="265"/>
+      <c r="AO6" s="265"/>
+      <c r="AP6" s="265"/>
+      <c r="AQ6" s="265"/>
+      <c r="AR6" s="265"/>
+      <c r="AS6" s="265"/>
+      <c r="AT6" s="265"/>
+      <c r="AU6" s="265"/>
+      <c r="AV6" s="265"/>
+      <c r="AW6" s="265"/>
+      <c r="AX6" s="265"/>
     </row>
     <row r="7" spans="1:70" ht="12" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
+      <c r="A7" s="265"/>
+      <c r="B7" s="265"/>
+      <c r="C7" s="265"/>
+      <c r="D7" s="265"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
+      <c r="J7" s="265"/>
+      <c r="K7" s="265"/>
+      <c r="L7" s="265"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="265"/>
+      <c r="R7" s="265"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="265"/>
+      <c r="AE7" s="265"/>
+      <c r="AF7" s="265"/>
+      <c r="AG7" s="265"/>
+      <c r="AH7" s="265"/>
+      <c r="AI7" s="265"/>
+      <c r="AJ7" s="265"/>
+      <c r="AK7" s="265"/>
+      <c r="AL7" s="265"/>
+      <c r="AM7" s="265"/>
+      <c r="AN7" s="265"/>
+      <c r="AO7" s="265"/>
+      <c r="AP7" s="265"/>
+      <c r="AQ7" s="265"/>
+      <c r="AR7" s="265"/>
+      <c r="AS7" s="265"/>
+      <c r="AT7" s="265"/>
+      <c r="AU7" s="265"/>
+      <c r="AV7" s="265"/>
+      <c r="AW7" s="265"/>
+      <c r="AX7" s="265"/>
     </row>
     <row r="8" spans="1:70" ht="12" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="265"/>
+      <c r="R8" s="265"/>
+      <c r="S8" s="265"/>
+      <c r="T8" s="265"/>
+      <c r="U8" s="265"/>
+      <c r="V8" s="265"/>
+      <c r="W8" s="265"/>
+      <c r="X8" s="265"/>
+      <c r="Y8" s="265"/>
+      <c r="Z8" s="265"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="265"/>
+      <c r="AH8" s="265"/>
+      <c r="AI8" s="265"/>
+      <c r="AJ8" s="265"/>
+      <c r="AK8" s="265"/>
+      <c r="AL8" s="265"/>
+      <c r="AM8" s="265"/>
+      <c r="AN8" s="265"/>
+      <c r="AO8" s="265"/>
+      <c r="AP8" s="265"/>
+      <c r="AQ8" s="265"/>
+      <c r="AR8" s="265"/>
+      <c r="AS8" s="265"/>
+      <c r="AT8" s="265"/>
+      <c r="AU8" s="265"/>
+      <c r="AV8" s="265"/>
+      <c r="AW8" s="265"/>
+      <c r="AX8" s="265"/>
     </row>
     <row r="9" spans="1:70" ht="12" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
+      <c r="A9" s="265"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="265"/>
+      <c r="P9" s="265"/>
+      <c r="Q9" s="265"/>
+      <c r="R9" s="265"/>
+      <c r="S9" s="265"/>
+      <c r="T9" s="265"/>
+      <c r="U9" s="265"/>
+      <c r="V9" s="265"/>
+      <c r="W9" s="265"/>
+      <c r="X9" s="265"/>
+      <c r="Y9" s="265"/>
+      <c r="Z9" s="265"/>
+      <c r="AA9" s="265"/>
+      <c r="AB9" s="265"/>
+      <c r="AC9" s="265"/>
+      <c r="AD9" s="265"/>
+      <c r="AE9" s="265"/>
+      <c r="AF9" s="265"/>
+      <c r="AG9" s="265"/>
+      <c r="AH9" s="265"/>
+      <c r="AI9" s="265"/>
+      <c r="AJ9" s="265"/>
+      <c r="AK9" s="265"/>
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="265"/>
+      <c r="AO9" s="265"/>
+      <c r="AP9" s="265"/>
+      <c r="AQ9" s="265"/>
+      <c r="AR9" s="265"/>
+      <c r="AS9" s="265"/>
+      <c r="AT9" s="265"/>
+      <c r="AU9" s="265"/>
+      <c r="AV9" s="265"/>
+      <c r="AW9" s="265"/>
+      <c r="AX9" s="265"/>
     </row>
     <row r="10" spans="1:70" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
@@ -5220,22 +5220,22 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AL10" s="61" t="s">
+      <c r="AL10" s="266" t="s">
         <v>50</v>
       </c>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="65" t="s">
+      <c r="AM10" s="267"/>
+      <c r="AN10" s="267"/>
+      <c r="AO10" s="267"/>
+      <c r="AP10" s="267"/>
+      <c r="AQ10" s="267"/>
+      <c r="AR10" s="270" t="s">
         <v>51</v>
       </c>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="67"/>
+      <c r="AS10" s="271"/>
+      <c r="AT10" s="271"/>
+      <c r="AU10" s="271"/>
+      <c r="AV10" s="271"/>
+      <c r="AW10" s="272"/>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:70" ht="12.75" customHeight="1">
@@ -5252,18 +5252,18 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="70"/>
+      <c r="AL11" s="268"/>
+      <c r="AM11" s="269"/>
+      <c r="AN11" s="269"/>
+      <c r="AO11" s="269"/>
+      <c r="AP11" s="269"/>
+      <c r="AQ11" s="269"/>
+      <c r="AR11" s="273"/>
+      <c r="AS11" s="274"/>
+      <c r="AT11" s="274"/>
+      <c r="AU11" s="274"/>
+      <c r="AV11" s="274"/>
+      <c r="AW11" s="275"/>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:70" ht="12" customHeight="1">
@@ -5324,43 +5324,43 @@
     </row>
     <row r="14" spans="1:70" ht="12" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="71" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="85" t="s">
+      <c r="I14" s="277"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="277"/>
+      <c r="L14" s="277"/>
+      <c r="M14" s="277"/>
+      <c r="N14" s="277"/>
+      <c r="O14" s="277"/>
+      <c r="P14" s="277"/>
+      <c r="Q14" s="277"/>
+      <c r="R14" s="277"/>
+      <c r="S14" s="277"/>
+      <c r="T14" s="278"/>
+      <c r="U14" s="286" t="s">
         <v>120</v>
       </c>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="86" t="s">
+      <c r="V14" s="286"/>
+      <c r="W14" s="286"/>
+      <c r="X14" s="286"/>
+      <c r="Y14" s="286"/>
+      <c r="Z14" s="286"/>
+      <c r="AA14" s="287" t="s">
         <v>121</v>
       </c>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
+      <c r="AB14" s="287"/>
+      <c r="AC14" s="287"/>
+      <c r="AD14" s="287"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
@@ -5379,35 +5379,35 @@
     </row>
     <row r="15" spans="1:70" ht="12" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="250"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="279"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="281"/>
+      <c r="U15" s="286"/>
+      <c r="V15" s="286"/>
+      <c r="W15" s="286"/>
+      <c r="X15" s="286"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="286"/>
+      <c r="AA15" s="287"/>
+      <c r="AB15" s="287"/>
+      <c r="AC15" s="287"/>
+      <c r="AD15" s="287"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
@@ -5426,400 +5426,400 @@
     </row>
     <row r="16" spans="1:70" ht="12" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="47" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="252" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="41" t="s">
+      <c r="I16" s="253"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="253"/>
+      <c r="M16" s="253"/>
+      <c r="N16" s="253"/>
+      <c r="O16" s="253"/>
+      <c r="P16" s="253"/>
+      <c r="Q16" s="253"/>
+      <c r="R16" s="253"/>
+      <c r="S16" s="253"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="53" t="s">
+      <c r="V16" s="115"/>
+      <c r="W16" s="115"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="80" t="s">
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="259"/>
+      <c r="AD16" s="259"/>
+      <c r="AE16" s="259"/>
+      <c r="AF16" s="259"/>
+      <c r="AG16" s="259"/>
+      <c r="AH16" s="259"/>
+      <c r="AI16" s="259"/>
+      <c r="AJ16" s="259"/>
+      <c r="AK16" s="259"/>
+      <c r="AL16" s="259"/>
+      <c r="AM16" s="260"/>
+      <c r="AN16" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AO16" s="81"/>
-      <c r="AP16" s="81"/>
-      <c r="AQ16" s="84" t="s">
+      <c r="AO16" s="38"/>
+      <c r="AP16" s="38"/>
+      <c r="AQ16" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
+      <c r="AR16" s="285"/>
+      <c r="AS16" s="285"/>
+      <c r="AT16" s="285"/>
+      <c r="AU16" s="285"/>
+      <c r="AV16" s="285"/>
+      <c r="AW16" s="285"/>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:85" ht="12" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="83"/>
-      <c r="AP17" s="83"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="256"/>
+      <c r="T17" s="257"/>
+      <c r="U17" s="249"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="250"/>
+      <c r="Z17" s="251"/>
+      <c r="AA17" s="261"/>
+      <c r="AB17" s="262"/>
+      <c r="AC17" s="262"/>
+      <c r="AD17" s="262"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="262"/>
+      <c r="AH17" s="262"/>
+      <c r="AI17" s="262"/>
+      <c r="AJ17" s="262"/>
+      <c r="AK17" s="262"/>
+      <c r="AL17" s="262"/>
+      <c r="AM17" s="263"/>
+      <c r="AN17" s="43"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="285"/>
+      <c r="AR17" s="285"/>
+      <c r="AS17" s="285"/>
+      <c r="AT17" s="285"/>
+      <c r="AU17" s="285"/>
+      <c r="AV17" s="285"/>
+      <c r="AW17" s="285"/>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:85" ht="12" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="230" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="99" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="106" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="94"/>
-      <c r="AS18" s="94"/>
-      <c r="AT18" s="94"/>
-      <c r="AU18" s="94"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="95"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="137"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="137"/>
+      <c r="AH18" s="137"/>
+      <c r="AI18" s="234"/>
+      <c r="AJ18" s="131"/>
+      <c r="AK18" s="131"/>
+      <c r="AL18" s="235"/>
+      <c r="AM18" s="236"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="125"/>
+      <c r="AQ18" s="125"/>
+      <c r="AR18" s="125"/>
+      <c r="AS18" s="125"/>
+      <c r="AT18" s="125"/>
+      <c r="AU18" s="125"/>
+      <c r="AV18" s="125"/>
+      <c r="AW18" s="209"/>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:85" ht="12" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="109"/>
-      <c r="V19" s="109"/>
-      <c r="W19" s="109"/>
-      <c r="X19" s="109"/>
-      <c r="Y19" s="109"/>
-      <c r="Z19" s="109"/>
-      <c r="AA19" s="109"/>
-      <c r="AB19" s="109"/>
-      <c r="AC19" s="109"/>
-      <c r="AD19" s="109"/>
-      <c r="AE19" s="109"/>
-      <c r="AF19" s="109"/>
-      <c r="AG19" s="109"/>
-      <c r="AH19" s="109"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="91"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="97"/>
-      <c r="AO19" s="97"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="97"/>
-      <c r="AR19" s="97"/>
-      <c r="AS19" s="97"/>
-      <c r="AT19" s="97"/>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="97"/>
-      <c r="AW19" s="98"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="140"/>
+      <c r="AI19" s="207"/>
+      <c r="AJ19" s="134"/>
+      <c r="AK19" s="134"/>
+      <c r="AL19" s="208"/>
+      <c r="AM19" s="145"/>
+      <c r="AN19" s="128"/>
+      <c r="AO19" s="128"/>
+      <c r="AP19" s="128"/>
+      <c r="AQ19" s="128"/>
+      <c r="AR19" s="128"/>
+      <c r="AS19" s="128"/>
+      <c r="AT19" s="128"/>
+      <c r="AU19" s="128"/>
+      <c r="AV19" s="128"/>
+      <c r="AW19" s="146"/>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:85" ht="12" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="99" t="s">
+      <c r="B20" s="232"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100" t="s">
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="94"/>
-      <c r="AJ20" s="94"/>
-      <c r="AK20" s="94"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="94"/>
-      <c r="AS20" s="94"/>
-      <c r="AT20" s="94"/>
-      <c r="AU20" s="94"/>
-      <c r="AV20" s="94"/>
-      <c r="AW20" s="95"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="125"/>
+      <c r="AJ20" s="125"/>
+      <c r="AK20" s="125"/>
+      <c r="AL20" s="125"/>
+      <c r="AM20" s="125"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="125"/>
+      <c r="AP20" s="125"/>
+      <c r="AQ20" s="125"/>
+      <c r="AR20" s="125"/>
+      <c r="AS20" s="125"/>
+      <c r="AT20" s="125"/>
+      <c r="AU20" s="125"/>
+      <c r="AV20" s="125"/>
+      <c r="AW20" s="209"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
-      <c r="AI21" s="97"/>
-      <c r="AJ21" s="97"/>
-      <c r="AK21" s="97"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="97"/>
-      <c r="AO21" s="97"/>
-      <c r="AP21" s="97"/>
-      <c r="AQ21" s="97"/>
-      <c r="AR21" s="97"/>
-      <c r="AS21" s="97"/>
-      <c r="AT21" s="97"/>
-      <c r="AU21" s="97"/>
-      <c r="AV21" s="97"/>
-      <c r="AW21" s="98"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="128"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="128"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="128"/>
+      <c r="AJ21" s="128"/>
+      <c r="AK21" s="128"/>
+      <c r="AL21" s="128"/>
+      <c r="AM21" s="128"/>
+      <c r="AN21" s="128"/>
+      <c r="AO21" s="128"/>
+      <c r="AP21" s="128"/>
+      <c r="AQ21" s="128"/>
+      <c r="AR21" s="128"/>
+      <c r="AS21" s="128"/>
+      <c r="AT21" s="128"/>
+      <c r="AU21" s="128"/>
+      <c r="AV21" s="128"/>
+      <c r="AW21" s="146"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="1:85" ht="12" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="111"/>
-      <c r="D22" s="99" t="s">
+      <c r="C22" s="238"/>
+      <c r="D22" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100" t="s">
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="87" t="s">
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="126"/>
+      <c r="AI22" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="93" t="s">
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="235"/>
+      <c r="AM22" s="236" t="s">
         <v>89</v>
       </c>
-      <c r="AN22" s="94"/>
-      <c r="AO22" s="94"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="94"/>
-      <c r="AV22" s="94"/>
-      <c r="AW22" s="95"/>
+      <c r="AN22" s="125"/>
+      <c r="AO22" s="125"/>
+      <c r="AP22" s="125"/>
+      <c r="AQ22" s="125"/>
+      <c r="AR22" s="125"/>
+      <c r="AS22" s="125"/>
+      <c r="AT22" s="125"/>
+      <c r="AU22" s="125"/>
+      <c r="AV22" s="125"/>
+      <c r="AW22" s="209"/>
       <c r="AY22" s="7"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -5854,54 +5854,54 @@
     </row>
     <row r="23" spans="1:85" ht="12" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="97"/>
-      <c r="AO23" s="97"/>
-      <c r="AP23" s="97"/>
-      <c r="AQ23" s="97"/>
-      <c r="AR23" s="97"/>
-      <c r="AS23" s="97"/>
-      <c r="AT23" s="97"/>
-      <c r="AU23" s="97"/>
-      <c r="AV23" s="97"/>
-      <c r="AW23" s="98"/>
+      <c r="B23" s="239"/>
+      <c r="C23" s="240"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="207"/>
+      <c r="AJ23" s="134"/>
+      <c r="AK23" s="134"/>
+      <c r="AL23" s="208"/>
+      <c r="AM23" s="145"/>
+      <c r="AN23" s="128"/>
+      <c r="AO23" s="128"/>
+      <c r="AP23" s="128"/>
+      <c r="AQ23" s="128"/>
+      <c r="AR23" s="128"/>
+      <c r="AS23" s="128"/>
+      <c r="AT23" s="128"/>
+      <c r="AU23" s="128"/>
+      <c r="AV23" s="128"/>
+      <c r="AW23" s="146"/>
       <c r="AY23" s="7"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -5936,58 +5936,58 @@
     </row>
     <row r="24" spans="1:85" ht="12" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="99" t="s">
+      <c r="B24" s="239"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100" t="s">
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="94"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="94"/>
-      <c r="AS24" s="94"/>
-      <c r="AT24" s="94"/>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="94"/>
-      <c r="AW24" s="95"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="125"/>
+      <c r="AJ24" s="125"/>
+      <c r="AK24" s="125"/>
+      <c r="AL24" s="125"/>
+      <c r="AM24" s="125"/>
+      <c r="AN24" s="125"/>
+      <c r="AO24" s="125"/>
+      <c r="AP24" s="125"/>
+      <c r="AQ24" s="125"/>
+      <c r="AR24" s="125"/>
+      <c r="AS24" s="125"/>
+      <c r="AT24" s="125"/>
+      <c r="AU24" s="125"/>
+      <c r="AV24" s="125"/>
+      <c r="AW24" s="209"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="1"/>
       <c r="BD24" s="10"/>
@@ -6023,54 +6023,54 @@
     </row>
     <row r="25" spans="1:85" ht="12" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
-      <c r="AI25" s="97"/>
-      <c r="AJ25" s="97"/>
-      <c r="AK25" s="97"/>
-      <c r="AL25" s="97"/>
-      <c r="AM25" s="97"/>
-      <c r="AN25" s="97"/>
-      <c r="AO25" s="97"/>
-      <c r="AP25" s="97"/>
-      <c r="AQ25" s="97"/>
-      <c r="AR25" s="97"/>
-      <c r="AS25" s="97"/>
-      <c r="AT25" s="97"/>
-      <c r="AU25" s="97"/>
-      <c r="AV25" s="97"/>
-      <c r="AW25" s="98"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="128"/>
+      <c r="AF25" s="128"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="128"/>
+      <c r="AS25" s="128"/>
+      <c r="AT25" s="128"/>
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="128"/>
+      <c r="AW25" s="146"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="1"/>
       <c r="BD25" s="10"/>
@@ -6106,62 +6106,62 @@
     </row>
     <row r="26" spans="1:85" ht="12" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="124" t="s">
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="125"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="125"/>
-      <c r="Q26" s="125"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="125"/>
-      <c r="T26" s="125"/>
-      <c r="U26" s="125"/>
-      <c r="V26" s="125"/>
-      <c r="W26" s="125"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="125"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="126"/>
-      <c r="AI26" s="127" t="s">
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="203"/>
+      <c r="AI26" s="204" t="s">
         <v>21</v>
       </c>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="129"/>
-      <c r="AM26" s="124" t="s">
+      <c r="AJ26" s="205"/>
+      <c r="AK26" s="205"/>
+      <c r="AL26" s="206"/>
+      <c r="AM26" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
-      <c r="AQ26" s="125"/>
-      <c r="AR26" s="125"/>
-      <c r="AS26" s="125"/>
-      <c r="AT26" s="125"/>
-      <c r="AU26" s="125"/>
-      <c r="AV26" s="125"/>
-      <c r="AW26" s="130"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="143"/>
+      <c r="AP26" s="143"/>
+      <c r="AQ26" s="143"/>
+      <c r="AR26" s="143"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="143"/>
+      <c r="AU26" s="143"/>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="144"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="7"/>
       <c r="BA26" s="10"/>
@@ -6200,54 +6200,54 @@
     </row>
     <row r="27" spans="1:85" ht="12" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="91"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="92"/>
-      <c r="AM27" s="96"/>
-      <c r="AN27" s="97"/>
-      <c r="AO27" s="97"/>
-      <c r="AP27" s="97"/>
-      <c r="AQ27" s="97"/>
-      <c r="AR27" s="97"/>
-      <c r="AS27" s="97"/>
-      <c r="AT27" s="97"/>
-      <c r="AU27" s="97"/>
-      <c r="AV27" s="97"/>
-      <c r="AW27" s="98"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="129"/>
+      <c r="AI27" s="207"/>
+      <c r="AJ27" s="134"/>
+      <c r="AK27" s="134"/>
+      <c r="AL27" s="208"/>
+      <c r="AM27" s="145"/>
+      <c r="AN27" s="128"/>
+      <c r="AO27" s="128"/>
+      <c r="AP27" s="128"/>
+      <c r="AQ27" s="128"/>
+      <c r="AR27" s="128"/>
+      <c r="AS27" s="128"/>
+      <c r="AT27" s="128"/>
+      <c r="AU27" s="128"/>
+      <c r="AV27" s="128"/>
+      <c r="AW27" s="146"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -6374,60 +6374,60 @@
     </row>
     <row r="29" spans="1:85" ht="12" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="137" t="s">
+      <c r="C29" s="155"/>
+      <c r="D29" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="100" t="s">
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="94"/>
-      <c r="AJ29" s="94"/>
-      <c r="AK29" s="94"/>
-      <c r="AL29" s="94"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="94"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="94"/>
-      <c r="AS29" s="94"/>
-      <c r="AT29" s="94"/>
-      <c r="AU29" s="94"/>
-      <c r="AV29" s="94"/>
-      <c r="AW29" s="95"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="125"/>
+      <c r="AJ29" s="125"/>
+      <c r="AK29" s="125"/>
+      <c r="AL29" s="125"/>
+      <c r="AM29" s="125"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125"/>
+      <c r="AP29" s="125"/>
+      <c r="AQ29" s="125"/>
+      <c r="AR29" s="125"/>
+      <c r="AS29" s="125"/>
+      <c r="AT29" s="125"/>
+      <c r="AU29" s="125"/>
+      <c r="AV29" s="125"/>
+      <c r="AW29" s="209"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -6463,54 +6463,54 @@
       <c r="CD29" s="10"/>
     </row>
     <row r="30" spans="1:85" ht="12" customHeight="1">
-      <c r="B30" s="133"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97"/>
-      <c r="AL30" s="97"/>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="97"/>
-      <c r="AO30" s="97"/>
-      <c r="AP30" s="97"/>
-      <c r="AQ30" s="97"/>
-      <c r="AR30" s="97"/>
-      <c r="AS30" s="97"/>
-      <c r="AT30" s="97"/>
-      <c r="AU30" s="97"/>
-      <c r="AV30" s="97"/>
-      <c r="AW30" s="98"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="128"/>
+      <c r="AK30" s="128"/>
+      <c r="AL30" s="128"/>
+      <c r="AM30" s="128"/>
+      <c r="AN30" s="128"/>
+      <c r="AO30" s="128"/>
+      <c r="AP30" s="128"/>
+      <c r="AQ30" s="128"/>
+      <c r="AR30" s="128"/>
+      <c r="AS30" s="128"/>
+      <c r="AT30" s="128"/>
+      <c r="AU30" s="128"/>
+      <c r="AV30" s="128"/>
+      <c r="AW30" s="146"/>
       <c r="AY30" s="7"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -6544,68 +6544,68 @@
       <c r="CD30" s="10"/>
     </row>
     <row r="31" spans="1:85" ht="12" customHeight="1">
-      <c r="B31" s="133"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="137" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138" t="s">
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="142"/>
-      <c r="AF31" s="143"/>
-      <c r="AG31" s="143"/>
-      <c r="AH31" s="143"/>
-      <c r="AI31" s="146" t="s">
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="211"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="211"/>
+      <c r="N31" s="211"/>
+      <c r="O31" s="211"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="211"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="211"/>
+      <c r="T31" s="211"/>
+      <c r="U31" s="211"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="211"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="211"/>
+      <c r="AA31" s="211"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="211"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="214"/>
+      <c r="AF31" s="215"/>
+      <c r="AG31" s="215"/>
+      <c r="AH31" s="215"/>
+      <c r="AI31" s="218" t="s">
         <v>13</v>
       </c>
-      <c r="AJ31" s="146"/>
-      <c r="AK31" s="143" t="s">
+      <c r="AJ31" s="218"/>
+      <c r="AK31" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="AL31" s="143"/>
-      <c r="AM31" s="143"/>
-      <c r="AN31" s="143"/>
-      <c r="AO31" s="146" t="s">
+      <c r="AL31" s="215"/>
+      <c r="AM31" s="215"/>
+      <c r="AN31" s="215"/>
+      <c r="AO31" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="AP31" s="146"/>
-      <c r="AQ31" s="143" t="s">
+      <c r="AP31" s="218"/>
+      <c r="AQ31" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="AR31" s="143"/>
-      <c r="AS31" s="143"/>
-      <c r="AT31" s="143"/>
-      <c r="AU31" s="146" t="s">
+      <c r="AR31" s="215"/>
+      <c r="AS31" s="215"/>
+      <c r="AT31" s="215"/>
+      <c r="AU31" s="218" t="s">
         <v>15</v>
       </c>
-      <c r="AV31" s="146"/>
-      <c r="AW31" s="148"/>
+      <c r="AV31" s="218"/>
+      <c r="AW31" s="220"/>
       <c r="AY31" s="7"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -6639,54 +6639,54 @@
       <c r="CD31" s="10"/>
     </row>
     <row r="32" spans="1:85" ht="12" customHeight="1">
-      <c r="B32" s="133"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
-      <c r="W32" s="141"/>
-      <c r="X32" s="141"/>
-      <c r="Y32" s="141"/>
-      <c r="Z32" s="141"/>
-      <c r="AA32" s="141"/>
-      <c r="AB32" s="141"/>
-      <c r="AC32" s="141"/>
-      <c r="AD32" s="141"/>
-      <c r="AE32" s="144"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="147"/>
-      <c r="AJ32" s="147"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="147"/>
-      <c r="AP32" s="147"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="145"/>
-      <c r="AU32" s="147"/>
-      <c r="AV32" s="147"/>
-      <c r="AW32" s="149"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="213"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="213"/>
+      <c r="P32" s="213"/>
+      <c r="Q32" s="213"/>
+      <c r="R32" s="213"/>
+      <c r="S32" s="213"/>
+      <c r="T32" s="213"/>
+      <c r="U32" s="213"/>
+      <c r="V32" s="213"/>
+      <c r="W32" s="213"/>
+      <c r="X32" s="213"/>
+      <c r="Y32" s="213"/>
+      <c r="Z32" s="213"/>
+      <c r="AA32" s="213"/>
+      <c r="AB32" s="213"/>
+      <c r="AC32" s="213"/>
+      <c r="AD32" s="213"/>
+      <c r="AE32" s="216"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="217"/>
+      <c r="AI32" s="219"/>
+      <c r="AJ32" s="219"/>
+      <c r="AK32" s="217"/>
+      <c r="AL32" s="217"/>
+      <c r="AM32" s="217"/>
+      <c r="AN32" s="217"/>
+      <c r="AO32" s="219"/>
+      <c r="AP32" s="219"/>
+      <c r="AQ32" s="217"/>
+      <c r="AR32" s="217"/>
+      <c r="AS32" s="217"/>
+      <c r="AT32" s="217"/>
+      <c r="AU32" s="219"/>
+      <c r="AV32" s="219"/>
+      <c r="AW32" s="221"/>
       <c r="AY32" s="7"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -6720,64 +6720,64 @@
       <c r="CD32" s="10"/>
     </row>
     <row r="33" spans="1:101" ht="12" customHeight="1">
-      <c r="B33" s="133"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="137" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="106" t="s">
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="150" t="s">
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="152"/>
-      <c r="AI33" s="156" t="s">
+      <c r="AF33" s="195"/>
+      <c r="AG33" s="195"/>
+      <c r="AH33" s="196"/>
+      <c r="AI33" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157"/>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157"/>
-      <c r="AN33" s="157"/>
-      <c r="AO33" s="157"/>
-      <c r="AP33" s="157"/>
-      <c r="AQ33" s="157"/>
-      <c r="AR33" s="157"/>
-      <c r="AS33" s="157"/>
-      <c r="AT33" s="157"/>
-      <c r="AU33" s="157"/>
-      <c r="AV33" s="160" t="s">
+      <c r="AJ33" s="223"/>
+      <c r="AK33" s="223"/>
+      <c r="AL33" s="223"/>
+      <c r="AM33" s="223"/>
+      <c r="AN33" s="223"/>
+      <c r="AO33" s="223"/>
+      <c r="AP33" s="223"/>
+      <c r="AQ33" s="223"/>
+      <c r="AR33" s="223"/>
+      <c r="AS33" s="223"/>
+      <c r="AT33" s="223"/>
+      <c r="AU33" s="223"/>
+      <c r="AV33" s="226" t="s">
         <v>16</v>
       </c>
-      <c r="AW33" s="161"/>
+      <c r="AW33" s="227"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
@@ -6811,54 +6811,54 @@
       <c r="CC33" s="10"/>
     </row>
     <row r="34" spans="1:101" ht="12" customHeight="1">
-      <c r="B34" s="133"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="154"/>
-      <c r="AG34" s="154"/>
-      <c r="AH34" s="155"/>
-      <c r="AI34" s="158"/>
-      <c r="AJ34" s="159"/>
-      <c r="AK34" s="159"/>
-      <c r="AL34" s="159"/>
-      <c r="AM34" s="159"/>
-      <c r="AN34" s="159"/>
-      <c r="AO34" s="159"/>
-      <c r="AP34" s="159"/>
-      <c r="AQ34" s="159"/>
-      <c r="AR34" s="159"/>
-      <c r="AS34" s="159"/>
-      <c r="AT34" s="159"/>
-      <c r="AU34" s="159"/>
-      <c r="AV34" s="162"/>
-      <c r="AW34" s="163"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="140"/>
+      <c r="S34" s="140"/>
+      <c r="T34" s="140"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="140"/>
+      <c r="W34" s="140"/>
+      <c r="X34" s="140"/>
+      <c r="Y34" s="140"/>
+      <c r="Z34" s="140"/>
+      <c r="AA34" s="140"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+      <c r="AD34" s="140"/>
+      <c r="AE34" s="197"/>
+      <c r="AF34" s="198"/>
+      <c r="AG34" s="198"/>
+      <c r="AH34" s="199"/>
+      <c r="AI34" s="224"/>
+      <c r="AJ34" s="225"/>
+      <c r="AK34" s="225"/>
+      <c r="AL34" s="225"/>
+      <c r="AM34" s="225"/>
+      <c r="AN34" s="225"/>
+      <c r="AO34" s="225"/>
+      <c r="AP34" s="225"/>
+      <c r="AQ34" s="225"/>
+      <c r="AR34" s="225"/>
+      <c r="AS34" s="225"/>
+      <c r="AT34" s="225"/>
+      <c r="AU34" s="225"/>
+      <c r="AV34" s="228"/>
+      <c r="AW34" s="229"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
@@ -6891,62 +6891,62 @@
       <c r="CC34" s="10"/>
     </row>
     <row r="35" spans="1:101" ht="12" customHeight="1">
-      <c r="B35" s="133"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="137" t="s">
+      <c r="B35" s="156"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="180" t="s">
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="150" t="s">
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="152"/>
-      <c r="S35" s="181" t="s">
+      <c r="P35" s="195"/>
+      <c r="Q35" s="195"/>
+      <c r="R35" s="196"/>
+      <c r="S35" s="191" t="s">
         <v>85</v>
       </c>
-      <c r="T35" s="181"/>
-      <c r="U35" s="181"/>
-      <c r="V35" s="181"/>
-      <c r="W35" s="181"/>
-      <c r="X35" s="181"/>
-      <c r="Y35" s="181"/>
-      <c r="Z35" s="174"/>
-      <c r="AA35" s="175"/>
-      <c r="AB35" s="175"/>
-      <c r="AC35" s="175"/>
-      <c r="AD35" s="175"/>
-      <c r="AE35" s="175"/>
-      <c r="AF35" s="175"/>
-      <c r="AG35" s="175"/>
-      <c r="AH35" s="175"/>
-      <c r="AI35" s="175"/>
-      <c r="AJ35" s="175"/>
-      <c r="AK35" s="175"/>
-      <c r="AL35" s="175"/>
-      <c r="AM35" s="175"/>
-      <c r="AN35" s="175"/>
-      <c r="AO35" s="175"/>
-      <c r="AP35" s="175"/>
-      <c r="AQ35" s="175"/>
-      <c r="AR35" s="175"/>
-      <c r="AS35" s="175"/>
-      <c r="AT35" s="175"/>
-      <c r="AU35" s="175"/>
-      <c r="AV35" s="175"/>
-      <c r="AW35" s="176"/>
+      <c r="T35" s="191"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="81"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="82"/>
+      <c r="AC35" s="82"/>
+      <c r="AD35" s="82"/>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="82"/>
+      <c r="AM35" s="82"/>
+      <c r="AN35" s="82"/>
+      <c r="AO35" s="82"/>
+      <c r="AP35" s="82"/>
+      <c r="AQ35" s="82"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="82"/>
+      <c r="AU35" s="82"/>
+      <c r="AV35" s="82"/>
+      <c r="AW35" s="83"/>
       <c r="AY35" s="7"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -6974,54 +6974,54 @@
       <c r="CB35" s="10"/>
     </row>
     <row r="36" spans="1:101" ht="12" customHeight="1">
-      <c r="B36" s="135"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="183"/>
-      <c r="M36" s="183"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="154"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="183"/>
-      <c r="U36" s="183"/>
-      <c r="V36" s="183"/>
-      <c r="W36" s="183"/>
-      <c r="X36" s="183"/>
-      <c r="Y36" s="183"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="178"/>
-      <c r="AB36" s="178"/>
-      <c r="AC36" s="178"/>
-      <c r="AD36" s="178"/>
-      <c r="AE36" s="178"/>
-      <c r="AF36" s="178"/>
-      <c r="AG36" s="178"/>
-      <c r="AH36" s="178"/>
-      <c r="AI36" s="178"/>
-      <c r="AJ36" s="178"/>
-      <c r="AK36" s="178"/>
-      <c r="AL36" s="178"/>
-      <c r="AM36" s="178"/>
-      <c r="AN36" s="178"/>
-      <c r="AO36" s="178"/>
-      <c r="AP36" s="178"/>
-      <c r="AQ36" s="178"/>
-      <c r="AR36" s="178"/>
-      <c r="AS36" s="178"/>
-      <c r="AT36" s="178"/>
-      <c r="AU36" s="178"/>
-      <c r="AV36" s="178"/>
-      <c r="AW36" s="179"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="192"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="197"/>
+      <c r="P36" s="198"/>
+      <c r="Q36" s="198"/>
+      <c r="R36" s="199"/>
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193"/>
+      <c r="V36" s="193"/>
+      <c r="W36" s="193"/>
+      <c r="X36" s="193"/>
+      <c r="Y36" s="193"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="85"/>
+      <c r="AF36" s="85"/>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
+      <c r="AP36" s="85"/>
+      <c r="AQ36" s="85"/>
+      <c r="AR36" s="85"/>
+      <c r="AS36" s="85"/>
+      <c r="AT36" s="85"/>
+      <c r="AU36" s="85"/>
+      <c r="AV36" s="85"/>
+      <c r="AW36" s="86"/>
       <c r="AY36" s="7"/>
       <c r="BB36" s="5" t="s">
         <v>125</v>
@@ -7122,77 +7122,77 @@
       <c r="BJ37" s="5"/>
     </row>
     <row r="38" spans="1:101" ht="12" customHeight="1">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="137" t="str">
+      <c r="C38" s="155"/>
+      <c r="D38" s="147" t="str">
         <f>IF(K38="","","賃  料")</f>
         <v/>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="80" t="str">
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="37" t="str">
         <f>IF(K38="","",BB36)</f>
         <v/>
       </c>
-      <c r="I38" s="81"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="186" t="str">
+      <c r="I38" s="38"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="185" t="str">
         <f>IF(BB36="月額（税込）",BC38,IF(BB36="月額",BB38,""))</f>
         <v/>
       </c>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
-      <c r="P38" s="187"/>
-      <c r="Q38" s="187"/>
-      <c r="R38" s="170" t="str">
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="171"/>
+      <c r="R38" s="166" t="str">
         <f>IF(K38="","","円")</f>
         <v/>
       </c>
-      <c r="S38" s="171"/>
-      <c r="T38" s="137" t="str">
-        <f>IF(X38="","",BC36)</f>
-        <v/>
-      </c>
-      <c r="U38" s="137"/>
-      <c r="V38" s="137"/>
-      <c r="W38" s="137"/>
-      <c r="X38" s="164" t="str">
+      <c r="S38" s="167"/>
+      <c r="T38" s="147" t="str">
+        <f>IF(X38="","敷　金",BC36)</f>
+        <v>敷　金</v>
+      </c>
+      <c r="U38" s="147"/>
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="160" t="str">
         <f>IF(BC36="敷　金",BE38,IF(BC36="保証金",BF38,""))</f>
         <v/>
       </c>
-      <c r="Y38" s="165"/>
-      <c r="Z38" s="165"/>
-      <c r="AA38" s="165"/>
-      <c r="AB38" s="165"/>
-      <c r="AC38" s="165"/>
-      <c r="AD38" s="165"/>
-      <c r="AE38" s="165"/>
-      <c r="AF38" s="166"/>
-      <c r="AG38" s="170" t="str">
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
+      <c r="AF38" s="162"/>
+      <c r="AG38" s="166" t="str">
         <f>IF(X38="","","円")</f>
         <v/>
       </c>
-      <c r="AH38" s="171"/>
-      <c r="AI38" s="174"/>
-      <c r="AJ38" s="175"/>
-      <c r="AK38" s="175"/>
-      <c r="AL38" s="176"/>
-      <c r="AM38" s="164"/>
-      <c r="AN38" s="165"/>
-      <c r="AO38" s="165"/>
-      <c r="AP38" s="165"/>
-      <c r="AQ38" s="165"/>
-      <c r="AR38" s="165"/>
-      <c r="AS38" s="165"/>
-      <c r="AT38" s="165"/>
-      <c r="AU38" s="166"/>
-      <c r="AV38" s="170"/>
-      <c r="AW38" s="171"/>
+      <c r="AH38" s="167"/>
+      <c r="AI38" s="81"/>
+      <c r="AJ38" s="82"/>
+      <c r="AK38" s="82"/>
+      <c r="AL38" s="83"/>
+      <c r="AM38" s="160"/>
+      <c r="AN38" s="161"/>
+      <c r="AO38" s="161"/>
+      <c r="AP38" s="161"/>
+      <c r="AQ38" s="161"/>
+      <c r="AR38" s="161"/>
+      <c r="AS38" s="161"/>
+      <c r="AT38" s="161"/>
+      <c r="AU38" s="162"/>
+      <c r="AV38" s="166"/>
+      <c r="AW38" s="167"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
         <v>110</v>
@@ -7213,54 +7213,54 @@
       <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="1:101" ht="12" customHeight="1">
-      <c r="B39" s="133"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="185"/>
-      <c r="K39" s="188"/>
-      <c r="L39" s="189"/>
-      <c r="M39" s="189"/>
-      <c r="N39" s="189"/>
-      <c r="O39" s="189"/>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="189"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="137"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="167"/>
-      <c r="Y39" s="168"/>
-      <c r="Z39" s="168"/>
-      <c r="AA39" s="168"/>
-      <c r="AB39" s="168"/>
-      <c r="AC39" s="168"/>
-      <c r="AD39" s="168"/>
-      <c r="AE39" s="168"/>
-      <c r="AF39" s="169"/>
-      <c r="AG39" s="172"/>
-      <c r="AH39" s="173"/>
-      <c r="AI39" s="177"/>
-      <c r="AJ39" s="178"/>
-      <c r="AK39" s="178"/>
-      <c r="AL39" s="179"/>
-      <c r="AM39" s="167"/>
-      <c r="AN39" s="168"/>
-      <c r="AO39" s="168"/>
-      <c r="AP39" s="168"/>
-      <c r="AQ39" s="168"/>
-      <c r="AR39" s="168"/>
-      <c r="AS39" s="168"/>
-      <c r="AT39" s="168"/>
-      <c r="AU39" s="169"/>
-      <c r="AV39" s="172"/>
-      <c r="AW39" s="173"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="168"/>
+      <c r="S39" s="169"/>
+      <c r="T39" s="147"/>
+      <c r="U39" s="147"/>
+      <c r="V39" s="147"/>
+      <c r="W39" s="147"/>
+      <c r="X39" s="163"/>
+      <c r="Y39" s="164"/>
+      <c r="Z39" s="164"/>
+      <c r="AA39" s="164"/>
+      <c r="AB39" s="164"/>
+      <c r="AC39" s="164"/>
+      <c r="AD39" s="164"/>
+      <c r="AE39" s="164"/>
+      <c r="AF39" s="165"/>
+      <c r="AG39" s="168"/>
+      <c r="AH39" s="169"/>
+      <c r="AI39" s="84"/>
+      <c r="AJ39" s="85"/>
+      <c r="AK39" s="85"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="163"/>
+      <c r="AN39" s="164"/>
+      <c r="AO39" s="164"/>
+      <c r="AP39" s="164"/>
+      <c r="AQ39" s="164"/>
+      <c r="AR39" s="164"/>
+      <c r="AS39" s="164"/>
+      <c r="AT39" s="164"/>
+      <c r="AU39" s="165"/>
+      <c r="AV39" s="168"/>
+      <c r="AW39" s="169"/>
       <c r="AY39" s="7"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
@@ -7273,75 +7273,75 @@
       <c r="BJ39" s="5"/>
     </row>
     <row r="40" spans="1:101" ht="12" customHeight="1">
-      <c r="B40" s="133"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="137" t="str">
-        <f>IF(K40="","",BB37)</f>
-        <v/>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="80" t="str">
-        <f>IF(K40="","",BC37)</f>
-        <v/>
-      </c>
-      <c r="I40" s="81"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="186" t="str">
+      <c r="B40" s="156"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="147" t="str">
+        <f>IF(K40="","共益費",BB37)</f>
+        <v>共益費</v>
+      </c>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="37" t="str">
+        <f>IF(K40="","月額",BC37)</f>
+        <v>月額</v>
+      </c>
+      <c r="I40" s="38"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="185" t="str">
         <f>IF(BB37="共益費",IF(BC37="月額（税込）",BC40,IF(BC37="月額",BB40,"")),IF(BB37="管理費",IF(BC37="月額（税込）",BC41,IF(BC37="月額",BB41,"")),""))</f>
         <v/>
       </c>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187"/>
-      <c r="R40" s="170" t="str">
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="171"/>
+      <c r="Q40" s="171"/>
+      <c r="R40" s="166" t="str">
         <f>IF(K40="","","円")</f>
         <v/>
       </c>
-      <c r="S40" s="171"/>
-      <c r="T40" s="137" t="str">
+      <c r="S40" s="167"/>
+      <c r="T40" s="147" t="str">
         <f>IF(X40="","","償  却")</f>
         <v>償  却</v>
       </c>
-      <c r="U40" s="137"/>
-      <c r="V40" s="137"/>
-      <c r="W40" s="137"/>
-      <c r="X40" s="164" t="str">
+      <c r="U40" s="147"/>
+      <c r="V40" s="147"/>
+      <c r="W40" s="147"/>
+      <c r="X40" s="160" t="str">
         <f>IF(BF37="","",BF37)</f>
         <v>$amortization$</v>
       </c>
-      <c r="Y40" s="165"/>
-      <c r="Z40" s="165"/>
-      <c r="AA40" s="165"/>
-      <c r="AB40" s="165"/>
-      <c r="AC40" s="165"/>
-      <c r="AD40" s="165"/>
-      <c r="AE40" s="165"/>
-      <c r="AF40" s="166"/>
-      <c r="AG40" s="170" t="str">
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
+      <c r="AD40" s="161"/>
+      <c r="AE40" s="161"/>
+      <c r="AF40" s="162"/>
+      <c r="AG40" s="166" t="str">
         <f>IF(X40="","","円")</f>
         <v>円</v>
       </c>
-      <c r="AH40" s="171"/>
-      <c r="AI40" s="137"/>
-      <c r="AJ40" s="137"/>
-      <c r="AK40" s="137"/>
-      <c r="AL40" s="137"/>
-      <c r="AM40" s="233"/>
-      <c r="AN40" s="187"/>
-      <c r="AO40" s="187"/>
-      <c r="AP40" s="187"/>
-      <c r="AQ40" s="187"/>
-      <c r="AR40" s="187"/>
-      <c r="AS40" s="187"/>
-      <c r="AT40" s="187"/>
-      <c r="AU40" s="187"/>
-      <c r="AV40" s="170"/>
-      <c r="AW40" s="171"/>
+      <c r="AH40" s="167"/>
+      <c r="AI40" s="147"/>
+      <c r="AJ40" s="147"/>
+      <c r="AK40" s="147"/>
+      <c r="AL40" s="147"/>
+      <c r="AM40" s="170"/>
+      <c r="AN40" s="171"/>
+      <c r="AO40" s="171"/>
+      <c r="AP40" s="171"/>
+      <c r="AQ40" s="171"/>
+      <c r="AR40" s="171"/>
+      <c r="AS40" s="171"/>
+      <c r="AT40" s="171"/>
+      <c r="AU40" s="171"/>
+      <c r="AV40" s="166"/>
+      <c r="AW40" s="167"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
         <v>114</v>
@@ -7358,54 +7358,54 @@
       <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:101" ht="12" customHeight="1">
-      <c r="B41" s="133"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="185"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="189"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="137"/>
-      <c r="V41" s="137"/>
-      <c r="W41" s="137"/>
-      <c r="X41" s="167"/>
-      <c r="Y41" s="168"/>
-      <c r="Z41" s="168"/>
-      <c r="AA41" s="168"/>
-      <c r="AB41" s="168"/>
-      <c r="AC41" s="168"/>
-      <c r="AD41" s="168"/>
-      <c r="AE41" s="168"/>
-      <c r="AF41" s="169"/>
-      <c r="AG41" s="172"/>
-      <c r="AH41" s="173"/>
-      <c r="AI41" s="137"/>
-      <c r="AJ41" s="137"/>
-      <c r="AK41" s="137"/>
-      <c r="AL41" s="137"/>
-      <c r="AM41" s="191"/>
-      <c r="AN41" s="189"/>
-      <c r="AO41" s="189"/>
-      <c r="AP41" s="189"/>
-      <c r="AQ41" s="189"/>
-      <c r="AR41" s="189"/>
-      <c r="AS41" s="189"/>
-      <c r="AT41" s="189"/>
-      <c r="AU41" s="189"/>
-      <c r="AV41" s="172"/>
-      <c r="AW41" s="173"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="186"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="168"/>
+      <c r="S41" s="169"/>
+      <c r="T41" s="147"/>
+      <c r="U41" s="147"/>
+      <c r="V41" s="147"/>
+      <c r="W41" s="147"/>
+      <c r="X41" s="163"/>
+      <c r="Y41" s="164"/>
+      <c r="Z41" s="164"/>
+      <c r="AA41" s="164"/>
+      <c r="AB41" s="164"/>
+      <c r="AC41" s="164"/>
+      <c r="AD41" s="164"/>
+      <c r="AE41" s="164"/>
+      <c r="AF41" s="165"/>
+      <c r="AG41" s="168"/>
+      <c r="AH41" s="169"/>
+      <c r="AI41" s="147"/>
+      <c r="AJ41" s="147"/>
+      <c r="AK41" s="147"/>
+      <c r="AL41" s="147"/>
+      <c r="AM41" s="172"/>
+      <c r="AN41" s="173"/>
+      <c r="AO41" s="173"/>
+      <c r="AP41" s="173"/>
+      <c r="AQ41" s="173"/>
+      <c r="AR41" s="173"/>
+      <c r="AS41" s="173"/>
+      <c r="AT41" s="173"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="168"/>
+      <c r="AW41" s="169"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
         <v>132</v>
@@ -7422,81 +7422,81 @@
       <c r="BJ41" s="5"/>
     </row>
     <row r="42" spans="1:101" ht="12" customHeight="1">
-      <c r="B42" s="133"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="196" t="str">
+      <c r="B42" s="156"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="187" t="str">
         <f>IF(K42="","","駐車場賃料")</f>
         <v/>
       </c>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="80" t="str">
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="37" t="str">
         <f>IF(K42="","",BB45)</f>
         <v/>
       </c>
-      <c r="I42" s="81"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="186" t="str">
+      <c r="I42" s="38"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="185" t="str">
         <f>IF(BB45="月額（税込）",BC46,IF(BB45="月額",BB46,""))</f>
         <v/>
       </c>
-      <c r="L42" s="187"/>
-      <c r="M42" s="187"/>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="187"/>
-      <c r="R42" s="170" t="str">
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="171"/>
+      <c r="Q42" s="171"/>
+      <c r="R42" s="166" t="str">
         <f>IF(K42="","","円")</f>
         <v/>
       </c>
-      <c r="S42" s="171"/>
-      <c r="T42" s="197" t="s">
+      <c r="S42" s="167"/>
+      <c r="T42" s="188" t="s">
         <v>128</v>
       </c>
-      <c r="U42" s="198"/>
-      <c r="V42" s="198"/>
-      <c r="W42" s="198"/>
-      <c r="X42" s="164" t="s">
+      <c r="U42" s="189"/>
+      <c r="V42" s="189"/>
+      <c r="W42" s="189"/>
+      <c r="X42" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="Y42" s="165"/>
-      <c r="Z42" s="165"/>
-      <c r="AA42" s="165"/>
-      <c r="AB42" s="165"/>
-      <c r="AC42" s="165"/>
-      <c r="AD42" s="165"/>
-      <c r="AE42" s="165"/>
-      <c r="AF42" s="166"/>
-      <c r="AG42" s="170" t="s">
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+      <c r="AD42" s="161"/>
+      <c r="AE42" s="161"/>
+      <c r="AF42" s="162"/>
+      <c r="AG42" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="AH42" s="171"/>
-      <c r="AI42" s="137" t="str">
+      <c r="AH42" s="167"/>
+      <c r="AI42" s="147" t="str">
         <f>IF(OR(BB43="", BB43=0),"","その他費用")</f>
         <v>その他費用</v>
       </c>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="137"/>
-      <c r="AL42" s="137"/>
-      <c r="AM42" s="190" t="str">
+      <c r="AJ42" s="147"/>
+      <c r="AK42" s="147"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="184" t="str">
         <f>IF(OR(BB43="", BB43=0),"",BB43)</f>
         <v>$otherExpenses$</v>
       </c>
-      <c r="AN42" s="187"/>
-      <c r="AO42" s="187"/>
-      <c r="AP42" s="187"/>
-      <c r="AQ42" s="187"/>
-      <c r="AR42" s="187"/>
-      <c r="AS42" s="187"/>
-      <c r="AT42" s="187"/>
-      <c r="AU42" s="187"/>
-      <c r="AV42" s="192" t="str">
+      <c r="AN42" s="171"/>
+      <c r="AO42" s="171"/>
+      <c r="AP42" s="171"/>
+      <c r="AQ42" s="171"/>
+      <c r="AR42" s="171"/>
+      <c r="AS42" s="171"/>
+      <c r="AT42" s="171"/>
+      <c r="AU42" s="171"/>
+      <c r="AV42" s="149" t="str">
         <f>IF(OR(BB43="", BB43=0),"","円")</f>
         <v>円</v>
       </c>
-      <c r="AW42" s="193"/>
+      <c r="AW42" s="150"/>
       <c r="AY42" s="7"/>
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
@@ -7509,54 +7509,54 @@
       <c r="BJ42" s="5"/>
     </row>
     <row r="43" spans="1:101" ht="12" customHeight="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="185"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="189"/>
-      <c r="M43" s="189"/>
-      <c r="N43" s="189"/>
-      <c r="O43" s="189"/>
-      <c r="P43" s="189"/>
-      <c r="Q43" s="189"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="198"/>
-      <c r="U43" s="198"/>
-      <c r="V43" s="198"/>
-      <c r="W43" s="198"/>
-      <c r="X43" s="167"/>
-      <c r="Y43" s="168"/>
-      <c r="Z43" s="168"/>
-      <c r="AA43" s="168"/>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="169"/>
-      <c r="AG43" s="172"/>
-      <c r="AH43" s="173"/>
-      <c r="AI43" s="137"/>
-      <c r="AJ43" s="137"/>
-      <c r="AK43" s="137"/>
-      <c r="AL43" s="137"/>
-      <c r="AM43" s="191"/>
-      <c r="AN43" s="189"/>
-      <c r="AO43" s="189"/>
-      <c r="AP43" s="189"/>
-      <c r="AQ43" s="189"/>
-      <c r="AR43" s="189"/>
-      <c r="AS43" s="189"/>
-      <c r="AT43" s="189"/>
-      <c r="AU43" s="189"/>
-      <c r="AV43" s="194"/>
-      <c r="AW43" s="195"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="186"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="169"/>
+      <c r="T43" s="189"/>
+      <c r="U43" s="189"/>
+      <c r="V43" s="189"/>
+      <c r="W43" s="189"/>
+      <c r="X43" s="163"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="164"/>
+      <c r="AA43" s="164"/>
+      <c r="AB43" s="164"/>
+      <c r="AC43" s="164"/>
+      <c r="AD43" s="164"/>
+      <c r="AE43" s="164"/>
+      <c r="AF43" s="165"/>
+      <c r="AG43" s="168"/>
+      <c r="AH43" s="169"/>
+      <c r="AI43" s="147"/>
+      <c r="AJ43" s="147"/>
+      <c r="AK43" s="147"/>
+      <c r="AL43" s="147"/>
+      <c r="AM43" s="172"/>
+      <c r="AN43" s="173"/>
+      <c r="AO43" s="173"/>
+      <c r="AP43" s="173"/>
+      <c r="AQ43" s="173"/>
+      <c r="AR43" s="173"/>
+      <c r="AS43" s="173"/>
+      <c r="AT43" s="173"/>
+      <c r="AU43" s="173"/>
+      <c r="AV43" s="152"/>
+      <c r="AW43" s="153"/>
       <c r="AY43" s="7"/>
       <c r="BB43" s="5" t="s">
         <v>133</v>
@@ -7571,86 +7571,86 @@
       <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="1:101" ht="12" customHeight="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="137" t="s">
+      <c r="B44" s="156"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="211" t="s">
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="207" t="s">
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="207"/>
-      <c r="N44" s="209" t="s">
+      <c r="M44" s="35"/>
+      <c r="N44" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="O44" s="209"/>
-      <c r="P44" s="207" t="s">
+      <c r="O44" s="59"/>
+      <c r="P44" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="207"/>
-      <c r="R44" s="209" t="s">
+      <c r="Q44" s="35"/>
+      <c r="R44" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="S44" s="209"/>
-      <c r="T44" s="207" t="s">
+      <c r="S44" s="59"/>
+      <c r="T44" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U44" s="207"/>
-      <c r="V44" s="203" t="s">
+      <c r="U44" s="35"/>
+      <c r="V44" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="W44" s="203"/>
-      <c r="X44" s="205" t="s">
+      <c r="W44" s="178"/>
+      <c r="X44" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="207" t="s">
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AC44" s="207"/>
-      <c r="AD44" s="209" t="s">
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="AE44" s="209"/>
-      <c r="AF44" s="207" t="s">
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AG44" s="207"/>
-      <c r="AH44" s="209" t="s">
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="AI44" s="209"/>
-      <c r="AJ44" s="207" t="s">
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AK44" s="207"/>
-      <c r="AL44" s="207"/>
-      <c r="AM44" s="203" t="s">
+      <c r="AK44" s="35"/>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="AN44" s="213" t="s">
+      <c r="AN44" s="180" t="s">
         <v>86</v>
       </c>
-      <c r="AO44" s="213"/>
-      <c r="AP44" s="213"/>
-      <c r="AQ44" s="213"/>
-      <c r="AR44" s="213"/>
-      <c r="AS44" s="213"/>
-      <c r="AT44" s="213"/>
-      <c r="AU44" s="213"/>
-      <c r="AV44" s="213"/>
-      <c r="AW44" s="215" t="s">
+      <c r="AO44" s="180"/>
+      <c r="AP44" s="180"/>
+      <c r="AQ44" s="180"/>
+      <c r="AR44" s="180"/>
+      <c r="AS44" s="180"/>
+      <c r="AT44" s="180"/>
+      <c r="AU44" s="180"/>
+      <c r="AV44" s="180"/>
+      <c r="AW44" s="182" t="s">
         <v>31</v>
       </c>
       <c r="AX44" s="10"/>
@@ -7707,54 +7707,54 @@
       <c r="CW44" s="10"/>
     </row>
     <row r="45" spans="1:101" ht="12" customHeight="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="206"/>
-      <c r="K45" s="206"/>
-      <c r="L45" s="208"/>
-      <c r="M45" s="208"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="210"/>
-      <c r="P45" s="208"/>
-      <c r="Q45" s="208"/>
-      <c r="R45" s="210"/>
-      <c r="S45" s="210"/>
-      <c r="T45" s="208"/>
-      <c r="U45" s="208"/>
-      <c r="V45" s="204"/>
-      <c r="W45" s="204"/>
-      <c r="X45" s="206"/>
-      <c r="Y45" s="206"/>
-      <c r="Z45" s="206"/>
-      <c r="AA45" s="206"/>
-      <c r="AB45" s="208"/>
-      <c r="AC45" s="208"/>
-      <c r="AD45" s="210"/>
-      <c r="AE45" s="210"/>
-      <c r="AF45" s="208"/>
-      <c r="AG45" s="208"/>
-      <c r="AH45" s="210"/>
-      <c r="AI45" s="210"/>
-      <c r="AJ45" s="208"/>
-      <c r="AK45" s="208"/>
-      <c r="AL45" s="208"/>
-      <c r="AM45" s="204"/>
-      <c r="AN45" s="214"/>
-      <c r="AO45" s="214"/>
-      <c r="AP45" s="214"/>
-      <c r="AQ45" s="214"/>
-      <c r="AR45" s="214"/>
-      <c r="AS45" s="214"/>
-      <c r="AT45" s="214"/>
-      <c r="AU45" s="214"/>
-      <c r="AV45" s="214"/>
-      <c r="AW45" s="216"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="179"/>
+      <c r="W45" s="179"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="36"/>
+      <c r="AK45" s="36"/>
+      <c r="AL45" s="36"/>
+      <c r="AM45" s="179"/>
+      <c r="AN45" s="181"/>
+      <c r="AO45" s="181"/>
+      <c r="AP45" s="181"/>
+      <c r="AQ45" s="181"/>
+      <c r="AR45" s="181"/>
+      <c r="AS45" s="181"/>
+      <c r="AT45" s="181"/>
+      <c r="AU45" s="181"/>
+      <c r="AV45" s="181"/>
+      <c r="AW45" s="183"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
@@ -7764,8 +7764,8 @@
       </c>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
-      <c r="BE45" s="199"/>
-      <c r="BF45" s="199"/>
+      <c r="BE45" s="174"/>
+      <c r="BF45" s="174"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
       <c r="BI45" s="10"/>
@@ -7812,60 +7812,60 @@
     </row>
     <row r="46" spans="1:101" ht="12" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="137" t="s">
+      <c r="B46" s="156"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="80" t="s">
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="200" t="s">
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="S46" s="200"/>
-      <c r="T46" s="200"/>
-      <c r="U46" s="201"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-      <c r="AC46" s="36"/>
-      <c r="AD46" s="36"/>
-      <c r="AE46" s="36"/>
-      <c r="AF46" s="36"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-      <c r="AJ46" s="36"/>
-      <c r="AK46" s="36"/>
-      <c r="AL46" s="36"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="37"/>
+      <c r="S46" s="175"/>
+      <c r="T46" s="175"/>
+      <c r="U46" s="176"/>
+      <c r="V46" s="243"/>
+      <c r="W46" s="244"/>
+      <c r="X46" s="244"/>
+      <c r="Y46" s="244"/>
+      <c r="Z46" s="244"/>
+      <c r="AA46" s="244"/>
+      <c r="AB46" s="244"/>
+      <c r="AC46" s="244"/>
+      <c r="AD46" s="244"/>
+      <c r="AE46" s="244"/>
+      <c r="AF46" s="244"/>
+      <c r="AG46" s="244"/>
+      <c r="AH46" s="244"/>
+      <c r="AI46" s="244"/>
+      <c r="AJ46" s="244"/>
+      <c r="AK46" s="244"/>
+      <c r="AL46" s="244"/>
+      <c r="AM46" s="244"/>
+      <c r="AN46" s="244"/>
+      <c r="AO46" s="244"/>
+      <c r="AP46" s="244"/>
+      <c r="AQ46" s="244"/>
+      <c r="AR46" s="244"/>
+      <c r="AS46" s="244"/>
+      <c r="AT46" s="244"/>
+      <c r="AU46" s="244"/>
+      <c r="AV46" s="244"/>
+      <c r="AW46" s="245"/>
       <c r="AX46" s="10"/>
       <c r="AY46" s="10"/>
       <c r="AZ46" s="10"/>
@@ -7924,54 +7924,54 @@
     </row>
     <row r="47" spans="1:101" ht="12" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="173"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
-      <c r="AP47" s="39"/>
-      <c r="AQ47" s="39"/>
-      <c r="AR47" s="39"/>
-      <c r="AS47" s="39"/>
-      <c r="AT47" s="39"/>
-      <c r="AU47" s="39"/>
-      <c r="AV47" s="39"/>
-      <c r="AW47" s="40"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="177"/>
+      <c r="S47" s="177"/>
+      <c r="T47" s="177"/>
+      <c r="U47" s="169"/>
+      <c r="V47" s="246"/>
+      <c r="W47" s="247"/>
+      <c r="X47" s="247"/>
+      <c r="Y47" s="247"/>
+      <c r="Z47" s="247"/>
+      <c r="AA47" s="247"/>
+      <c r="AB47" s="247"/>
+      <c r="AC47" s="247"/>
+      <c r="AD47" s="247"/>
+      <c r="AE47" s="247"/>
+      <c r="AF47" s="247"/>
+      <c r="AG47" s="247"/>
+      <c r="AH47" s="247"/>
+      <c r="AI47" s="247"/>
+      <c r="AJ47" s="247"/>
+      <c r="AK47" s="247"/>
+      <c r="AL47" s="247"/>
+      <c r="AM47" s="247"/>
+      <c r="AN47" s="247"/>
+      <c r="AO47" s="247"/>
+      <c r="AP47" s="247"/>
+      <c r="AQ47" s="247"/>
+      <c r="AR47" s="247"/>
+      <c r="AS47" s="247"/>
+      <c r="AT47" s="247"/>
+      <c r="AU47" s="247"/>
+      <c r="AV47" s="247"/>
+      <c r="AW47" s="248"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
@@ -8026,64 +8026,64 @@
     </row>
     <row r="48" spans="1:101" ht="12" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="137" t="s">
+      <c r="B48" s="156"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="80" t="s">
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81" t="s">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="226"/>
-      <c r="V48" s="228" t="s">
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="W48" s="229"/>
-      <c r="X48" s="229"/>
-      <c r="Y48" s="229"/>
-      <c r="Z48" s="229"/>
-      <c r="AA48" s="230"/>
-      <c r="AB48" s="231" t="s">
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="AC48" s="192"/>
-      <c r="AD48" s="192"/>
-      <c r="AE48" s="192"/>
-      <c r="AF48" s="192"/>
-      <c r="AG48" s="192"/>
-      <c r="AH48" s="192"/>
-      <c r="AI48" s="192"/>
-      <c r="AJ48" s="192"/>
-      <c r="AK48" s="192"/>
-      <c r="AL48" s="192"/>
-      <c r="AM48" s="192"/>
-      <c r="AN48" s="192"/>
-      <c r="AO48" s="192"/>
-      <c r="AP48" s="192"/>
-      <c r="AQ48" s="192"/>
-      <c r="AR48" s="192"/>
-      <c r="AS48" s="192"/>
-      <c r="AT48" s="192"/>
-      <c r="AU48" s="192"/>
-      <c r="AV48" s="192"/>
-      <c r="AW48" s="193"/>
+      <c r="AC48" s="149"/>
+      <c r="AD48" s="149"/>
+      <c r="AE48" s="149"/>
+      <c r="AF48" s="149"/>
+      <c r="AG48" s="149"/>
+      <c r="AH48" s="149"/>
+      <c r="AI48" s="149"/>
+      <c r="AJ48" s="149"/>
+      <c r="AK48" s="149"/>
+      <c r="AL48" s="149"/>
+      <c r="AM48" s="149"/>
+      <c r="AN48" s="149"/>
+      <c r="AO48" s="149"/>
+      <c r="AP48" s="149"/>
+      <c r="AQ48" s="149"/>
+      <c r="AR48" s="149"/>
+      <c r="AS48" s="149"/>
+      <c r="AT48" s="149"/>
+      <c r="AU48" s="149"/>
+      <c r="AV48" s="149"/>
+      <c r="AW48" s="150"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
@@ -8138,54 +8138,54 @@
     </row>
     <row r="49" spans="1:100" ht="12" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="135"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="227"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="83"/>
-      <c r="X49" s="83"/>
-      <c r="Y49" s="83"/>
-      <c r="Z49" s="83"/>
-      <c r="AA49" s="227"/>
-      <c r="AB49" s="232"/>
-      <c r="AC49" s="194"/>
-      <c r="AD49" s="194"/>
-      <c r="AE49" s="194"/>
-      <c r="AF49" s="194"/>
-      <c r="AG49" s="194"/>
-      <c r="AH49" s="194"/>
-      <c r="AI49" s="194"/>
-      <c r="AJ49" s="194"/>
-      <c r="AK49" s="194"/>
-      <c r="AL49" s="194"/>
-      <c r="AM49" s="194"/>
-      <c r="AN49" s="194"/>
-      <c r="AO49" s="194"/>
-      <c r="AP49" s="194"/>
-      <c r="AQ49" s="194"/>
-      <c r="AR49" s="194"/>
-      <c r="AS49" s="194"/>
-      <c r="AT49" s="194"/>
-      <c r="AU49" s="194"/>
-      <c r="AV49" s="194"/>
-      <c r="AW49" s="195"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="45"/>
+      <c r="AB49" s="151"/>
+      <c r="AC49" s="152"/>
+      <c r="AD49" s="152"/>
+      <c r="AE49" s="152"/>
+      <c r="AF49" s="152"/>
+      <c r="AG49" s="152"/>
+      <c r="AH49" s="152"/>
+      <c r="AI49" s="152"/>
+      <c r="AJ49" s="152"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="152"/>
+      <c r="AM49" s="152"/>
+      <c r="AN49" s="152"/>
+      <c r="AO49" s="152"/>
+      <c r="AP49" s="152"/>
+      <c r="AQ49" s="152"/>
+      <c r="AR49" s="152"/>
+      <c r="AS49" s="152"/>
+      <c r="AT49" s="152"/>
+      <c r="AU49" s="152"/>
+      <c r="AV49" s="152"/>
+      <c r="AW49" s="153"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -8443,221 +8443,221 @@
       <c r="CV51" s="10"/>
     </row>
     <row r="52" spans="1:100" ht="12" customHeight="1">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="99" t="s">
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="100" t="s">
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="M52" s="94"/>
-      <c r="N52" s="94"/>
-      <c r="O52" s="94"/>
-      <c r="P52" s="94"/>
-      <c r="Q52" s="94"/>
-      <c r="R52" s="94"/>
-      <c r="S52" s="94"/>
-      <c r="T52" s="94"/>
-      <c r="U52" s="94"/>
-      <c r="V52" s="94"/>
-      <c r="W52" s="94"/>
-      <c r="X52" s="94"/>
-      <c r="Y52" s="94"/>
-      <c r="Z52" s="94"/>
-      <c r="AA52" s="94"/>
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="94"/>
-      <c r="AD52" s="94"/>
-      <c r="AE52" s="94"/>
-      <c r="AF52" s="94"/>
-      <c r="AG52" s="94"/>
-      <c r="AH52" s="116"/>
-      <c r="AI52" s="220" t="s">
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="125"/>
+      <c r="S52" s="125"/>
+      <c r="T52" s="125"/>
+      <c r="U52" s="125"/>
+      <c r="V52" s="125"/>
+      <c r="W52" s="125"/>
+      <c r="X52" s="125"/>
+      <c r="Y52" s="125"/>
+      <c r="Z52" s="125"/>
+      <c r="AA52" s="125"/>
+      <c r="AB52" s="125"/>
+      <c r="AC52" s="125"/>
+      <c r="AD52" s="125"/>
+      <c r="AE52" s="125"/>
+      <c r="AF52" s="125"/>
+      <c r="AG52" s="125"/>
+      <c r="AH52" s="126"/>
+      <c r="AI52" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="221"/>
-      <c r="AM52" s="106" t="s">
+      <c r="AJ52" s="131"/>
+      <c r="AK52" s="131"/>
+      <c r="AL52" s="132"/>
+      <c r="AM52" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="AN52" s="107"/>
-      <c r="AO52" s="107"/>
-      <c r="AP52" s="107"/>
-      <c r="AQ52" s="107"/>
-      <c r="AR52" s="107"/>
-      <c r="AS52" s="107"/>
-      <c r="AT52" s="107"/>
-      <c r="AU52" s="107"/>
-      <c r="AV52" s="107"/>
-      <c r="AW52" s="224"/>
+      <c r="AN52" s="137"/>
+      <c r="AO52" s="137"/>
+      <c r="AP52" s="137"/>
+      <c r="AQ52" s="137"/>
+      <c r="AR52" s="137"/>
+      <c r="AS52" s="137"/>
+      <c r="AT52" s="137"/>
+      <c r="AU52" s="137"/>
+      <c r="AV52" s="137"/>
+      <c r="AW52" s="138"/>
       <c r="AY52" s="7"/>
     </row>
     <row r="53" spans="1:100" ht="12" customHeight="1">
-      <c r="B53" s="217"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="218"/>
-      <c r="F53" s="218"/>
-      <c r="G53" s="219"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="97"/>
-      <c r="N53" s="97"/>
-      <c r="O53" s="97"/>
-      <c r="P53" s="97"/>
-      <c r="Q53" s="97"/>
-      <c r="R53" s="97"/>
-      <c r="S53" s="97"/>
-      <c r="T53" s="97"/>
-      <c r="U53" s="97"/>
-      <c r="V53" s="97"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="97"/>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="97"/>
-      <c r="AE53" s="97"/>
-      <c r="AF53" s="97"/>
-      <c r="AG53" s="97"/>
-      <c r="AH53" s="117"/>
-      <c r="AI53" s="222"/>
-      <c r="AJ53" s="91"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="223"/>
-      <c r="AM53" s="108"/>
-      <c r="AN53" s="109"/>
-      <c r="AO53" s="109"/>
-      <c r="AP53" s="109"/>
-      <c r="AQ53" s="109"/>
-      <c r="AR53" s="109"/>
-      <c r="AS53" s="109"/>
-      <c r="AT53" s="109"/>
-      <c r="AU53" s="109"/>
-      <c r="AV53" s="109"/>
-      <c r="AW53" s="225"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="128"/>
+      <c r="AA53" s="128"/>
+      <c r="AB53" s="128"/>
+      <c r="AC53" s="128"/>
+      <c r="AD53" s="128"/>
+      <c r="AE53" s="128"/>
+      <c r="AF53" s="128"/>
+      <c r="AG53" s="128"/>
+      <c r="AH53" s="129"/>
+      <c r="AI53" s="133"/>
+      <c r="AJ53" s="134"/>
+      <c r="AK53" s="134"/>
+      <c r="AL53" s="135"/>
+      <c r="AM53" s="139"/>
+      <c r="AN53" s="140"/>
+      <c r="AO53" s="140"/>
+      <c r="AP53" s="140"/>
+      <c r="AQ53" s="140"/>
+      <c r="AR53" s="140"/>
+      <c r="AS53" s="140"/>
+      <c r="AT53" s="140"/>
+      <c r="AU53" s="140"/>
+      <c r="AV53" s="140"/>
+      <c r="AW53" s="141"/>
       <c r="AY53" s="7"/>
     </row>
     <row r="54" spans="1:100" ht="12" customHeight="1">
-      <c r="B54" s="217"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="218"/>
-      <c r="F54" s="218"/>
-      <c r="G54" s="219"/>
-      <c r="H54" s="99" t="s">
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="124" t="s">
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="125"/>
-      <c r="T54" s="125"/>
-      <c r="U54" s="125"/>
-      <c r="V54" s="125"/>
-      <c r="W54" s="125"/>
-      <c r="X54" s="125"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="125"/>
-      <c r="AA54" s="125"/>
-      <c r="AB54" s="125"/>
-      <c r="AC54" s="125"/>
-      <c r="AD54" s="125"/>
-      <c r="AE54" s="125"/>
-      <c r="AF54" s="125"/>
-      <c r="AG54" s="125"/>
-      <c r="AH54" s="125"/>
-      <c r="AI54" s="125"/>
-      <c r="AJ54" s="125"/>
-      <c r="AK54" s="125"/>
-      <c r="AL54" s="125"/>
-      <c r="AM54" s="125"/>
-      <c r="AN54" s="125"/>
-      <c r="AO54" s="125"/>
-      <c r="AP54" s="125"/>
-      <c r="AQ54" s="125"/>
-      <c r="AR54" s="125"/>
-      <c r="AS54" s="125"/>
-      <c r="AT54" s="125"/>
-      <c r="AU54" s="125"/>
-      <c r="AV54" s="125"/>
-      <c r="AW54" s="130"/>
+      <c r="M54" s="143"/>
+      <c r="N54" s="143"/>
+      <c r="O54" s="143"/>
+      <c r="P54" s="143"/>
+      <c r="Q54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
+      <c r="U54" s="143"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="143"/>
+      <c r="X54" s="143"/>
+      <c r="Y54" s="143"/>
+      <c r="Z54" s="143"/>
+      <c r="AA54" s="143"/>
+      <c r="AB54" s="143"/>
+      <c r="AC54" s="143"/>
+      <c r="AD54" s="143"/>
+      <c r="AE54" s="143"/>
+      <c r="AF54" s="143"/>
+      <c r="AG54" s="143"/>
+      <c r="AH54" s="143"/>
+      <c r="AI54" s="143"/>
+      <c r="AJ54" s="143"/>
+      <c r="AK54" s="143"/>
+      <c r="AL54" s="143"/>
+      <c r="AM54" s="143"/>
+      <c r="AN54" s="143"/>
+      <c r="AO54" s="143"/>
+      <c r="AP54" s="143"/>
+      <c r="AQ54" s="143"/>
+      <c r="AR54" s="143"/>
+      <c r="AS54" s="143"/>
+      <c r="AT54" s="143"/>
+      <c r="AU54" s="143"/>
+      <c r="AV54" s="143"/>
+      <c r="AW54" s="144"/>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:100" ht="12" customHeight="1">
-      <c r="B55" s="121"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="97"/>
-      <c r="N55" s="97"/>
-      <c r="O55" s="97"/>
-      <c r="P55" s="97"/>
-      <c r="Q55" s="97"/>
-      <c r="R55" s="97"/>
-      <c r="S55" s="97"/>
-      <c r="T55" s="97"/>
-      <c r="U55" s="97"/>
-      <c r="V55" s="97"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
-      <c r="AE55" s="97"/>
-      <c r="AF55" s="97"/>
-      <c r="AG55" s="97"/>
-      <c r="AH55" s="97"/>
-      <c r="AI55" s="97"/>
-      <c r="AJ55" s="97"/>
-      <c r="AK55" s="97"/>
-      <c r="AL55" s="97"/>
-      <c r="AM55" s="97"/>
-      <c r="AN55" s="97"/>
-      <c r="AO55" s="97"/>
-      <c r="AP55" s="97"/>
-      <c r="AQ55" s="97"/>
-      <c r="AR55" s="97"/>
-      <c r="AS55" s="97"/>
-      <c r="AT55" s="97"/>
-      <c r="AU55" s="97"/>
-      <c r="AV55" s="97"/>
-      <c r="AW55" s="98"/>
+      <c r="B55" s="120"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="145"/>
+      <c r="M55" s="128"/>
+      <c r="N55" s="128"/>
+      <c r="O55" s="128"/>
+      <c r="P55" s="128"/>
+      <c r="Q55" s="128"/>
+      <c r="R55" s="128"/>
+      <c r="S55" s="128"/>
+      <c r="T55" s="128"/>
+      <c r="U55" s="128"/>
+      <c r="V55" s="128"/>
+      <c r="W55" s="128"/>
+      <c r="X55" s="128"/>
+      <c r="Y55" s="128"/>
+      <c r="Z55" s="128"/>
+      <c r="AA55" s="128"/>
+      <c r="AB55" s="128"/>
+      <c r="AC55" s="128"/>
+      <c r="AD55" s="128"/>
+      <c r="AE55" s="128"/>
+      <c r="AF55" s="128"/>
+      <c r="AG55" s="128"/>
+      <c r="AH55" s="128"/>
+      <c r="AI55" s="128"/>
+      <c r="AJ55" s="128"/>
+      <c r="AK55" s="128"/>
+      <c r="AL55" s="128"/>
+      <c r="AM55" s="128"/>
+      <c r="AN55" s="128"/>
+      <c r="AO55" s="128"/>
+      <c r="AP55" s="128"/>
+      <c r="AQ55" s="128"/>
+      <c r="AR55" s="128"/>
+      <c r="AS55" s="128"/>
+      <c r="AT55" s="128"/>
+      <c r="AU55" s="128"/>
+      <c r="AV55" s="128"/>
+      <c r="AW55" s="146"/>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:100" ht="12" customHeight="1">
@@ -8815,74 +8815,74 @@
     </row>
     <row r="58" spans="1:100" ht="12" customHeight="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="174" t="s">
+      <c r="B58" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="175"/>
-      <c r="D58" s="175"/>
-      <c r="E58" s="175"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="211" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="207" t="s">
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="207"/>
-      <c r="N58" s="209" t="s">
+      <c r="M58" s="35"/>
+      <c r="N58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="O58" s="209"/>
-      <c r="P58" s="207" t="s">
+      <c r="O58" s="59"/>
+      <c r="P58" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q58" s="207"/>
-      <c r="R58" s="209" t="s">
+      <c r="Q58" s="35"/>
+      <c r="R58" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="S58" s="209"/>
-      <c r="T58" s="207" t="s">
+      <c r="S58" s="59"/>
+      <c r="T58" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U58" s="207"/>
-      <c r="V58" s="80" t="s">
+      <c r="U58" s="35"/>
+      <c r="V58" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="W58" s="81"/>
-      <c r="X58" s="81"/>
-      <c r="Y58" s="81"/>
-      <c r="Z58" s="81"/>
-      <c r="AA58" s="226"/>
-      <c r="AB58" s="211" t="s">
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="AC58" s="205"/>
-      <c r="AD58" s="205"/>
-      <c r="AE58" s="205"/>
-      <c r="AF58" s="207" t="s">
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AG58" s="207"/>
-      <c r="AH58" s="209" t="s">
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="AI58" s="209"/>
-      <c r="AJ58" s="207" t="s">
+      <c r="AI58" s="59"/>
+      <c r="AJ58" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK58" s="207"/>
-      <c r="AL58" s="209" t="s">
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="AM58" s="209"/>
-      <c r="AN58" s="207" t="s">
+      <c r="AM58" s="59"/>
+      <c r="AN58" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AO58" s="207"/>
+      <c r="AO58" s="35"/>
       <c r="AP58" s="31"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
@@ -8935,46 +8935,46 @@
     </row>
     <row r="59" spans="1:100" ht="12" customHeight="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="178"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="178"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="212"/>
-      <c r="I59" s="206"/>
-      <c r="J59" s="206"/>
-      <c r="K59" s="206"/>
-      <c r="L59" s="208"/>
-      <c r="M59" s="208"/>
-      <c r="N59" s="210"/>
-      <c r="O59" s="210"/>
-      <c r="P59" s="208"/>
-      <c r="Q59" s="208"/>
-      <c r="R59" s="210"/>
-      <c r="S59" s="210"/>
-      <c r="T59" s="208"/>
-      <c r="U59" s="208"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="83"/>
-      <c r="X59" s="83"/>
-      <c r="Y59" s="83"/>
-      <c r="Z59" s="83"/>
-      <c r="AA59" s="227"/>
-      <c r="AB59" s="212"/>
-      <c r="AC59" s="206"/>
-      <c r="AD59" s="206"/>
-      <c r="AE59" s="206"/>
-      <c r="AF59" s="208"/>
-      <c r="AG59" s="208"/>
-      <c r="AH59" s="210"/>
-      <c r="AI59" s="210"/>
-      <c r="AJ59" s="208"/>
-      <c r="AK59" s="208"/>
-      <c r="AL59" s="210"/>
-      <c r="AM59" s="210"/>
-      <c r="AN59" s="208"/>
-      <c r="AO59" s="208"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="36"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="36"/>
+      <c r="U59" s="36"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="45"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="58"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="60"/>
+      <c r="AI59" s="60"/>
+      <c r="AJ59" s="36"/>
+      <c r="AK59" s="36"/>
+      <c r="AL59" s="60"/>
+      <c r="AM59" s="60"/>
+      <c r="AN59" s="36"/>
+      <c r="AO59" s="36"/>
       <c r="AP59" s="31"/>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="10"/>
@@ -9027,74 +9027,74 @@
     </row>
     <row r="60" spans="1:100" ht="12" customHeight="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="174" t="s">
+      <c r="B60" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="175"/>
-      <c r="D60" s="175"/>
-      <c r="E60" s="175"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="211" t="s">
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="205"/>
-      <c r="J60" s="205"/>
-      <c r="K60" s="205"/>
-      <c r="L60" s="207" t="s">
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="M60" s="207"/>
-      <c r="N60" s="209" t="s">
+      <c r="M60" s="35"/>
+      <c r="N60" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="209"/>
-      <c r="P60" s="207" t="s">
+      <c r="O60" s="59"/>
+      <c r="P60" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="207"/>
-      <c r="R60" s="209" t="s">
+      <c r="Q60" s="35"/>
+      <c r="R60" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="S60" s="209"/>
-      <c r="T60" s="207" t="s">
+      <c r="S60" s="59"/>
+      <c r="T60" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="207"/>
-      <c r="V60" s="207" t="s">
+      <c r="U60" s="35"/>
+      <c r="V60" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="W60" s="207"/>
-      <c r="X60" s="207"/>
-      <c r="Y60" s="207"/>
-      <c r="Z60" s="207"/>
-      <c r="AA60" s="207"/>
-      <c r="AB60" s="205" t="s">
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AC60" s="205"/>
-      <c r="AD60" s="205"/>
-      <c r="AE60" s="205"/>
-      <c r="AF60" s="207" t="s">
+      <c r="AC60" s="56"/>
+      <c r="AD60" s="56"/>
+      <c r="AE60" s="56"/>
+      <c r="AF60" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AG60" s="207"/>
-      <c r="AH60" s="209" t="s">
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="AI60" s="209"/>
-      <c r="AJ60" s="207" t="s">
+      <c r="AI60" s="59"/>
+      <c r="AJ60" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK60" s="207"/>
-      <c r="AL60" s="209" t="s">
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="AM60" s="209"/>
-      <c r="AN60" s="207" t="s">
+      <c r="AM60" s="59"/>
+      <c r="AN60" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AO60" s="207"/>
+      <c r="AO60" s="35"/>
       <c r="AP60" s="31"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -9147,46 +9147,46 @@
     </row>
     <row r="61" spans="1:100" ht="12" customHeight="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="179"/>
-      <c r="H61" s="212"/>
-      <c r="I61" s="206"/>
-      <c r="J61" s="206"/>
-      <c r="K61" s="206"/>
-      <c r="L61" s="208"/>
-      <c r="M61" s="208"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
-      <c r="P61" s="208"/>
-      <c r="Q61" s="208"/>
-      <c r="R61" s="210"/>
-      <c r="S61" s="210"/>
-      <c r="T61" s="208"/>
-      <c r="U61" s="208"/>
-      <c r="V61" s="208"/>
-      <c r="W61" s="208"/>
-      <c r="X61" s="208"/>
-      <c r="Y61" s="208"/>
-      <c r="Z61" s="208"/>
-      <c r="AA61" s="208"/>
-      <c r="AB61" s="206"/>
-      <c r="AC61" s="206"/>
-      <c r="AD61" s="206"/>
-      <c r="AE61" s="206"/>
-      <c r="AF61" s="208"/>
-      <c r="AG61" s="208"/>
-      <c r="AH61" s="210"/>
-      <c r="AI61" s="210"/>
-      <c r="AJ61" s="208"/>
-      <c r="AK61" s="208"/>
-      <c r="AL61" s="210"/>
-      <c r="AM61" s="210"/>
-      <c r="AN61" s="208"/>
-      <c r="AO61" s="208"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
+      <c r="AA61" s="36"/>
+      <c r="AB61" s="58"/>
+      <c r="AC61" s="58"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="58"/>
+      <c r="AF61" s="36"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="60"/>
+      <c r="AI61" s="60"/>
+      <c r="AJ61" s="36"/>
+      <c r="AK61" s="36"/>
+      <c r="AL61" s="60"/>
+      <c r="AM61" s="60"/>
+      <c r="AN61" s="36"/>
+      <c r="AO61" s="36"/>
       <c r="AP61" s="31"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -9306,68 +9306,68 @@
     </row>
     <row r="63" spans="1:100" ht="12" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="234" t="s">
+      <c r="B63" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="235"/>
-      <c r="D63" s="235"/>
-      <c r="E63" s="235"/>
-      <c r="F63" s="235"/>
-      <c r="G63" s="236"/>
-      <c r="H63" s="80" t="s">
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="81"/>
-      <c r="J63" s="184"/>
-      <c r="K63" s="240" t="s">
+      <c r="I63" s="38"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="L63" s="241"/>
-      <c r="M63" s="241"/>
-      <c r="N63" s="241"/>
-      <c r="O63" s="241"/>
-      <c r="P63" s="241"/>
-      <c r="Q63" s="241"/>
-      <c r="R63" s="241"/>
-      <c r="S63" s="242"/>
-      <c r="T63" s="246" t="s">
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="91"/>
+      <c r="T63" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="U63" s="247"/>
-      <c r="V63" s="80" t="s">
+      <c r="U63" s="96"/>
+      <c r="V63" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="W63" s="81"/>
-      <c r="X63" s="81"/>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="81"/>
-      <c r="AA63" s="226"/>
-      <c r="AB63" s="211" t="s">
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AC63" s="205"/>
-      <c r="AD63" s="205"/>
-      <c r="AE63" s="205"/>
-      <c r="AF63" s="207" t="s">
+      <c r="AC63" s="56"/>
+      <c r="AD63" s="56"/>
+      <c r="AE63" s="56"/>
+      <c r="AF63" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AG63" s="207"/>
-      <c r="AH63" s="209" t="s">
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="AI63" s="209"/>
-      <c r="AJ63" s="207" t="s">
+      <c r="AI63" s="59"/>
+      <c r="AJ63" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK63" s="207"/>
-      <c r="AL63" s="209" t="s">
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="AM63" s="209"/>
-      <c r="AN63" s="207" t="s">
+      <c r="AM63" s="59"/>
+      <c r="AN63" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AO63" s="207"/>
+      <c r="AO63" s="35"/>
       <c r="AP63" s="31"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -9400,46 +9400,46 @@
     </row>
     <row r="64" spans="1:100" ht="12" customHeight="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="237"/>
-      <c r="C64" s="238"/>
-      <c r="D64" s="238"/>
-      <c r="E64" s="238"/>
-      <c r="F64" s="238"/>
-      <c r="G64" s="239"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="185"/>
-      <c r="K64" s="243"/>
-      <c r="L64" s="244"/>
-      <c r="M64" s="244"/>
-      <c r="N64" s="244"/>
-      <c r="O64" s="244"/>
-      <c r="P64" s="244"/>
-      <c r="Q64" s="244"/>
-      <c r="R64" s="244"/>
-      <c r="S64" s="245"/>
-      <c r="T64" s="248"/>
-      <c r="U64" s="249"/>
-      <c r="V64" s="82"/>
-      <c r="W64" s="83"/>
-      <c r="X64" s="83"/>
-      <c r="Y64" s="83"/>
-      <c r="Z64" s="83"/>
-      <c r="AA64" s="227"/>
-      <c r="AB64" s="212"/>
-      <c r="AC64" s="206"/>
-      <c r="AD64" s="206"/>
-      <c r="AE64" s="206"/>
-      <c r="AF64" s="208"/>
-      <c r="AG64" s="208"/>
-      <c r="AH64" s="210"/>
-      <c r="AI64" s="210"/>
-      <c r="AJ64" s="208"/>
-      <c r="AK64" s="208"/>
-      <c r="AL64" s="210"/>
-      <c r="AM64" s="210"/>
-      <c r="AN64" s="208"/>
-      <c r="AO64" s="208"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="97"/>
+      <c r="U64" s="98"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="45"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="58"/>
+      <c r="AD64" s="58"/>
+      <c r="AE64" s="58"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="60"/>
+      <c r="AI64" s="60"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="60"/>
+      <c r="AM64" s="60"/>
+      <c r="AN64" s="36"/>
+      <c r="AO64" s="36"/>
       <c r="AP64" s="31"/>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="10"/>
@@ -9472,66 +9472,66 @@
     </row>
     <row r="65" spans="1:98" ht="12" customHeight="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="270"/>
-      <c r="C65" s="271"/>
-      <c r="D65" s="271"/>
-      <c r="E65" s="271"/>
-      <c r="F65" s="271"/>
-      <c r="G65" s="272"/>
-      <c r="H65" s="228" t="s">
+      <c r="B65" s="99"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="229"/>
-      <c r="J65" s="273"/>
-      <c r="K65" s="274" t="s">
+      <c r="I65" s="41"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="L65" s="275"/>
-      <c r="M65" s="275"/>
-      <c r="N65" s="275"/>
-      <c r="O65" s="275"/>
-      <c r="P65" s="275"/>
-      <c r="Q65" s="275"/>
-      <c r="R65" s="275"/>
-      <c r="S65" s="276"/>
-      <c r="T65" s="277" t="s">
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="278"/>
-      <c r="V65" s="80" t="s">
+      <c r="U65" s="110"/>
+      <c r="V65" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="W65" s="81"/>
-      <c r="X65" s="81"/>
-      <c r="Y65" s="81"/>
-      <c r="Z65" s="81"/>
-      <c r="AA65" s="226"/>
-      <c r="AB65" s="211" t="s">
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AC65" s="205"/>
-      <c r="AD65" s="205"/>
-      <c r="AE65" s="205"/>
-      <c r="AF65" s="207" t="s">
+      <c r="AC65" s="56"/>
+      <c r="AD65" s="56"/>
+      <c r="AE65" s="56"/>
+      <c r="AF65" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AG65" s="207"/>
-      <c r="AH65" s="209" t="s">
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="AI65" s="209"/>
-      <c r="AJ65" s="207" t="s">
+      <c r="AI65" s="59"/>
+      <c r="AJ65" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK65" s="207"/>
-      <c r="AL65" s="209" t="s">
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AM65" s="209"/>
-      <c r="AN65" s="207" t="s">
+      <c r="AM65" s="59"/>
+      <c r="AN65" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AO65" s="207"/>
+      <c r="AO65" s="35"/>
       <c r="AP65" s="31"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -9564,46 +9564,46 @@
     </row>
     <row r="66" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="237"/>
-      <c r="C66" s="238"/>
-      <c r="D66" s="238"/>
-      <c r="E66" s="238"/>
-      <c r="F66" s="238"/>
-      <c r="G66" s="239"/>
-      <c r="H66" s="82"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="185"/>
-      <c r="K66" s="243"/>
-      <c r="L66" s="244"/>
-      <c r="M66" s="244"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="244"/>
-      <c r="P66" s="244"/>
-      <c r="Q66" s="244"/>
-      <c r="R66" s="244"/>
-      <c r="S66" s="245"/>
-      <c r="T66" s="248"/>
-      <c r="U66" s="249"/>
-      <c r="V66" s="82"/>
-      <c r="W66" s="83"/>
-      <c r="X66" s="83"/>
-      <c r="Y66" s="83"/>
-      <c r="Z66" s="83"/>
-      <c r="AA66" s="227"/>
-      <c r="AB66" s="212"/>
-      <c r="AC66" s="206"/>
-      <c r="AD66" s="206"/>
-      <c r="AE66" s="206"/>
-      <c r="AF66" s="208"/>
-      <c r="AG66" s="208"/>
-      <c r="AH66" s="210"/>
-      <c r="AI66" s="210"/>
-      <c r="AJ66" s="208"/>
-      <c r="AK66" s="208"/>
-      <c r="AL66" s="210"/>
-      <c r="AM66" s="210"/>
-      <c r="AN66" s="208"/>
-      <c r="AO66" s="208"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="97"/>
+      <c r="U66" s="98"/>
+      <c r="V66" s="43"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="57"/>
+      <c r="AC66" s="58"/>
+      <c r="AD66" s="58"/>
+      <c r="AE66" s="58"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="60"/>
+      <c r="AI66" s="60"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
+      <c r="AL66" s="60"/>
+      <c r="AM66" s="60"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -9636,34 +9636,34 @@
     </row>
     <row r="67" spans="1:98" ht="12" customHeight="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="250" t="s">
+      <c r="B67" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="251"/>
-      <c r="D67" s="251"/>
-      <c r="E67" s="251"/>
-      <c r="F67" s="251"/>
-      <c r="G67" s="251"/>
-      <c r="H67" s="254" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="255"/>
-      <c r="J67" s="256"/>
-      <c r="K67" s="260" t="s">
+      <c r="I67" s="66"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="L67" s="261"/>
-      <c r="M67" s="261"/>
-      <c r="N67" s="261"/>
-      <c r="O67" s="261"/>
-      <c r="P67" s="261"/>
-      <c r="Q67" s="261"/>
-      <c r="R67" s="261"/>
-      <c r="S67" s="262"/>
-      <c r="T67" s="266" t="s">
+      <c r="L67" s="72"/>
+      <c r="M67" s="72"/>
+      <c r="N67" s="72"/>
+      <c r="O67" s="72"/>
+      <c r="P67" s="72"/>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="U67" s="267"/>
+      <c r="U67" s="78"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
@@ -9697,26 +9697,26 @@
     </row>
     <row r="68" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="252"/>
-      <c r="C68" s="253"/>
-      <c r="D68" s="253"/>
-      <c r="E68" s="253"/>
-      <c r="F68" s="253"/>
-      <c r="G68" s="253"/>
-      <c r="H68" s="257"/>
-      <c r="I68" s="258"/>
-      <c r="J68" s="259"/>
-      <c r="K68" s="263"/>
-      <c r="L68" s="264"/>
-      <c r="M68" s="264"/>
-      <c r="N68" s="264"/>
-      <c r="O68" s="264"/>
-      <c r="P68" s="264"/>
-      <c r="Q68" s="264"/>
-      <c r="R68" s="264"/>
-      <c r="S68" s="265"/>
-      <c r="T68" s="268"/>
-      <c r="U68" s="269"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="69"/>
+      <c r="J68" s="70"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="75"/>
+      <c r="M68" s="75"/>
+      <c r="N68" s="75"/>
+      <c r="O68" s="75"/>
+      <c r="P68" s="75"/>
+      <c r="Q68" s="75"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="76"/>
+      <c r="T68" s="79"/>
+      <c r="U68" s="80"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="10"/>
@@ -9817,68 +9817,68 @@
     </row>
     <row r="70" spans="1:98" ht="12" customHeight="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="174" t="s">
+      <c r="B70" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="175"/>
-      <c r="D70" s="175"/>
-      <c r="E70" s="175"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="176"/>
-      <c r="H70" s="80" t="s">
+      <c r="C70" s="82"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="81"/>
-      <c r="J70" s="184"/>
-      <c r="K70" s="240" t="s">
+      <c r="I70" s="38"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="L70" s="241"/>
-      <c r="M70" s="241"/>
-      <c r="N70" s="241"/>
-      <c r="O70" s="241"/>
-      <c r="P70" s="241"/>
-      <c r="Q70" s="241"/>
-      <c r="R70" s="241"/>
-      <c r="S70" s="242"/>
-      <c r="T70" s="246" t="s">
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="90"/>
+      <c r="R70" s="90"/>
+      <c r="S70" s="91"/>
+      <c r="T70" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="U70" s="247"/>
-      <c r="V70" s="80" t="s">
+      <c r="U70" s="96"/>
+      <c r="V70" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="W70" s="81"/>
-      <c r="X70" s="81"/>
-      <c r="Y70" s="81"/>
-      <c r="Z70" s="81"/>
-      <c r="AA70" s="226"/>
-      <c r="AB70" s="211" t="s">
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AC70" s="205"/>
-      <c r="AD70" s="205"/>
-      <c r="AE70" s="205"/>
-      <c r="AF70" s="207" t="s">
+      <c r="AC70" s="56"/>
+      <c r="AD70" s="56"/>
+      <c r="AE70" s="56"/>
+      <c r="AF70" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AG70" s="207"/>
-      <c r="AH70" s="209" t="s">
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AI70" s="209"/>
-      <c r="AJ70" s="207" t="s">
+      <c r="AI70" s="59"/>
+      <c r="AJ70" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AK70" s="207"/>
-      <c r="AL70" s="209" t="s">
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AM70" s="209"/>
-      <c r="AN70" s="207" t="s">
+      <c r="AM70" s="59"/>
+      <c r="AN70" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AO70" s="207"/>
+      <c r="AO70" s="35"/>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="15"/>
       <c r="AR70" s="10"/>
@@ -9933,46 +9933,46 @@
     </row>
     <row r="71" spans="1:98" ht="12" customHeight="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="177"/>
-      <c r="C71" s="178"/>
-      <c r="D71" s="178"/>
-      <c r="E71" s="178"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="82"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="185"/>
-      <c r="K71" s="243"/>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
-      <c r="P71" s="244"/>
-      <c r="Q71" s="244"/>
-      <c r="R71" s="244"/>
-      <c r="S71" s="245"/>
-      <c r="T71" s="248"/>
-      <c r="U71" s="249"/>
-      <c r="V71" s="82"/>
-      <c r="W71" s="83"/>
-      <c r="X71" s="83"/>
-      <c r="Y71" s="83"/>
-      <c r="Z71" s="83"/>
-      <c r="AA71" s="227"/>
-      <c r="AB71" s="212"/>
-      <c r="AC71" s="206"/>
-      <c r="AD71" s="206"/>
-      <c r="AE71" s="206"/>
-      <c r="AF71" s="208"/>
-      <c r="AG71" s="208"/>
-      <c r="AH71" s="210"/>
-      <c r="AI71" s="210"/>
-      <c r="AJ71" s="208"/>
-      <c r="AK71" s="208"/>
-      <c r="AL71" s="210"/>
-      <c r="AM71" s="210"/>
-      <c r="AN71" s="208"/>
-      <c r="AO71" s="208"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="97"/>
+      <c r="U71" s="98"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="57"/>
+      <c r="AC71" s="58"/>
+      <c r="AD71" s="58"/>
+      <c r="AE71" s="58"/>
+      <c r="AF71" s="36"/>
+      <c r="AG71" s="36"/>
+      <c r="AH71" s="60"/>
+      <c r="AI71" s="60"/>
+      <c r="AJ71" s="36"/>
+      <c r="AK71" s="36"/>
+      <c r="AL71" s="60"/>
+      <c r="AM71" s="60"/>
+      <c r="AN71" s="36"/>
+      <c r="AO71" s="36"/>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="15"/>
       <c r="AR71" s="10"/>
@@ -10126,375 +10126,375 @@
       <c r="CT72" s="10"/>
     </row>
     <row r="73" spans="1:98" ht="12" customHeight="1">
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="226"/>
-      <c r="H73" s="279" t="s">
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I73" s="280"/>
-      <c r="J73" s="280"/>
-      <c r="K73" s="280"/>
-      <c r="L73" s="280"/>
-      <c r="M73" s="280"/>
-      <c r="N73" s="280"/>
-      <c r="O73" s="280"/>
-      <c r="P73" s="280"/>
-      <c r="Q73" s="280"/>
-      <c r="R73" s="280"/>
-      <c r="S73" s="280"/>
-      <c r="T73" s="280"/>
-      <c r="U73" s="280"/>
-      <c r="V73" s="280"/>
-      <c r="W73" s="280"/>
-      <c r="X73" s="280"/>
-      <c r="Y73" s="280"/>
-      <c r="Z73" s="280"/>
-      <c r="AA73" s="280"/>
-      <c r="AB73" s="280"/>
-      <c r="AC73" s="280"/>
-      <c r="AD73" s="280"/>
-      <c r="AE73" s="280"/>
-      <c r="AF73" s="280"/>
-      <c r="AG73" s="280"/>
-      <c r="AH73" s="280"/>
-      <c r="AI73" s="280"/>
-      <c r="AJ73" s="280"/>
-      <c r="AK73" s="280"/>
-      <c r="AL73" s="280"/>
-      <c r="AM73" s="280"/>
-      <c r="AN73" s="280"/>
-      <c r="AO73" s="280"/>
-      <c r="AP73" s="280"/>
-      <c r="AQ73" s="280"/>
-      <c r="AR73" s="280"/>
-      <c r="AS73" s="280"/>
-      <c r="AT73" s="280"/>
-      <c r="AU73" s="280"/>
-      <c r="AV73" s="280"/>
-      <c r="AW73" s="281"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="47"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="47"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="47"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="47"/>
+      <c r="AD73" s="47"/>
+      <c r="AE73" s="47"/>
+      <c r="AF73" s="47"/>
+      <c r="AG73" s="47"/>
+      <c r="AH73" s="47"/>
+      <c r="AI73" s="47"/>
+      <c r="AJ73" s="47"/>
+      <c r="AK73" s="47"/>
+      <c r="AL73" s="47"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
+      <c r="AO73" s="47"/>
+      <c r="AP73" s="47"/>
+      <c r="AQ73" s="47"/>
+      <c r="AR73" s="47"/>
+      <c r="AS73" s="47"/>
+      <c r="AT73" s="47"/>
+      <c r="AU73" s="47"/>
+      <c r="AV73" s="47"/>
+      <c r="AW73" s="48"/>
       <c r="AX73" s="10"/>
       <c r="AY73" s="10"/>
       <c r="AZ73" s="10"/>
     </row>
     <row r="74" spans="1:98" ht="12" customHeight="1">
-      <c r="B74" s="228"/>
-      <c r="C74" s="229"/>
-      <c r="D74" s="229"/>
-      <c r="E74" s="229"/>
-      <c r="F74" s="229"/>
-      <c r="G74" s="230"/>
-      <c r="H74" s="282"/>
-      <c r="I74" s="283"/>
-      <c r="J74" s="283"/>
-      <c r="K74" s="283"/>
-      <c r="L74" s="283"/>
-      <c r="M74" s="283"/>
-      <c r="N74" s="283"/>
-      <c r="O74" s="283"/>
-      <c r="P74" s="283"/>
-      <c r="Q74" s="283"/>
-      <c r="R74" s="283"/>
-      <c r="S74" s="283"/>
-      <c r="T74" s="283"/>
-      <c r="U74" s="283"/>
-      <c r="V74" s="283"/>
-      <c r="W74" s="283"/>
-      <c r="X74" s="283"/>
-      <c r="Y74" s="283"/>
-      <c r="Z74" s="283"/>
-      <c r="AA74" s="283"/>
-      <c r="AB74" s="283"/>
-      <c r="AC74" s="283"/>
-      <c r="AD74" s="283"/>
-      <c r="AE74" s="283"/>
-      <c r="AF74" s="283"/>
-      <c r="AG74" s="283"/>
-      <c r="AH74" s="283"/>
-      <c r="AI74" s="283"/>
-      <c r="AJ74" s="283"/>
-      <c r="AK74" s="283"/>
-      <c r="AL74" s="283"/>
-      <c r="AM74" s="283"/>
-      <c r="AN74" s="283"/>
-      <c r="AO74" s="283"/>
-      <c r="AP74" s="283"/>
-      <c r="AQ74" s="283"/>
-      <c r="AR74" s="283"/>
-      <c r="AS74" s="283"/>
-      <c r="AT74" s="283"/>
-      <c r="AU74" s="283"/>
-      <c r="AV74" s="283"/>
-      <c r="AW74" s="284"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="50"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="50"/>
+      <c r="R74" s="50"/>
+      <c r="S74" s="50"/>
+      <c r="T74" s="50"/>
+      <c r="U74" s="50"/>
+      <c r="V74" s="50"/>
+      <c r="W74" s="50"/>
+      <c r="X74" s="50"/>
+      <c r="Y74" s="50"/>
+      <c r="Z74" s="50"/>
+      <c r="AA74" s="50"/>
+      <c r="AB74" s="50"/>
+      <c r="AC74" s="50"/>
+      <c r="AD74" s="50"/>
+      <c r="AE74" s="50"/>
+      <c r="AF74" s="50"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
+      <c r="AI74" s="50"/>
+      <c r="AJ74" s="50"/>
+      <c r="AK74" s="50"/>
+      <c r="AL74" s="50"/>
+      <c r="AM74" s="50"/>
+      <c r="AN74" s="50"/>
+      <c r="AO74" s="50"/>
+      <c r="AP74" s="50"/>
+      <c r="AQ74" s="50"/>
+      <c r="AR74" s="50"/>
+      <c r="AS74" s="50"/>
+      <c r="AT74" s="50"/>
+      <c r="AU74" s="50"/>
+      <c r="AV74" s="50"/>
+      <c r="AW74" s="51"/>
       <c r="AX74" s="10"/>
       <c r="AY74" s="10"/>
       <c r="AZ74" s="10"/>
     </row>
     <row r="75" spans="1:98" ht="12" customHeight="1">
-      <c r="B75" s="228"/>
-      <c r="C75" s="229"/>
-      <c r="D75" s="229"/>
-      <c r="E75" s="229"/>
-      <c r="F75" s="229"/>
-      <c r="G75" s="230"/>
-      <c r="H75" s="282"/>
-      <c r="I75" s="283"/>
-      <c r="J75" s="283"/>
-      <c r="K75" s="283"/>
-      <c r="L75" s="283"/>
-      <c r="M75" s="283"/>
-      <c r="N75" s="283"/>
-      <c r="O75" s="283"/>
-      <c r="P75" s="283"/>
-      <c r="Q75" s="283"/>
-      <c r="R75" s="283"/>
-      <c r="S75" s="283"/>
-      <c r="T75" s="283"/>
-      <c r="U75" s="283"/>
-      <c r="V75" s="283"/>
-      <c r="W75" s="283"/>
-      <c r="X75" s="283"/>
-      <c r="Y75" s="283"/>
-      <c r="Z75" s="283"/>
-      <c r="AA75" s="283"/>
-      <c r="AB75" s="283"/>
-      <c r="AC75" s="283"/>
-      <c r="AD75" s="283"/>
-      <c r="AE75" s="283"/>
-      <c r="AF75" s="283"/>
-      <c r="AG75" s="283"/>
-      <c r="AH75" s="283"/>
-      <c r="AI75" s="283"/>
-      <c r="AJ75" s="283"/>
-      <c r="AK75" s="283"/>
-      <c r="AL75" s="283"/>
-      <c r="AM75" s="283"/>
-      <c r="AN75" s="283"/>
-      <c r="AO75" s="283"/>
-      <c r="AP75" s="283"/>
-      <c r="AQ75" s="283"/>
-      <c r="AR75" s="283"/>
-      <c r="AS75" s="283"/>
-      <c r="AT75" s="283"/>
-      <c r="AU75" s="283"/>
-      <c r="AV75" s="283"/>
-      <c r="AW75" s="284"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="50"/>
+      <c r="V75" s="50"/>
+      <c r="W75" s="50"/>
+      <c r="X75" s="50"/>
+      <c r="Y75" s="50"/>
+      <c r="Z75" s="50"/>
+      <c r="AA75" s="50"/>
+      <c r="AB75" s="50"/>
+      <c r="AC75" s="50"/>
+      <c r="AD75" s="50"/>
+      <c r="AE75" s="50"/>
+      <c r="AF75" s="50"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
+      <c r="AI75" s="50"/>
+      <c r="AJ75" s="50"/>
+      <c r="AK75" s="50"/>
+      <c r="AL75" s="50"/>
+      <c r="AM75" s="50"/>
+      <c r="AN75" s="50"/>
+      <c r="AO75" s="50"/>
+      <c r="AP75" s="50"/>
+      <c r="AQ75" s="50"/>
+      <c r="AR75" s="50"/>
+      <c r="AS75" s="50"/>
+      <c r="AT75" s="50"/>
+      <c r="AU75" s="50"/>
+      <c r="AV75" s="50"/>
+      <c r="AW75" s="51"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
       <c r="AZ75" s="10"/>
     </row>
     <row r="76" spans="1:98" ht="12" customHeight="1">
-      <c r="B76" s="228"/>
-      <c r="C76" s="229"/>
-      <c r="D76" s="229"/>
-      <c r="E76" s="229"/>
-      <c r="F76" s="229"/>
-      <c r="G76" s="230"/>
-      <c r="H76" s="282"/>
-      <c r="I76" s="283"/>
-      <c r="J76" s="283"/>
-      <c r="K76" s="283"/>
-      <c r="L76" s="283"/>
-      <c r="M76" s="283"/>
-      <c r="N76" s="283"/>
-      <c r="O76" s="283"/>
-      <c r="P76" s="283"/>
-      <c r="Q76" s="283"/>
-      <c r="R76" s="283"/>
-      <c r="S76" s="283"/>
-      <c r="T76" s="283"/>
-      <c r="U76" s="283"/>
-      <c r="V76" s="283"/>
-      <c r="W76" s="283"/>
-      <c r="X76" s="283"/>
-      <c r="Y76" s="283"/>
-      <c r="Z76" s="283"/>
-      <c r="AA76" s="283"/>
-      <c r="AB76" s="283"/>
-      <c r="AC76" s="283"/>
-      <c r="AD76" s="283"/>
-      <c r="AE76" s="283"/>
-      <c r="AF76" s="283"/>
-      <c r="AG76" s="283"/>
-      <c r="AH76" s="283"/>
-      <c r="AI76" s="283"/>
-      <c r="AJ76" s="283"/>
-      <c r="AK76" s="283"/>
-      <c r="AL76" s="283"/>
-      <c r="AM76" s="283"/>
-      <c r="AN76" s="283"/>
-      <c r="AO76" s="283"/>
-      <c r="AP76" s="283"/>
-      <c r="AQ76" s="283"/>
-      <c r="AR76" s="283"/>
-      <c r="AS76" s="283"/>
-      <c r="AT76" s="283"/>
-      <c r="AU76" s="283"/>
-      <c r="AV76" s="283"/>
-      <c r="AW76" s="284"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="50"/>
+      <c r="V76" s="50"/>
+      <c r="W76" s="50"/>
+      <c r="X76" s="50"/>
+      <c r="Y76" s="50"/>
+      <c r="Z76" s="50"/>
+      <c r="AA76" s="50"/>
+      <c r="AB76" s="50"/>
+      <c r="AC76" s="50"/>
+      <c r="AD76" s="50"/>
+      <c r="AE76" s="50"/>
+      <c r="AF76" s="50"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="50"/>
+      <c r="AI76" s="50"/>
+      <c r="AJ76" s="50"/>
+      <c r="AK76" s="50"/>
+      <c r="AL76" s="50"/>
+      <c r="AM76" s="50"/>
+      <c r="AN76" s="50"/>
+      <c r="AO76" s="50"/>
+      <c r="AP76" s="50"/>
+      <c r="AQ76" s="50"/>
+      <c r="AR76" s="50"/>
+      <c r="AS76" s="50"/>
+      <c r="AT76" s="50"/>
+      <c r="AU76" s="50"/>
+      <c r="AV76" s="50"/>
+      <c r="AW76" s="51"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
     </row>
     <row r="77" spans="1:98" ht="12" customHeight="1">
-      <c r="B77" s="228"/>
-      <c r="C77" s="229"/>
-      <c r="D77" s="229"/>
-      <c r="E77" s="229"/>
-      <c r="F77" s="229"/>
-      <c r="G77" s="230"/>
-      <c r="H77" s="282"/>
-      <c r="I77" s="283"/>
-      <c r="J77" s="283"/>
-      <c r="K77" s="283"/>
-      <c r="L77" s="283"/>
-      <c r="M77" s="283"/>
-      <c r="N77" s="283"/>
-      <c r="O77" s="283"/>
-      <c r="P77" s="283"/>
-      <c r="Q77" s="283"/>
-      <c r="R77" s="283"/>
-      <c r="S77" s="283"/>
-      <c r="T77" s="283"/>
-      <c r="U77" s="283"/>
-      <c r="V77" s="283"/>
-      <c r="W77" s="283"/>
-      <c r="X77" s="283"/>
-      <c r="Y77" s="283"/>
-      <c r="Z77" s="283"/>
-      <c r="AA77" s="283"/>
-      <c r="AB77" s="283"/>
-      <c r="AC77" s="283"/>
-      <c r="AD77" s="283"/>
-      <c r="AE77" s="283"/>
-      <c r="AF77" s="283"/>
-      <c r="AG77" s="283"/>
-      <c r="AH77" s="283"/>
-      <c r="AI77" s="283"/>
-      <c r="AJ77" s="283"/>
-      <c r="AK77" s="283"/>
-      <c r="AL77" s="283"/>
-      <c r="AM77" s="283"/>
-      <c r="AN77" s="283"/>
-      <c r="AO77" s="283"/>
-      <c r="AP77" s="283"/>
-      <c r="AQ77" s="283"/>
-      <c r="AR77" s="283"/>
-      <c r="AS77" s="283"/>
-      <c r="AT77" s="283"/>
-      <c r="AU77" s="283"/>
-      <c r="AV77" s="283"/>
-      <c r="AW77" s="284"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="50"/>
+      <c r="S77" s="50"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="50"/>
+      <c r="V77" s="50"/>
+      <c r="W77" s="50"/>
+      <c r="X77" s="50"/>
+      <c r="Y77" s="50"/>
+      <c r="Z77" s="50"/>
+      <c r="AA77" s="50"/>
+      <c r="AB77" s="50"/>
+      <c r="AC77" s="50"/>
+      <c r="AD77" s="50"/>
+      <c r="AE77" s="50"/>
+      <c r="AF77" s="50"/>
+      <c r="AG77" s="50"/>
+      <c r="AH77" s="50"/>
+      <c r="AI77" s="50"/>
+      <c r="AJ77" s="50"/>
+      <c r="AK77" s="50"/>
+      <c r="AL77" s="50"/>
+      <c r="AM77" s="50"/>
+      <c r="AN77" s="50"/>
+      <c r="AO77" s="50"/>
+      <c r="AP77" s="50"/>
+      <c r="AQ77" s="50"/>
+      <c r="AR77" s="50"/>
+      <c r="AS77" s="50"/>
+      <c r="AT77" s="50"/>
+      <c r="AU77" s="50"/>
+      <c r="AV77" s="50"/>
+      <c r="AW77" s="51"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
     </row>
     <row r="78" spans="1:98" ht="12" customHeight="1">
-      <c r="B78" s="228"/>
-      <c r="C78" s="229"/>
-      <c r="D78" s="229"/>
-      <c r="E78" s="229"/>
-      <c r="F78" s="229"/>
-      <c r="G78" s="230"/>
-      <c r="H78" s="282"/>
-      <c r="I78" s="283"/>
-      <c r="J78" s="283"/>
-      <c r="K78" s="283"/>
-      <c r="L78" s="283"/>
-      <c r="M78" s="283"/>
-      <c r="N78" s="283"/>
-      <c r="O78" s="283"/>
-      <c r="P78" s="283"/>
-      <c r="Q78" s="283"/>
-      <c r="R78" s="283"/>
-      <c r="S78" s="283"/>
-      <c r="T78" s="283"/>
-      <c r="U78" s="283"/>
-      <c r="V78" s="283"/>
-      <c r="W78" s="283"/>
-      <c r="X78" s="283"/>
-      <c r="Y78" s="283"/>
-      <c r="Z78" s="283"/>
-      <c r="AA78" s="283"/>
-      <c r="AB78" s="283"/>
-      <c r="AC78" s="283"/>
-      <c r="AD78" s="283"/>
-      <c r="AE78" s="283"/>
-      <c r="AF78" s="283"/>
-      <c r="AG78" s="283"/>
-      <c r="AH78" s="283"/>
-      <c r="AI78" s="283"/>
-      <c r="AJ78" s="283"/>
-      <c r="AK78" s="283"/>
-      <c r="AL78" s="283"/>
-      <c r="AM78" s="283"/>
-      <c r="AN78" s="283"/>
-      <c r="AO78" s="283"/>
-      <c r="AP78" s="283"/>
-      <c r="AQ78" s="283"/>
-      <c r="AR78" s="283"/>
-      <c r="AS78" s="283"/>
-      <c r="AT78" s="283"/>
-      <c r="AU78" s="283"/>
-      <c r="AV78" s="283"/>
-      <c r="AW78" s="284"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="50"/>
+      <c r="AA78" s="50"/>
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="50"/>
+      <c r="AD78" s="50"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="50"/>
+      <c r="AI78" s="50"/>
+      <c r="AJ78" s="50"/>
+      <c r="AK78" s="50"/>
+      <c r="AL78" s="50"/>
+      <c r="AM78" s="50"/>
+      <c r="AN78" s="50"/>
+      <c r="AO78" s="50"/>
+      <c r="AP78" s="50"/>
+      <c r="AQ78" s="50"/>
+      <c r="AR78" s="50"/>
+      <c r="AS78" s="50"/>
+      <c r="AT78" s="50"/>
+      <c r="AU78" s="50"/>
+      <c r="AV78" s="50"/>
+      <c r="AW78" s="51"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
     </row>
     <row r="79" spans="1:98" ht="12" customHeight="1">
-      <c r="B79" s="82"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="227"/>
-      <c r="H79" s="285"/>
-      <c r="I79" s="286"/>
-      <c r="J79" s="286"/>
-      <c r="K79" s="286"/>
-      <c r="L79" s="286"/>
-      <c r="M79" s="286"/>
-      <c r="N79" s="286"/>
-      <c r="O79" s="286"/>
-      <c r="P79" s="286"/>
-      <c r="Q79" s="286"/>
-      <c r="R79" s="286"/>
-      <c r="S79" s="286"/>
-      <c r="T79" s="286"/>
-      <c r="U79" s="286"/>
-      <c r="V79" s="286"/>
-      <c r="W79" s="286"/>
-      <c r="X79" s="286"/>
-      <c r="Y79" s="286"/>
-      <c r="Z79" s="286"/>
-      <c r="AA79" s="286"/>
-      <c r="AB79" s="286"/>
-      <c r="AC79" s="286"/>
-      <c r="AD79" s="286"/>
-      <c r="AE79" s="286"/>
-      <c r="AF79" s="286"/>
-      <c r="AG79" s="286"/>
-      <c r="AH79" s="286"/>
-      <c r="AI79" s="286"/>
-      <c r="AJ79" s="286"/>
-      <c r="AK79" s="286"/>
-      <c r="AL79" s="286"/>
-      <c r="AM79" s="286"/>
-      <c r="AN79" s="286"/>
-      <c r="AO79" s="286"/>
-      <c r="AP79" s="286"/>
-      <c r="AQ79" s="286"/>
-      <c r="AR79" s="286"/>
-      <c r="AS79" s="286"/>
-      <c r="AT79" s="286"/>
-      <c r="AU79" s="286"/>
-      <c r="AV79" s="286"/>
-      <c r="AW79" s="287"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="53"/>
+      <c r="P79" s="53"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="53"/>
+      <c r="S79" s="53"/>
+      <c r="T79" s="53"/>
+      <c r="U79" s="53"/>
+      <c r="V79" s="53"/>
+      <c r="W79" s="53"/>
+      <c r="X79" s="53"/>
+      <c r="Y79" s="53"/>
+      <c r="Z79" s="53"/>
+      <c r="AA79" s="53"/>
+      <c r="AB79" s="53"/>
+      <c r="AC79" s="53"/>
+      <c r="AD79" s="53"/>
+      <c r="AE79" s="53"/>
+      <c r="AF79" s="53"/>
+      <c r="AG79" s="53"/>
+      <c r="AH79" s="53"/>
+      <c r="AI79" s="53"/>
+      <c r="AJ79" s="53"/>
+      <c r="AK79" s="53"/>
+      <c r="AL79" s="53"/>
+      <c r="AM79" s="53"/>
+      <c r="AN79" s="53"/>
+      <c r="AO79" s="53"/>
+      <c r="AP79" s="53"/>
+      <c r="AQ79" s="53"/>
+      <c r="AR79" s="53"/>
+      <c r="AS79" s="53"/>
+      <c r="AT79" s="53"/>
+      <c r="AU79" s="53"/>
+      <c r="AV79" s="53"/>
+      <c r="AW79" s="54"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
     </row>
@@ -10904,48 +10904,132 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="192">
-    <mergeCell ref="AN70:AO71"/>
-    <mergeCell ref="B73:G79"/>
-    <mergeCell ref="H73:AW79"/>
-    <mergeCell ref="V70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="AF70:AG71"/>
-    <mergeCell ref="AH70:AI71"/>
-    <mergeCell ref="AJ70:AK71"/>
-    <mergeCell ref="AL70:AM71"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="K67:S68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="B70:G71"/>
-    <mergeCell ref="H70:J71"/>
-    <mergeCell ref="K70:S71"/>
-    <mergeCell ref="T70:U71"/>
-    <mergeCell ref="AB65:AE66"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:S66"/>
-    <mergeCell ref="T65:U66"/>
-    <mergeCell ref="V65:AA66"/>
-    <mergeCell ref="AF65:AG66"/>
-    <mergeCell ref="AH65:AI66"/>
-    <mergeCell ref="AJ65:AK66"/>
-    <mergeCell ref="AL65:AM66"/>
-    <mergeCell ref="AN65:AO66"/>
-    <mergeCell ref="AF63:AG64"/>
-    <mergeCell ref="AH63:AI64"/>
-    <mergeCell ref="AJ63:AK64"/>
-    <mergeCell ref="AL63:AM64"/>
-    <mergeCell ref="AN63:AO64"/>
-    <mergeCell ref="B63:G64"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:S64"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="V63:AA64"/>
-    <mergeCell ref="AB63:AE64"/>
-    <mergeCell ref="AB60:AE61"/>
-    <mergeCell ref="AF60:AG61"/>
-    <mergeCell ref="AH60:AI61"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="U16:Z17"/>
+    <mergeCell ref="AA16:AM17"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="A6:AX9"/>
+    <mergeCell ref="AL10:AQ11"/>
+    <mergeCell ref="AR10:AW11"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="H14:T15"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AS3"/>
+    <mergeCell ref="AT2:AU3"/>
+    <mergeCell ref="AN16:AP17"/>
+    <mergeCell ref="AQ16:AW17"/>
+    <mergeCell ref="U14:Z15"/>
+    <mergeCell ref="AA14:AD15"/>
+    <mergeCell ref="H24:AW25"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:AH19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AM18:AW19"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="H20:AW21"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:AH23"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AM22:AW23"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:AH27"/>
+    <mergeCell ref="AI26:AL27"/>
+    <mergeCell ref="AM26:AW27"/>
+    <mergeCell ref="B29:C36"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:AW30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:AD32"/>
+    <mergeCell ref="AE31:AH32"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AN32"/>
+    <mergeCell ref="AO31:AP32"/>
+    <mergeCell ref="AQ31:AT32"/>
+    <mergeCell ref="AU31:AW32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:AD34"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AI33:AU34"/>
+    <mergeCell ref="AV33:AW34"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AI38:AL39"/>
+    <mergeCell ref="AM38:AU39"/>
+    <mergeCell ref="AV38:AW39"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:N36"/>
+    <mergeCell ref="O35:R36"/>
+    <mergeCell ref="S35:Y36"/>
+    <mergeCell ref="Z35:AW36"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="AI42:AL43"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:W43"/>
+    <mergeCell ref="BE45:BF45"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="R46:U47"/>
+    <mergeCell ref="V44:W45"/>
+    <mergeCell ref="X44:AA45"/>
+    <mergeCell ref="AB44:AC45"/>
+    <mergeCell ref="AD44:AE45"/>
+    <mergeCell ref="AF44:AG45"/>
+    <mergeCell ref="AH44:AI45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="L44:M45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="AJ44:AL45"/>
+    <mergeCell ref="AM44:AM45"/>
+    <mergeCell ref="AN44:AV45"/>
+    <mergeCell ref="AW44:AW45"/>
+    <mergeCell ref="H46:Q47"/>
+    <mergeCell ref="V46:AW47"/>
+    <mergeCell ref="R58:S59"/>
+    <mergeCell ref="B52:G55"/>
+    <mergeCell ref="H52:K53"/>
+    <mergeCell ref="L52:AH53"/>
+    <mergeCell ref="AI52:AL53"/>
+    <mergeCell ref="AM52:AW53"/>
+    <mergeCell ref="H54:K55"/>
+    <mergeCell ref="L54:AW55"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="H48:K49"/>
+    <mergeCell ref="L48:R49"/>
+    <mergeCell ref="S48:U49"/>
+    <mergeCell ref="V48:AA49"/>
+    <mergeCell ref="AB48:AW49"/>
+    <mergeCell ref="B38:C49"/>
+    <mergeCell ref="X42:AF43"/>
+    <mergeCell ref="AG42:AH43"/>
+    <mergeCell ref="AG40:AH41"/>
+    <mergeCell ref="AI40:AL41"/>
+    <mergeCell ref="AM40:AU41"/>
+    <mergeCell ref="AV40:AW41"/>
+    <mergeCell ref="AM42:AU43"/>
+    <mergeCell ref="AV42:AW43"/>
+    <mergeCell ref="D40:G41"/>
     <mergeCell ref="AJ60:AK61"/>
     <mergeCell ref="AL60:AM61"/>
     <mergeCell ref="AN60:AO61"/>
@@ -10970,132 +11054,48 @@
     <mergeCell ref="L58:M59"/>
     <mergeCell ref="N58:O59"/>
     <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="R58:S59"/>
-    <mergeCell ref="B52:G55"/>
-    <mergeCell ref="H52:K53"/>
-    <mergeCell ref="L52:AH53"/>
-    <mergeCell ref="AI52:AL53"/>
-    <mergeCell ref="AM52:AW53"/>
-    <mergeCell ref="H54:K55"/>
-    <mergeCell ref="L54:AW55"/>
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="H48:K49"/>
-    <mergeCell ref="L48:R49"/>
-    <mergeCell ref="S48:U49"/>
-    <mergeCell ref="V48:AA49"/>
-    <mergeCell ref="AB48:AW49"/>
-    <mergeCell ref="B38:C49"/>
-    <mergeCell ref="X42:AF43"/>
-    <mergeCell ref="AG42:AH43"/>
-    <mergeCell ref="AG40:AH41"/>
-    <mergeCell ref="AI40:AL41"/>
-    <mergeCell ref="AM40:AU41"/>
-    <mergeCell ref="AV40:AW41"/>
-    <mergeCell ref="BE45:BF45"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="R46:U47"/>
-    <mergeCell ref="V44:W45"/>
-    <mergeCell ref="X44:AA45"/>
-    <mergeCell ref="AB44:AC45"/>
-    <mergeCell ref="AD44:AE45"/>
-    <mergeCell ref="AF44:AG45"/>
-    <mergeCell ref="AH44:AI45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="L44:M45"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="AJ44:AL45"/>
-    <mergeCell ref="AM44:AM45"/>
-    <mergeCell ref="AN44:AV45"/>
-    <mergeCell ref="AW44:AW45"/>
-    <mergeCell ref="H46:Q47"/>
-    <mergeCell ref="AM42:AU43"/>
-    <mergeCell ref="AV42:AW43"/>
-    <mergeCell ref="D40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="AI42:AL43"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:W43"/>
-    <mergeCell ref="T38:W39"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="AG38:AH39"/>
-    <mergeCell ref="AI38:AL39"/>
-    <mergeCell ref="AM38:AU39"/>
-    <mergeCell ref="AV38:AW39"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:N36"/>
-    <mergeCell ref="O35:R36"/>
-    <mergeCell ref="S35:Y36"/>
-    <mergeCell ref="Z35:AW36"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:AH27"/>
-    <mergeCell ref="AI26:AL27"/>
-    <mergeCell ref="AM26:AW27"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:AW30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H31:AD32"/>
-    <mergeCell ref="AE31:AH32"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AN32"/>
-    <mergeCell ref="AO31:AP32"/>
-    <mergeCell ref="AQ31:AT32"/>
-    <mergeCell ref="AU31:AW32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:AD34"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AI33:AU34"/>
-    <mergeCell ref="AV33:AW34"/>
-    <mergeCell ref="H24:AW25"/>
-    <mergeCell ref="B18:C21"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:AH19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AM18:AW19"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="H20:AW21"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:AH23"/>
-    <mergeCell ref="V46:AW47"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="U16:Z17"/>
-    <mergeCell ref="AA16:AM17"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="A6:AX9"/>
-    <mergeCell ref="AL10:AQ11"/>
-    <mergeCell ref="AR10:AW11"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:T15"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AS3"/>
-    <mergeCell ref="AT2:AU3"/>
-    <mergeCell ref="AN16:AP17"/>
-    <mergeCell ref="AQ16:AW17"/>
-    <mergeCell ref="U14:Z15"/>
-    <mergeCell ref="AA14:AD15"/>
-    <mergeCell ref="AI22:AL23"/>
-    <mergeCell ref="AM22:AW23"/>
-    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="B63:G64"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:S64"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="V63:AA64"/>
+    <mergeCell ref="AB63:AE64"/>
+    <mergeCell ref="AB60:AE61"/>
+    <mergeCell ref="AF60:AG61"/>
+    <mergeCell ref="AH60:AI61"/>
+    <mergeCell ref="AF65:AG66"/>
+    <mergeCell ref="AH65:AI66"/>
+    <mergeCell ref="AJ65:AK66"/>
+    <mergeCell ref="AL65:AM66"/>
+    <mergeCell ref="AN65:AO66"/>
+    <mergeCell ref="AF63:AG64"/>
+    <mergeCell ref="AH63:AI64"/>
+    <mergeCell ref="AJ63:AK64"/>
+    <mergeCell ref="AL63:AM64"/>
+    <mergeCell ref="AN63:AO64"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:S68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="H70:J71"/>
+    <mergeCell ref="K70:S71"/>
+    <mergeCell ref="T70:U71"/>
+    <mergeCell ref="AB65:AE66"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:S66"/>
+    <mergeCell ref="T65:U66"/>
+    <mergeCell ref="V65:AA66"/>
+    <mergeCell ref="AN70:AO71"/>
+    <mergeCell ref="B73:G79"/>
+    <mergeCell ref="H73:AW79"/>
+    <mergeCell ref="V70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="AF70:AG71"/>
+    <mergeCell ref="AH70:AI71"/>
+    <mergeCell ref="AJ70:AK71"/>
+    <mergeCell ref="AL70:AM71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\メトロス開発\source\_kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C68A4E-5E94-4D3B-9D98-CB384A247ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E367FF-D524-4C1C-AA75-B339C5CF310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取引成立台帳_テンプレート" sheetId="8" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
   <si>
     <t>年</t>
   </si>
@@ -839,6 +839,10 @@
   </si>
   <si>
     <t>$parkingFeeInTax$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3048,6 +3052,636 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="25" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="31" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3056,40 +3690,332 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="45" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="42" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="40" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3126,928 +4052,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="45" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="42" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="46" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="52" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="49" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="53" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="4" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="40" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="8" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="9" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="10" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="25" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="16" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="31" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="2" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="5" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="19" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="20" xfId="369" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" justifyLastLine="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4827,36 +4831,36 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AH2" s="282" t="s">
+      <c r="AH2" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AI2" s="282"/>
-      <c r="AJ2" s="282"/>
-      <c r="AK2" s="283" t="s">
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="283"/>
-      <c r="AM2" s="283"/>
-      <c r="AN2" s="264" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="264"/>
-      <c r="AP2" s="284" t="s">
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="AQ2" s="284"/>
-      <c r="AR2" s="264" t="s">
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="AS2" s="264"/>
-      <c r="AT2" s="284" t="s">
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="284"/>
-      <c r="AV2" s="264" t="s">
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="AW2" s="264"/>
+      <c r="AW2" s="53"/>
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:70" ht="12" customHeight="1">
@@ -4887,22 +4891,22 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-      <c r="AH3" s="282"/>
-      <c r="AI3" s="282"/>
-      <c r="AJ3" s="282"/>
-      <c r="AK3" s="283"/>
-      <c r="AL3" s="283"/>
-      <c r="AM3" s="283"/>
-      <c r="AN3" s="264"/>
-      <c r="AO3" s="264"/>
-      <c r="AP3" s="284"/>
-      <c r="AQ3" s="284"/>
-      <c r="AR3" s="264"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="284"/>
-      <c r="AU3" s="284"/>
-      <c r="AV3" s="264"/>
-      <c r="AW3" s="264"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:70" ht="12" customHeight="1">
@@ -4997,214 +5001,214 @@
       <c r="BR5" s="5"/>
     </row>
     <row r="6" spans="1:70" ht="12" customHeight="1">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="265"/>
-      <c r="M6" s="265"/>
-      <c r="N6" s="265"/>
-      <c r="O6" s="265"/>
-      <c r="P6" s="265"/>
-      <c r="Q6" s="265"/>
-      <c r="R6" s="265"/>
-      <c r="S6" s="265"/>
-      <c r="T6" s="265"/>
-      <c r="U6" s="265"/>
-      <c r="V6" s="265"/>
-      <c r="W6" s="265"/>
-      <c r="X6" s="265"/>
-      <c r="Y6" s="265"/>
-      <c r="Z6" s="265"/>
-      <c r="AA6" s="265"/>
-      <c r="AB6" s="265"/>
-      <c r="AC6" s="265"/>
-      <c r="AD6" s="265"/>
-      <c r="AE6" s="265"/>
-      <c r="AF6" s="265"/>
-      <c r="AG6" s="265"/>
-      <c r="AH6" s="265"/>
-      <c r="AI6" s="265"/>
-      <c r="AJ6" s="265"/>
-      <c r="AK6" s="265"/>
-      <c r="AL6" s="265"/>
-      <c r="AM6" s="265"/>
-      <c r="AN6" s="265"/>
-      <c r="AO6" s="265"/>
-      <c r="AP6" s="265"/>
-      <c r="AQ6" s="265"/>
-      <c r="AR6" s="265"/>
-      <c r="AS6" s="265"/>
-      <c r="AT6" s="265"/>
-      <c r="AU6" s="265"/>
-      <c r="AV6" s="265"/>
-      <c r="AW6" s="265"/>
-      <c r="AX6" s="265"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
     </row>
     <row r="7" spans="1:70" ht="12" customHeight="1">
-      <c r="A7" s="265"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="265"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
-      <c r="J7" s="265"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="265"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="265"/>
-      <c r="O7" s="265"/>
-      <c r="P7" s="265"/>
-      <c r="Q7" s="265"/>
-      <c r="R7" s="265"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="265"/>
-      <c r="U7" s="265"/>
-      <c r="V7" s="265"/>
-      <c r="W7" s="265"/>
-      <c r="X7" s="265"/>
-      <c r="Y7" s="265"/>
-      <c r="Z7" s="265"/>
-      <c r="AA7" s="265"/>
-      <c r="AB7" s="265"/>
-      <c r="AC7" s="265"/>
-      <c r="AD7" s="265"/>
-      <c r="AE7" s="265"/>
-      <c r="AF7" s="265"/>
-      <c r="AG7" s="265"/>
-      <c r="AH7" s="265"/>
-      <c r="AI7" s="265"/>
-      <c r="AJ7" s="265"/>
-      <c r="AK7" s="265"/>
-      <c r="AL7" s="265"/>
-      <c r="AM7" s="265"/>
-      <c r="AN7" s="265"/>
-      <c r="AO7" s="265"/>
-      <c r="AP7" s="265"/>
-      <c r="AQ7" s="265"/>
-      <c r="AR7" s="265"/>
-      <c r="AS7" s="265"/>
-      <c r="AT7" s="265"/>
-      <c r="AU7" s="265"/>
-      <c r="AV7" s="265"/>
-      <c r="AW7" s="265"/>
-      <c r="AX7" s="265"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54"/>
     </row>
     <row r="8" spans="1:70" ht="12" customHeight="1">
-      <c r="A8" s="265"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="265"/>
-      <c r="M8" s="265"/>
-      <c r="N8" s="265"/>
-      <c r="O8" s="265"/>
-      <c r="P8" s="265"/>
-      <c r="Q8" s="265"/>
-      <c r="R8" s="265"/>
-      <c r="S8" s="265"/>
-      <c r="T8" s="265"/>
-      <c r="U8" s="265"/>
-      <c r="V8" s="265"/>
-      <c r="W8" s="265"/>
-      <c r="X8" s="265"/>
-      <c r="Y8" s="265"/>
-      <c r="Z8" s="265"/>
-      <c r="AA8" s="265"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="265"/>
-      <c r="AD8" s="265"/>
-      <c r="AE8" s="265"/>
-      <c r="AF8" s="265"/>
-      <c r="AG8" s="265"/>
-      <c r="AH8" s="265"/>
-      <c r="AI8" s="265"/>
-      <c r="AJ8" s="265"/>
-      <c r="AK8" s="265"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="265"/>
-      <c r="AN8" s="265"/>
-      <c r="AO8" s="265"/>
-      <c r="AP8" s="265"/>
-      <c r="AQ8" s="265"/>
-      <c r="AR8" s="265"/>
-      <c r="AS8" s="265"/>
-      <c r="AT8" s="265"/>
-      <c r="AU8" s="265"/>
-      <c r="AV8" s="265"/>
-      <c r="AW8" s="265"/>
-      <c r="AX8" s="265"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
     </row>
     <row r="9" spans="1:70" ht="12" customHeight="1">
-      <c r="A9" s="265"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="265"/>
-      <c r="O9" s="265"/>
-      <c r="P9" s="265"/>
-      <c r="Q9" s="265"/>
-      <c r="R9" s="265"/>
-      <c r="S9" s="265"/>
-      <c r="T9" s="265"/>
-      <c r="U9" s="265"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="265"/>
-      <c r="X9" s="265"/>
-      <c r="Y9" s="265"/>
-      <c r="Z9" s="265"/>
-      <c r="AA9" s="265"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="265"/>
-      <c r="AD9" s="265"/>
-      <c r="AE9" s="265"/>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
-      <c r="AI9" s="265"/>
-      <c r="AJ9" s="265"/>
-      <c r="AK9" s="265"/>
-      <c r="AL9" s="265"/>
-      <c r="AM9" s="265"/>
-      <c r="AN9" s="265"/>
-      <c r="AO9" s="265"/>
-      <c r="AP9" s="265"/>
-      <c r="AQ9" s="265"/>
-      <c r="AR9" s="265"/>
-      <c r="AS9" s="265"/>
-      <c r="AT9" s="265"/>
-      <c r="AU9" s="265"/>
-      <c r="AV9" s="265"/>
-      <c r="AW9" s="265"/>
-      <c r="AX9" s="265"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
     </row>
     <row r="10" spans="1:70" ht="12.75" customHeight="1">
       <c r="A10" s="8"/>
@@ -5220,22 +5224,22 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AL10" s="266" t="s">
+      <c r="AL10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AM10" s="267"/>
-      <c r="AN10" s="267"/>
-      <c r="AO10" s="267"/>
-      <c r="AP10" s="267"/>
-      <c r="AQ10" s="267"/>
-      <c r="AR10" s="270" t="s">
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="AS10" s="271"/>
-      <c r="AT10" s="271"/>
-      <c r="AU10" s="271"/>
-      <c r="AV10" s="271"/>
-      <c r="AW10" s="272"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="61"/>
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:70" ht="12.75" customHeight="1">
@@ -5252,18 +5256,18 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
-      <c r="AL11" s="268"/>
-      <c r="AM11" s="269"/>
-      <c r="AN11" s="269"/>
-      <c r="AO11" s="269"/>
-      <c r="AP11" s="269"/>
-      <c r="AQ11" s="269"/>
-      <c r="AR11" s="273"/>
-      <c r="AS11" s="274"/>
-      <c r="AT11" s="274"/>
-      <c r="AU11" s="274"/>
-      <c r="AV11" s="274"/>
-      <c r="AW11" s="275"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="64"/>
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:70" ht="12" customHeight="1">
@@ -5324,43 +5328,43 @@
     </row>
     <row r="14" spans="1:70" ht="12" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="276" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="277"/>
-      <c r="J14" s="277"/>
-      <c r="K14" s="277"/>
-      <c r="L14" s="277"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="277"/>
-      <c r="O14" s="277"/>
-      <c r="P14" s="277"/>
-      <c r="Q14" s="277"/>
-      <c r="R14" s="277"/>
-      <c r="S14" s="277"/>
-      <c r="T14" s="278"/>
-      <c r="U14" s="286" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="V14" s="286"/>
-      <c r="W14" s="286"/>
-      <c r="X14" s="286"/>
-      <c r="Y14" s="286"/>
-      <c r="Z14" s="286"/>
-      <c r="AA14" s="287" t="s">
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="AB14" s="287"/>
-      <c r="AC14" s="287"/>
-      <c r="AD14" s="287"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
@@ -5379,35 +5383,35 @@
     </row>
     <row r="15" spans="1:70" ht="12" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="250"/>
-      <c r="F15" s="250"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="279"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="280"/>
-      <c r="K15" s="280"/>
-      <c r="L15" s="280"/>
-      <c r="M15" s="280"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="280"/>
-      <c r="P15" s="280"/>
-      <c r="Q15" s="280"/>
-      <c r="R15" s="280"/>
-      <c r="S15" s="280"/>
-      <c r="T15" s="281"/>
-      <c r="U15" s="286"/>
-      <c r="V15" s="286"/>
-      <c r="W15" s="286"/>
-      <c r="X15" s="286"/>
-      <c r="Y15" s="286"/>
-      <c r="Z15" s="286"/>
-      <c r="AA15" s="287"/>
-      <c r="AB15" s="287"/>
-      <c r="AC15" s="287"/>
-      <c r="AD15" s="287"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="80"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="80"/>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
@@ -5426,400 +5430,400 @@
     </row>
     <row r="16" spans="1:70" ht="12" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="252" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="253"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="253"/>
-      <c r="L16" s="253"/>
-      <c r="M16" s="253"/>
-      <c r="N16" s="253"/>
-      <c r="O16" s="253"/>
-      <c r="P16" s="253"/>
-      <c r="Q16" s="253"/>
-      <c r="R16" s="253"/>
-      <c r="S16" s="253"/>
-      <c r="T16" s="254"/>
-      <c r="U16" s="114" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="V16" s="115"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="258" t="s">
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="AB16" s="259"/>
-      <c r="AC16" s="259"/>
-      <c r="AD16" s="259"/>
-      <c r="AE16" s="259"/>
-      <c r="AF16" s="259"/>
-      <c r="AG16" s="259"/>
-      <c r="AH16" s="259"/>
-      <c r="AI16" s="259"/>
-      <c r="AJ16" s="259"/>
-      <c r="AK16" s="259"/>
-      <c r="AL16" s="259"/>
-      <c r="AM16" s="260"/>
-      <c r="AN16" s="37" t="s">
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="285" t="s">
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="AR16" s="285"/>
-      <c r="AS16" s="285"/>
-      <c r="AT16" s="285"/>
-      <c r="AU16" s="285"/>
-      <c r="AV16" s="285"/>
-      <c r="AW16" s="285"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:85" ht="12" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="257"/>
-      <c r="U17" s="249"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="250"/>
-      <c r="X17" s="250"/>
-      <c r="Y17" s="250"/>
-      <c r="Z17" s="251"/>
-      <c r="AA17" s="261"/>
-      <c r="AB17" s="262"/>
-      <c r="AC17" s="262"/>
-      <c r="AD17" s="262"/>
-      <c r="AE17" s="262"/>
-      <c r="AF17" s="262"/>
-      <c r="AG17" s="262"/>
-      <c r="AH17" s="262"/>
-      <c r="AI17" s="262"/>
-      <c r="AJ17" s="262"/>
-      <c r="AK17" s="262"/>
-      <c r="AL17" s="262"/>
-      <c r="AM17" s="263"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="285"/>
-      <c r="AR17" s="285"/>
-      <c r="AS17" s="285"/>
-      <c r="AT17" s="285"/>
-      <c r="AU17" s="285"/>
-      <c r="AV17" s="285"/>
-      <c r="AW17" s="285"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:85" ht="12" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="230" t="s">
+      <c r="B18" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="231"/>
-      <c r="D18" s="123" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="136" t="s">
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="137"/>
-      <c r="S18" s="137"/>
-      <c r="T18" s="137"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="137"/>
-      <c r="W18" s="137"/>
-      <c r="X18" s="137"/>
-      <c r="Y18" s="137"/>
-      <c r="Z18" s="137"/>
-      <c r="AA18" s="137"/>
-      <c r="AB18" s="137"/>
-      <c r="AC18" s="137"/>
-      <c r="AD18" s="137"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="137"/>
-      <c r="AH18" s="137"/>
-      <c r="AI18" s="234"/>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="235"/>
-      <c r="AM18" s="236"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="209"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="97"/>
+      <c r="AK18" s="97"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="82"/>
+      <c r="AO18" s="82"/>
+      <c r="AP18" s="82"/>
+      <c r="AQ18" s="82"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="82"/>
+      <c r="AU18" s="82"/>
+      <c r="AV18" s="82"/>
+      <c r="AW18" s="83"/>
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:85" ht="12" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
-      <c r="AB19" s="140"/>
-      <c r="AC19" s="140"/>
-      <c r="AD19" s="140"/>
-      <c r="AE19" s="140"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="140"/>
-      <c r="AH19" s="140"/>
-      <c r="AI19" s="207"/>
-      <c r="AJ19" s="134"/>
-      <c r="AK19" s="134"/>
-      <c r="AL19" s="208"/>
-      <c r="AM19" s="145"/>
-      <c r="AN19" s="128"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="128"/>
-      <c r="AQ19" s="128"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="128"/>
-      <c r="AT19" s="128"/>
-      <c r="AU19" s="128"/>
-      <c r="AV19" s="128"/>
-      <c r="AW19" s="146"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="101"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="85"/>
+      <c r="AO19" s="85"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="85"/>
+      <c r="AR19" s="85"/>
+      <c r="AS19" s="85"/>
+      <c r="AT19" s="85"/>
+      <c r="AU19" s="85"/>
+      <c r="AV19" s="85"/>
+      <c r="AW19" s="86"/>
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:85" ht="12" customHeight="1">
       <c r="A20" s="10"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="123" t="s">
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="125"/>
-      <c r="T20" s="125"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="125"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="125"/>
-      <c r="AB20" s="125"/>
-      <c r="AC20" s="125"/>
-      <c r="AD20" s="125"/>
-      <c r="AE20" s="125"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="125"/>
-      <c r="AJ20" s="125"/>
-      <c r="AK20" s="125"/>
-      <c r="AL20" s="125"/>
-      <c r="AM20" s="125"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="125"/>
-      <c r="AS20" s="125"/>
-      <c r="AT20" s="125"/>
-      <c r="AU20" s="125"/>
-      <c r="AV20" s="125"/>
-      <c r="AW20" s="209"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="82"/>
+      <c r="AM20" s="82"/>
+      <c r="AN20" s="82"/>
+      <c r="AO20" s="82"/>
+      <c r="AP20" s="82"/>
+      <c r="AQ20" s="82"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="82"/>
+      <c r="AU20" s="82"/>
+      <c r="AV20" s="82"/>
+      <c r="AW20" s="83"/>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
     </row>
     <row r="21" spans="1:85" ht="12" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="232"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
-      <c r="AI21" s="128"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="128"/>
-      <c r="AL21" s="128"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="128"/>
-      <c r="AO21" s="128"/>
-      <c r="AP21" s="128"/>
-      <c r="AQ21" s="128"/>
-      <c r="AR21" s="128"/>
-      <c r="AS21" s="128"/>
-      <c r="AT21" s="128"/>
-      <c r="AU21" s="128"/>
-      <c r="AV21" s="128"/>
-      <c r="AW21" s="146"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="85"/>
+      <c r="AM21" s="85"/>
+      <c r="AN21" s="85"/>
+      <c r="AO21" s="85"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="85"/>
+      <c r="AR21" s="85"/>
+      <c r="AS21" s="85"/>
+      <c r="AT21" s="85"/>
+      <c r="AU21" s="85"/>
+      <c r="AV21" s="85"/>
+      <c r="AW21" s="86"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
     </row>
     <row r="22" spans="1:85" ht="12" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="237" t="s">
+      <c r="B22" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="D22" s="123" t="s">
+      <c r="C22" s="105"/>
+      <c r="D22" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="124" t="s">
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
-      <c r="U22" s="125"/>
-      <c r="V22" s="125"/>
-      <c r="W22" s="125"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="125"/>
-      <c r="AD22" s="125"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="126"/>
-      <c r="AI22" s="234" t="s">
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="110"/>
+      <c r="AI22" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="235"/>
-      <c r="AM22" s="236" t="s">
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="125"/>
-      <c r="AR22" s="125"/>
-      <c r="AS22" s="125"/>
-      <c r="AT22" s="125"/>
-      <c r="AU22" s="125"/>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="209"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="82"/>
+      <c r="AU22" s="82"/>
+      <c r="AV22" s="82"/>
+      <c r="AW22" s="83"/>
       <c r="AY22" s="7"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -5854,54 +5858,54 @@
     </row>
     <row r="23" spans="1:85" ht="12" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="239"/>
-      <c r="C23" s="240"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="207"/>
-      <c r="AJ23" s="134"/>
-      <c r="AK23" s="134"/>
-      <c r="AL23" s="208"/>
-      <c r="AM23" s="145"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
-      <c r="AQ23" s="128"/>
-      <c r="AR23" s="128"/>
-      <c r="AS23" s="128"/>
-      <c r="AT23" s="128"/>
-      <c r="AU23" s="128"/>
-      <c r="AV23" s="128"/>
-      <c r="AW23" s="146"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="85"/>
+      <c r="O23" s="85"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="85"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="85"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="111"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="101"/>
+      <c r="AM23" s="103"/>
+      <c r="AN23" s="85"/>
+      <c r="AO23" s="85"/>
+      <c r="AP23" s="85"/>
+      <c r="AQ23" s="85"/>
+      <c r="AR23" s="85"/>
+      <c r="AS23" s="85"/>
+      <c r="AT23" s="85"/>
+      <c r="AU23" s="85"/>
+      <c r="AV23" s="85"/>
+      <c r="AW23" s="86"/>
       <c r="AY23" s="7"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -5936,58 +5940,58 @@
     </row>
     <row r="24" spans="1:85" ht="12" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="239"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="123" t="s">
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="124" t="s">
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="125"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="125"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="125"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="209"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="82"/>
+      <c r="AV24" s="82"/>
+      <c r="AW24" s="83"/>
       <c r="AX24" s="9"/>
       <c r="AY24" s="1"/>
       <c r="BD24" s="10"/>
@@ -6023,54 +6027,54 @@
     </row>
     <row r="25" spans="1:85" ht="12" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="241"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="128"/>
-      <c r="AF25" s="128"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
-      <c r="AQ25" s="128"/>
-      <c r="AR25" s="128"/>
-      <c r="AS25" s="128"/>
-      <c r="AT25" s="128"/>
-      <c r="AU25" s="128"/>
-      <c r="AV25" s="128"/>
-      <c r="AW25" s="146"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="85"/>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="85"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="85"/>
+      <c r="AP25" s="85"/>
+      <c r="AQ25" s="85"/>
+      <c r="AR25" s="85"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="85"/>
+      <c r="AU25" s="85"/>
+      <c r="AV25" s="85"/>
+      <c r="AW25" s="86"/>
       <c r="AX25" s="9"/>
       <c r="AY25" s="1"/>
       <c r="BD25" s="10"/>
@@ -6106,62 +6110,62 @@
     </row>
     <row r="26" spans="1:85" ht="12" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="142" t="s">
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="143"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="143"/>
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="143"/>
-      <c r="AF26" s="143"/>
-      <c r="AG26" s="143"/>
-      <c r="AH26" s="203"/>
-      <c r="AI26" s="204" t="s">
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="119"/>
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="119"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="119"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="119"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="119"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="AJ26" s="205"/>
-      <c r="AK26" s="205"/>
-      <c r="AL26" s="206"/>
-      <c r="AM26" s="142" t="s">
+      <c r="AJ26" s="122"/>
+      <c r="AK26" s="122"/>
+      <c r="AL26" s="123"/>
+      <c r="AM26" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="AN26" s="143"/>
-      <c r="AO26" s="143"/>
-      <c r="AP26" s="143"/>
-      <c r="AQ26" s="143"/>
-      <c r="AR26" s="143"/>
-      <c r="AS26" s="143"/>
-      <c r="AT26" s="143"/>
-      <c r="AU26" s="143"/>
-      <c r="AV26" s="143"/>
-      <c r="AW26" s="144"/>
+      <c r="AN26" s="119"/>
+      <c r="AO26" s="119"/>
+      <c r="AP26" s="119"/>
+      <c r="AQ26" s="119"/>
+      <c r="AR26" s="119"/>
+      <c r="AS26" s="119"/>
+      <c r="AT26" s="119"/>
+      <c r="AU26" s="119"/>
+      <c r="AV26" s="119"/>
+      <c r="AW26" s="124"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="7"/>
       <c r="BA26" s="10"/>
@@ -6200,54 +6204,54 @@
     </row>
     <row r="27" spans="1:85" ht="12" customHeight="1">
       <c r="A27" s="10"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="207"/>
-      <c r="AJ27" s="134"/>
-      <c r="AK27" s="134"/>
-      <c r="AL27" s="208"/>
-      <c r="AM27" s="145"/>
-      <c r="AN27" s="128"/>
-      <c r="AO27" s="128"/>
-      <c r="AP27" s="128"/>
-      <c r="AQ27" s="128"/>
-      <c r="AR27" s="128"/>
-      <c r="AS27" s="128"/>
-      <c r="AT27" s="128"/>
-      <c r="AU27" s="128"/>
-      <c r="AV27" s="128"/>
-      <c r="AW27" s="146"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="85"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
+      <c r="AD27" s="85"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="100"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="103"/>
+      <c r="AN27" s="85"/>
+      <c r="AO27" s="85"/>
+      <c r="AP27" s="85"/>
+      <c r="AQ27" s="85"/>
+      <c r="AR27" s="85"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="85"/>
+      <c r="AU27" s="85"/>
+      <c r="AV27" s="85"/>
+      <c r="AW27" s="86"/>
       <c r="AX27" s="10"/>
       <c r="AY27" s="10"/>
       <c r="AZ27" s="10"/>
@@ -6374,60 +6378,60 @@
     </row>
     <row r="29" spans="1:85" ht="12" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="155"/>
-      <c r="D29" s="147" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="124" t="s">
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="125"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="125"/>
-      <c r="S29" s="125"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="125"/>
-      <c r="W29" s="125"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="125"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="125"/>
-      <c r="AJ29" s="125"/>
-      <c r="AK29" s="125"/>
-      <c r="AL29" s="125"/>
-      <c r="AM29" s="125"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="125"/>
-      <c r="AP29" s="125"/>
-      <c r="AQ29" s="125"/>
-      <c r="AR29" s="125"/>
-      <c r="AS29" s="125"/>
-      <c r="AT29" s="125"/>
-      <c r="AU29" s="125"/>
-      <c r="AV29" s="125"/>
-      <c r="AW29" s="209"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="82"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="82"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
+      <c r="AW29" s="83"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
@@ -6463,54 +6467,54 @@
       <c r="CD29" s="10"/>
     </row>
     <row r="30" spans="1:85" ht="12" customHeight="1">
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="128"/>
-      <c r="AJ30" s="128"/>
-      <c r="AK30" s="128"/>
-      <c r="AL30" s="128"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="128"/>
-      <c r="AO30" s="128"/>
-      <c r="AP30" s="128"/>
-      <c r="AQ30" s="128"/>
-      <c r="AR30" s="128"/>
-      <c r="AS30" s="128"/>
-      <c r="AT30" s="128"/>
-      <c r="AU30" s="128"/>
-      <c r="AV30" s="128"/>
-      <c r="AW30" s="146"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="85"/>
+      <c r="AK30" s="85"/>
+      <c r="AL30" s="85"/>
+      <c r="AM30" s="85"/>
+      <c r="AN30" s="85"/>
+      <c r="AO30" s="85"/>
+      <c r="AP30" s="85"/>
+      <c r="AQ30" s="85"/>
+      <c r="AR30" s="85"/>
+      <c r="AS30" s="85"/>
+      <c r="AT30" s="85"/>
+      <c r="AU30" s="85"/>
+      <c r="AV30" s="85"/>
+      <c r="AW30" s="86"/>
       <c r="AY30" s="7"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -6544,68 +6548,68 @@
       <c r="CD30" s="10"/>
     </row>
     <row r="31" spans="1:85" ht="12" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="147" t="s">
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="210" t="s">
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="211"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="211"/>
-      <c r="AC31" s="211"/>
-      <c r="AD31" s="211"/>
-      <c r="AE31" s="214"/>
-      <c r="AF31" s="215"/>
-      <c r="AG31" s="215"/>
-      <c r="AH31" s="215"/>
-      <c r="AI31" s="218" t="s">
+      <c r="I31" s="133"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+      <c r="V31" s="133"/>
+      <c r="W31" s="133"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="133"/>
+      <c r="Z31" s="133"/>
+      <c r="AA31" s="133"/>
+      <c r="AB31" s="133"/>
+      <c r="AC31" s="133"/>
+      <c r="AD31" s="133"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AJ31" s="218"/>
-      <c r="AK31" s="215" t="s">
+      <c r="AJ31" s="140"/>
+      <c r="AK31" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="AL31" s="215"/>
-      <c r="AM31" s="215"/>
-      <c r="AN31" s="215"/>
-      <c r="AO31" s="218" t="s">
+      <c r="AL31" s="137"/>
+      <c r="AM31" s="137"/>
+      <c r="AN31" s="137"/>
+      <c r="AO31" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AP31" s="218"/>
-      <c r="AQ31" s="215" t="s">
+      <c r="AP31" s="140"/>
+      <c r="AQ31" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="AR31" s="215"/>
-      <c r="AS31" s="215"/>
-      <c r="AT31" s="215"/>
-      <c r="AU31" s="218" t="s">
+      <c r="AR31" s="137"/>
+      <c r="AS31" s="137"/>
+      <c r="AT31" s="137"/>
+      <c r="AU31" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="AV31" s="218"/>
-      <c r="AW31" s="220"/>
+      <c r="AV31" s="140"/>
+      <c r="AW31" s="142"/>
       <c r="AY31" s="7"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -6639,54 +6643,54 @@
       <c r="CD31" s="10"/>
     </row>
     <row r="32" spans="1:85" ht="12" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="213"/>
-      <c r="S32" s="213"/>
-      <c r="T32" s="213"/>
-      <c r="U32" s="213"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
-      <c r="X32" s="213"/>
-      <c r="Y32" s="213"/>
-      <c r="Z32" s="213"/>
-      <c r="AA32" s="213"/>
-      <c r="AB32" s="213"/>
-      <c r="AC32" s="213"/>
-      <c r="AD32" s="213"/>
-      <c r="AE32" s="216"/>
-      <c r="AF32" s="217"/>
-      <c r="AG32" s="217"/>
-      <c r="AH32" s="217"/>
-      <c r="AI32" s="219"/>
-      <c r="AJ32" s="219"/>
-      <c r="AK32" s="217"/>
-      <c r="AL32" s="217"/>
-      <c r="AM32" s="217"/>
-      <c r="AN32" s="217"/>
-      <c r="AO32" s="219"/>
-      <c r="AP32" s="219"/>
-      <c r="AQ32" s="217"/>
-      <c r="AR32" s="217"/>
-      <c r="AS32" s="217"/>
-      <c r="AT32" s="217"/>
-      <c r="AU32" s="219"/>
-      <c r="AV32" s="219"/>
-      <c r="AW32" s="221"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="139"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="141"/>
+      <c r="AJ32" s="141"/>
+      <c r="AK32" s="139"/>
+      <c r="AL32" s="139"/>
+      <c r="AM32" s="139"/>
+      <c r="AN32" s="139"/>
+      <c r="AO32" s="141"/>
+      <c r="AP32" s="141"/>
+      <c r="AQ32" s="139"/>
+      <c r="AR32" s="139"/>
+      <c r="AS32" s="139"/>
+      <c r="AT32" s="139"/>
+      <c r="AU32" s="141"/>
+      <c r="AV32" s="141"/>
+      <c r="AW32" s="143"/>
       <c r="AY32" s="7"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -6720,64 +6724,64 @@
       <c r="CD32" s="10"/>
     </row>
     <row r="33" spans="1:101" ht="12" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="147" t="s">
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="136" t="s">
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="137"/>
-      <c r="S33" s="137"/>
-      <c r="T33" s="137"/>
-      <c r="U33" s="137"/>
-      <c r="V33" s="137"/>
-      <c r="W33" s="137"/>
-      <c r="X33" s="137"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="137"/>
-      <c r="AA33" s="137"/>
-      <c r="AB33" s="137"/>
-      <c r="AC33" s="137"/>
-      <c r="AD33" s="137"/>
-      <c r="AE33" s="194" t="s">
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="AF33" s="195"/>
-      <c r="AG33" s="195"/>
-      <c r="AH33" s="196"/>
-      <c r="AI33" s="222" t="s">
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="146"/>
+      <c r="AI33" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="AJ33" s="223"/>
-      <c r="AK33" s="223"/>
-      <c r="AL33" s="223"/>
-      <c r="AM33" s="223"/>
-      <c r="AN33" s="223"/>
-      <c r="AO33" s="223"/>
-      <c r="AP33" s="223"/>
-      <c r="AQ33" s="223"/>
-      <c r="AR33" s="223"/>
-      <c r="AS33" s="223"/>
-      <c r="AT33" s="223"/>
-      <c r="AU33" s="223"/>
-      <c r="AV33" s="226" t="s">
+      <c r="AJ33" s="151"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="151"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
+      <c r="AQ33" s="151"/>
+      <c r="AR33" s="151"/>
+      <c r="AS33" s="151"/>
+      <c r="AT33" s="151"/>
+      <c r="AU33" s="151"/>
+      <c r="AV33" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AW33" s="227"/>
+      <c r="AW33" s="155"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
@@ -6811,54 +6815,54 @@
       <c r="CC33" s="10"/>
     </row>
     <row r="34" spans="1:101" ht="12" customHeight="1">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
-      <c r="N34" s="140"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="140"/>
-      <c r="Q34" s="140"/>
-      <c r="R34" s="140"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="140"/>
-      <c r="U34" s="140"/>
-      <c r="V34" s="140"/>
-      <c r="W34" s="140"/>
-      <c r="X34" s="140"/>
-      <c r="Y34" s="140"/>
-      <c r="Z34" s="140"/>
-      <c r="AA34" s="140"/>
-      <c r="AB34" s="140"/>
-      <c r="AC34" s="140"/>
-      <c r="AD34" s="140"/>
-      <c r="AE34" s="197"/>
-      <c r="AF34" s="198"/>
-      <c r="AG34" s="198"/>
-      <c r="AH34" s="199"/>
-      <c r="AI34" s="224"/>
-      <c r="AJ34" s="225"/>
-      <c r="AK34" s="225"/>
-      <c r="AL34" s="225"/>
-      <c r="AM34" s="225"/>
-      <c r="AN34" s="225"/>
-      <c r="AO34" s="225"/>
-      <c r="AP34" s="225"/>
-      <c r="AQ34" s="225"/>
-      <c r="AR34" s="225"/>
-      <c r="AS34" s="225"/>
-      <c r="AT34" s="225"/>
-      <c r="AU34" s="225"/>
-      <c r="AV34" s="228"/>
-      <c r="AW34" s="229"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="147"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="152"/>
+      <c r="AJ34" s="153"/>
+      <c r="AK34" s="153"/>
+      <c r="AL34" s="153"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
+      <c r="AQ34" s="153"/>
+      <c r="AR34" s="153"/>
+      <c r="AS34" s="153"/>
+      <c r="AT34" s="153"/>
+      <c r="AU34" s="153"/>
+      <c r="AV34" s="156"/>
+      <c r="AW34" s="157"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
@@ -6891,62 +6895,62 @@
       <c r="CC34" s="10"/>
     </row>
     <row r="35" spans="1:101" ht="12" customHeight="1">
-      <c r="B35" s="156"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="147" t="s">
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="190" t="s">
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="191"/>
-      <c r="J35" s="191"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="191"/>
-      <c r="M35" s="191"/>
-      <c r="N35" s="191"/>
-      <c r="O35" s="194" t="s">
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P35" s="195"/>
-      <c r="Q35" s="195"/>
-      <c r="R35" s="196"/>
-      <c r="S35" s="191" t="s">
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="146"/>
+      <c r="S35" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="T35" s="191"/>
-      <c r="U35" s="191"/>
-      <c r="V35" s="191"/>
-      <c r="W35" s="191"/>
-      <c r="X35" s="191"/>
-      <c r="Y35" s="191"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="82"/>
-      <c r="AK35" s="82"/>
-      <c r="AL35" s="82"/>
-      <c r="AM35" s="82"/>
-      <c r="AN35" s="82"/>
-      <c r="AO35" s="82"/>
-      <c r="AP35" s="82"/>
-      <c r="AQ35" s="82"/>
-      <c r="AR35" s="82"/>
-      <c r="AS35" s="82"/>
-      <c r="AT35" s="82"/>
-      <c r="AU35" s="82"/>
-      <c r="AV35" s="82"/>
-      <c r="AW35" s="83"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+      <c r="Y35" s="175"/>
+      <c r="Z35" s="168"/>
+      <c r="AA35" s="169"/>
+      <c r="AB35" s="169"/>
+      <c r="AC35" s="169"/>
+      <c r="AD35" s="169"/>
+      <c r="AE35" s="169"/>
+      <c r="AF35" s="169"/>
+      <c r="AG35" s="169"/>
+      <c r="AH35" s="169"/>
+      <c r="AI35" s="169"/>
+      <c r="AJ35" s="169"/>
+      <c r="AK35" s="169"/>
+      <c r="AL35" s="169"/>
+      <c r="AM35" s="169"/>
+      <c r="AN35" s="169"/>
+      <c r="AO35" s="169"/>
+      <c r="AP35" s="169"/>
+      <c r="AQ35" s="169"/>
+      <c r="AR35" s="169"/>
+      <c r="AS35" s="169"/>
+      <c r="AT35" s="169"/>
+      <c r="AU35" s="169"/>
+      <c r="AV35" s="169"/>
+      <c r="AW35" s="170"/>
       <c r="AY35" s="7"/>
       <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
@@ -6974,54 +6978,54 @@
       <c r="CB35" s="10"/>
     </row>
     <row r="36" spans="1:101" ht="12" customHeight="1">
-      <c r="B36" s="158"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="193"/>
-      <c r="N36" s="193"/>
-      <c r="O36" s="197"/>
-      <c r="P36" s="198"/>
-      <c r="Q36" s="198"/>
-      <c r="R36" s="199"/>
-      <c r="S36" s="193"/>
-      <c r="T36" s="193"/>
-      <c r="U36" s="193"/>
-      <c r="V36" s="193"/>
-      <c r="W36" s="193"/>
-      <c r="X36" s="193"/>
-      <c r="Y36" s="193"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="85"/>
-      <c r="AB36" s="85"/>
-      <c r="AC36" s="85"/>
-      <c r="AD36" s="85"/>
-      <c r="AE36" s="85"/>
-      <c r="AF36" s="85"/>
-      <c r="AG36" s="85"/>
-      <c r="AH36" s="85"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="85"/>
-      <c r="AK36" s="85"/>
-      <c r="AL36" s="85"/>
-      <c r="AM36" s="85"/>
-      <c r="AN36" s="85"/>
-      <c r="AO36" s="85"/>
-      <c r="AP36" s="85"/>
-      <c r="AQ36" s="85"/>
-      <c r="AR36" s="85"/>
-      <c r="AS36" s="85"/>
-      <c r="AT36" s="85"/>
-      <c r="AU36" s="85"/>
-      <c r="AV36" s="85"/>
-      <c r="AW36" s="86"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="148"/>
+      <c r="R36" s="149"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="171"/>
+      <c r="AA36" s="172"/>
+      <c r="AB36" s="172"/>
+      <c r="AC36" s="172"/>
+      <c r="AD36" s="172"/>
+      <c r="AE36" s="172"/>
+      <c r="AF36" s="172"/>
+      <c r="AG36" s="172"/>
+      <c r="AH36" s="172"/>
+      <c r="AI36" s="172"/>
+      <c r="AJ36" s="172"/>
+      <c r="AK36" s="172"/>
+      <c r="AL36" s="172"/>
+      <c r="AM36" s="172"/>
+      <c r="AN36" s="172"/>
+      <c r="AO36" s="172"/>
+      <c r="AP36" s="172"/>
+      <c r="AQ36" s="172"/>
+      <c r="AR36" s="172"/>
+      <c r="AS36" s="172"/>
+      <c r="AT36" s="172"/>
+      <c r="AU36" s="172"/>
+      <c r="AV36" s="172"/>
+      <c r="AW36" s="173"/>
       <c r="AY36" s="7"/>
       <c r="BB36" s="5" t="s">
         <v>125</v>
@@ -7122,77 +7126,76 @@
       <c r="BJ37" s="5"/>
     </row>
     <row r="38" spans="1:101" ht="12" customHeight="1">
-      <c r="B38" s="154" t="s">
+      <c r="B38" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="155"/>
-      <c r="D38" s="147" t="str">
+      <c r="C38" s="126"/>
+      <c r="D38" s="131" t="str">
         <f>IF(K38="","","賃  料")</f>
         <v/>
       </c>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="37" t="str">
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="74" t="str">
         <f>IF(K38="","",BB36)</f>
         <v/>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="185" t="str">
+      <c r="I38" s="75"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="180" t="str">
         <f>IF(BB36="月額（税込）",BC38,IF(BB36="月額",BB38,""))</f>
         <v/>
       </c>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="171"/>
-      <c r="P38" s="171"/>
-      <c r="Q38" s="171"/>
-      <c r="R38" s="166" t="str">
+      <c r="L38" s="181"/>
+      <c r="M38" s="181"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="164" t="str">
         <f>IF(K38="","","円")</f>
         <v/>
       </c>
-      <c r="S38" s="167"/>
-      <c r="T38" s="147" t="str">
+      <c r="S38" s="165"/>
+      <c r="T38" s="131" t="str">
         <f>IF(X38="","敷　金",BC36)</f>
         <v>敷　金</v>
       </c>
-      <c r="U38" s="147"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="160" t="str">
+      <c r="U38" s="131"/>
+      <c r="V38" s="131"/>
+      <c r="W38" s="131"/>
+      <c r="X38" s="158" t="str">
         <f>IF(BC36="敷　金",BE38,IF(BC36="保証金",BF38,""))</f>
         <v/>
       </c>
-      <c r="Y38" s="161"/>
-      <c r="Z38" s="161"/>
-      <c r="AA38" s="161"/>
-      <c r="AB38" s="161"/>
-      <c r="AC38" s="161"/>
-      <c r="AD38" s="161"/>
-      <c r="AE38" s="161"/>
-      <c r="AF38" s="162"/>
-      <c r="AG38" s="166" t="str">
-        <f>IF(X38="","","円")</f>
-        <v/>
-      </c>
-      <c r="AH38" s="167"/>
-      <c r="AI38" s="81"/>
-      <c r="AJ38" s="82"/>
-      <c r="AK38" s="82"/>
-      <c r="AL38" s="83"/>
-      <c r="AM38" s="160"/>
-      <c r="AN38" s="161"/>
-      <c r="AO38" s="161"/>
-      <c r="AP38" s="161"/>
-      <c r="AQ38" s="161"/>
-      <c r="AR38" s="161"/>
-      <c r="AS38" s="161"/>
-      <c r="AT38" s="161"/>
-      <c r="AU38" s="162"/>
-      <c r="AV38" s="166"/>
-      <c r="AW38" s="167"/>
+      <c r="Y38" s="159"/>
+      <c r="Z38" s="159"/>
+      <c r="AA38" s="159"/>
+      <c r="AB38" s="159"/>
+      <c r="AC38" s="159"/>
+      <c r="AD38" s="159"/>
+      <c r="AE38" s="159"/>
+      <c r="AF38" s="160"/>
+      <c r="AG38" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH38" s="165"/>
+      <c r="AI38" s="168"/>
+      <c r="AJ38" s="169"/>
+      <c r="AK38" s="169"/>
+      <c r="AL38" s="170"/>
+      <c r="AM38" s="158"/>
+      <c r="AN38" s="159"/>
+      <c r="AO38" s="159"/>
+      <c r="AP38" s="159"/>
+      <c r="AQ38" s="159"/>
+      <c r="AR38" s="159"/>
+      <c r="AS38" s="159"/>
+      <c r="AT38" s="159"/>
+      <c r="AU38" s="160"/>
+      <c r="AV38" s="164"/>
+      <c r="AW38" s="165"/>
       <c r="AY38" s="7"/>
       <c r="BB38" s="5" t="s">
         <v>110</v>
@@ -7213,54 +7216,54 @@
       <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="1:101" ht="12" customHeight="1">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="169"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="147"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="147"/>
-      <c r="X39" s="163"/>
-      <c r="Y39" s="164"/>
-      <c r="Z39" s="164"/>
-      <c r="AA39" s="164"/>
-      <c r="AB39" s="164"/>
-      <c r="AC39" s="164"/>
-      <c r="AD39" s="164"/>
-      <c r="AE39" s="164"/>
-      <c r="AF39" s="165"/>
-      <c r="AG39" s="168"/>
-      <c r="AH39" s="169"/>
-      <c r="AI39" s="84"/>
-      <c r="AJ39" s="85"/>
-      <c r="AK39" s="85"/>
-      <c r="AL39" s="86"/>
-      <c r="AM39" s="163"/>
-      <c r="AN39" s="164"/>
-      <c r="AO39" s="164"/>
-      <c r="AP39" s="164"/>
-      <c r="AQ39" s="164"/>
-      <c r="AR39" s="164"/>
-      <c r="AS39" s="164"/>
-      <c r="AT39" s="164"/>
-      <c r="AU39" s="165"/>
-      <c r="AV39" s="168"/>
-      <c r="AW39" s="169"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
+      <c r="O39" s="183"/>
+      <c r="P39" s="183"/>
+      <c r="Q39" s="183"/>
+      <c r="R39" s="166"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="131"/>
+      <c r="U39" s="131"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="131"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="162"/>
+      <c r="Z39" s="162"/>
+      <c r="AA39" s="162"/>
+      <c r="AB39" s="162"/>
+      <c r="AC39" s="162"/>
+      <c r="AD39" s="162"/>
+      <c r="AE39" s="162"/>
+      <c r="AF39" s="163"/>
+      <c r="AG39" s="166"/>
+      <c r="AH39" s="167"/>
+      <c r="AI39" s="171"/>
+      <c r="AJ39" s="172"/>
+      <c r="AK39" s="172"/>
+      <c r="AL39" s="173"/>
+      <c r="AM39" s="161"/>
+      <c r="AN39" s="162"/>
+      <c r="AO39" s="162"/>
+      <c r="AP39" s="162"/>
+      <c r="AQ39" s="162"/>
+      <c r="AR39" s="162"/>
+      <c r="AS39" s="162"/>
+      <c r="AT39" s="162"/>
+      <c r="AU39" s="163"/>
+      <c r="AV39" s="166"/>
+      <c r="AW39" s="167"/>
       <c r="AY39" s="7"/>
       <c r="BB39" s="5"/>
       <c r="BC39" s="5"/>
@@ -7273,75 +7276,74 @@
       <c r="BJ39" s="5"/>
     </row>
     <row r="40" spans="1:101" ht="12" customHeight="1">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="147" t="str">
+      <c r="B40" s="127"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="131" t="str">
         <f>IF(K40="","共益費",BB37)</f>
         <v>共益費</v>
       </c>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="37" t="str">
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="74" t="str">
         <f>IF(K40="","月額",BC37)</f>
         <v>月額</v>
       </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="185" t="str">
+      <c r="I40" s="75"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="180" t="str">
         <f>IF(BB37="共益費",IF(BC37="月額（税込）",BC40,IF(BC37="月額",BB40,"")),IF(BB37="管理費",IF(BC37="月額（税込）",BC41,IF(BC37="月額",BB41,"")),""))</f>
         <v/>
       </c>
-      <c r="L40" s="171"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171"/>
-      <c r="Q40" s="171"/>
-      <c r="R40" s="166" t="str">
-        <f>IF(K40="","","円")</f>
-        <v/>
-      </c>
-      <c r="S40" s="167"/>
-      <c r="T40" s="147" t="str">
+      <c r="L40" s="181"/>
+      <c r="M40" s="181"/>
+      <c r="N40" s="181"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="S40" s="165"/>
+      <c r="T40" s="131" t="str">
         <f>IF(X40="","","償  却")</f>
         <v>償  却</v>
       </c>
-      <c r="U40" s="147"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="147"/>
-      <c r="X40" s="160" t="str">
+      <c r="U40" s="131"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="131"/>
+      <c r="X40" s="158" t="str">
         <f>IF(BF37="","",BF37)</f>
         <v>$amortization$</v>
       </c>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
-      <c r="AA40" s="161"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
-      <c r="AD40" s="161"/>
-      <c r="AE40" s="161"/>
-      <c r="AF40" s="162"/>
-      <c r="AG40" s="166" t="str">
+      <c r="Y40" s="159"/>
+      <c r="Z40" s="159"/>
+      <c r="AA40" s="159"/>
+      <c r="AB40" s="159"/>
+      <c r="AC40" s="159"/>
+      <c r="AD40" s="159"/>
+      <c r="AE40" s="159"/>
+      <c r="AF40" s="160"/>
+      <c r="AG40" s="164" t="str">
         <f>IF(X40="","","円")</f>
         <v>円</v>
       </c>
-      <c r="AH40" s="167"/>
-      <c r="AI40" s="147"/>
-      <c r="AJ40" s="147"/>
-      <c r="AK40" s="147"/>
-      <c r="AL40" s="147"/>
-      <c r="AM40" s="170"/>
-      <c r="AN40" s="171"/>
-      <c r="AO40" s="171"/>
-      <c r="AP40" s="171"/>
-      <c r="AQ40" s="171"/>
-      <c r="AR40" s="171"/>
-      <c r="AS40" s="171"/>
-      <c r="AT40" s="171"/>
-      <c r="AU40" s="171"/>
-      <c r="AV40" s="166"/>
-      <c r="AW40" s="167"/>
+      <c r="AH40" s="165"/>
+      <c r="AI40" s="131"/>
+      <c r="AJ40" s="131"/>
+      <c r="AK40" s="131"/>
+      <c r="AL40" s="131"/>
+      <c r="AM40" s="231"/>
+      <c r="AN40" s="181"/>
+      <c r="AO40" s="181"/>
+      <c r="AP40" s="181"/>
+      <c r="AQ40" s="181"/>
+      <c r="AR40" s="181"/>
+      <c r="AS40" s="181"/>
+      <c r="AT40" s="181"/>
+      <c r="AU40" s="181"/>
+      <c r="AV40" s="164"/>
+      <c r="AW40" s="165"/>
       <c r="AY40" s="7"/>
       <c r="BB40" s="5" t="s">
         <v>114</v>
@@ -7358,54 +7360,54 @@
       <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="1:101" ht="12" customHeight="1">
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="186"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="168"/>
-      <c r="S41" s="169"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="147"/>
-      <c r="V41" s="147"/>
-      <c r="W41" s="147"/>
-      <c r="X41" s="163"/>
-      <c r="Y41" s="164"/>
-      <c r="Z41" s="164"/>
-      <c r="AA41" s="164"/>
-      <c r="AB41" s="164"/>
-      <c r="AC41" s="164"/>
-      <c r="AD41" s="164"/>
-      <c r="AE41" s="164"/>
-      <c r="AF41" s="165"/>
-      <c r="AG41" s="168"/>
-      <c r="AH41" s="169"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="147"/>
-      <c r="AM41" s="172"/>
-      <c r="AN41" s="173"/>
-      <c r="AO41" s="173"/>
-      <c r="AP41" s="173"/>
-      <c r="AQ41" s="173"/>
-      <c r="AR41" s="173"/>
-      <c r="AS41" s="173"/>
-      <c r="AT41" s="173"/>
-      <c r="AU41" s="173"/>
-      <c r="AV41" s="168"/>
-      <c r="AW41" s="169"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="182"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="183"/>
+      <c r="P41" s="183"/>
+      <c r="Q41" s="183"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="167"/>
+      <c r="T41" s="131"/>
+      <c r="U41" s="131"/>
+      <c r="V41" s="131"/>
+      <c r="W41" s="131"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="162"/>
+      <c r="Z41" s="162"/>
+      <c r="AA41" s="162"/>
+      <c r="AB41" s="162"/>
+      <c r="AC41" s="162"/>
+      <c r="AD41" s="162"/>
+      <c r="AE41" s="162"/>
+      <c r="AF41" s="163"/>
+      <c r="AG41" s="166"/>
+      <c r="AH41" s="167"/>
+      <c r="AI41" s="131"/>
+      <c r="AJ41" s="131"/>
+      <c r="AK41" s="131"/>
+      <c r="AL41" s="131"/>
+      <c r="AM41" s="232"/>
+      <c r="AN41" s="183"/>
+      <c r="AO41" s="183"/>
+      <c r="AP41" s="183"/>
+      <c r="AQ41" s="183"/>
+      <c r="AR41" s="183"/>
+      <c r="AS41" s="183"/>
+      <c r="AT41" s="183"/>
+      <c r="AU41" s="183"/>
+      <c r="AV41" s="166"/>
+      <c r="AW41" s="167"/>
       <c r="AY41" s="7"/>
       <c r="BB41" s="5" t="s">
         <v>132</v>
@@ -7422,81 +7424,81 @@
       <c r="BJ41" s="5"/>
     </row>
     <row r="42" spans="1:101" ht="12" customHeight="1">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="187" t="str">
+      <c r="B42" s="127"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="184" t="str">
         <f>IF(K42="","","駐車場賃料")</f>
         <v/>
       </c>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="37" t="str">
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="74" t="str">
         <f>IF(K42="","",BB45)</f>
         <v/>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="185" t="str">
+      <c r="I42" s="75"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="180" t="str">
         <f>IF(BB45="月額（税込）",BC46,IF(BB45="月額",BB46,""))</f>
         <v/>
       </c>
-      <c r="L42" s="171"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="171"/>
-      <c r="P42" s="171"/>
-      <c r="Q42" s="171"/>
-      <c r="R42" s="166" t="str">
+      <c r="L42" s="181"/>
+      <c r="M42" s="181"/>
+      <c r="N42" s="181"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
+      <c r="R42" s="164" t="str">
         <f>IF(K42="","","円")</f>
         <v/>
       </c>
-      <c r="S42" s="167"/>
-      <c r="T42" s="188" t="s">
+      <c r="S42" s="165"/>
+      <c r="T42" s="185" t="s">
         <v>128</v>
       </c>
-      <c r="U42" s="189"/>
-      <c r="V42" s="189"/>
-      <c r="W42" s="189"/>
-      <c r="X42" s="160" t="s">
+      <c r="U42" s="186"/>
+      <c r="V42" s="186"/>
+      <c r="W42" s="186"/>
+      <c r="X42" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="Y42" s="161"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
-      <c r="AD42" s="161"/>
-      <c r="AE42" s="161"/>
-      <c r="AF42" s="162"/>
-      <c r="AG42" s="166" t="s">
+      <c r="Y42" s="159"/>
+      <c r="Z42" s="159"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="159"/>
+      <c r="AC42" s="159"/>
+      <c r="AD42" s="159"/>
+      <c r="AE42" s="159"/>
+      <c r="AF42" s="160"/>
+      <c r="AG42" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="AH42" s="167"/>
-      <c r="AI42" s="147" t="str">
+      <c r="AH42" s="165"/>
+      <c r="AI42" s="131" t="str">
         <f>IF(OR(BB43="", BB43=0),"","その他費用")</f>
         <v>その他費用</v>
       </c>
-      <c r="AJ42" s="147"/>
-      <c r="AK42" s="147"/>
-      <c r="AL42" s="147"/>
-      <c r="AM42" s="184" t="str">
+      <c r="AJ42" s="131"/>
+      <c r="AK42" s="131"/>
+      <c r="AL42" s="131"/>
+      <c r="AM42" s="233" t="str">
         <f>IF(OR(BB43="", BB43=0),"",BB43)</f>
         <v>$otherExpenses$</v>
       </c>
-      <c r="AN42" s="171"/>
-      <c r="AO42" s="171"/>
-      <c r="AP42" s="171"/>
-      <c r="AQ42" s="171"/>
-      <c r="AR42" s="171"/>
-      <c r="AS42" s="171"/>
-      <c r="AT42" s="171"/>
-      <c r="AU42" s="171"/>
-      <c r="AV42" s="149" t="str">
+      <c r="AN42" s="181"/>
+      <c r="AO42" s="181"/>
+      <c r="AP42" s="181"/>
+      <c r="AQ42" s="181"/>
+      <c r="AR42" s="181"/>
+      <c r="AS42" s="181"/>
+      <c r="AT42" s="181"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="226" t="str">
         <f>IF(OR(BB43="", BB43=0),"","円")</f>
         <v>円</v>
       </c>
-      <c r="AW42" s="150"/>
+      <c r="AW42" s="227"/>
       <c r="AY42" s="7"/>
       <c r="BB42" s="5"/>
       <c r="BC42" s="5"/>
@@ -7509,54 +7511,54 @@
       <c r="BJ42" s="5"/>
     </row>
     <row r="43" spans="1:101" ht="12" customHeight="1">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="186"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="168"/>
-      <c r="S43" s="169"/>
-      <c r="T43" s="189"/>
-      <c r="U43" s="189"/>
-      <c r="V43" s="189"/>
-      <c r="W43" s="189"/>
-      <c r="X43" s="163"/>
-      <c r="Y43" s="164"/>
-      <c r="Z43" s="164"/>
-      <c r="AA43" s="164"/>
-      <c r="AB43" s="164"/>
-      <c r="AC43" s="164"/>
-      <c r="AD43" s="164"/>
-      <c r="AE43" s="164"/>
-      <c r="AF43" s="165"/>
-      <c r="AG43" s="168"/>
-      <c r="AH43" s="169"/>
-      <c r="AI43" s="147"/>
-      <c r="AJ43" s="147"/>
-      <c r="AK43" s="147"/>
-      <c r="AL43" s="147"/>
-      <c r="AM43" s="172"/>
-      <c r="AN43" s="173"/>
-      <c r="AO43" s="173"/>
-      <c r="AP43" s="173"/>
-      <c r="AQ43" s="173"/>
-      <c r="AR43" s="173"/>
-      <c r="AS43" s="173"/>
-      <c r="AT43" s="173"/>
-      <c r="AU43" s="173"/>
-      <c r="AV43" s="152"/>
-      <c r="AW43" s="153"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="179"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="183"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="183"/>
+      <c r="Q43" s="183"/>
+      <c r="R43" s="166"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="186"/>
+      <c r="U43" s="186"/>
+      <c r="V43" s="186"/>
+      <c r="W43" s="186"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="162"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="162"/>
+      <c r="AB43" s="162"/>
+      <c r="AC43" s="162"/>
+      <c r="AD43" s="162"/>
+      <c r="AE43" s="162"/>
+      <c r="AF43" s="163"/>
+      <c r="AG43" s="166"/>
+      <c r="AH43" s="167"/>
+      <c r="AI43" s="131"/>
+      <c r="AJ43" s="131"/>
+      <c r="AK43" s="131"/>
+      <c r="AL43" s="131"/>
+      <c r="AM43" s="232"/>
+      <c r="AN43" s="183"/>
+      <c r="AO43" s="183"/>
+      <c r="AP43" s="183"/>
+      <c r="AQ43" s="183"/>
+      <c r="AR43" s="183"/>
+      <c r="AS43" s="183"/>
+      <c r="AT43" s="183"/>
+      <c r="AU43" s="183"/>
+      <c r="AV43" s="229"/>
+      <c r="AW43" s="230"/>
       <c r="AY43" s="7"/>
       <c r="BB43" s="5" t="s">
         <v>133</v>
@@ -7571,86 +7573,86 @@
       <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="1:101" ht="12" customHeight="1">
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="147" t="s">
+      <c r="B44" s="127"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="55" t="s">
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="35" t="s">
+      <c r="I44" s="193"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="35"/>
-      <c r="N44" s="59" t="s">
+      <c r="M44" s="195"/>
+      <c r="N44" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="O44" s="59"/>
-      <c r="P44" s="35" t="s">
+      <c r="O44" s="197"/>
+      <c r="P44" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="59" t="s">
+      <c r="Q44" s="195"/>
+      <c r="R44" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="S44" s="59"/>
-      <c r="T44" s="35" t="s">
+      <c r="S44" s="197"/>
+      <c r="T44" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="U44" s="35"/>
-      <c r="V44" s="178" t="s">
+      <c r="U44" s="195"/>
+      <c r="V44" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="W44" s="178"/>
-      <c r="X44" s="56" t="s">
+      <c r="W44" s="191"/>
+      <c r="X44" s="193" t="s">
         <v>64</v>
       </c>
-      <c r="Y44" s="56"/>
-      <c r="Z44" s="56"/>
-      <c r="AA44" s="56"/>
-      <c r="AB44" s="35" t="s">
+      <c r="Y44" s="193"/>
+      <c r="Z44" s="193"/>
+      <c r="AA44" s="193"/>
+      <c r="AB44" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="59" t="s">
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="AE44" s="59"/>
-      <c r="AF44" s="35" t="s">
+      <c r="AE44" s="197"/>
+      <c r="AF44" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="59" t="s">
+      <c r="AG44" s="195"/>
+      <c r="AH44" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="AI44" s="59"/>
-      <c r="AJ44" s="35" t="s">
+      <c r="AI44" s="197"/>
+      <c r="AJ44" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="AK44" s="35"/>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="178" t="s">
+      <c r="AK44" s="195"/>
+      <c r="AL44" s="195"/>
+      <c r="AM44" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="AN44" s="180" t="s">
+      <c r="AN44" s="201" t="s">
         <v>86</v>
       </c>
-      <c r="AO44" s="180"/>
-      <c r="AP44" s="180"/>
-      <c r="AQ44" s="180"/>
-      <c r="AR44" s="180"/>
-      <c r="AS44" s="180"/>
-      <c r="AT44" s="180"/>
-      <c r="AU44" s="180"/>
-      <c r="AV44" s="180"/>
-      <c r="AW44" s="182" t="s">
+      <c r="AO44" s="201"/>
+      <c r="AP44" s="201"/>
+      <c r="AQ44" s="201"/>
+      <c r="AR44" s="201"/>
+      <c r="AS44" s="201"/>
+      <c r="AT44" s="201"/>
+      <c r="AU44" s="201"/>
+      <c r="AV44" s="201"/>
+      <c r="AW44" s="203" t="s">
         <v>31</v>
       </c>
       <c r="AX44" s="10"/>
@@ -7707,54 +7709,54 @@
       <c r="CW44" s="10"/>
     </row>
     <row r="45" spans="1:101" ht="12" customHeight="1">
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="179"/>
-      <c r="W45" s="179"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="58"/>
-      <c r="AA45" s="58"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="179"/>
-      <c r="AN45" s="181"/>
-      <c r="AO45" s="181"/>
-      <c r="AP45" s="181"/>
-      <c r="AQ45" s="181"/>
-      <c r="AR45" s="181"/>
-      <c r="AS45" s="181"/>
-      <c r="AT45" s="181"/>
-      <c r="AU45" s="181"/>
-      <c r="AV45" s="181"/>
-      <c r="AW45" s="183"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="200"/>
+      <c r="I45" s="194"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="198"/>
+      <c r="O45" s="198"/>
+      <c r="P45" s="196"/>
+      <c r="Q45" s="196"/>
+      <c r="R45" s="198"/>
+      <c r="S45" s="198"/>
+      <c r="T45" s="196"/>
+      <c r="U45" s="196"/>
+      <c r="V45" s="192"/>
+      <c r="W45" s="192"/>
+      <c r="X45" s="194"/>
+      <c r="Y45" s="194"/>
+      <c r="Z45" s="194"/>
+      <c r="AA45" s="194"/>
+      <c r="AB45" s="196"/>
+      <c r="AC45" s="196"/>
+      <c r="AD45" s="198"/>
+      <c r="AE45" s="198"/>
+      <c r="AF45" s="196"/>
+      <c r="AG45" s="196"/>
+      <c r="AH45" s="198"/>
+      <c r="AI45" s="198"/>
+      <c r="AJ45" s="196"/>
+      <c r="AK45" s="196"/>
+      <c r="AL45" s="196"/>
+      <c r="AM45" s="192"/>
+      <c r="AN45" s="202"/>
+      <c r="AO45" s="202"/>
+      <c r="AP45" s="202"/>
+      <c r="AQ45" s="202"/>
+      <c r="AR45" s="202"/>
+      <c r="AS45" s="202"/>
+      <c r="AT45" s="202"/>
+      <c r="AU45" s="202"/>
+      <c r="AV45" s="202"/>
+      <c r="AW45" s="204"/>
       <c r="AX45" s="10"/>
       <c r="AY45" s="10"/>
       <c r="AZ45" s="10"/>
@@ -7764,8 +7766,8 @@
       </c>
       <c r="BC45" s="10"/>
       <c r="BD45" s="10"/>
-      <c r="BE45" s="174"/>
-      <c r="BF45" s="174"/>
+      <c r="BE45" s="187"/>
+      <c r="BF45" s="187"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10"/>
       <c r="BI45" s="10"/>
@@ -7812,60 +7814,60 @@
     </row>
     <row r="46" spans="1:101" ht="12" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="147" t="s">
+      <c r="B46" s="127"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="37" t="s">
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="175" t="s">
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="S46" s="175"/>
-      <c r="T46" s="175"/>
-      <c r="U46" s="176"/>
-      <c r="V46" s="243"/>
-      <c r="W46" s="244"/>
-      <c r="X46" s="244"/>
-      <c r="Y46" s="244"/>
-      <c r="Z46" s="244"/>
-      <c r="AA46" s="244"/>
-      <c r="AB46" s="244"/>
-      <c r="AC46" s="244"/>
-      <c r="AD46" s="244"/>
-      <c r="AE46" s="244"/>
-      <c r="AF46" s="244"/>
-      <c r="AG46" s="244"/>
-      <c r="AH46" s="244"/>
-      <c r="AI46" s="244"/>
-      <c r="AJ46" s="244"/>
-      <c r="AK46" s="244"/>
-      <c r="AL46" s="244"/>
-      <c r="AM46" s="244"/>
-      <c r="AN46" s="244"/>
-      <c r="AO46" s="244"/>
-      <c r="AP46" s="244"/>
-      <c r="AQ46" s="244"/>
-      <c r="AR46" s="244"/>
-      <c r="AS46" s="244"/>
-      <c r="AT46" s="244"/>
-      <c r="AU46" s="244"/>
-      <c r="AV46" s="244"/>
-      <c r="AW46" s="245"/>
+      <c r="S46" s="188"/>
+      <c r="T46" s="188"/>
+      <c r="U46" s="189"/>
+      <c r="V46" s="205"/>
+      <c r="W46" s="206"/>
+      <c r="X46" s="206"/>
+      <c r="Y46" s="206"/>
+      <c r="Z46" s="206"/>
+      <c r="AA46" s="206"/>
+      <c r="AB46" s="206"/>
+      <c r="AC46" s="206"/>
+      <c r="AD46" s="206"/>
+      <c r="AE46" s="206"/>
+      <c r="AF46" s="206"/>
+      <c r="AG46" s="206"/>
+      <c r="AH46" s="206"/>
+      <c r="AI46" s="206"/>
+      <c r="AJ46" s="206"/>
+      <c r="AK46" s="206"/>
+      <c r="AL46" s="206"/>
+      <c r="AM46" s="206"/>
+      <c r="AN46" s="206"/>
+      <c r="AO46" s="206"/>
+      <c r="AP46" s="206"/>
+      <c r="AQ46" s="206"/>
+      <c r="AR46" s="206"/>
+      <c r="AS46" s="206"/>
+      <c r="AT46" s="206"/>
+      <c r="AU46" s="206"/>
+      <c r="AV46" s="206"/>
+      <c r="AW46" s="207"/>
       <c r="AX46" s="10"/>
       <c r="AY46" s="10"/>
       <c r="AZ46" s="10"/>
@@ -7924,54 +7926,54 @@
     </row>
     <row r="47" spans="1:101" ht="12" customHeight="1">
       <c r="A47" s="10"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="177"/>
-      <c r="S47" s="177"/>
-      <c r="T47" s="177"/>
-      <c r="U47" s="169"/>
-      <c r="V47" s="246"/>
-      <c r="W47" s="247"/>
-      <c r="X47" s="247"/>
-      <c r="Y47" s="247"/>
-      <c r="Z47" s="247"/>
-      <c r="AA47" s="247"/>
-      <c r="AB47" s="247"/>
-      <c r="AC47" s="247"/>
-      <c r="AD47" s="247"/>
-      <c r="AE47" s="247"/>
-      <c r="AF47" s="247"/>
-      <c r="AG47" s="247"/>
-      <c r="AH47" s="247"/>
-      <c r="AI47" s="247"/>
-      <c r="AJ47" s="247"/>
-      <c r="AK47" s="247"/>
-      <c r="AL47" s="247"/>
-      <c r="AM47" s="247"/>
-      <c r="AN47" s="247"/>
-      <c r="AO47" s="247"/>
-      <c r="AP47" s="247"/>
-      <c r="AQ47" s="247"/>
-      <c r="AR47" s="247"/>
-      <c r="AS47" s="247"/>
-      <c r="AT47" s="247"/>
-      <c r="AU47" s="247"/>
-      <c r="AV47" s="247"/>
-      <c r="AW47" s="248"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="77"/>
+      <c r="R47" s="190"/>
+      <c r="S47" s="190"/>
+      <c r="T47" s="190"/>
+      <c r="U47" s="167"/>
+      <c r="V47" s="208"/>
+      <c r="W47" s="209"/>
+      <c r="X47" s="209"/>
+      <c r="Y47" s="209"/>
+      <c r="Z47" s="209"/>
+      <c r="AA47" s="209"/>
+      <c r="AB47" s="209"/>
+      <c r="AC47" s="209"/>
+      <c r="AD47" s="209"/>
+      <c r="AE47" s="209"/>
+      <c r="AF47" s="209"/>
+      <c r="AG47" s="209"/>
+      <c r="AH47" s="209"/>
+      <c r="AI47" s="209"/>
+      <c r="AJ47" s="209"/>
+      <c r="AK47" s="209"/>
+      <c r="AL47" s="209"/>
+      <c r="AM47" s="209"/>
+      <c r="AN47" s="209"/>
+      <c r="AO47" s="209"/>
+      <c r="AP47" s="209"/>
+      <c r="AQ47" s="209"/>
+      <c r="AR47" s="209"/>
+      <c r="AS47" s="209"/>
+      <c r="AT47" s="209"/>
+      <c r="AU47" s="209"/>
+      <c r="AV47" s="209"/>
+      <c r="AW47" s="210"/>
       <c r="AX47" s="10"/>
       <c r="AY47" s="10"/>
       <c r="AZ47" s="10"/>
@@ -8026,64 +8028,64 @@
     </row>
     <row r="48" spans="1:101" ht="12" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="156"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="147" t="s">
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="37" t="s">
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38" t="s">
+      <c r="I48" s="75"/>
+      <c r="J48" s="75"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="40" t="s">
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75"/>
+      <c r="U48" s="220"/>
+      <c r="V48" s="222" t="s">
         <v>44</v>
       </c>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="148" t="s">
+      <c r="W48" s="223"/>
+      <c r="X48" s="223"/>
+      <c r="Y48" s="223"/>
+      <c r="Z48" s="223"/>
+      <c r="AA48" s="224"/>
+      <c r="AB48" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="AC48" s="149"/>
-      <c r="AD48" s="149"/>
-      <c r="AE48" s="149"/>
-      <c r="AF48" s="149"/>
-      <c r="AG48" s="149"/>
-      <c r="AH48" s="149"/>
-      <c r="AI48" s="149"/>
-      <c r="AJ48" s="149"/>
-      <c r="AK48" s="149"/>
-      <c r="AL48" s="149"/>
-      <c r="AM48" s="149"/>
-      <c r="AN48" s="149"/>
-      <c r="AO48" s="149"/>
-      <c r="AP48" s="149"/>
-      <c r="AQ48" s="149"/>
-      <c r="AR48" s="149"/>
-      <c r="AS48" s="149"/>
-      <c r="AT48" s="149"/>
-      <c r="AU48" s="149"/>
-      <c r="AV48" s="149"/>
-      <c r="AW48" s="150"/>
+      <c r="AC48" s="226"/>
+      <c r="AD48" s="226"/>
+      <c r="AE48" s="226"/>
+      <c r="AF48" s="226"/>
+      <c r="AG48" s="226"/>
+      <c r="AH48" s="226"/>
+      <c r="AI48" s="226"/>
+      <c r="AJ48" s="226"/>
+      <c r="AK48" s="226"/>
+      <c r="AL48" s="226"/>
+      <c r="AM48" s="226"/>
+      <c r="AN48" s="226"/>
+      <c r="AO48" s="226"/>
+      <c r="AP48" s="226"/>
+      <c r="AQ48" s="226"/>
+      <c r="AR48" s="226"/>
+      <c r="AS48" s="226"/>
+      <c r="AT48" s="226"/>
+      <c r="AU48" s="226"/>
+      <c r="AV48" s="226"/>
+      <c r="AW48" s="227"/>
       <c r="AX48" s="10"/>
       <c r="AY48" s="10"/>
       <c r="AZ48" s="10"/>
@@ -8138,54 +8140,54 @@
     </row>
     <row r="49" spans="1:100" ht="12" customHeight="1">
       <c r="A49" s="10"/>
-      <c r="B49" s="158"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="151"/>
-      <c r="AC49" s="152"/>
-      <c r="AD49" s="152"/>
-      <c r="AE49" s="152"/>
-      <c r="AF49" s="152"/>
-      <c r="AG49" s="152"/>
-      <c r="AH49" s="152"/>
-      <c r="AI49" s="152"/>
-      <c r="AJ49" s="152"/>
-      <c r="AK49" s="152"/>
-      <c r="AL49" s="152"/>
-      <c r="AM49" s="152"/>
-      <c r="AN49" s="152"/>
-      <c r="AO49" s="152"/>
-      <c r="AP49" s="152"/>
-      <c r="AQ49" s="152"/>
-      <c r="AR49" s="152"/>
-      <c r="AS49" s="152"/>
-      <c r="AT49" s="152"/>
-      <c r="AU49" s="152"/>
-      <c r="AV49" s="152"/>
-      <c r="AW49" s="153"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="221"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="221"/>
+      <c r="AB49" s="228"/>
+      <c r="AC49" s="229"/>
+      <c r="AD49" s="229"/>
+      <c r="AE49" s="229"/>
+      <c r="AF49" s="229"/>
+      <c r="AG49" s="229"/>
+      <c r="AH49" s="229"/>
+      <c r="AI49" s="229"/>
+      <c r="AJ49" s="229"/>
+      <c r="AK49" s="229"/>
+      <c r="AL49" s="229"/>
+      <c r="AM49" s="229"/>
+      <c r="AN49" s="229"/>
+      <c r="AO49" s="229"/>
+      <c r="AP49" s="229"/>
+      <c r="AQ49" s="229"/>
+      <c r="AR49" s="229"/>
+      <c r="AS49" s="229"/>
+      <c r="AT49" s="229"/>
+      <c r="AU49" s="229"/>
+      <c r="AV49" s="229"/>
+      <c r="AW49" s="230"/>
       <c r="AX49" s="10"/>
       <c r="AY49" s="10"/>
       <c r="AZ49" s="10"/>
@@ -8443,221 +8445,221 @@
       <c r="CV51" s="10"/>
     </row>
     <row r="52" spans="1:100" ht="12" customHeight="1">
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="123" t="s">
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="124" t="s">
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="125"/>
-      <c r="S52" s="125"/>
-      <c r="T52" s="125"/>
-      <c r="U52" s="125"/>
-      <c r="V52" s="125"/>
-      <c r="W52" s="125"/>
-      <c r="X52" s="125"/>
-      <c r="Y52" s="125"/>
-      <c r="Z52" s="125"/>
-      <c r="AA52" s="125"/>
-      <c r="AB52" s="125"/>
-      <c r="AC52" s="125"/>
-      <c r="AD52" s="125"/>
-      <c r="AE52" s="125"/>
-      <c r="AF52" s="125"/>
-      <c r="AG52" s="125"/>
-      <c r="AH52" s="126"/>
-      <c r="AI52" s="130" t="s">
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="82"/>
+      <c r="AE52" s="82"/>
+      <c r="AF52" s="82"/>
+      <c r="AG52" s="82"/>
+      <c r="AH52" s="110"/>
+      <c r="AI52" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="AJ52" s="131"/>
-      <c r="AK52" s="131"/>
-      <c r="AL52" s="132"/>
-      <c r="AM52" s="136" t="s">
+      <c r="AJ52" s="97"/>
+      <c r="AK52" s="97"/>
+      <c r="AL52" s="215"/>
+      <c r="AM52" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AN52" s="137"/>
-      <c r="AO52" s="137"/>
-      <c r="AP52" s="137"/>
-      <c r="AQ52" s="137"/>
-      <c r="AR52" s="137"/>
-      <c r="AS52" s="137"/>
-      <c r="AT52" s="137"/>
-      <c r="AU52" s="137"/>
-      <c r="AV52" s="137"/>
-      <c r="AW52" s="138"/>
+      <c r="AN52" s="93"/>
+      <c r="AO52" s="93"/>
+      <c r="AP52" s="93"/>
+      <c r="AQ52" s="93"/>
+      <c r="AR52" s="93"/>
+      <c r="AS52" s="93"/>
+      <c r="AT52" s="93"/>
+      <c r="AU52" s="93"/>
+      <c r="AV52" s="93"/>
+      <c r="AW52" s="218"/>
       <c r="AY52" s="7"/>
     </row>
     <row r="53" spans="1:100" ht="12" customHeight="1">
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="128"/>
-      <c r="X53" s="128"/>
-      <c r="Y53" s="128"/>
-      <c r="Z53" s="128"/>
-      <c r="AA53" s="128"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="128"/>
-      <c r="AG53" s="128"/>
-      <c r="AH53" s="129"/>
-      <c r="AI53" s="133"/>
-      <c r="AJ53" s="134"/>
-      <c r="AK53" s="134"/>
-      <c r="AL53" s="135"/>
-      <c r="AM53" s="139"/>
-      <c r="AN53" s="140"/>
-      <c r="AO53" s="140"/>
-      <c r="AP53" s="140"/>
-      <c r="AQ53" s="140"/>
-      <c r="AR53" s="140"/>
-      <c r="AS53" s="140"/>
-      <c r="AT53" s="140"/>
-      <c r="AU53" s="140"/>
-      <c r="AV53" s="140"/>
-      <c r="AW53" s="141"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="212"/>
+      <c r="D53" s="212"/>
+      <c r="E53" s="212"/>
+      <c r="F53" s="212"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="85"/>
+      <c r="O53" s="85"/>
+      <c r="P53" s="85"/>
+      <c r="Q53" s="85"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="85"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="85"/>
+      <c r="AH53" s="111"/>
+      <c r="AI53" s="216"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
+      <c r="AL53" s="217"/>
+      <c r="AM53" s="94"/>
+      <c r="AN53" s="95"/>
+      <c r="AO53" s="95"/>
+      <c r="AP53" s="95"/>
+      <c r="AQ53" s="95"/>
+      <c r="AR53" s="95"/>
+      <c r="AS53" s="95"/>
+      <c r="AT53" s="95"/>
+      <c r="AU53" s="95"/>
+      <c r="AV53" s="95"/>
+      <c r="AW53" s="219"/>
       <c r="AY53" s="7"/>
     </row>
     <row r="54" spans="1:100" ht="12" customHeight="1">
-      <c r="B54" s="117"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="123" t="s">
+      <c r="B54" s="211"/>
+      <c r="C54" s="212"/>
+      <c r="D54" s="212"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="212"/>
+      <c r="G54" s="213"/>
+      <c r="H54" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="142" t="s">
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143"/>
-      <c r="O54" s="143"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
-      <c r="X54" s="143"/>
-      <c r="Y54" s="143"/>
-      <c r="Z54" s="143"/>
-      <c r="AA54" s="143"/>
-      <c r="AB54" s="143"/>
-      <c r="AC54" s="143"/>
-      <c r="AD54" s="143"/>
-      <c r="AE54" s="143"/>
-      <c r="AF54" s="143"/>
-      <c r="AG54" s="143"/>
-      <c r="AH54" s="143"/>
-      <c r="AI54" s="143"/>
-      <c r="AJ54" s="143"/>
-      <c r="AK54" s="143"/>
-      <c r="AL54" s="143"/>
-      <c r="AM54" s="143"/>
-      <c r="AN54" s="143"/>
-      <c r="AO54" s="143"/>
-      <c r="AP54" s="143"/>
-      <c r="AQ54" s="143"/>
-      <c r="AR54" s="143"/>
-      <c r="AS54" s="143"/>
-      <c r="AT54" s="143"/>
-      <c r="AU54" s="143"/>
-      <c r="AV54" s="143"/>
-      <c r="AW54" s="144"/>
+      <c r="M54" s="119"/>
+      <c r="N54" s="119"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="119"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="119"/>
+      <c r="X54" s="119"/>
+      <c r="Y54" s="119"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="119"/>
+      <c r="AB54" s="119"/>
+      <c r="AC54" s="119"/>
+      <c r="AD54" s="119"/>
+      <c r="AE54" s="119"/>
+      <c r="AF54" s="119"/>
+      <c r="AG54" s="119"/>
+      <c r="AH54" s="119"/>
+      <c r="AI54" s="119"/>
+      <c r="AJ54" s="119"/>
+      <c r="AK54" s="119"/>
+      <c r="AL54" s="119"/>
+      <c r="AM54" s="119"/>
+      <c r="AN54" s="119"/>
+      <c r="AO54" s="119"/>
+      <c r="AP54" s="119"/>
+      <c r="AQ54" s="119"/>
+      <c r="AR54" s="119"/>
+      <c r="AS54" s="119"/>
+      <c r="AT54" s="119"/>
+      <c r="AU54" s="119"/>
+      <c r="AV54" s="119"/>
+      <c r="AW54" s="124"/>
       <c r="AY54" s="7"/>
     </row>
     <row r="55" spans="1:100" ht="12" customHeight="1">
-      <c r="B55" s="120"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
-      <c r="P55" s="128"/>
-      <c r="Q55" s="128"/>
-      <c r="R55" s="128"/>
-      <c r="S55" s="128"/>
-      <c r="T55" s="128"/>
-      <c r="U55" s="128"/>
-      <c r="V55" s="128"/>
-      <c r="W55" s="128"/>
-      <c r="X55" s="128"/>
-      <c r="Y55" s="128"/>
-      <c r="Z55" s="128"/>
-      <c r="AA55" s="128"/>
-      <c r="AB55" s="128"/>
-      <c r="AC55" s="128"/>
-      <c r="AD55" s="128"/>
-      <c r="AE55" s="128"/>
-      <c r="AF55" s="128"/>
-      <c r="AG55" s="128"/>
-      <c r="AH55" s="128"/>
-      <c r="AI55" s="128"/>
-      <c r="AJ55" s="128"/>
-      <c r="AK55" s="128"/>
-      <c r="AL55" s="128"/>
-      <c r="AM55" s="128"/>
-      <c r="AN55" s="128"/>
-      <c r="AO55" s="128"/>
-      <c r="AP55" s="128"/>
-      <c r="AQ55" s="128"/>
-      <c r="AR55" s="128"/>
-      <c r="AS55" s="128"/>
-      <c r="AT55" s="128"/>
-      <c r="AU55" s="128"/>
-      <c r="AV55" s="128"/>
-      <c r="AW55" s="146"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="85"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="85"/>
+      <c r="AI55" s="85"/>
+      <c r="AJ55" s="85"/>
+      <c r="AK55" s="85"/>
+      <c r="AL55" s="85"/>
+      <c r="AM55" s="85"/>
+      <c r="AN55" s="85"/>
+      <c r="AO55" s="85"/>
+      <c r="AP55" s="85"/>
+      <c r="AQ55" s="85"/>
+      <c r="AR55" s="85"/>
+      <c r="AS55" s="85"/>
+      <c r="AT55" s="85"/>
+      <c r="AU55" s="85"/>
+      <c r="AV55" s="85"/>
+      <c r="AW55" s="86"/>
       <c r="AY55" s="7"/>
     </row>
     <row r="56" spans="1:100" ht="12" customHeight="1">
@@ -8815,74 +8817,74 @@
     </row>
     <row r="58" spans="1:100" ht="12" customHeight="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="81" t="s">
+      <c r="B58" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="55" t="s">
+      <c r="C58" s="169"/>
+      <c r="D58" s="169"/>
+      <c r="E58" s="169"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="35" t="s">
+      <c r="I58" s="193"/>
+      <c r="J58" s="193"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="35"/>
-      <c r="N58" s="59" t="s">
+      <c r="M58" s="195"/>
+      <c r="N58" s="197" t="s">
         <v>96</v>
       </c>
-      <c r="O58" s="59"/>
-      <c r="P58" s="35" t="s">
+      <c r="O58" s="197"/>
+      <c r="P58" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="59" t="s">
+      <c r="Q58" s="195"/>
+      <c r="R58" s="197" t="s">
         <v>97</v>
       </c>
-      <c r="S58" s="59"/>
-      <c r="T58" s="35" t="s">
+      <c r="S58" s="197"/>
+      <c r="T58" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="U58" s="35"/>
-      <c r="V58" s="37" t="s">
+      <c r="U58" s="195"/>
+      <c r="V58" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="55" t="s">
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="75"/>
+      <c r="AA58" s="220"/>
+      <c r="AB58" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="56"/>
-      <c r="AF58" s="35" t="s">
+      <c r="AC58" s="193"/>
+      <c r="AD58" s="193"/>
+      <c r="AE58" s="193"/>
+      <c r="AF58" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG58" s="35"/>
-      <c r="AH58" s="59" t="s">
+      <c r="AG58" s="195"/>
+      <c r="AH58" s="197" t="s">
         <v>71</v>
       </c>
-      <c r="AI58" s="59"/>
-      <c r="AJ58" s="35" t="s">
+      <c r="AI58" s="197"/>
+      <c r="AJ58" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AK58" s="35"/>
-      <c r="AL58" s="59" t="s">
+      <c r="AK58" s="195"/>
+      <c r="AL58" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="AM58" s="59"/>
-      <c r="AN58" s="35" t="s">
+      <c r="AM58" s="197"/>
+      <c r="AN58" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AO58" s="35"/>
+      <c r="AO58" s="195"/>
       <c r="AP58" s="31"/>
       <c r="AQ58" s="10"/>
       <c r="AR58" s="10"/>
@@ -8935,46 +8937,46 @@
     </row>
     <row r="59" spans="1:100" ht="12" customHeight="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
-      <c r="N59" s="60"/>
-      <c r="O59" s="60"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="58"/>
-      <c r="AE59" s="58"/>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="60"/>
-      <c r="AI59" s="60"/>
-      <c r="AJ59" s="36"/>
-      <c r="AK59" s="36"/>
-      <c r="AL59" s="60"/>
-      <c r="AM59" s="60"/>
-      <c r="AN59" s="36"/>
-      <c r="AO59" s="36"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
+      <c r="K59" s="194"/>
+      <c r="L59" s="196"/>
+      <c r="M59" s="196"/>
+      <c r="N59" s="198"/>
+      <c r="O59" s="198"/>
+      <c r="P59" s="196"/>
+      <c r="Q59" s="196"/>
+      <c r="R59" s="198"/>
+      <c r="S59" s="198"/>
+      <c r="T59" s="196"/>
+      <c r="U59" s="196"/>
+      <c r="V59" s="76"/>
+      <c r="W59" s="77"/>
+      <c r="X59" s="77"/>
+      <c r="Y59" s="77"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="221"/>
+      <c r="AB59" s="200"/>
+      <c r="AC59" s="194"/>
+      <c r="AD59" s="194"/>
+      <c r="AE59" s="194"/>
+      <c r="AF59" s="196"/>
+      <c r="AG59" s="196"/>
+      <c r="AH59" s="198"/>
+      <c r="AI59" s="198"/>
+      <c r="AJ59" s="196"/>
+      <c r="AK59" s="196"/>
+      <c r="AL59" s="198"/>
+      <c r="AM59" s="198"/>
+      <c r="AN59" s="196"/>
+      <c r="AO59" s="196"/>
       <c r="AP59" s="31"/>
       <c r="AQ59" s="10"/>
       <c r="AR59" s="10"/>
@@ -9027,74 +9029,74 @@
     </row>
     <row r="60" spans="1:100" ht="12" customHeight="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="55" t="s">
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="35" t="s">
+      <c r="I60" s="193"/>
+      <c r="J60" s="193"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="M60" s="35"/>
-      <c r="N60" s="59" t="s">
+      <c r="M60" s="195"/>
+      <c r="N60" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="O60" s="59"/>
-      <c r="P60" s="35" t="s">
+      <c r="O60" s="197"/>
+      <c r="P60" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="59" t="s">
+      <c r="Q60" s="195"/>
+      <c r="R60" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="S60" s="59"/>
-      <c r="T60" s="35" t="s">
+      <c r="S60" s="197"/>
+      <c r="T60" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35" t="s">
+      <c r="U60" s="195"/>
+      <c r="V60" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="56" t="s">
+      <c r="W60" s="195"/>
+      <c r="X60" s="195"/>
+      <c r="Y60" s="195"/>
+      <c r="Z60" s="195"/>
+      <c r="AA60" s="195"/>
+      <c r="AB60" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="35" t="s">
+      <c r="AC60" s="193"/>
+      <c r="AD60" s="193"/>
+      <c r="AE60" s="193"/>
+      <c r="AF60" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG60" s="35"/>
-      <c r="AH60" s="59" t="s">
+      <c r="AG60" s="195"/>
+      <c r="AH60" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="AI60" s="59"/>
-      <c r="AJ60" s="35" t="s">
+      <c r="AI60" s="197"/>
+      <c r="AJ60" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AK60" s="35"/>
-      <c r="AL60" s="59" t="s">
+      <c r="AK60" s="195"/>
+      <c r="AL60" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="AM60" s="59"/>
-      <c r="AN60" s="35" t="s">
+      <c r="AM60" s="197"/>
+      <c r="AN60" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AO60" s="35"/>
+      <c r="AO60" s="195"/>
       <c r="AP60" s="31"/>
       <c r="AQ60" s="10"/>
       <c r="AR60" s="10"/>
@@ -9147,46 +9149,46 @@
     </row>
     <row r="61" spans="1:100" ht="12" customHeight="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="58"/>
-      <c r="AC61" s="58"/>
-      <c r="AD61" s="58"/>
-      <c r="AE61" s="58"/>
-      <c r="AF61" s="36"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="60"/>
-      <c r="AI61" s="60"/>
-      <c r="AJ61" s="36"/>
-      <c r="AK61" s="36"/>
-      <c r="AL61" s="60"/>
-      <c r="AM61" s="60"/>
-      <c r="AN61" s="36"/>
-      <c r="AO61" s="36"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="172"/>
+      <c r="D61" s="172"/>
+      <c r="E61" s="172"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="194"/>
+      <c r="J61" s="194"/>
+      <c r="K61" s="194"/>
+      <c r="L61" s="196"/>
+      <c r="M61" s="196"/>
+      <c r="N61" s="198"/>
+      <c r="O61" s="198"/>
+      <c r="P61" s="196"/>
+      <c r="Q61" s="196"/>
+      <c r="R61" s="198"/>
+      <c r="S61" s="198"/>
+      <c r="T61" s="196"/>
+      <c r="U61" s="196"/>
+      <c r="V61" s="196"/>
+      <c r="W61" s="196"/>
+      <c r="X61" s="196"/>
+      <c r="Y61" s="196"/>
+      <c r="Z61" s="196"/>
+      <c r="AA61" s="196"/>
+      <c r="AB61" s="194"/>
+      <c r="AC61" s="194"/>
+      <c r="AD61" s="194"/>
+      <c r="AE61" s="194"/>
+      <c r="AF61" s="196"/>
+      <c r="AG61" s="196"/>
+      <c r="AH61" s="198"/>
+      <c r="AI61" s="198"/>
+      <c r="AJ61" s="196"/>
+      <c r="AK61" s="196"/>
+      <c r="AL61" s="198"/>
+      <c r="AM61" s="198"/>
+      <c r="AN61" s="196"/>
+      <c r="AO61" s="196"/>
       <c r="AP61" s="31"/>
       <c r="AQ61" s="10"/>
       <c r="AR61" s="10"/>
@@ -9306,68 +9308,68 @@
     </row>
     <row r="63" spans="1:100" ht="12" customHeight="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="234" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="113"/>
-      <c r="H63" s="37" t="s">
+      <c r="C63" s="235"/>
+      <c r="D63" s="235"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="38"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="89" t="s">
+      <c r="I63" s="75"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="240" t="s">
         <v>73</v>
       </c>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="90"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="90"/>
-      <c r="Q63" s="90"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="91"/>
-      <c r="T63" s="95" t="s">
+      <c r="L63" s="241"/>
+      <c r="M63" s="241"/>
+      <c r="N63" s="241"/>
+      <c r="O63" s="241"/>
+      <c r="P63" s="241"/>
+      <c r="Q63" s="241"/>
+      <c r="R63" s="241"/>
+      <c r="S63" s="242"/>
+      <c r="T63" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="U63" s="96"/>
-      <c r="V63" s="37" t="s">
+      <c r="U63" s="247"/>
+      <c r="V63" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="55" t="s">
+      <c r="W63" s="75"/>
+      <c r="X63" s="75"/>
+      <c r="Y63" s="75"/>
+      <c r="Z63" s="75"/>
+      <c r="AA63" s="220"/>
+      <c r="AB63" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="56"/>
-      <c r="AF63" s="35" t="s">
+      <c r="AC63" s="193"/>
+      <c r="AD63" s="193"/>
+      <c r="AE63" s="193"/>
+      <c r="AF63" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG63" s="35"/>
-      <c r="AH63" s="59" t="s">
+      <c r="AG63" s="195"/>
+      <c r="AH63" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="35" t="s">
+      <c r="AI63" s="197"/>
+      <c r="AJ63" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="59" t="s">
+      <c r="AK63" s="195"/>
+      <c r="AL63" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="AM63" s="59"/>
-      <c r="AN63" s="35" t="s">
+      <c r="AM63" s="197"/>
+      <c r="AN63" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AO63" s="35"/>
+      <c r="AO63" s="195"/>
       <c r="AP63" s="31"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
@@ -9400,46 +9402,46 @@
     </row>
     <row r="64" spans="1:100" ht="12" customHeight="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-      <c r="Q64" s="93"/>
-      <c r="R64" s="93"/>
-      <c r="S64" s="94"/>
-      <c r="T64" s="97"/>
-      <c r="U64" s="98"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="45"/>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="58"/>
-      <c r="AD64" s="58"/>
-      <c r="AE64" s="58"/>
-      <c r="AF64" s="36"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="60"/>
-      <c r="AI64" s="60"/>
-      <c r="AJ64" s="36"/>
-      <c r="AK64" s="36"/>
-      <c r="AL64" s="60"/>
-      <c r="AM64" s="60"/>
-      <c r="AN64" s="36"/>
-      <c r="AO64" s="36"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="238"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="238"/>
+      <c r="F64" s="238"/>
+      <c r="G64" s="239"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="179"/>
+      <c r="K64" s="243"/>
+      <c r="L64" s="244"/>
+      <c r="M64" s="244"/>
+      <c r="N64" s="244"/>
+      <c r="O64" s="244"/>
+      <c r="P64" s="244"/>
+      <c r="Q64" s="244"/>
+      <c r="R64" s="244"/>
+      <c r="S64" s="245"/>
+      <c r="T64" s="248"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="76"/>
+      <c r="W64" s="77"/>
+      <c r="X64" s="77"/>
+      <c r="Y64" s="77"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="221"/>
+      <c r="AB64" s="200"/>
+      <c r="AC64" s="194"/>
+      <c r="AD64" s="194"/>
+      <c r="AE64" s="194"/>
+      <c r="AF64" s="196"/>
+      <c r="AG64" s="196"/>
+      <c r="AH64" s="198"/>
+      <c r="AI64" s="198"/>
+      <c r="AJ64" s="196"/>
+      <c r="AK64" s="196"/>
+      <c r="AL64" s="198"/>
+      <c r="AM64" s="198"/>
+      <c r="AN64" s="196"/>
+      <c r="AO64" s="196"/>
       <c r="AP64" s="31"/>
       <c r="AQ64" s="10"/>
       <c r="AR64" s="10"/>
@@ -9472,66 +9474,66 @@
     </row>
     <row r="65" spans="1:98" ht="12" customHeight="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="40" t="s">
+      <c r="B65" s="270"/>
+      <c r="C65" s="271"/>
+      <c r="D65" s="271"/>
+      <c r="E65" s="271"/>
+      <c r="F65" s="271"/>
+      <c r="G65" s="272"/>
+      <c r="H65" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="106" t="s">
+      <c r="I65" s="223"/>
+      <c r="J65" s="273"/>
+      <c r="K65" s="274" t="s">
         <v>101</v>
       </c>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="108"/>
-      <c r="T65" s="109" t="s">
+      <c r="L65" s="275"/>
+      <c r="M65" s="275"/>
+      <c r="N65" s="275"/>
+      <c r="O65" s="275"/>
+      <c r="P65" s="275"/>
+      <c r="Q65" s="275"/>
+      <c r="R65" s="275"/>
+      <c r="S65" s="276"/>
+      <c r="T65" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="U65" s="110"/>
-      <c r="V65" s="37" t="s">
+      <c r="U65" s="278"/>
+      <c r="V65" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="39"/>
-      <c r="AB65" s="55" t="s">
+      <c r="W65" s="75"/>
+      <c r="X65" s="75"/>
+      <c r="Y65" s="75"/>
+      <c r="Z65" s="75"/>
+      <c r="AA65" s="220"/>
+      <c r="AB65" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="AC65" s="56"/>
-      <c r="AD65" s="56"/>
-      <c r="AE65" s="56"/>
-      <c r="AF65" s="35" t="s">
+      <c r="AC65" s="193"/>
+      <c r="AD65" s="193"/>
+      <c r="AE65" s="193"/>
+      <c r="AF65" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="59" t="s">
+      <c r="AG65" s="195"/>
+      <c r="AH65" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="AI65" s="59"/>
-      <c r="AJ65" s="35" t="s">
+      <c r="AI65" s="197"/>
+      <c r="AJ65" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AK65" s="35"/>
-      <c r="AL65" s="59" t="s">
+      <c r="AK65" s="195"/>
+      <c r="AL65" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="AM65" s="59"/>
-      <c r="AN65" s="35" t="s">
+      <c r="AM65" s="197"/>
+      <c r="AN65" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AO65" s="35"/>
+      <c r="AO65" s="195"/>
       <c r="AP65" s="31"/>
       <c r="AQ65" s="10"/>
       <c r="AR65" s="10"/>
@@ -9564,46 +9566,46 @@
     </row>
     <row r="66" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A66" s="10"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="93"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="93"/>
-      <c r="S66" s="94"/>
-      <c r="T66" s="97"/>
-      <c r="U66" s="98"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="44"/>
-      <c r="X66" s="44"/>
-      <c r="Y66" s="44"/>
-      <c r="Z66" s="44"/>
-      <c r="AA66" s="45"/>
-      <c r="AB66" s="57"/>
-      <c r="AC66" s="58"/>
-      <c r="AD66" s="58"/>
-      <c r="AE66" s="58"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="60"/>
-      <c r="AI66" s="60"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="60"/>
-      <c r="AM66" s="60"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="238"/>
+      <c r="D66" s="238"/>
+      <c r="E66" s="238"/>
+      <c r="F66" s="238"/>
+      <c r="G66" s="239"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="179"/>
+      <c r="K66" s="243"/>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="244"/>
+      <c r="R66" s="244"/>
+      <c r="S66" s="245"/>
+      <c r="T66" s="248"/>
+      <c r="U66" s="249"/>
+      <c r="V66" s="76"/>
+      <c r="W66" s="77"/>
+      <c r="X66" s="77"/>
+      <c r="Y66" s="77"/>
+      <c r="Z66" s="77"/>
+      <c r="AA66" s="221"/>
+      <c r="AB66" s="200"/>
+      <c r="AC66" s="194"/>
+      <c r="AD66" s="194"/>
+      <c r="AE66" s="194"/>
+      <c r="AF66" s="196"/>
+      <c r="AG66" s="196"/>
+      <c r="AH66" s="198"/>
+      <c r="AI66" s="198"/>
+      <c r="AJ66" s="196"/>
+      <c r="AK66" s="196"/>
+      <c r="AL66" s="198"/>
+      <c r="AM66" s="198"/>
+      <c r="AN66" s="196"/>
+      <c r="AO66" s="196"/>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="10"/>
       <c r="AR66" s="10"/>
@@ -9636,34 +9638,34 @@
     </row>
     <row r="67" spans="1:98" ht="12" customHeight="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="65" t="s">
+      <c r="C67" s="251"/>
+      <c r="D67" s="251"/>
+      <c r="E67" s="251"/>
+      <c r="F67" s="251"/>
+      <c r="G67" s="251"/>
+      <c r="H67" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="66"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="71" t="s">
+      <c r="I67" s="255"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="73"/>
-      <c r="T67" s="77" t="s">
+      <c r="L67" s="261"/>
+      <c r="M67" s="261"/>
+      <c r="N67" s="261"/>
+      <c r="O67" s="261"/>
+      <c r="P67" s="261"/>
+      <c r="Q67" s="261"/>
+      <c r="R67" s="261"/>
+      <c r="S67" s="262"/>
+      <c r="T67" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="U67" s="78"/>
+      <c r="U67" s="267"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
@@ -9697,26 +9699,26 @@
     </row>
     <row r="68" spans="1:98" ht="12" customHeight="1" thickBot="1">
       <c r="A68" s="10"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="75"/>
-      <c r="S68" s="76"/>
-      <c r="T68" s="79"/>
-      <c r="U68" s="80"/>
+      <c r="B68" s="252"/>
+      <c r="C68" s="253"/>
+      <c r="D68" s="253"/>
+      <c r="E68" s="253"/>
+      <c r="F68" s="253"/>
+      <c r="G68" s="253"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="258"/>
+      <c r="J68" s="259"/>
+      <c r="K68" s="263"/>
+      <c r="L68" s="264"/>
+      <c r="M68" s="264"/>
+      <c r="N68" s="264"/>
+      <c r="O68" s="264"/>
+      <c r="P68" s="264"/>
+      <c r="Q68" s="264"/>
+      <c r="R68" s="264"/>
+      <c r="S68" s="265"/>
+      <c r="T68" s="268"/>
+      <c r="U68" s="269"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="10"/>
@@ -9817,68 +9819,68 @@
     </row>
     <row r="70" spans="1:98" ht="12" customHeight="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="82"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="37" t="s">
+      <c r="C70" s="169"/>
+      <c r="D70" s="169"/>
+      <c r="E70" s="169"/>
+      <c r="F70" s="169"/>
+      <c r="G70" s="170"/>
+      <c r="H70" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="38"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="89" t="s">
+      <c r="I70" s="75"/>
+      <c r="J70" s="178"/>
+      <c r="K70" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="90"/>
-      <c r="O70" s="90"/>
-      <c r="P70" s="90"/>
-      <c r="Q70" s="90"/>
-      <c r="R70" s="90"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="95" t="s">
+      <c r="L70" s="241"/>
+      <c r="M70" s="241"/>
+      <c r="N70" s="241"/>
+      <c r="O70" s="241"/>
+      <c r="P70" s="241"/>
+      <c r="Q70" s="241"/>
+      <c r="R70" s="241"/>
+      <c r="S70" s="242"/>
+      <c r="T70" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="U70" s="96"/>
-      <c r="V70" s="37" t="s">
+      <c r="U70" s="247"/>
+      <c r="V70" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="39"/>
-      <c r="AB70" s="55" t="s">
+      <c r="W70" s="75"/>
+      <c r="X70" s="75"/>
+      <c r="Y70" s="75"/>
+      <c r="Z70" s="75"/>
+      <c r="AA70" s="220"/>
+      <c r="AB70" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="AC70" s="56"/>
-      <c r="AD70" s="56"/>
-      <c r="AE70" s="56"/>
-      <c r="AF70" s="35" t="s">
+      <c r="AC70" s="193"/>
+      <c r="AD70" s="193"/>
+      <c r="AE70" s="193"/>
+      <c r="AF70" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="AG70" s="35"/>
-      <c r="AH70" s="59" t="s">
+      <c r="AG70" s="195"/>
+      <c r="AH70" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="AI70" s="59"/>
-      <c r="AJ70" s="35" t="s">
+      <c r="AI70" s="197"/>
+      <c r="AJ70" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AK70" s="35"/>
-      <c r="AL70" s="59" t="s">
+      <c r="AK70" s="195"/>
+      <c r="AL70" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="AM70" s="59"/>
-      <c r="AN70" s="35" t="s">
+      <c r="AM70" s="197"/>
+      <c r="AN70" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AO70" s="35"/>
+      <c r="AO70" s="195"/>
       <c r="AP70" s="34"/>
       <c r="AQ70" s="15"/>
       <c r="AR70" s="10"/>
@@ -9933,46 +9935,46 @@
     </row>
     <row r="71" spans="1:98" ht="12" customHeight="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="93"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="93"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="97"/>
-      <c r="U71" s="98"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="45"/>
-      <c r="AB71" s="57"/>
-      <c r="AC71" s="58"/>
-      <c r="AD71" s="58"/>
-      <c r="AE71" s="58"/>
-      <c r="AF71" s="36"/>
-      <c r="AG71" s="36"/>
-      <c r="AH71" s="60"/>
-      <c r="AI71" s="60"/>
-      <c r="AJ71" s="36"/>
-      <c r="AK71" s="36"/>
-      <c r="AL71" s="60"/>
-      <c r="AM71" s="60"/>
-      <c r="AN71" s="36"/>
-      <c r="AO71" s="36"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="172"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="173"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="243"/>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
+      <c r="P71" s="244"/>
+      <c r="Q71" s="244"/>
+      <c r="R71" s="244"/>
+      <c r="S71" s="245"/>
+      <c r="T71" s="248"/>
+      <c r="U71" s="249"/>
+      <c r="V71" s="76"/>
+      <c r="W71" s="77"/>
+      <c r="X71" s="77"/>
+      <c r="Y71" s="77"/>
+      <c r="Z71" s="77"/>
+      <c r="AA71" s="221"/>
+      <c r="AB71" s="200"/>
+      <c r="AC71" s="194"/>
+      <c r="AD71" s="194"/>
+      <c r="AE71" s="194"/>
+      <c r="AF71" s="196"/>
+      <c r="AG71" s="196"/>
+      <c r="AH71" s="198"/>
+      <c r="AI71" s="198"/>
+      <c r="AJ71" s="196"/>
+      <c r="AK71" s="196"/>
+      <c r="AL71" s="198"/>
+      <c r="AM71" s="198"/>
+      <c r="AN71" s="196"/>
+      <c r="AO71" s="196"/>
       <c r="AP71" s="34"/>
       <c r="AQ71" s="15"/>
       <c r="AR71" s="10"/>
@@ -10126,375 +10128,375 @@
       <c r="CT72" s="10"/>
     </row>
     <row r="73" spans="1:98" ht="12" customHeight="1">
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="46" t="s">
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="220"/>
+      <c r="H73" s="279" t="s">
         <v>130</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="47"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="47"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="47"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="47"/>
-      <c r="AD73" s="47"/>
-      <c r="AE73" s="47"/>
-      <c r="AF73" s="47"/>
-      <c r="AG73" s="47"/>
-      <c r="AH73" s="47"/>
-      <c r="AI73" s="47"/>
-      <c r="AJ73" s="47"/>
-      <c r="AK73" s="47"/>
-      <c r="AL73" s="47"/>
-      <c r="AM73" s="47"/>
-      <c r="AN73" s="47"/>
-      <c r="AO73" s="47"/>
-      <c r="AP73" s="47"/>
-      <c r="AQ73" s="47"/>
-      <c r="AR73" s="47"/>
-      <c r="AS73" s="47"/>
-      <c r="AT73" s="47"/>
-      <c r="AU73" s="47"/>
-      <c r="AV73" s="47"/>
-      <c r="AW73" s="48"/>
+      <c r="I73" s="280"/>
+      <c r="J73" s="280"/>
+      <c r="K73" s="280"/>
+      <c r="L73" s="280"/>
+      <c r="M73" s="280"/>
+      <c r="N73" s="280"/>
+      <c r="O73" s="280"/>
+      <c r="P73" s="280"/>
+      <c r="Q73" s="280"/>
+      <c r="R73" s="280"/>
+      <c r="S73" s="280"/>
+      <c r="T73" s="280"/>
+      <c r="U73" s="280"/>
+      <c r="V73" s="280"/>
+      <c r="W73" s="280"/>
+      <c r="X73" s="280"/>
+      <c r="Y73" s="280"/>
+      <c r="Z73" s="280"/>
+      <c r="AA73" s="280"/>
+      <c r="AB73" s="280"/>
+      <c r="AC73" s="280"/>
+      <c r="AD73" s="280"/>
+      <c r="AE73" s="280"/>
+      <c r="AF73" s="280"/>
+      <c r="AG73" s="280"/>
+      <c r="AH73" s="280"/>
+      <c r="AI73" s="280"/>
+      <c r="AJ73" s="280"/>
+      <c r="AK73" s="280"/>
+      <c r="AL73" s="280"/>
+      <c r="AM73" s="280"/>
+      <c r="AN73" s="280"/>
+      <c r="AO73" s="280"/>
+      <c r="AP73" s="280"/>
+      <c r="AQ73" s="280"/>
+      <c r="AR73" s="280"/>
+      <c r="AS73" s="280"/>
+      <c r="AT73" s="280"/>
+      <c r="AU73" s="280"/>
+      <c r="AV73" s="280"/>
+      <c r="AW73" s="281"/>
       <c r="AX73" s="10"/>
       <c r="AY73" s="10"/>
       <c r="AZ73" s="10"/>
     </row>
     <row r="74" spans="1:98" ht="12" customHeight="1">
-      <c r="B74" s="40"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
-      <c r="R74" s="50"/>
-      <c r="S74" s="50"/>
-      <c r="T74" s="50"/>
-      <c r="U74" s="50"/>
-      <c r="V74" s="50"/>
-      <c r="W74" s="50"/>
-      <c r="X74" s="50"/>
-      <c r="Y74" s="50"/>
-      <c r="Z74" s="50"/>
-      <c r="AA74" s="50"/>
-      <c r="AB74" s="50"/>
-      <c r="AC74" s="50"/>
-      <c r="AD74" s="50"/>
-      <c r="AE74" s="50"/>
-      <c r="AF74" s="50"/>
-      <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="50"/>
-      <c r="AJ74" s="50"/>
-      <c r="AK74" s="50"/>
-      <c r="AL74" s="50"/>
-      <c r="AM74" s="50"/>
-      <c r="AN74" s="50"/>
-      <c r="AO74" s="50"/>
-      <c r="AP74" s="50"/>
-      <c r="AQ74" s="50"/>
-      <c r="AR74" s="50"/>
-      <c r="AS74" s="50"/>
-      <c r="AT74" s="50"/>
-      <c r="AU74" s="50"/>
-      <c r="AV74" s="50"/>
-      <c r="AW74" s="51"/>
+      <c r="B74" s="222"/>
+      <c r="C74" s="223"/>
+      <c r="D74" s="223"/>
+      <c r="E74" s="223"/>
+      <c r="F74" s="223"/>
+      <c r="G74" s="224"/>
+      <c r="H74" s="282"/>
+      <c r="I74" s="283"/>
+      <c r="J74" s="283"/>
+      <c r="K74" s="283"/>
+      <c r="L74" s="283"/>
+      <c r="M74" s="283"/>
+      <c r="N74" s="283"/>
+      <c r="O74" s="283"/>
+      <c r="P74" s="283"/>
+      <c r="Q74" s="283"/>
+      <c r="R74" s="283"/>
+      <c r="S74" s="283"/>
+      <c r="T74" s="283"/>
+      <c r="U74" s="283"/>
+      <c r="V74" s="283"/>
+      <c r="W74" s="283"/>
+      <c r="X74" s="283"/>
+      <c r="Y74" s="283"/>
+      <c r="Z74" s="283"/>
+      <c r="AA74" s="283"/>
+      <c r="AB74" s="283"/>
+      <c r="AC74" s="283"/>
+      <c r="AD74" s="283"/>
+      <c r="AE74" s="283"/>
+      <c r="AF74" s="283"/>
+      <c r="AG74" s="283"/>
+      <c r="AH74" s="283"/>
+      <c r="AI74" s="283"/>
+      <c r="AJ74" s="283"/>
+      <c r="AK74" s="283"/>
+      <c r="AL74" s="283"/>
+      <c r="AM74" s="283"/>
+      <c r="AN74" s="283"/>
+      <c r="AO74" s="283"/>
+      <c r="AP74" s="283"/>
+      <c r="AQ74" s="283"/>
+      <c r="AR74" s="283"/>
+      <c r="AS74" s="283"/>
+      <c r="AT74" s="283"/>
+      <c r="AU74" s="283"/>
+      <c r="AV74" s="283"/>
+      <c r="AW74" s="284"/>
       <c r="AX74" s="10"/>
       <c r="AY74" s="10"/>
       <c r="AZ74" s="10"/>
     </row>
     <row r="75" spans="1:98" ht="12" customHeight="1">
-      <c r="B75" s="40"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="50"/>
-      <c r="K75" s="50"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="50"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="50"/>
-      <c r="Q75" s="50"/>
-      <c r="R75" s="50"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="50"/>
-      <c r="V75" s="50"/>
-      <c r="W75" s="50"/>
-      <c r="X75" s="50"/>
-      <c r="Y75" s="50"/>
-      <c r="Z75" s="50"/>
-      <c r="AA75" s="50"/>
-      <c r="AB75" s="50"/>
-      <c r="AC75" s="50"/>
-      <c r="AD75" s="50"/>
-      <c r="AE75" s="50"/>
-      <c r="AF75" s="50"/>
-      <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="50"/>
-      <c r="AJ75" s="50"/>
-      <c r="AK75" s="50"/>
-      <c r="AL75" s="50"/>
-      <c r="AM75" s="50"/>
-      <c r="AN75" s="50"/>
-      <c r="AO75" s="50"/>
-      <c r="AP75" s="50"/>
-      <c r="AQ75" s="50"/>
-      <c r="AR75" s="50"/>
-      <c r="AS75" s="50"/>
-      <c r="AT75" s="50"/>
-      <c r="AU75" s="50"/>
-      <c r="AV75" s="50"/>
-      <c r="AW75" s="51"/>
+      <c r="B75" s="222"/>
+      <c r="C75" s="223"/>
+      <c r="D75" s="223"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="224"/>
+      <c r="H75" s="282"/>
+      <c r="I75" s="283"/>
+      <c r="J75" s="283"/>
+      <c r="K75" s="283"/>
+      <c r="L75" s="283"/>
+      <c r="M75" s="283"/>
+      <c r="N75" s="283"/>
+      <c r="O75" s="283"/>
+      <c r="P75" s="283"/>
+      <c r="Q75" s="283"/>
+      <c r="R75" s="283"/>
+      <c r="S75" s="283"/>
+      <c r="T75" s="283"/>
+      <c r="U75" s="283"/>
+      <c r="V75" s="283"/>
+      <c r="W75" s="283"/>
+      <c r="X75" s="283"/>
+      <c r="Y75" s="283"/>
+      <c r="Z75" s="283"/>
+      <c r="AA75" s="283"/>
+      <c r="AB75" s="283"/>
+      <c r="AC75" s="283"/>
+      <c r="AD75" s="283"/>
+      <c r="AE75" s="283"/>
+      <c r="AF75" s="283"/>
+      <c r="AG75" s="283"/>
+      <c r="AH75" s="283"/>
+      <c r="AI75" s="283"/>
+      <c r="AJ75" s="283"/>
+      <c r="AK75" s="283"/>
+      <c r="AL75" s="283"/>
+      <c r="AM75" s="283"/>
+      <c r="AN75" s="283"/>
+      <c r="AO75" s="283"/>
+      <c r="AP75" s="283"/>
+      <c r="AQ75" s="283"/>
+      <c r="AR75" s="283"/>
+      <c r="AS75" s="283"/>
+      <c r="AT75" s="283"/>
+      <c r="AU75" s="283"/>
+      <c r="AV75" s="283"/>
+      <c r="AW75" s="284"/>
       <c r="AX75" s="10"/>
       <c r="AY75" s="10"/>
       <c r="AZ75" s="10"/>
     </row>
     <row r="76" spans="1:98" ht="12" customHeight="1">
-      <c r="B76" s="40"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="50"/>
-      <c r="O76" s="50"/>
-      <c r="P76" s="50"/>
-      <c r="Q76" s="50"/>
-      <c r="R76" s="50"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="50"/>
-      <c r="V76" s="50"/>
-      <c r="W76" s="50"/>
-      <c r="X76" s="50"/>
-      <c r="Y76" s="50"/>
-      <c r="Z76" s="50"/>
-      <c r="AA76" s="50"/>
-      <c r="AB76" s="50"/>
-      <c r="AC76" s="50"/>
-      <c r="AD76" s="50"/>
-      <c r="AE76" s="50"/>
-      <c r="AF76" s="50"/>
-      <c r="AG76" s="50"/>
-      <c r="AH76" s="50"/>
-      <c r="AI76" s="50"/>
-      <c r="AJ76" s="50"/>
-      <c r="AK76" s="50"/>
-      <c r="AL76" s="50"/>
-      <c r="AM76" s="50"/>
-      <c r="AN76" s="50"/>
-      <c r="AO76" s="50"/>
-      <c r="AP76" s="50"/>
-      <c r="AQ76" s="50"/>
-      <c r="AR76" s="50"/>
-      <c r="AS76" s="50"/>
-      <c r="AT76" s="50"/>
-      <c r="AU76" s="50"/>
-      <c r="AV76" s="50"/>
-      <c r="AW76" s="51"/>
+      <c r="B76" s="222"/>
+      <c r="C76" s="223"/>
+      <c r="D76" s="223"/>
+      <c r="E76" s="223"/>
+      <c r="F76" s="223"/>
+      <c r="G76" s="224"/>
+      <c r="H76" s="282"/>
+      <c r="I76" s="283"/>
+      <c r="J76" s="283"/>
+      <c r="K76" s="283"/>
+      <c r="L76" s="283"/>
+      <c r="M76" s="283"/>
+      <c r="N76" s="283"/>
+      <c r="O76" s="283"/>
+      <c r="P76" s="283"/>
+      <c r="Q76" s="283"/>
+      <c r="R76" s="283"/>
+      <c r="S76" s="283"/>
+      <c r="T76" s="283"/>
+      <c r="U76" s="283"/>
+      <c r="V76" s="283"/>
+      <c r="W76" s="283"/>
+      <c r="X76" s="283"/>
+      <c r="Y76" s="283"/>
+      <c r="Z76" s="283"/>
+      <c r="AA76" s="283"/>
+      <c r="AB76" s="283"/>
+      <c r="AC76" s="283"/>
+      <c r="AD76" s="283"/>
+      <c r="AE76" s="283"/>
+      <c r="AF76" s="283"/>
+      <c r="AG76" s="283"/>
+      <c r="AH76" s="283"/>
+      <c r="AI76" s="283"/>
+      <c r="AJ76" s="283"/>
+      <c r="AK76" s="283"/>
+      <c r="AL76" s="283"/>
+      <c r="AM76" s="283"/>
+      <c r="AN76" s="283"/>
+      <c r="AO76" s="283"/>
+      <c r="AP76" s="283"/>
+      <c r="AQ76" s="283"/>
+      <c r="AR76" s="283"/>
+      <c r="AS76" s="283"/>
+      <c r="AT76" s="283"/>
+      <c r="AU76" s="283"/>
+      <c r="AV76" s="283"/>
+      <c r="AW76" s="284"/>
       <c r="AX76" s="10"/>
       <c r="AY76" s="10"/>
       <c r="AZ76" s="10"/>
     </row>
     <row r="77" spans="1:98" ht="12" customHeight="1">
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
-      <c r="Q77" s="50"/>
-      <c r="R77" s="50"/>
-      <c r="S77" s="50"/>
-      <c r="T77" s="50"/>
-      <c r="U77" s="50"/>
-      <c r="V77" s="50"/>
-      <c r="W77" s="50"/>
-      <c r="X77" s="50"/>
-      <c r="Y77" s="50"/>
-      <c r="Z77" s="50"/>
-      <c r="AA77" s="50"/>
-      <c r="AB77" s="50"/>
-      <c r="AC77" s="50"/>
-      <c r="AD77" s="50"/>
-      <c r="AE77" s="50"/>
-      <c r="AF77" s="50"/>
-      <c r="AG77" s="50"/>
-      <c r="AH77" s="50"/>
-      <c r="AI77" s="50"/>
-      <c r="AJ77" s="50"/>
-      <c r="AK77" s="50"/>
-      <c r="AL77" s="50"/>
-      <c r="AM77" s="50"/>
-      <c r="AN77" s="50"/>
-      <c r="AO77" s="50"/>
-      <c r="AP77" s="50"/>
-      <c r="AQ77" s="50"/>
-      <c r="AR77" s="50"/>
-      <c r="AS77" s="50"/>
-      <c r="AT77" s="50"/>
-      <c r="AU77" s="50"/>
-      <c r="AV77" s="50"/>
-      <c r="AW77" s="51"/>
+      <c r="B77" s="222"/>
+      <c r="C77" s="223"/>
+      <c r="D77" s="223"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="224"/>
+      <c r="H77" s="282"/>
+      <c r="I77" s="283"/>
+      <c r="J77" s="283"/>
+      <c r="K77" s="283"/>
+      <c r="L77" s="283"/>
+      <c r="M77" s="283"/>
+      <c r="N77" s="283"/>
+      <c r="O77" s="283"/>
+      <c r="P77" s="283"/>
+      <c r="Q77" s="283"/>
+      <c r="R77" s="283"/>
+      <c r="S77" s="283"/>
+      <c r="T77" s="283"/>
+      <c r="U77" s="283"/>
+      <c r="V77" s="283"/>
+      <c r="W77" s="283"/>
+      <c r="X77" s="283"/>
+      <c r="Y77" s="283"/>
+      <c r="Z77" s="283"/>
+      <c r="AA77" s="283"/>
+      <c r="AB77" s="283"/>
+      <c r="AC77" s="283"/>
+      <c r="AD77" s="283"/>
+      <c r="AE77" s="283"/>
+      <c r="AF77" s="283"/>
+      <c r="AG77" s="283"/>
+      <c r="AH77" s="283"/>
+      <c r="AI77" s="283"/>
+      <c r="AJ77" s="283"/>
+      <c r="AK77" s="283"/>
+      <c r="AL77" s="283"/>
+      <c r="AM77" s="283"/>
+      <c r="AN77" s="283"/>
+      <c r="AO77" s="283"/>
+      <c r="AP77" s="283"/>
+      <c r="AQ77" s="283"/>
+      <c r="AR77" s="283"/>
+      <c r="AS77" s="283"/>
+      <c r="AT77" s="283"/>
+      <c r="AU77" s="283"/>
+      <c r="AV77" s="283"/>
+      <c r="AW77" s="284"/>
       <c r="AX77" s="10"/>
       <c r="AY77" s="10"/>
       <c r="AZ77" s="10"/>
     </row>
     <row r="78" spans="1:98" ht="12" customHeight="1">
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="50"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="50"/>
-      <c r="V78" s="50"/>
-      <c r="W78" s="50"/>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="50"/>
-      <c r="AD78" s="50"/>
-      <c r="AE78" s="50"/>
-      <c r="AF78" s="50"/>
-      <c r="AG78" s="50"/>
-      <c r="AH78" s="50"/>
-      <c r="AI78" s="50"/>
-      <c r="AJ78" s="50"/>
-      <c r="AK78" s="50"/>
-      <c r="AL78" s="50"/>
-      <c r="AM78" s="50"/>
-      <c r="AN78" s="50"/>
-      <c r="AO78" s="50"/>
-      <c r="AP78" s="50"/>
-      <c r="AQ78" s="50"/>
-      <c r="AR78" s="50"/>
-      <c r="AS78" s="50"/>
-      <c r="AT78" s="50"/>
-      <c r="AU78" s="50"/>
-      <c r="AV78" s="50"/>
-      <c r="AW78" s="51"/>
+      <c r="B78" s="222"/>
+      <c r="C78" s="223"/>
+      <c r="D78" s="223"/>
+      <c r="E78" s="223"/>
+      <c r="F78" s="223"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="282"/>
+      <c r="I78" s="283"/>
+      <c r="J78" s="283"/>
+      <c r="K78" s="283"/>
+      <c r="L78" s="283"/>
+      <c r="M78" s="283"/>
+      <c r="N78" s="283"/>
+      <c r="O78" s="283"/>
+      <c r="P78" s="283"/>
+      <c r="Q78" s="283"/>
+      <c r="R78" s="283"/>
+      <c r="S78" s="283"/>
+      <c r="T78" s="283"/>
+      <c r="U78" s="283"/>
+      <c r="V78" s="283"/>
+      <c r="W78" s="283"/>
+      <c r="X78" s="283"/>
+      <c r="Y78" s="283"/>
+      <c r="Z78" s="283"/>
+      <c r="AA78" s="283"/>
+      <c r="AB78" s="283"/>
+      <c r="AC78" s="283"/>
+      <c r="AD78" s="283"/>
+      <c r="AE78" s="283"/>
+      <c r="AF78" s="283"/>
+      <c r="AG78" s="283"/>
+      <c r="AH78" s="283"/>
+      <c r="AI78" s="283"/>
+      <c r="AJ78" s="283"/>
+      <c r="AK78" s="283"/>
+      <c r="AL78" s="283"/>
+      <c r="AM78" s="283"/>
+      <c r="AN78" s="283"/>
+      <c r="AO78" s="283"/>
+      <c r="AP78" s="283"/>
+      <c r="AQ78" s="283"/>
+      <c r="AR78" s="283"/>
+      <c r="AS78" s="283"/>
+      <c r="AT78" s="283"/>
+      <c r="AU78" s="283"/>
+      <c r="AV78" s="283"/>
+      <c r="AW78" s="284"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
     </row>
     <row r="79" spans="1:98" ht="12" customHeight="1">
-      <c r="B79" s="43"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
-      <c r="T79" s="53"/>
-      <c r="U79" s="53"/>
-      <c r="V79" s="53"/>
-      <c r="W79" s="53"/>
-      <c r="X79" s="53"/>
-      <c r="Y79" s="53"/>
-      <c r="Z79" s="53"/>
-      <c r="AA79" s="53"/>
-      <c r="AB79" s="53"/>
-      <c r="AC79" s="53"/>
-      <c r="AD79" s="53"/>
-      <c r="AE79" s="53"/>
-      <c r="AF79" s="53"/>
-      <c r="AG79" s="53"/>
-      <c r="AH79" s="53"/>
-      <c r="AI79" s="53"/>
-      <c r="AJ79" s="53"/>
-      <c r="AK79" s="53"/>
-      <c r="AL79" s="53"/>
-      <c r="AM79" s="53"/>
-      <c r="AN79" s="53"/>
-      <c r="AO79" s="53"/>
-      <c r="AP79" s="53"/>
-      <c r="AQ79" s="53"/>
-      <c r="AR79" s="53"/>
-      <c r="AS79" s="53"/>
-      <c r="AT79" s="53"/>
-      <c r="AU79" s="53"/>
-      <c r="AV79" s="53"/>
-      <c r="AW79" s="54"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="221"/>
+      <c r="H79" s="285"/>
+      <c r="I79" s="286"/>
+      <c r="J79" s="286"/>
+      <c r="K79" s="286"/>
+      <c r="L79" s="286"/>
+      <c r="M79" s="286"/>
+      <c r="N79" s="286"/>
+      <c r="O79" s="286"/>
+      <c r="P79" s="286"/>
+      <c r="Q79" s="286"/>
+      <c r="R79" s="286"/>
+      <c r="S79" s="286"/>
+      <c r="T79" s="286"/>
+      <c r="U79" s="286"/>
+      <c r="V79" s="286"/>
+      <c r="W79" s="286"/>
+      <c r="X79" s="286"/>
+      <c r="Y79" s="286"/>
+      <c r="Z79" s="286"/>
+      <c r="AA79" s="286"/>
+      <c r="AB79" s="286"/>
+      <c r="AC79" s="286"/>
+      <c r="AD79" s="286"/>
+      <c r="AE79" s="286"/>
+      <c r="AF79" s="286"/>
+      <c r="AG79" s="286"/>
+      <c r="AH79" s="286"/>
+      <c r="AI79" s="286"/>
+      <c r="AJ79" s="286"/>
+      <c r="AK79" s="286"/>
+      <c r="AL79" s="286"/>
+      <c r="AM79" s="286"/>
+      <c r="AN79" s="286"/>
+      <c r="AO79" s="286"/>
+      <c r="AP79" s="286"/>
+      <c r="AQ79" s="286"/>
+      <c r="AR79" s="286"/>
+      <c r="AS79" s="286"/>
+      <c r="AT79" s="286"/>
+      <c r="AU79" s="286"/>
+      <c r="AV79" s="286"/>
+      <c r="AW79" s="287"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
     </row>
@@ -10904,108 +10906,72 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="192">
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="H16:T17"/>
-    <mergeCell ref="U16:Z17"/>
-    <mergeCell ref="AA16:AM17"/>
-    <mergeCell ref="AV2:AW3"/>
-    <mergeCell ref="A6:AX9"/>
-    <mergeCell ref="AL10:AQ11"/>
-    <mergeCell ref="AR10:AW11"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:T15"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="AK2:AM3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AR2:AS3"/>
-    <mergeCell ref="AT2:AU3"/>
-    <mergeCell ref="AN16:AP17"/>
-    <mergeCell ref="AQ16:AW17"/>
-    <mergeCell ref="U14:Z15"/>
-    <mergeCell ref="AA14:AD15"/>
-    <mergeCell ref="H24:AW25"/>
-    <mergeCell ref="B18:C21"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:AH19"/>
-    <mergeCell ref="AI18:AL19"/>
-    <mergeCell ref="AM18:AW19"/>
-    <mergeCell ref="D20:G21"/>
-    <mergeCell ref="H20:AW21"/>
-    <mergeCell ref="B22:C25"/>
-    <mergeCell ref="D22:G23"/>
-    <mergeCell ref="H22:AH23"/>
-    <mergeCell ref="AI22:AL23"/>
-    <mergeCell ref="AM22:AW23"/>
-    <mergeCell ref="D24:G25"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="H26:AH27"/>
-    <mergeCell ref="AI26:AL27"/>
-    <mergeCell ref="AM26:AW27"/>
-    <mergeCell ref="B29:C36"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:AW30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H31:AD32"/>
-    <mergeCell ref="AE31:AH32"/>
-    <mergeCell ref="AI31:AJ32"/>
-    <mergeCell ref="AK31:AN32"/>
-    <mergeCell ref="AO31:AP32"/>
-    <mergeCell ref="AQ31:AT32"/>
-    <mergeCell ref="AU31:AW32"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:AD34"/>
-    <mergeCell ref="AE33:AH34"/>
-    <mergeCell ref="AI33:AU34"/>
-    <mergeCell ref="AV33:AW34"/>
-    <mergeCell ref="T38:W39"/>
-    <mergeCell ref="X38:AF39"/>
-    <mergeCell ref="AG38:AH39"/>
-    <mergeCell ref="AI38:AL39"/>
-    <mergeCell ref="AM38:AU39"/>
-    <mergeCell ref="AV38:AW39"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:N36"/>
-    <mergeCell ref="O35:R36"/>
-    <mergeCell ref="S35:Y36"/>
-    <mergeCell ref="Z35:AW36"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="K40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:W41"/>
-    <mergeCell ref="X40:AF41"/>
-    <mergeCell ref="AI42:AL43"/>
-    <mergeCell ref="D42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="K42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:W43"/>
-    <mergeCell ref="BE45:BF45"/>
-    <mergeCell ref="D46:G47"/>
-    <mergeCell ref="R46:U47"/>
-    <mergeCell ref="V44:W45"/>
-    <mergeCell ref="X44:AA45"/>
-    <mergeCell ref="AB44:AC45"/>
-    <mergeCell ref="AD44:AE45"/>
-    <mergeCell ref="AF44:AG45"/>
-    <mergeCell ref="AH44:AI45"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="L44:M45"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="AJ44:AL45"/>
-    <mergeCell ref="AM44:AM45"/>
-    <mergeCell ref="AN44:AV45"/>
-    <mergeCell ref="AW44:AW45"/>
-    <mergeCell ref="H46:Q47"/>
-    <mergeCell ref="V46:AW47"/>
+    <mergeCell ref="AN70:AO71"/>
+    <mergeCell ref="B73:G79"/>
+    <mergeCell ref="H73:AW79"/>
+    <mergeCell ref="V70:AA71"/>
+    <mergeCell ref="AB70:AE71"/>
+    <mergeCell ref="AF70:AG71"/>
+    <mergeCell ref="AH70:AI71"/>
+    <mergeCell ref="AJ70:AK71"/>
+    <mergeCell ref="AL70:AM71"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="H67:J68"/>
+    <mergeCell ref="K67:S68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="B70:G71"/>
+    <mergeCell ref="H70:J71"/>
+    <mergeCell ref="K70:S71"/>
+    <mergeCell ref="T70:U71"/>
+    <mergeCell ref="AB65:AE66"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="H65:J66"/>
+    <mergeCell ref="K65:S66"/>
+    <mergeCell ref="T65:U66"/>
+    <mergeCell ref="V65:AA66"/>
+    <mergeCell ref="AF65:AG66"/>
+    <mergeCell ref="AH65:AI66"/>
+    <mergeCell ref="AJ65:AK66"/>
+    <mergeCell ref="AL65:AM66"/>
+    <mergeCell ref="AN65:AO66"/>
+    <mergeCell ref="AF63:AG64"/>
+    <mergeCell ref="AH63:AI64"/>
+    <mergeCell ref="AJ63:AK64"/>
+    <mergeCell ref="AL63:AM64"/>
+    <mergeCell ref="AN63:AO64"/>
+    <mergeCell ref="B63:G64"/>
+    <mergeCell ref="H63:J64"/>
+    <mergeCell ref="K63:S64"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="V63:AA64"/>
+    <mergeCell ref="AB63:AE64"/>
+    <mergeCell ref="AB60:AE61"/>
+    <mergeCell ref="AF60:AG61"/>
+    <mergeCell ref="AH60:AI61"/>
+    <mergeCell ref="AJ60:AK61"/>
+    <mergeCell ref="AL60:AM61"/>
+    <mergeCell ref="AN60:AO61"/>
+    <mergeCell ref="AL58:AM59"/>
+    <mergeCell ref="AN58:AO59"/>
+    <mergeCell ref="B60:G61"/>
+    <mergeCell ref="H60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="P60:Q61"/>
+    <mergeCell ref="R60:S61"/>
+    <mergeCell ref="T60:U61"/>
+    <mergeCell ref="V60:AA61"/>
+    <mergeCell ref="T58:U59"/>
+    <mergeCell ref="V58:AA59"/>
+    <mergeCell ref="AB58:AE59"/>
+    <mergeCell ref="AF58:AG59"/>
+    <mergeCell ref="AH58:AI59"/>
+    <mergeCell ref="AJ58:AK59"/>
+    <mergeCell ref="B58:G59"/>
+    <mergeCell ref="H58:K59"/>
+    <mergeCell ref="L58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="P58:Q59"/>
     <mergeCell ref="R58:S59"/>
     <mergeCell ref="B52:G55"/>
     <mergeCell ref="H52:K53"/>
@@ -11030,72 +10996,108 @@
     <mergeCell ref="AM42:AU43"/>
     <mergeCell ref="AV42:AW43"/>
     <mergeCell ref="D40:G41"/>
-    <mergeCell ref="AJ60:AK61"/>
-    <mergeCell ref="AL60:AM61"/>
-    <mergeCell ref="AN60:AO61"/>
-    <mergeCell ref="AL58:AM59"/>
-    <mergeCell ref="AN58:AO59"/>
-    <mergeCell ref="B60:G61"/>
-    <mergeCell ref="H60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="P60:Q61"/>
-    <mergeCell ref="R60:S61"/>
-    <mergeCell ref="T60:U61"/>
-    <mergeCell ref="V60:AA61"/>
-    <mergeCell ref="T58:U59"/>
-    <mergeCell ref="V58:AA59"/>
-    <mergeCell ref="AB58:AE59"/>
-    <mergeCell ref="AF58:AG59"/>
-    <mergeCell ref="AH58:AI59"/>
-    <mergeCell ref="AJ58:AK59"/>
-    <mergeCell ref="B58:G59"/>
-    <mergeCell ref="H58:K59"/>
-    <mergeCell ref="L58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="P58:Q59"/>
-    <mergeCell ref="B63:G64"/>
-    <mergeCell ref="H63:J64"/>
-    <mergeCell ref="K63:S64"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="V63:AA64"/>
-    <mergeCell ref="AB63:AE64"/>
-    <mergeCell ref="AB60:AE61"/>
-    <mergeCell ref="AF60:AG61"/>
-    <mergeCell ref="AH60:AI61"/>
-    <mergeCell ref="AF65:AG66"/>
-    <mergeCell ref="AH65:AI66"/>
-    <mergeCell ref="AJ65:AK66"/>
-    <mergeCell ref="AL65:AM66"/>
-    <mergeCell ref="AN65:AO66"/>
-    <mergeCell ref="AF63:AG64"/>
-    <mergeCell ref="AH63:AI64"/>
-    <mergeCell ref="AJ63:AK64"/>
-    <mergeCell ref="AL63:AM64"/>
-    <mergeCell ref="AN63:AO64"/>
-    <mergeCell ref="B67:G68"/>
-    <mergeCell ref="H67:J68"/>
-    <mergeCell ref="K67:S68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="B70:G71"/>
-    <mergeCell ref="H70:J71"/>
-    <mergeCell ref="K70:S71"/>
-    <mergeCell ref="T70:U71"/>
-    <mergeCell ref="AB65:AE66"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="H65:J66"/>
-    <mergeCell ref="K65:S66"/>
-    <mergeCell ref="T65:U66"/>
-    <mergeCell ref="V65:AA66"/>
-    <mergeCell ref="AN70:AO71"/>
-    <mergeCell ref="B73:G79"/>
-    <mergeCell ref="H73:AW79"/>
-    <mergeCell ref="V70:AA71"/>
-    <mergeCell ref="AB70:AE71"/>
-    <mergeCell ref="AF70:AG71"/>
-    <mergeCell ref="AH70:AI71"/>
-    <mergeCell ref="AJ70:AK71"/>
-    <mergeCell ref="AL70:AM71"/>
+    <mergeCell ref="BE45:BF45"/>
+    <mergeCell ref="D46:G47"/>
+    <mergeCell ref="R46:U47"/>
+    <mergeCell ref="V44:W45"/>
+    <mergeCell ref="X44:AA45"/>
+    <mergeCell ref="AB44:AC45"/>
+    <mergeCell ref="AD44:AE45"/>
+    <mergeCell ref="AF44:AG45"/>
+    <mergeCell ref="AH44:AI45"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="L44:M45"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="AJ44:AL45"/>
+    <mergeCell ref="AM44:AM45"/>
+    <mergeCell ref="AN44:AV45"/>
+    <mergeCell ref="AW44:AW45"/>
+    <mergeCell ref="H46:Q47"/>
+    <mergeCell ref="V46:AW47"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="K40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:W41"/>
+    <mergeCell ref="X40:AF41"/>
+    <mergeCell ref="AI42:AL43"/>
+    <mergeCell ref="D42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="K42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:W43"/>
+    <mergeCell ref="T38:W39"/>
+    <mergeCell ref="X38:AF39"/>
+    <mergeCell ref="AG38:AH39"/>
+    <mergeCell ref="AI38:AL39"/>
+    <mergeCell ref="AM38:AU39"/>
+    <mergeCell ref="AV38:AW39"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:N36"/>
+    <mergeCell ref="O35:R36"/>
+    <mergeCell ref="S35:Y36"/>
+    <mergeCell ref="Z35:AW36"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="H26:AH27"/>
+    <mergeCell ref="AI26:AL27"/>
+    <mergeCell ref="AM26:AW27"/>
+    <mergeCell ref="B29:C36"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:AW30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H31:AD32"/>
+    <mergeCell ref="AE31:AH32"/>
+    <mergeCell ref="AI31:AJ32"/>
+    <mergeCell ref="AK31:AN32"/>
+    <mergeCell ref="AO31:AP32"/>
+    <mergeCell ref="AQ31:AT32"/>
+    <mergeCell ref="AU31:AW32"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:AD34"/>
+    <mergeCell ref="AE33:AH34"/>
+    <mergeCell ref="AI33:AU34"/>
+    <mergeCell ref="AV33:AW34"/>
+    <mergeCell ref="H24:AW25"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:AH19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AM18:AW19"/>
+    <mergeCell ref="D20:G21"/>
+    <mergeCell ref="H20:AW21"/>
+    <mergeCell ref="B22:C25"/>
+    <mergeCell ref="D22:G23"/>
+    <mergeCell ref="H22:AH23"/>
+    <mergeCell ref="AI22:AL23"/>
+    <mergeCell ref="AM22:AW23"/>
+    <mergeCell ref="D24:G25"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="H16:T17"/>
+    <mergeCell ref="U16:Z17"/>
+    <mergeCell ref="AA16:AM17"/>
+    <mergeCell ref="AV2:AW3"/>
+    <mergeCell ref="A6:AX9"/>
+    <mergeCell ref="AL10:AQ11"/>
+    <mergeCell ref="AR10:AW11"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="H14:T15"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="AK2:AM3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AR2:AS3"/>
+    <mergeCell ref="AT2:AU3"/>
+    <mergeCell ref="AN16:AP17"/>
+    <mergeCell ref="AQ16:AW17"/>
+    <mergeCell ref="U14:Z15"/>
+    <mergeCell ref="AA14:AD15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">

--- a/template/取引成立台帳（賃貸）.xlsx
+++ b/template/取引成立台帳（賃貸）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatsuya\Desktop\work\00_Wavesync\24_不動産管理システム\00_source\backend\kbs_backend\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayane\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E367FF-D524-4C1C-AA75-B339C5CF310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF5D80-1F7B-4B16-80CA-8CCB232039A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取引成立台帳_テンプレート" sheetId="8" r:id="rId1"/>
@@ -11107,8 +11107,8 @@
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.51181102362204722" right="0.47244094488188981" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.11811023622047245" right="0" top="0.39370078740157483" bottom="0.11811023622047245" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="88" max="126" man="1"/>
   </rowBreaks>
